--- a/assets/All Classes.xlsx
+++ b/assets/All Classes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="107">
   <si>
     <t>Macros</t>
   </si>
@@ -52,7 +52,73 @@
     <t>premiere</t>
   </si>
   <si>
-    <t>1MB</t>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>Français</t>
+  </si>
+  <si>
+    <t>Allemand</t>
+  </si>
+  <si>
+    <t>Chimie</t>
+  </si>
+  <si>
+    <t>Mathématiques</t>
+  </si>
+  <si>
+    <t>Physique</t>
+  </si>
+  <si>
+    <t>Anglais</t>
+  </si>
+  <si>
+    <t>SciNa</t>
+  </si>
+  <si>
+    <t>4e langue</t>
+  </si>
+  <si>
+    <t>Histoire</t>
+  </si>
+  <si>
+    <t>Philosophie</t>
+  </si>
+  <si>
+    <t>VieSo</t>
+  </si>
+  <si>
+    <t>Géographie</t>
+  </si>
+  <si>
+    <t>Economie</t>
+  </si>
+  <si>
+    <t>Artistique</t>
+  </si>
+  <si>
+    <t>Informatique</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>EduMusic</t>
+  </si>
+  <si>
+    <t>EduArt&amp;Music</t>
+  </si>
+  <si>
+    <t>EduPhys</t>
+  </si>
+  <si>
+    <t>Luxembourgeois</t>
+  </si>
+  <si>
+    <t>EduCitoyen</t>
+  </si>
+  <si>
+    <t>1B</t>
   </si>
   <si>
     <t>Mathé2/Info</t>
@@ -61,88 +127,88 @@
     <t>Mathématiques 2</t>
   </si>
   <si>
-    <t>Allemand</t>
-  </si>
-  <si>
-    <t>Chimie</t>
-  </si>
-  <si>
-    <t>Informatique</t>
-  </si>
-  <si>
-    <t>Mathématiques</t>
-  </si>
-  <si>
-    <t>Physique</t>
-  </si>
-  <si>
-    <t>Français</t>
-  </si>
-  <si>
-    <t>SciNa</t>
-  </si>
-  <si>
-    <t>Histoire</t>
-  </si>
-  <si>
-    <t>Anglais</t>
-  </si>
-  <si>
-    <t>VieSo</t>
-  </si>
-  <si>
-    <t>Mathématiques 1</t>
-  </si>
-  <si>
-    <t>Géographie</t>
-  </si>
-  <si>
-    <t>Artistique</t>
-  </si>
-  <si>
-    <t>EduMusic</t>
-  </si>
-  <si>
-    <t>EduArt&amp;Music</t>
-  </si>
-  <si>
-    <t>Histo/Civique</t>
-  </si>
-  <si>
-    <t>Luxembourgeois</t>
-  </si>
-  <si>
-    <t>EduCitoyen</t>
-  </si>
-  <si>
-    <t>Philosophie</t>
-  </si>
-  <si>
-    <t>EduPhys</t>
-  </si>
-  <si>
-    <t>Option</t>
-  </si>
-  <si>
     <t>6C</t>
   </si>
   <si>
     <t>Latin</t>
   </si>
   <si>
+    <t>Mathématiques 1</t>
+  </si>
+  <si>
+    <t>Histo/Eco</t>
+  </si>
+  <si>
     <t>6M</t>
+  </si>
+  <si>
+    <t>1C</t>
   </si>
   <si>
     <t>5C</t>
   </si>
   <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>EcoPol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Français </t>
+  </si>
+  <si>
     <t>Chimie/Physique</t>
+  </si>
+  <si>
+    <t>EcoGest</t>
+  </si>
+  <si>
+    <t>Philosphie</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>EduArt1</t>
+  </si>
+  <si>
+    <t>Dessin</t>
   </si>
   <si>
     <t>5M</t>
   </si>
   <si>
+    <t>Projets</t>
+  </si>
+  <si>
+    <t>EduArt2</t>
+  </si>
+  <si>
+    <t>Concep3D</t>
+  </si>
+  <si>
+    <t>DessinGeo</t>
+  </si>
+  <si>
+    <t>EduArt3</t>
+  </si>
+  <si>
     <t>4C</t>
+  </si>
+  <si>
+    <t>1F</t>
+  </si>
+  <si>
+    <t>EduMusic 1</t>
+  </si>
+  <si>
+    <t>EduMusic 2</t>
+  </si>
+  <si>
+    <t>EduMusic 3</t>
+  </si>
+  <si>
+    <t>EduArt</t>
   </si>
   <si>
     <t>4M</t>
@@ -172,16 +238,10 @@
     <t>3MD</t>
   </si>
   <si>
-    <t>Economie</t>
-  </si>
-  <si>
     <t>3CD</t>
   </si>
   <si>
     <t>3ME</t>
-  </si>
-  <si>
-    <t>Dessin</t>
   </si>
   <si>
     <t>Graphisme</t>
@@ -205,6 +265,9 @@
     <t>2CA</t>
   </si>
   <si>
+    <t>Histo/Civique</t>
+  </si>
+  <si>
     <t>Civique</t>
   </si>
   <si>
@@ -217,9 +280,6 @@
     <t>2CB</t>
   </si>
   <si>
-    <t xml:space="preserve">Français </t>
-  </si>
-  <si>
     <t>2MC</t>
   </si>
   <si>
@@ -227,12 +287,6 @@
   </si>
   <si>
     <t>2MD</t>
-  </si>
-  <si>
-    <t>EcoPol</t>
-  </si>
-  <si>
-    <t>Philosphie</t>
   </si>
   <si>
     <t>2CD</t>
@@ -254,12 +308,6 @@
   </si>
   <si>
     <t>2MF</t>
-  </si>
-  <si>
-    <t>EduMusic 1</t>
-  </si>
-  <si>
-    <t>EduMusic 2</t>
   </si>
   <si>
     <t>2CF</t>
@@ -384,13 +432,16 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <right/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -457,23 +508,32 @@
     <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="13" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,18 +682,14 @@
       <c r="R3" s="16">
         <v>4.0</v>
       </c>
-      <c r="S3" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" s="21">
-        <v>2.0</v>
-      </c>
+      <c r="S3" s="20"/>
+      <c r="T3" s="21"/>
     </row>
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
@@ -641,27 +697,25 @@
       <c r="H4" s="7"/>
       <c r="I4" s="17"/>
       <c r="J4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="22"/>
       <c r="L4" s="11"/>
       <c r="M4" s="12"/>
       <c r="O4" s="7"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="9"/>
+      <c r="Q4" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="R4" s="10"/>
-      <c r="S4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="21">
-        <v>1.0</v>
-      </c>
+      <c r="S4" s="20"/>
+      <c r="T4" s="21"/>
     </row>
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
@@ -669,7 +723,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K5" s="22"/>
       <c r="L5" s="11"/>
@@ -677,11 +731,9 @@
       <c r="O5" s="7"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="16">
-        <v>3.0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="R5" s="10"/>
       <c r="S5" s="11"/>
       <c r="T5" s="12"/>
     </row>
@@ -689,7 +741,7 @@
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="16">
         <v>3.0</v>
@@ -699,7 +751,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="17"/>
       <c r="J6" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="11"/>
@@ -707,7 +759,7 @@
       <c r="O6" s="7"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="11"/>
@@ -717,7 +769,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="16">
         <v>2.0</v>
@@ -727,7 +779,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="17"/>
       <c r="J7" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" s="24">
         <v>3.0</v>
@@ -737,9 +789,11 @@
       <c r="O7" s="7"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="R7" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="R7" s="16">
+        <v>3.0</v>
+      </c>
       <c r="S7" s="11"/>
       <c r="T7" s="12"/>
     </row>
@@ -747,7 +801,7 @@
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
@@ -755,7 +809,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="17"/>
       <c r="J8" s="18" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K8" s="25"/>
       <c r="L8" s="20"/>
@@ -763,9 +817,11 @@
       <c r="O8" s="7"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="R8" s="16">
+        <v>2.0</v>
+      </c>
       <c r="S8" s="11"/>
       <c r="T8" s="12"/>
     </row>
@@ -773,7 +829,7 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
@@ -781,17 +837,17 @@
       <c r="H9" s="7"/>
       <c r="I9" s="17"/>
       <c r="J9" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K9" s="25"/>
       <c r="L9" s="20"/>
       <c r="M9" s="12"/>
       <c r="O9" s="7"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="25"/>
+      <c r="Q9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="16"/>
       <c r="S9" s="20"/>
       <c r="T9" s="21"/>
     </row>
@@ -799,7 +855,7 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="16">
         <v>1.0</v>
@@ -809,7 +865,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="17"/>
       <c r="J10" s="18" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K10" s="24">
         <v>2.0</v>
@@ -818,10 +874,10 @@
       <c r="M10" s="12"/>
       <c r="O10" s="7"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="R10" s="22"/>
+      <c r="Q10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="16"/>
       <c r="S10" s="20"/>
       <c r="T10" s="21"/>
     </row>
@@ -829,7 +885,7 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
@@ -837,18 +893,18 @@
       <c r="H11" s="7"/>
       <c r="I11" s="17"/>
       <c r="J11" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K11" s="25"/>
       <c r="L11" s="11"/>
       <c r="M11" s="12"/>
       <c r="O11" s="7"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="R11" s="19">
-        <v>2.0</v>
+      <c r="Q11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="16">
+        <v>1.0</v>
       </c>
       <c r="S11" s="11"/>
       <c r="T11" s="12"/>
@@ -857,7 +913,7 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
@@ -865,25 +921,26 @@
       <c r="H12" s="7"/>
       <c r="I12" s="17"/>
       <c r="J12" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K12" s="25"/>
       <c r="L12" s="11"/>
       <c r="M12" s="12"/>
       <c r="O12" s="7"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="15" t="s">
-        <v>34</v>
-      </c>
+      <c r="Q12" s="15"/>
       <c r="R12" s="10"/>
       <c r="S12" s="11"/>
       <c r="T12" s="12"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
     </row>
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
@@ -891,19 +948,28 @@
       <c r="H13" s="7"/>
       <c r="I13" s="17"/>
       <c r="J13" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13" s="25"/>
       <c r="L13" s="11"/>
       <c r="M13" s="12"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="15" t="s">
+      <c r="P13" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="12"/>
+      <c r="R13" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="S13" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="V13" s="26"/>
     </row>
     <row r="14">
       <c r="A14" s="7"/>
@@ -915,7 +981,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="17"/>
       <c r="J14" s="18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K14" s="24">
         <v>1.0</v>
@@ -923,20 +989,21 @@
       <c r="L14" s="20"/>
       <c r="M14" s="12"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="R14" s="16">
+      <c r="P14" s="17"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" s="29">
         <v>1.0</v>
       </c>
-      <c r="S14" s="11"/>
-      <c r="T14" s="12"/>
+      <c r="V14" s="26"/>
     </row>
     <row r="15">
       <c r="A15" s="7"/>
       <c r="B15" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>8</v>
@@ -953,17 +1020,22 @@
       <c r="L15" s="11"/>
       <c r="M15" s="12"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="19"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" s="19">
+        <v>3.0</v>
+      </c>
       <c r="S15" s="11"/>
       <c r="T15" s="12"/>
+      <c r="V15" s="26"/>
     </row>
     <row r="16">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
@@ -975,17 +1047,21 @@
       <c r="L16" s="11"/>
       <c r="M16" s="12"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="10"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="25"/>
       <c r="S16" s="11"/>
       <c r="T16" s="12"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
     </row>
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
@@ -997,17 +1073,21 @@
       <c r="L17" s="11"/>
       <c r="M17" s="12"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="10"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="22"/>
       <c r="S17" s="11"/>
       <c r="T17" s="12"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
     </row>
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
@@ -1019,17 +1099,21 @@
       <c r="L18" s="11"/>
       <c r="M18" s="12"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="10"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" s="25"/>
       <c r="S18" s="11"/>
       <c r="T18" s="12"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
     </row>
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="16">
         <v>3.0</v>
@@ -1043,17 +1127,21 @@
       <c r="L19" s="11"/>
       <c r="M19" s="12"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="10"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="22"/>
       <c r="S19" s="11"/>
       <c r="T19" s="12"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
     </row>
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="16">
         <v>2.0</v>
@@ -1067,17 +1155,21 @@
       <c r="L20" s="11"/>
       <c r="M20" s="12"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="10"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20" s="22"/>
       <c r="S20" s="11"/>
       <c r="T20" s="12"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
     </row>
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
@@ -1089,9 +1181,13 @@
       <c r="L21" s="11"/>
       <c r="M21" s="12"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="10"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="R21" s="19">
+        <v>2.0</v>
+      </c>
       <c r="S21" s="11"/>
       <c r="T21" s="12"/>
     </row>
@@ -1099,7 +1195,7 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
@@ -1111,9 +1207,11 @@
       <c r="L22" s="11"/>
       <c r="M22" s="12"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="10"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" s="25"/>
       <c r="S22" s="11"/>
       <c r="T22" s="12"/>
     </row>
@@ -1121,7 +1219,7 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="16">
         <v>1.0</v>
@@ -1135,9 +1233,11 @@
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="10"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="R23" s="22"/>
       <c r="S23" s="11"/>
       <c r="T23" s="12"/>
     </row>
@@ -1145,7 +1245,7 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
@@ -1157,9 +1257,13 @@
       <c r="L24" s="11"/>
       <c r="M24" s="12"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="10"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24" s="19">
+        <v>1.0</v>
+      </c>
       <c r="S24" s="11"/>
       <c r="T24" s="12"/>
     </row>
@@ -1178,7 +1282,7 @@
       <c r="M25" s="12"/>
       <c r="O25" s="7"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="9"/>
+      <c r="Q25" s="15"/>
       <c r="R25" s="10"/>
       <c r="S25" s="11"/>
       <c r="T25" s="12"/>
@@ -1186,7 +1290,7 @@
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>8</v>
@@ -1203,9 +1307,15 @@
       <c r="L26" s="11"/>
       <c r="M26" s="12"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="10"/>
+      <c r="P26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R26" s="16">
+        <v>4.0</v>
+      </c>
       <c r="S26" s="11"/>
       <c r="T26" s="12"/>
     </row>
@@ -1213,7 +1323,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="11"/>
@@ -1226,8 +1336,12 @@
       <c r="M27" s="12"/>
       <c r="O27" s="7"/>
       <c r="P27" s="8"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="10"/>
+      <c r="Q27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" s="16">
+        <v>3.0</v>
+      </c>
       <c r="S27" s="11"/>
       <c r="T27" s="12"/>
     </row>
@@ -1235,7 +1349,7 @@
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="11"/>
@@ -1248,7 +1362,9 @@
       <c r="M28" s="12"/>
       <c r="O28" s="7"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="9"/>
+      <c r="Q28" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="R28" s="10"/>
       <c r="S28" s="11"/>
       <c r="T28" s="12"/>
@@ -1257,7 +1373,7 @@
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="11"/>
@@ -1270,7 +1386,9 @@
       <c r="M29" s="12"/>
       <c r="O29" s="7"/>
       <c r="P29" s="8"/>
-      <c r="Q29" s="9"/>
+      <c r="Q29" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="R29" s="10"/>
       <c r="S29" s="11"/>
       <c r="T29" s="12"/>
@@ -1279,7 +1397,7 @@
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D30" s="16">
         <v>3.0</v>
@@ -1294,7 +1412,9 @@
       <c r="M30" s="12"/>
       <c r="O30" s="7"/>
       <c r="P30" s="8"/>
-      <c r="Q30" s="9"/>
+      <c r="Q30" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="R30" s="10"/>
       <c r="S30" s="11"/>
       <c r="T30" s="12"/>
@@ -1303,7 +1423,7 @@
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="16">
         <v>2.0</v>
@@ -1318,7 +1438,9 @@
       <c r="M31" s="12"/>
       <c r="O31" s="7"/>
       <c r="P31" s="8"/>
-      <c r="Q31" s="9"/>
+      <c r="Q31" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="R31" s="10"/>
       <c r="S31" s="11"/>
       <c r="T31" s="12"/>
@@ -1327,7 +1449,7 @@
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
@@ -1340,7 +1462,9 @@
       <c r="M32" s="12"/>
       <c r="O32" s="7"/>
       <c r="P32" s="8"/>
-      <c r="Q32" s="9"/>
+      <c r="Q32" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="R32" s="10"/>
       <c r="S32" s="11"/>
       <c r="T32" s="12"/>
@@ -1349,7 +1473,7 @@
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
@@ -1362,8 +1486,12 @@
       <c r="M33" s="12"/>
       <c r="O33" s="7"/>
       <c r="P33" s="8"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="10"/>
+      <c r="Q33" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R33" s="16">
+        <v>2.0</v>
+      </c>
       <c r="S33" s="11"/>
       <c r="T33" s="12"/>
     </row>
@@ -1371,7 +1499,7 @@
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="16">
         <v>1.0</v>
@@ -1386,7 +1514,9 @@
       <c r="M34" s="12"/>
       <c r="O34" s="7"/>
       <c r="P34" s="8"/>
-      <c r="Q34" s="9"/>
+      <c r="Q34" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="R34" s="10"/>
       <c r="S34" s="11"/>
       <c r="T34" s="12"/>
@@ -1395,7 +1525,7 @@
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
@@ -1408,7 +1538,9 @@
       <c r="M35" s="12"/>
       <c r="O35" s="7"/>
       <c r="P35" s="8"/>
-      <c r="Q35" s="9"/>
+      <c r="Q35" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="R35" s="10"/>
       <c r="S35" s="11"/>
       <c r="T35" s="12"/>
@@ -1428,15 +1560,19 @@
       <c r="M36" s="12"/>
       <c r="O36" s="7"/>
       <c r="P36" s="8"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="10"/>
+      <c r="Q36" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R36" s="16">
+        <v>1.0</v>
+      </c>
       <c r="S36" s="11"/>
       <c r="T36" s="12"/>
     </row>
     <row r="37">
       <c r="A37" s="7"/>
       <c r="B37" s="14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>8</v>
@@ -1463,7 +1599,7 @@
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
@@ -1475,9 +1611,15 @@
       <c r="L38" s="11"/>
       <c r="M38" s="12"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="10"/>
+      <c r="P38" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q38" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="R38" s="16">
+        <v>4.0</v>
+      </c>
       <c r="S38" s="11"/>
       <c r="T38" s="12"/>
     </row>
@@ -1485,7 +1627,7 @@
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
@@ -1498,8 +1640,12 @@
       <c r="M39" s="12"/>
       <c r="O39" s="7"/>
       <c r="P39" s="8"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="10"/>
+      <c r="Q39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="R39" s="16">
+        <v>3.0</v>
+      </c>
       <c r="S39" s="11"/>
       <c r="T39" s="12"/>
     </row>
@@ -1507,7 +1653,7 @@
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
@@ -1520,7 +1666,9 @@
       <c r="M40" s="12"/>
       <c r="O40" s="7"/>
       <c r="P40" s="8"/>
-      <c r="Q40" s="9"/>
+      <c r="Q40" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="R40" s="10"/>
       <c r="S40" s="11"/>
       <c r="T40" s="12"/>
@@ -1529,7 +1677,7 @@
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
@@ -1542,7 +1690,9 @@
       <c r="M41" s="12"/>
       <c r="O41" s="7"/>
       <c r="P41" s="8"/>
-      <c r="Q41" s="9"/>
+      <c r="Q41" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="R41" s="10"/>
       <c r="S41" s="11"/>
       <c r="T41" s="12"/>
@@ -1566,7 +1716,9 @@
       <c r="M42" s="12"/>
       <c r="O42" s="7"/>
       <c r="P42" s="8"/>
-      <c r="Q42" s="9"/>
+      <c r="Q42" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="R42" s="10"/>
       <c r="S42" s="11"/>
       <c r="T42" s="12"/>
@@ -1575,7 +1727,7 @@
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="15" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="11"/>
@@ -1588,16 +1740,18 @@
       <c r="M43" s="12"/>
       <c r="O43" s="7"/>
       <c r="P43" s="8"/>
-      <c r="Q43" s="9"/>
+      <c r="Q43" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="R43" s="10"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="12"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="21"/>
     </row>
     <row r="44">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="11"/>
@@ -1610,16 +1764,20 @@
       <c r="M44" s="12"/>
       <c r="O44" s="7"/>
       <c r="P44" s="8"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="12"/>
+      <c r="Q44" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="R44" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="S44" s="20"/>
+      <c r="T44" s="21"/>
     </row>
     <row r="45">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
@@ -1632,8 +1790,10 @@
       <c r="M45" s="12"/>
       <c r="O45" s="7"/>
       <c r="P45" s="8"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="10"/>
+      <c r="Q45" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="R45" s="22"/>
       <c r="S45" s="11"/>
       <c r="T45" s="12"/>
     </row>
@@ -1641,7 +1801,7 @@
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
@@ -1654,8 +1814,10 @@
       <c r="M46" s="12"/>
       <c r="O46" s="7"/>
       <c r="P46" s="8"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="10"/>
+      <c r="Q46" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="R46" s="25"/>
       <c r="S46" s="11"/>
       <c r="T46" s="12"/>
     </row>
@@ -1663,7 +1825,7 @@
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="11"/>
@@ -1676,8 +1838,12 @@
       <c r="M47" s="12"/>
       <c r="O47" s="7"/>
       <c r="P47" s="8"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="10"/>
+      <c r="Q47" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R47" s="24">
+        <v>1.0</v>
+      </c>
       <c r="S47" s="11"/>
       <c r="T47" s="12"/>
     </row>
@@ -1685,7 +1851,7 @@
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D48" s="16">
         <v>1.0</v>
@@ -1700,8 +1866,8 @@
       <c r="M48" s="12"/>
       <c r="O48" s="7"/>
       <c r="P48" s="8"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="10"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="16"/>
       <c r="S48" s="11"/>
       <c r="T48" s="12"/>
     </row>
@@ -1719,16 +1885,26 @@
       <c r="L49" s="11"/>
       <c r="M49" s="12"/>
       <c r="O49" s="7"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="12"/>
+      <c r="P49" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q49" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="R49" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="S49" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="T49" s="21">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="7"/>
       <c r="B50" s="14" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>8</v>
@@ -1748,14 +1924,18 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="10"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="12"/>
+      <c r="S50" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="T50" s="21">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
@@ -1768,16 +1948,24 @@
       <c r="M51" s="12"/>
       <c r="O51" s="7"/>
       <c r="P51" s="8"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="12"/>
+      <c r="Q51" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R51" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="S51" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="T51" s="21">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="11"/>
@@ -1792,14 +1980,18 @@
       <c r="P52" s="8"/>
       <c r="Q52" s="9"/>
       <c r="R52" s="10"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="12"/>
+      <c r="S52" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="T52" s="21">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="11"/>
@@ -1812,8 +2004,10 @@
       <c r="M53" s="12"/>
       <c r="O53" s="7"/>
       <c r="P53" s="8"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="10"/>
+      <c r="Q53" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="R53" s="16"/>
       <c r="S53" s="11"/>
       <c r="T53" s="12"/>
     </row>
@@ -1836,8 +2030,10 @@
       <c r="M54" s="12"/>
       <c r="O54" s="7"/>
       <c r="P54" s="8"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="10"/>
+      <c r="Q54" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="R54" s="16"/>
       <c r="S54" s="11"/>
       <c r="T54" s="12"/>
     </row>
@@ -1845,7 +2041,7 @@
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="15" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="11"/>
@@ -1858,7 +2054,9 @@
       <c r="M55" s="12"/>
       <c r="O55" s="7"/>
       <c r="P55" s="8"/>
-      <c r="Q55" s="9"/>
+      <c r="Q55" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="R55" s="10"/>
       <c r="S55" s="11"/>
       <c r="T55" s="12"/>
@@ -1867,7 +2065,7 @@
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="11"/>
@@ -1880,7 +2078,9 @@
       <c r="M56" s="12"/>
       <c r="O56" s="7"/>
       <c r="P56" s="8"/>
-      <c r="Q56" s="9"/>
+      <c r="Q56" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="R56" s="10"/>
       <c r="S56" s="11"/>
       <c r="T56" s="12"/>
@@ -1889,7 +2089,7 @@
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="11"/>
@@ -1902,8 +2102,12 @@
       <c r="M57" s="12"/>
       <c r="O57" s="7"/>
       <c r="P57" s="8"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="10"/>
+      <c r="Q57" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="R57" s="16">
+        <v>2.0</v>
+      </c>
       <c r="S57" s="11"/>
       <c r="T57" s="12"/>
     </row>
@@ -1911,7 +2115,7 @@
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="11"/>
@@ -1924,7 +2128,9 @@
       <c r="M58" s="12"/>
       <c r="O58" s="7"/>
       <c r="P58" s="8"/>
-      <c r="Q58" s="9"/>
+      <c r="Q58" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R58" s="10"/>
       <c r="S58" s="11"/>
       <c r="T58" s="12"/>
@@ -1933,7 +2139,7 @@
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="C59" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" s="16"/>
       <c r="E59" s="11"/>
@@ -1946,7 +2152,9 @@
       <c r="M59" s="12"/>
       <c r="O59" s="7"/>
       <c r="P59" s="8"/>
-      <c r="Q59" s="9"/>
+      <c r="Q59" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="R59" s="10"/>
       <c r="S59" s="11"/>
       <c r="T59" s="12"/>
@@ -1955,7 +2163,7 @@
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="C60" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D60" s="16">
         <v>1.0</v>
@@ -1970,7 +2178,9 @@
       <c r="M60" s="12"/>
       <c r="O60" s="7"/>
       <c r="P60" s="8"/>
-      <c r="Q60" s="9"/>
+      <c r="Q60" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="R60" s="10"/>
       <c r="S60" s="11"/>
       <c r="T60" s="12"/>
@@ -1990,15 +2200,19 @@
       <c r="M61" s="12"/>
       <c r="O61" s="7"/>
       <c r="P61" s="8"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="10"/>
+      <c r="Q61" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R61" s="16">
+        <v>1.0</v>
+      </c>
       <c r="S61" s="11"/>
       <c r="T61" s="12"/>
     </row>
     <row r="62">
       <c r="A62" s="7"/>
       <c r="B62" s="14" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>8</v>
@@ -2025,7 +2239,7 @@
       <c r="A63" s="7"/>
       <c r="B63" s="8"/>
       <c r="C63" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63" s="10"/>
       <c r="E63" s="11"/>
@@ -2037,9 +2251,15 @@
       <c r="L63" s="11"/>
       <c r="M63" s="12"/>
       <c r="O63" s="7"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="10"/>
+      <c r="P63" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q63" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R63" s="16">
+        <v>4.0</v>
+      </c>
       <c r="S63" s="11"/>
       <c r="T63" s="12"/>
     </row>
@@ -2047,7 +2267,7 @@
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="11"/>
@@ -2060,8 +2280,12 @@
       <c r="M64" s="12"/>
       <c r="O64" s="7"/>
       <c r="P64" s="8"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="10"/>
+      <c r="Q64" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="R64" s="16">
+        <v>3.0</v>
+      </c>
       <c r="S64" s="11"/>
       <c r="T64" s="12"/>
     </row>
@@ -2069,7 +2293,7 @@
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
       <c r="C65" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="11"/>
@@ -2082,7 +2306,9 @@
       <c r="M65" s="12"/>
       <c r="O65" s="7"/>
       <c r="P65" s="8"/>
-      <c r="Q65" s="9"/>
+      <c r="Q65" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="R65" s="10"/>
       <c r="S65" s="11"/>
       <c r="T65" s="12"/>
@@ -2091,7 +2317,7 @@
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
       <c r="C66" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="11"/>
@@ -2104,8 +2330,10 @@
       <c r="M66" s="12"/>
       <c r="O66" s="7"/>
       <c r="P66" s="8"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="10"/>
+      <c r="Q66" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="R66" s="16"/>
       <c r="S66" s="11"/>
       <c r="T66" s="12"/>
     </row>
@@ -2128,7 +2356,9 @@
       <c r="M67" s="12"/>
       <c r="O67" s="7"/>
       <c r="P67" s="8"/>
-      <c r="Q67" s="9"/>
+      <c r="Q67" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="R67" s="10"/>
       <c r="S67" s="11"/>
       <c r="T67" s="12"/>
@@ -2137,7 +2367,7 @@
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="C68" s="15" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D68" s="16"/>
       <c r="E68" s="11"/>
@@ -2150,7 +2380,9 @@
       <c r="M68" s="12"/>
       <c r="O68" s="7"/>
       <c r="P68" s="8"/>
-      <c r="Q68" s="9"/>
+      <c r="Q68" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="R68" s="10"/>
       <c r="S68" s="11"/>
       <c r="T68" s="12"/>
@@ -2159,7 +2391,7 @@
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="C69" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="11"/>
@@ -2172,8 +2404,12 @@
       <c r="M69" s="12"/>
       <c r="O69" s="7"/>
       <c r="P69" s="8"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="10"/>
+      <c r="Q69" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="R69" s="16">
+        <v>2.0</v>
+      </c>
       <c r="S69" s="11"/>
       <c r="T69" s="12"/>
     </row>
@@ -2181,7 +2417,7 @@
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
       <c r="C70" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D70" s="10"/>
       <c r="E70" s="11"/>
@@ -2194,7 +2430,9 @@
       <c r="M70" s="12"/>
       <c r="O70" s="7"/>
       <c r="P70" s="8"/>
-      <c r="Q70" s="9"/>
+      <c r="Q70" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R70" s="10"/>
       <c r="S70" s="11"/>
       <c r="T70" s="12"/>
@@ -2203,7 +2441,7 @@
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="C71" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="11"/>
@@ -2216,7 +2454,9 @@
       <c r="M71" s="12"/>
       <c r="O71" s="7"/>
       <c r="P71" s="8"/>
-      <c r="Q71" s="9"/>
+      <c r="Q71" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="R71" s="10"/>
       <c r="S71" s="11"/>
       <c r="T71" s="12"/>
@@ -2225,7 +2465,7 @@
       <c r="A72" s="7"/>
       <c r="B72" s="8"/>
       <c r="C72" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="11"/>
@@ -2238,8 +2478,10 @@
       <c r="M72" s="12"/>
       <c r="O72" s="7"/>
       <c r="P72" s="8"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="10"/>
+      <c r="Q72" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="R72" s="16"/>
       <c r="S72" s="11"/>
       <c r="T72" s="12"/>
     </row>
@@ -2247,7 +2489,7 @@
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="C73" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D73" s="16">
         <v>1.0</v>
@@ -2262,8 +2504,12 @@
       <c r="M73" s="12"/>
       <c r="O73" s="7"/>
       <c r="P73" s="8"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="10"/>
+      <c r="Q73" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R73" s="16">
+        <v>1.0</v>
+      </c>
       <c r="S73" s="11"/>
       <c r="T73" s="12"/>
     </row>
@@ -2290,7 +2536,7 @@
     <row r="75">
       <c r="A75" s="7"/>
       <c r="B75" s="14" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>8</v>
@@ -2317,7 +2563,7 @@
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="C76" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D76" s="10"/>
       <c r="E76" s="11"/>
@@ -2339,7 +2585,7 @@
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="C77" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D77" s="10"/>
       <c r="E77" s="11"/>
@@ -2361,7 +2607,7 @@
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="C78" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D78" s="10"/>
       <c r="E78" s="11"/>
@@ -2407,7 +2653,7 @@
       <c r="A80" s="7"/>
       <c r="B80" s="8"/>
       <c r="C80" s="15" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="11"/>
@@ -2429,7 +2675,7 @@
       <c r="A81" s="7"/>
       <c r="B81" s="8"/>
       <c r="C81" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="11"/>
@@ -2451,7 +2697,7 @@
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
       <c r="C82" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D82" s="10"/>
       <c r="E82" s="11"/>
@@ -2473,7 +2719,7 @@
       <c r="A83" s="7"/>
       <c r="B83" s="8"/>
       <c r="C83" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D83" s="10"/>
       <c r="E83" s="11"/>
@@ -2495,7 +2741,7 @@
       <c r="A84" s="7"/>
       <c r="B84" s="8"/>
       <c r="C84" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="11"/>
@@ -2517,7 +2763,7 @@
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
       <c r="C85" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D85" s="16">
         <v>1.0</v>
@@ -2560,7 +2806,7 @@
     <row r="87">
       <c r="A87" s="7"/>
       <c r="B87" s="14" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>8</v>
@@ -2587,7 +2833,7 @@
       <c r="A88" s="7"/>
       <c r="B88" s="8"/>
       <c r="C88" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D88" s="10"/>
       <c r="E88" s="11"/>
@@ -2609,7 +2855,7 @@
       <c r="A89" s="7"/>
       <c r="B89" s="8"/>
       <c r="C89" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D89" s="10"/>
       <c r="E89" s="11"/>
@@ -2631,7 +2877,7 @@
       <c r="A90" s="7"/>
       <c r="B90" s="8"/>
       <c r="C90" s="15" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D90" s="16">
         <v>3.0</v>
@@ -2655,7 +2901,7 @@
       <c r="A91" s="7"/>
       <c r="B91" s="8"/>
       <c r="C91" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D91" s="16">
         <v>2.0</v>
@@ -2701,7 +2947,7 @@
       <c r="A93" s="7"/>
       <c r="B93" s="8"/>
       <c r="C93" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D93" s="10"/>
       <c r="E93" s="11"/>
@@ -2723,7 +2969,7 @@
       <c r="A94" s="7"/>
       <c r="B94" s="8"/>
       <c r="C94" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D94" s="10"/>
       <c r="E94" s="11"/>
@@ -2745,7 +2991,7 @@
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
       <c r="C95" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D95" s="10"/>
       <c r="E95" s="11"/>
@@ -2767,7 +3013,7 @@
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
       <c r="C96" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D96" s="10"/>
       <c r="E96" s="11"/>
@@ -2789,7 +3035,7 @@
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
       <c r="C97" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" s="10"/>
       <c r="E97" s="11"/>
@@ -2811,7 +3057,7 @@
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
       <c r="C98" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D98" s="10"/>
       <c r="E98" s="11"/>
@@ -2833,7 +3079,7 @@
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
       <c r="C99" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D99" s="16">
         <v>1.0</v>
@@ -2876,7 +3122,7 @@
     <row r="101">
       <c r="A101" s="7"/>
       <c r="B101" s="14" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>8</v>
@@ -2903,7 +3149,7 @@
       <c r="A102" s="7"/>
       <c r="B102" s="8"/>
       <c r="C102" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D102" s="10"/>
       <c r="E102" s="11"/>
@@ -2925,7 +3171,7 @@
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
       <c r="C103" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D103" s="10"/>
       <c r="E103" s="11"/>
@@ -2947,7 +3193,7 @@
       <c r="A104" s="7"/>
       <c r="B104" s="8"/>
       <c r="C104" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D104" s="16">
         <v>3.0</v>
@@ -2971,7 +3217,7 @@
       <c r="A105" s="7"/>
       <c r="B105" s="8"/>
       <c r="C105" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D105" s="16">
         <v>2.0</v>
@@ -3017,7 +3263,7 @@
       <c r="A107" s="7"/>
       <c r="B107" s="8"/>
       <c r="C107" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D107" s="10"/>
       <c r="E107" s="11"/>
@@ -3039,7 +3285,7 @@
       <c r="A108" s="7"/>
       <c r="B108" s="8"/>
       <c r="C108" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D108" s="10"/>
       <c r="E108" s="11"/>
@@ -3061,7 +3307,7 @@
       <c r="A109" s="7"/>
       <c r="B109" s="8"/>
       <c r="C109" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D109" s="10"/>
       <c r="E109" s="11"/>
@@ -3083,7 +3329,7 @@
       <c r="A110" s="7"/>
       <c r="B110" s="8"/>
       <c r="C110" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D110" s="10"/>
       <c r="E110" s="11"/>
@@ -3105,7 +3351,7 @@
       <c r="A111" s="7"/>
       <c r="B111" s="8"/>
       <c r="C111" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111" s="10"/>
       <c r="E111" s="11"/>
@@ -3127,7 +3373,7 @@
       <c r="A112" s="7"/>
       <c r="B112" s="8"/>
       <c r="C112" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D112" s="10"/>
       <c r="E112" s="11"/>
@@ -3149,7 +3395,7 @@
       <c r="A113" s="7"/>
       <c r="B113" s="8"/>
       <c r="C113" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D113" s="16">
         <v>1.0</v>
@@ -3192,10 +3438,10 @@
     <row r="115">
       <c r="A115" s="7"/>
       <c r="B115" s="14" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D115" s="16">
         <v>4.0</v>
@@ -3219,7 +3465,7 @@
       <c r="A116" s="7"/>
       <c r="B116" s="8"/>
       <c r="C116" s="15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D116" s="16">
         <v>3.0</v>
@@ -3243,7 +3489,7 @@
       <c r="A117" s="7"/>
       <c r="B117" s="8"/>
       <c r="C117" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D117" s="10"/>
       <c r="E117" s="11"/>
@@ -3265,7 +3511,7 @@
       <c r="A118" s="7"/>
       <c r="B118" s="8"/>
       <c r="C118" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D118" s="10"/>
       <c r="E118" s="11"/>
@@ -3287,7 +3533,7 @@
       <c r="A119" s="7"/>
       <c r="B119" s="8"/>
       <c r="C119" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D119" s="10"/>
       <c r="E119" s="11"/>
@@ -3309,7 +3555,7 @@
       <c r="A120" s="7"/>
       <c r="B120" s="8"/>
       <c r="C120" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D120" s="10"/>
       <c r="E120" s="11"/>
@@ -3331,7 +3577,7 @@
       <c r="A121" s="7"/>
       <c r="B121" s="8"/>
       <c r="C121" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D121" s="16">
         <v>2.0</v>
@@ -3377,7 +3623,7 @@
       <c r="A123" s="7"/>
       <c r="B123" s="8"/>
       <c r="C123" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D123" s="10"/>
       <c r="E123" s="11"/>
@@ -3399,7 +3645,7 @@
       <c r="A124" s="7"/>
       <c r="B124" s="8"/>
       <c r="C124" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D124" s="10"/>
       <c r="E124" s="11"/>
@@ -3421,7 +3667,7 @@
       <c r="A125" s="7"/>
       <c r="B125" s="8"/>
       <c r="C125" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D125" s="10"/>
       <c r="E125" s="11"/>
@@ -3443,7 +3689,7 @@
       <c r="A126" s="7"/>
       <c r="B126" s="8"/>
       <c r="C126" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D126" s="16">
         <v>1.0</v>
@@ -3486,10 +3732,10 @@
     <row r="128">
       <c r="A128" s="7"/>
       <c r="B128" s="14" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D128" s="16">
         <v>4.0</v>
@@ -3513,7 +3759,7 @@
       <c r="A129" s="7"/>
       <c r="B129" s="8"/>
       <c r="C129" s="15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D129" s="16">
         <v>3.0</v>
@@ -3537,7 +3783,7 @@
       <c r="A130" s="7"/>
       <c r="B130" s="8"/>
       <c r="C130" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D130" s="10"/>
       <c r="E130" s="11"/>
@@ -3559,7 +3805,7 @@
       <c r="A131" s="7"/>
       <c r="B131" s="8"/>
       <c r="C131" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D131" s="10"/>
       <c r="E131" s="11"/>
@@ -3581,7 +3827,7 @@
       <c r="A132" s="7"/>
       <c r="B132" s="8"/>
       <c r="C132" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D132" s="10"/>
       <c r="E132" s="11"/>
@@ -3603,7 +3849,7 @@
       <c r="A133" s="7"/>
       <c r="B133" s="8"/>
       <c r="C133" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D133" s="10"/>
       <c r="E133" s="11"/>
@@ -3625,7 +3871,7 @@
       <c r="A134" s="7"/>
       <c r="B134" s="8"/>
       <c r="C134" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D134" s="10"/>
       <c r="E134" s="11"/>
@@ -3647,7 +3893,7 @@
       <c r="A135" s="7"/>
       <c r="B135" s="8"/>
       <c r="C135" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D135" s="16">
         <v>2.0</v>
@@ -3693,7 +3939,7 @@
       <c r="A137" s="7"/>
       <c r="B137" s="8"/>
       <c r="C137" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D137" s="10"/>
       <c r="E137" s="11"/>
@@ -3715,7 +3961,7 @@
       <c r="A138" s="7"/>
       <c r="B138" s="8"/>
       <c r="C138" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D138" s="10"/>
       <c r="E138" s="11"/>
@@ -3737,7 +3983,7 @@
       <c r="A139" s="7"/>
       <c r="B139" s="8"/>
       <c r="C139" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D139" s="16">
         <v>1.0</v>
@@ -3780,7 +4026,7 @@
     <row r="141">
       <c r="A141" s="7"/>
       <c r="B141" s="14" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>11</v>
@@ -3807,7 +4053,7 @@
       <c r="A142" s="7"/>
       <c r="B142" s="8"/>
       <c r="C142" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D142" s="16">
         <v>3.0</v>
@@ -3831,7 +4077,7 @@
       <c r="A143" s="7"/>
       <c r="B143" s="8"/>
       <c r="C143" s="15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D143" s="10"/>
       <c r="E143" s="11"/>
@@ -3853,7 +4099,7 @@
       <c r="A144" s="7"/>
       <c r="B144" s="8"/>
       <c r="C144" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D144" s="10"/>
       <c r="E144" s="11"/>
@@ -3875,7 +4121,7 @@
       <c r="A145" s="7"/>
       <c r="B145" s="8"/>
       <c r="C145" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D145" s="10"/>
       <c r="E145" s="11"/>
@@ -3897,7 +4143,7 @@
       <c r="A146" s="7"/>
       <c r="B146" s="8"/>
       <c r="C146" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D146" s="10"/>
       <c r="E146" s="11"/>
@@ -3919,7 +4165,7 @@
       <c r="A147" s="7"/>
       <c r="B147" s="8"/>
       <c r="C147" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D147" s="16"/>
       <c r="E147" s="11"/>
@@ -3941,7 +4187,7 @@
       <c r="A148" s="7"/>
       <c r="B148" s="8"/>
       <c r="C148" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D148" s="16">
         <v>2.0</v>
@@ -3965,7 +4211,7 @@
       <c r="A149" s="7"/>
       <c r="B149" s="8"/>
       <c r="C149" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D149" s="10"/>
       <c r="E149" s="11"/>
@@ -3987,7 +4233,7 @@
       <c r="A150" s="7"/>
       <c r="B150" s="8"/>
       <c r="C150" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D150" s="10"/>
       <c r="E150" s="11"/>
@@ -4009,7 +4255,7 @@
       <c r="A151" s="7"/>
       <c r="B151" s="8"/>
       <c r="C151" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D151" s="10"/>
       <c r="E151" s="11"/>
@@ -4031,7 +4277,7 @@
       <c r="A152" s="7"/>
       <c r="B152" s="8"/>
       <c r="C152" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D152" s="16">
         <v>1.0</v>
@@ -4074,7 +4320,7 @@
     <row r="154">
       <c r="A154" s="7"/>
       <c r="B154" s="14" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C154" s="15" t="s">
         <v>11</v>
@@ -4101,7 +4347,7 @@
       <c r="A155" s="7"/>
       <c r="B155" s="8"/>
       <c r="C155" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D155" s="16">
         <v>3.0</v>
@@ -4125,7 +4371,7 @@
       <c r="A156" s="7"/>
       <c r="B156" s="8"/>
       <c r="C156" s="15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D156" s="10"/>
       <c r="E156" s="11"/>
@@ -4147,7 +4393,7 @@
       <c r="A157" s="7"/>
       <c r="B157" s="8"/>
       <c r="C157" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D157" s="10"/>
       <c r="E157" s="11"/>
@@ -4169,7 +4415,7 @@
       <c r="A158" s="7"/>
       <c r="B158" s="8"/>
       <c r="C158" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D158" s="10"/>
       <c r="E158" s="11"/>
@@ -4191,7 +4437,7 @@
       <c r="A159" s="7"/>
       <c r="B159" s="8"/>
       <c r="C159" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D159" s="10"/>
       <c r="E159" s="11"/>
@@ -4213,7 +4459,7 @@
       <c r="A160" s="7"/>
       <c r="B160" s="8"/>
       <c r="C160" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D160" s="16"/>
       <c r="E160" s="11"/>
@@ -4235,7 +4481,7 @@
       <c r="A161" s="7"/>
       <c r="B161" s="8"/>
       <c r="C161" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D161" s="16"/>
       <c r="E161" s="11"/>
@@ -4257,7 +4503,7 @@
       <c r="A162" s="7"/>
       <c r="B162" s="8"/>
       <c r="C162" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D162" s="16">
         <v>2.0</v>
@@ -4281,7 +4527,7 @@
       <c r="A163" s="7"/>
       <c r="B163" s="8"/>
       <c r="C163" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D163" s="10"/>
       <c r="E163" s="11"/>
@@ -4303,7 +4549,7 @@
       <c r="A164" s="7"/>
       <c r="B164" s="8"/>
       <c r="C164" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D164" s="10"/>
       <c r="E164" s="11"/>
@@ -4325,7 +4571,7 @@
       <c r="A165" s="7"/>
       <c r="B165" s="8"/>
       <c r="C165" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D165" s="16">
         <v>1.0</v>
@@ -4368,10 +4614,10 @@
     <row r="167">
       <c r="A167" s="7"/>
       <c r="B167" s="14" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D167" s="16">
         <v>4.0</v>
@@ -4395,7 +4641,7 @@
       <c r="A168" s="7"/>
       <c r="B168" s="8"/>
       <c r="C168" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D168" s="16">
         <v>3.0</v>
@@ -4419,7 +4665,7 @@
       <c r="A169" s="7"/>
       <c r="B169" s="8"/>
       <c r="C169" s="15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D169" s="10"/>
       <c r="E169" s="11"/>
@@ -4441,7 +4687,7 @@
       <c r="A170" s="7"/>
       <c r="B170" s="8"/>
       <c r="C170" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D170" s="10"/>
       <c r="E170" s="11"/>
@@ -4463,7 +4709,7 @@
       <c r="A171" s="7"/>
       <c r="B171" s="8"/>
       <c r="C171" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D171" s="10"/>
       <c r="E171" s="11"/>
@@ -4485,7 +4731,7 @@
       <c r="A172" s="7"/>
       <c r="B172" s="8"/>
       <c r="C172" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D172" s="16">
         <v>2.0</v>
@@ -4509,7 +4755,7 @@
       <c r="A173" s="7"/>
       <c r="B173" s="8"/>
       <c r="C173" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D173" s="16"/>
       <c r="E173" s="11"/>
@@ -4553,7 +4799,7 @@
       <c r="A175" s="7"/>
       <c r="B175" s="8"/>
       <c r="C175" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D175" s="16"/>
       <c r="E175" s="11"/>
@@ -4575,7 +4821,7 @@
       <c r="A176" s="7"/>
       <c r="B176" s="8"/>
       <c r="C176" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D176" s="10"/>
       <c r="E176" s="11"/>
@@ -4597,7 +4843,7 @@
       <c r="A177" s="7"/>
       <c r="B177" s="8"/>
       <c r="C177" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D177" s="10"/>
       <c r="E177" s="11"/>
@@ -4619,7 +4865,7 @@
       <c r="A178" s="7"/>
       <c r="B178" s="8"/>
       <c r="C178" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D178" s="10"/>
       <c r="E178" s="11"/>
@@ -4641,7 +4887,7 @@
       <c r="A179" s="7"/>
       <c r="B179" s="8"/>
       <c r="C179" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D179" s="16">
         <v>1.0</v>
@@ -4684,10 +4930,10 @@
     <row r="181">
       <c r="A181" s="7"/>
       <c r="B181" s="14" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D181" s="16">
         <v>4.0</v>
@@ -4711,7 +4957,7 @@
       <c r="A182" s="7"/>
       <c r="B182" s="8"/>
       <c r="C182" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D182" s="16">
         <v>3.0</v>
@@ -4735,7 +4981,7 @@
       <c r="A183" s="7"/>
       <c r="B183" s="8"/>
       <c r="C183" s="15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D183" s="10"/>
       <c r="E183" s="11"/>
@@ -4757,7 +5003,7 @@
       <c r="A184" s="7"/>
       <c r="B184" s="8"/>
       <c r="C184" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D184" s="10"/>
       <c r="E184" s="11"/>
@@ -4779,7 +5025,7 @@
       <c r="A185" s="7"/>
       <c r="B185" s="8"/>
       <c r="C185" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D185" s="10"/>
       <c r="E185" s="11"/>
@@ -4801,7 +5047,7 @@
       <c r="A186" s="7"/>
       <c r="B186" s="8"/>
       <c r="C186" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D186" s="16"/>
       <c r="E186" s="11"/>
@@ -4823,7 +5069,7 @@
       <c r="A187" s="7"/>
       <c r="B187" s="8"/>
       <c r="C187" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D187" s="16">
         <v>2.0</v>
@@ -4847,7 +5093,7 @@
       <c r="A188" s="7"/>
       <c r="B188" s="8"/>
       <c r="C188" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D188" s="16"/>
       <c r="E188" s="11"/>
@@ -4891,7 +5137,7 @@
       <c r="A190" s="7"/>
       <c r="B190" s="8"/>
       <c r="C190" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D190" s="10"/>
       <c r="E190" s="11"/>
@@ -4913,7 +5159,7 @@
       <c r="A191" s="7"/>
       <c r="B191" s="8"/>
       <c r="C191" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D191" s="10"/>
       <c r="E191" s="11"/>
@@ -4935,7 +5181,7 @@
       <c r="A192" s="7"/>
       <c r="B192" s="8"/>
       <c r="C192" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D192" s="10"/>
       <c r="E192" s="11"/>
@@ -4957,7 +5203,7 @@
       <c r="A193" s="7"/>
       <c r="B193" s="8"/>
       <c r="C193" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D193" s="16">
         <v>1.0</v>
@@ -5000,16 +5246,16 @@
     <row r="195">
       <c r="A195" s="7"/>
       <c r="B195" s="14" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D195" s="16">
         <v>4.0</v>
       </c>
       <c r="E195" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F195" s="21">
         <v>1.25</v>
@@ -5033,7 +5279,7 @@
       <c r="C196" s="15"/>
       <c r="D196" s="16"/>
       <c r="E196" s="20" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F196" s="21">
         <v>1.25</v>
@@ -5057,7 +5303,7 @@
       <c r="C197" s="15"/>
       <c r="D197" s="16"/>
       <c r="E197" s="20" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F197" s="21">
         <v>1.25</v>
@@ -5079,7 +5325,7 @@
       <c r="A198" s="7"/>
       <c r="B198" s="8"/>
       <c r="C198" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D198" s="16">
         <v>3.0</v>
@@ -5103,7 +5349,7 @@
       <c r="A199" s="7"/>
       <c r="B199" s="8"/>
       <c r="C199" s="15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D199" s="10"/>
       <c r="E199" s="11"/>
@@ -5125,7 +5371,7 @@
       <c r="A200" s="7"/>
       <c r="B200" s="8"/>
       <c r="C200" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D200" s="10"/>
       <c r="E200" s="11"/>
@@ -5147,7 +5393,7 @@
       <c r="A201" s="7"/>
       <c r="B201" s="8"/>
       <c r="C201" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D201" s="10"/>
       <c r="E201" s="11"/>
@@ -5169,7 +5415,7 @@
       <c r="A202" s="7"/>
       <c r="B202" s="8"/>
       <c r="C202" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D202" s="16">
         <v>2.0</v>
@@ -5193,7 +5439,7 @@
       <c r="A203" s="7"/>
       <c r="B203" s="8"/>
       <c r="C203" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D203" s="16"/>
       <c r="E203" s="11"/>
@@ -5215,7 +5461,7 @@
       <c r="A204" s="7"/>
       <c r="B204" s="8"/>
       <c r="C204" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D204" s="16"/>
       <c r="E204" s="11"/>
@@ -5237,7 +5483,7 @@
       <c r="A205" s="7"/>
       <c r="B205" s="8"/>
       <c r="C205" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D205" s="10"/>
       <c r="E205" s="11"/>
@@ -5259,7 +5505,7 @@
       <c r="A206" s="7"/>
       <c r="B206" s="8"/>
       <c r="C206" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D206" s="10"/>
       <c r="E206" s="11"/>
@@ -5281,7 +5527,7 @@
       <c r="A207" s="7"/>
       <c r="B207" s="8"/>
       <c r="C207" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D207" s="10"/>
       <c r="E207" s="11"/>
@@ -5303,7 +5549,7 @@
       <c r="A208" s="7"/>
       <c r="B208" s="8"/>
       <c r="C208" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D208" s="16">
         <v>1.0</v>
@@ -5346,16 +5592,16 @@
     <row r="210">
       <c r="A210" s="7"/>
       <c r="B210" s="14" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C210" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D210" s="16">
         <v>4.0</v>
       </c>
       <c r="E210" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F210" s="21">
         <v>1.0</v>
@@ -5379,7 +5625,7 @@
       <c r="C211" s="15"/>
       <c r="D211" s="16"/>
       <c r="E211" s="20" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F211" s="21">
         <v>1.0</v>
@@ -5403,7 +5649,7 @@
       <c r="C212" s="15"/>
       <c r="D212" s="16"/>
       <c r="E212" s="20" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F212" s="21">
         <v>1.0</v>
@@ -5425,7 +5671,7 @@
       <c r="A213" s="7"/>
       <c r="B213" s="8"/>
       <c r="C213" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D213" s="16">
         <v>3.0</v>
@@ -5449,7 +5695,7 @@
       <c r="A214" s="7"/>
       <c r="B214" s="8"/>
       <c r="C214" s="15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D214" s="10"/>
       <c r="E214" s="11"/>
@@ -5471,7 +5717,7 @@
       <c r="A215" s="7"/>
       <c r="B215" s="8"/>
       <c r="C215" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D215" s="10"/>
       <c r="E215" s="11"/>
@@ -5493,7 +5739,7 @@
       <c r="A216" s="7"/>
       <c r="B216" s="8"/>
       <c r="C216" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D216" s="10"/>
       <c r="E216" s="11"/>
@@ -5515,7 +5761,7 @@
       <c r="A217" s="7"/>
       <c r="B217" s="8"/>
       <c r="C217" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D217" s="16"/>
       <c r="E217" s="11"/>
@@ -5537,7 +5783,7 @@
       <c r="A218" s="7"/>
       <c r="B218" s="8"/>
       <c r="C218" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D218" s="16">
         <v>2.0</v>
@@ -5561,7 +5807,7 @@
       <c r="A219" s="7"/>
       <c r="B219" s="8"/>
       <c r="C219" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D219" s="16"/>
       <c r="E219" s="11"/>
@@ -5583,7 +5829,7 @@
       <c r="A220" s="7"/>
       <c r="B220" s="8"/>
       <c r="C220" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D220" s="10"/>
       <c r="E220" s="11"/>
@@ -5605,7 +5851,7 @@
       <c r="A221" s="7"/>
       <c r="B221" s="8"/>
       <c r="C221" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D221" s="10"/>
       <c r="E221" s="11"/>
@@ -5627,7 +5873,7 @@
       <c r="A222" s="7"/>
       <c r="B222" s="8"/>
       <c r="C222" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D222" s="10"/>
       <c r="E222" s="11"/>
@@ -5649,7 +5895,7 @@
       <c r="A223" s="7"/>
       <c r="B223" s="8"/>
       <c r="C223" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D223" s="16">
         <v>1.0</v>
@@ -5692,10 +5938,10 @@
     <row r="225">
       <c r="A225" s="7"/>
       <c r="B225" s="14" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D225" s="16">
         <v>4.0</v>
@@ -5719,7 +5965,7 @@
       <c r="A226" s="7"/>
       <c r="B226" s="8"/>
       <c r="C226" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D226" s="16">
         <v>3.0</v>
@@ -5743,7 +5989,7 @@
       <c r="A227" s="7"/>
       <c r="B227" s="8"/>
       <c r="C227" s="15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D227" s="10"/>
       <c r="E227" s="11"/>
@@ -5765,7 +6011,7 @@
       <c r="A228" s="7"/>
       <c r="B228" s="8"/>
       <c r="C228" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D228" s="10"/>
       <c r="E228" s="11"/>
@@ -5787,7 +6033,7 @@
       <c r="A229" s="7"/>
       <c r="B229" s="8"/>
       <c r="C229" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D229" s="10"/>
       <c r="E229" s="11"/>
@@ -5809,7 +6055,7 @@
       <c r="A230" s="7"/>
       <c r="B230" s="8"/>
       <c r="C230" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D230" s="16">
         <v>2.0</v>
@@ -5833,7 +6079,7 @@
       <c r="A231" s="7"/>
       <c r="B231" s="8"/>
       <c r="C231" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D231" s="16"/>
       <c r="E231" s="11"/>
@@ -5855,7 +6101,7 @@
       <c r="A232" s="7"/>
       <c r="B232" s="8"/>
       <c r="C232" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D232" s="16"/>
       <c r="E232" s="11"/>
@@ -5877,7 +6123,7 @@
       <c r="A233" s="7"/>
       <c r="B233" s="8"/>
       <c r="C233" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D233" s="10"/>
       <c r="E233" s="11"/>
@@ -5899,7 +6145,7 @@
       <c r="A234" s="7"/>
       <c r="B234" s="8"/>
       <c r="C234" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D234" s="10"/>
       <c r="E234" s="11"/>
@@ -5921,7 +6167,7 @@
       <c r="A235" s="7"/>
       <c r="B235" s="8"/>
       <c r="C235" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D235" s="10"/>
       <c r="E235" s="11"/>
@@ -5943,7 +6189,7 @@
       <c r="A236" s="7"/>
       <c r="B236" s="8"/>
       <c r="C236" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D236" s="16">
         <v>1.0</v>
@@ -5986,10 +6232,10 @@
     <row r="238">
       <c r="A238" s="7"/>
       <c r="B238" s="14" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C238" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D238" s="16">
         <v>4.0</v>
@@ -6013,7 +6259,7 @@
       <c r="A239" s="7"/>
       <c r="B239" s="8"/>
       <c r="C239" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D239" s="16">
         <v>3.0</v>
@@ -6037,7 +6283,7 @@
       <c r="A240" s="7"/>
       <c r="B240" s="8"/>
       <c r="C240" s="15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D240" s="10"/>
       <c r="E240" s="11"/>
@@ -6059,7 +6305,7 @@
       <c r="A241" s="7"/>
       <c r="B241" s="8"/>
       <c r="C241" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D241" s="10"/>
       <c r="E241" s="11"/>
@@ -6081,7 +6327,7 @@
       <c r="A242" s="7"/>
       <c r="B242" s="8"/>
       <c r="C242" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D242" s="10"/>
       <c r="E242" s="11"/>
@@ -6103,7 +6349,7 @@
       <c r="A243" s="7"/>
       <c r="B243" s="8"/>
       <c r="C243" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D243" s="10"/>
       <c r="E243" s="11"/>
@@ -6125,7 +6371,7 @@
       <c r="A244" s="7"/>
       <c r="B244" s="8"/>
       <c r="C244" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D244" s="16">
         <v>2.0</v>
@@ -6149,7 +6395,7 @@
       <c r="A245" s="7"/>
       <c r="B245" s="8"/>
       <c r="C245" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D245" s="16"/>
       <c r="E245" s="11"/>
@@ -6171,7 +6417,7 @@
       <c r="A246" s="7"/>
       <c r="B246" s="8"/>
       <c r="C246" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D246" s="16"/>
       <c r="E246" s="11"/>
@@ -6193,7 +6439,7 @@
       <c r="A247" s="7"/>
       <c r="B247" s="8"/>
       <c r="C247" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D247" s="10"/>
       <c r="E247" s="11"/>
@@ -6215,7 +6461,7 @@
       <c r="A248" s="7"/>
       <c r="B248" s="8"/>
       <c r="C248" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D248" s="10"/>
       <c r="E248" s="11"/>
@@ -6237,7 +6483,7 @@
       <c r="A249" s="7"/>
       <c r="B249" s="8"/>
       <c r="C249" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D249" s="16">
         <v>1.0</v>
@@ -6280,10 +6526,10 @@
     <row r="251">
       <c r="A251" s="7"/>
       <c r="B251" s="14" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C251" s="15" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D251" s="16">
         <v>4.0</v>
@@ -6307,7 +6553,7 @@
       <c r="A252" s="7"/>
       <c r="B252" s="8"/>
       <c r="C252" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D252" s="16">
         <v>3.0</v>
@@ -6331,7 +6577,7 @@
       <c r="A253" s="7"/>
       <c r="B253" s="8"/>
       <c r="C253" s="15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D253" s="10"/>
       <c r="E253" s="11"/>
@@ -6353,7 +6599,7 @@
       <c r="A254" s="7"/>
       <c r="B254" s="8"/>
       <c r="C254" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D254" s="10"/>
       <c r="E254" s="11"/>
@@ -6375,7 +6621,7 @@
       <c r="A255" s="7"/>
       <c r="B255" s="8"/>
       <c r="C255" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D255" s="10"/>
       <c r="E255" s="11"/>
@@ -6397,7 +6643,7 @@
       <c r="A256" s="7"/>
       <c r="B256" s="8"/>
       <c r="C256" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D256" s="16">
         <v>2.0</v>
@@ -6421,7 +6667,7 @@
       <c r="A257" s="7"/>
       <c r="B257" s="8"/>
       <c r="C257" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D257" s="16"/>
       <c r="E257" s="11"/>
@@ -6465,7 +6711,7 @@
       <c r="A259" s="7"/>
       <c r="B259" s="8"/>
       <c r="C259" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D259" s="16"/>
       <c r="E259" s="11"/>
@@ -6487,7 +6733,7 @@
       <c r="A260" s="7"/>
       <c r="B260" s="8"/>
       <c r="C260" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D260" s="10"/>
       <c r="E260" s="11"/>
@@ -6509,7 +6755,7 @@
       <c r="A261" s="7"/>
       <c r="B261" s="8"/>
       <c r="C261" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D261" s="10"/>
       <c r="E261" s="11"/>
@@ -6531,7 +6777,7 @@
       <c r="A262" s="7"/>
       <c r="B262" s="8"/>
       <c r="C262" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D262" s="10"/>
       <c r="E262" s="11"/>
@@ -6553,7 +6799,7 @@
       <c r="A263" s="7"/>
       <c r="B263" s="8"/>
       <c r="C263" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D263" s="10"/>
       <c r="E263" s="11"/>
@@ -6575,7 +6821,7 @@
       <c r="A264" s="7"/>
       <c r="B264" s="8"/>
       <c r="C264" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D264" s="16">
         <v>1.0</v>
@@ -6618,10 +6864,10 @@
     <row r="266">
       <c r="A266" s="7"/>
       <c r="B266" s="14" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C266" s="15" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D266" s="16">
         <v>4.0</v>
@@ -6645,7 +6891,7 @@
       <c r="A267" s="7"/>
       <c r="B267" s="8"/>
       <c r="C267" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D267" s="16">
         <v>3.0</v>
@@ -6669,7 +6915,7 @@
       <c r="A268" s="7"/>
       <c r="B268" s="8"/>
       <c r="C268" s="15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D268" s="10"/>
       <c r="E268" s="11"/>
@@ -6691,7 +6937,7 @@
       <c r="A269" s="7"/>
       <c r="B269" s="8"/>
       <c r="C269" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D269" s="10"/>
       <c r="E269" s="11"/>
@@ -6713,7 +6959,7 @@
       <c r="A270" s="7"/>
       <c r="B270" s="8"/>
       <c r="C270" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D270" s="10"/>
       <c r="E270" s="11"/>
@@ -6735,7 +6981,7 @@
       <c r="A271" s="7"/>
       <c r="B271" s="8"/>
       <c r="C271" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D271" s="16"/>
       <c r="E271" s="11"/>
@@ -6757,7 +7003,7 @@
       <c r="A272" s="7"/>
       <c r="B272" s="8"/>
       <c r="C272" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D272" s="16">
         <v>2.0</v>
@@ -6781,7 +7027,7 @@
       <c r="A273" s="7"/>
       <c r="B273" s="8"/>
       <c r="C273" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D273" s="16"/>
       <c r="E273" s="11"/>
@@ -6825,7 +7071,7 @@
       <c r="A275" s="7"/>
       <c r="B275" s="8"/>
       <c r="C275" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D275" s="10"/>
       <c r="E275" s="11"/>
@@ -6847,7 +7093,7 @@
       <c r="A276" s="7"/>
       <c r="B276" s="8"/>
       <c r="C276" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D276" s="10"/>
       <c r="E276" s="11"/>
@@ -6869,7 +7115,7 @@
       <c r="A277" s="7"/>
       <c r="B277" s="8"/>
       <c r="C277" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D277" s="10"/>
       <c r="E277" s="11"/>
@@ -6891,7 +7137,7 @@
       <c r="A278" s="7"/>
       <c r="B278" s="8"/>
       <c r="C278" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D278" s="10"/>
       <c r="E278" s="11"/>
@@ -6913,7 +7159,7 @@
       <c r="A279" s="7"/>
       <c r="B279" s="8"/>
       <c r="C279" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D279" s="16">
         <v>1.0</v>
@@ -6956,7 +7202,7 @@
     <row r="281">
       <c r="A281" s="7"/>
       <c r="B281" s="14" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C281" s="15" t="s">
         <v>8</v>
@@ -6983,7 +7229,7 @@
       <c r="A282" s="7"/>
       <c r="B282" s="8"/>
       <c r="C282" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D282" s="10"/>
       <c r="E282" s="11"/>
@@ -7005,7 +7251,7 @@
       <c r="A283" s="7"/>
       <c r="B283" s="8"/>
       <c r="C283" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D283" s="10"/>
       <c r="E283" s="11"/>
@@ -7027,7 +7273,7 @@
       <c r="A284" s="7"/>
       <c r="B284" s="8"/>
       <c r="C284" s="15" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D284" s="16">
         <v>3.0</v>
@@ -7051,11 +7297,11 @@
       <c r="A285" s="7"/>
       <c r="B285" s="8"/>
       <c r="C285" s="15" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D285" s="16"/>
       <c r="E285" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F285" s="21">
         <v>2.0</v>
@@ -7079,7 +7325,7 @@
       <c r="C286" s="15"/>
       <c r="D286" s="16"/>
       <c r="E286" s="20" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F286" s="21">
         <v>1.0</v>
@@ -7101,7 +7347,7 @@
       <c r="A287" s="7"/>
       <c r="B287" s="8"/>
       <c r="C287" s="15" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D287" s="16">
         <v>2.0</v>
@@ -7125,7 +7371,7 @@
       <c r="A288" s="7"/>
       <c r="B288" s="8"/>
       <c r="C288" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D288" s="10"/>
       <c r="E288" s="11"/>
@@ -7147,7 +7393,7 @@
       <c r="A289" s="7"/>
       <c r="B289" s="8"/>
       <c r="C289" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D289" s="10"/>
       <c r="E289" s="11"/>
@@ -7169,7 +7415,7 @@
       <c r="A290" s="7"/>
       <c r="B290" s="8"/>
       <c r="C290" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D290" s="10"/>
       <c r="E290" s="11"/>
@@ -7191,7 +7437,7 @@
       <c r="A291" s="7"/>
       <c r="B291" s="8"/>
       <c r="C291" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D291" s="16">
         <v>1.0</v>
@@ -7234,7 +7480,7 @@
     <row r="293">
       <c r="A293" s="7"/>
       <c r="B293" s="14" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C293" s="15" t="s">
         <v>8</v>
@@ -7261,7 +7507,7 @@
       <c r="A294" s="7"/>
       <c r="B294" s="8"/>
       <c r="C294" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D294" s="10"/>
       <c r="E294" s="11"/>
@@ -7283,7 +7529,7 @@
       <c r="A295" s="7"/>
       <c r="B295" s="8"/>
       <c r="C295" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D295" s="10"/>
       <c r="E295" s="11"/>
@@ -7305,7 +7551,7 @@
       <c r="A296" s="7"/>
       <c r="B296" s="8"/>
       <c r="C296" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D296" s="16">
         <v>3.0</v>
@@ -7329,7 +7575,7 @@
       <c r="A297" s="7"/>
       <c r="B297" s="8"/>
       <c r="C297" s="15" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D297" s="16"/>
       <c r="E297" s="11"/>
@@ -7351,11 +7597,11 @@
       <c r="A298" s="7"/>
       <c r="B298" s="8"/>
       <c r="C298" s="15" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D298" s="16"/>
       <c r="E298" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F298" s="21">
         <v>2.0</v>
@@ -7379,7 +7625,7 @@
       <c r="C299" s="15"/>
       <c r="D299" s="16"/>
       <c r="E299" s="20" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F299" s="21">
         <v>1.0</v>
@@ -7401,7 +7647,7 @@
       <c r="A300" s="7"/>
       <c r="B300" s="8"/>
       <c r="C300" s="15" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D300" s="16">
         <v>2.0</v>
@@ -7425,7 +7671,7 @@
       <c r="A301" s="7"/>
       <c r="B301" s="8"/>
       <c r="C301" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D301" s="10"/>
       <c r="E301" s="11"/>
@@ -7447,7 +7693,7 @@
       <c r="A302" s="7"/>
       <c r="B302" s="8"/>
       <c r="C302" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D302" s="10"/>
       <c r="E302" s="11"/>
@@ -7469,7 +7715,7 @@
       <c r="A303" s="7"/>
       <c r="B303" s="8"/>
       <c r="C303" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D303" s="16">
         <v>1.0</v>
@@ -7512,16 +7758,16 @@
     <row r="305">
       <c r="A305" s="7"/>
       <c r="B305" s="14" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C305" s="15" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D305" s="16">
         <v>4.0</v>
       </c>
       <c r="E305" s="20" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F305" s="21">
         <v>3.0</v>
@@ -7545,7 +7791,7 @@
       <c r="C306" s="9"/>
       <c r="D306" s="10"/>
       <c r="E306" s="20" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F306" s="21">
         <v>1.0</v>
@@ -7567,7 +7813,7 @@
       <c r="A307" s="7"/>
       <c r="B307" s="8"/>
       <c r="C307" s="15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D307" s="16">
         <v>3.0</v>
@@ -7591,7 +7837,7 @@
       <c r="A308" s="7"/>
       <c r="B308" s="8"/>
       <c r="C308" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D308" s="10"/>
       <c r="E308" s="11"/>
@@ -7613,7 +7859,7 @@
       <c r="A309" s="7"/>
       <c r="B309" s="8"/>
       <c r="C309" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D309" s="10"/>
       <c r="E309" s="11"/>
@@ -7635,7 +7881,7 @@
       <c r="A310" s="7"/>
       <c r="B310" s="8"/>
       <c r="C310" s="15" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D310" s="10"/>
       <c r="E310" s="11"/>
@@ -7657,11 +7903,11 @@
       <c r="A311" s="7"/>
       <c r="B311" s="8"/>
       <c r="C311" s="15" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D311" s="10"/>
       <c r="E311" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F311" s="21">
         <v>2.0</v>
@@ -7685,7 +7931,7 @@
       <c r="C312" s="9"/>
       <c r="D312" s="10"/>
       <c r="E312" s="20" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F312" s="21">
         <v>1.0</v>
@@ -7707,7 +7953,7 @@
       <c r="A313" s="7"/>
       <c r="B313" s="8"/>
       <c r="C313" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D313" s="10"/>
       <c r="E313" s="11"/>
@@ -7729,7 +7975,7 @@
       <c r="A314" s="7"/>
       <c r="B314" s="8"/>
       <c r="C314" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D314" s="10"/>
       <c r="E314" s="11"/>
@@ -7751,7 +7997,7 @@
       <c r="A315" s="7"/>
       <c r="B315" s="8"/>
       <c r="C315" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D315" s="16">
         <v>2.0</v>
@@ -7775,7 +8021,7 @@
       <c r="A316" s="7"/>
       <c r="B316" s="8"/>
       <c r="C316" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D316" s="16">
         <v>1.0</v>
@@ -7818,16 +8064,16 @@
     <row r="318">
       <c r="A318" s="7"/>
       <c r="B318" s="14" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D318" s="16">
         <v>4.0</v>
       </c>
       <c r="E318" s="20" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F318" s="21">
         <v>3.0</v>
@@ -7851,7 +8097,7 @@
       <c r="C319" s="9"/>
       <c r="D319" s="10"/>
       <c r="E319" s="20" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F319" s="21">
         <v>1.0</v>
@@ -7873,7 +8119,7 @@
       <c r="A320" s="7"/>
       <c r="B320" s="8"/>
       <c r="C320" s="15" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D320" s="16">
         <v>3.0</v>
@@ -7897,7 +8143,7 @@
       <c r="A321" s="7"/>
       <c r="B321" s="8"/>
       <c r="C321" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D321" s="10"/>
       <c r="E321" s="11"/>
@@ -7919,7 +8165,7 @@
       <c r="A322" s="7"/>
       <c r="B322" s="8"/>
       <c r="C322" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D322" s="10"/>
       <c r="E322" s="11"/>
@@ -7941,7 +8187,7 @@
       <c r="A323" s="7"/>
       <c r="B323" s="8"/>
       <c r="C323" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D323" s="10"/>
       <c r="E323" s="11"/>
@@ -7963,7 +8209,7 @@
       <c r="A324" s="7"/>
       <c r="B324" s="8"/>
       <c r="C324" s="15" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D324" s="10"/>
       <c r="E324" s="11"/>
@@ -7985,11 +8231,11 @@
       <c r="A325" s="7"/>
       <c r="B325" s="8"/>
       <c r="C325" s="15" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D325" s="10"/>
       <c r="E325" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F325" s="21">
         <v>2.0</v>
@@ -8013,7 +8259,7 @@
       <c r="C326" s="9"/>
       <c r="D326" s="10"/>
       <c r="E326" s="20" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F326" s="21">
         <v>1.0</v>
@@ -8035,7 +8281,7 @@
       <c r="A327" s="7"/>
       <c r="B327" s="8"/>
       <c r="C327" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D327" s="10"/>
       <c r="E327" s="11"/>
@@ -8057,7 +8303,7 @@
       <c r="A328" s="7"/>
       <c r="B328" s="8"/>
       <c r="C328" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D328" s="10"/>
       <c r="E328" s="11"/>
@@ -8079,7 +8325,7 @@
       <c r="A329" s="7"/>
       <c r="B329" s="8"/>
       <c r="C329" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D329" s="16">
         <v>2.0</v>
@@ -8103,7 +8349,7 @@
       <c r="A330" s="7"/>
       <c r="B330" s="8"/>
       <c r="C330" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D330" s="16">
         <v>1.0</v>
@@ -8146,7 +8392,7 @@
     <row r="332">
       <c r="A332" s="7"/>
       <c r="B332" s="14" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C332" s="15" t="s">
         <v>11</v>
@@ -8173,7 +8419,7 @@
       <c r="A333" s="7"/>
       <c r="B333" s="8"/>
       <c r="C333" s="15" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D333" s="16">
         <v>3.0</v>
@@ -8197,7 +8443,7 @@
       <c r="A334" s="7"/>
       <c r="B334" s="8"/>
       <c r="C334" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D334" s="10"/>
       <c r="E334" s="11"/>
@@ -8219,7 +8465,7 @@
       <c r="A335" s="7"/>
       <c r="B335" s="8"/>
       <c r="C335" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D335" s="10"/>
       <c r="E335" s="11"/>
@@ -8241,7 +8487,7 @@
       <c r="A336" s="7"/>
       <c r="B336" s="8"/>
       <c r="C336" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D336" s="10"/>
       <c r="E336" s="11"/>
@@ -8263,11 +8509,11 @@
       <c r="A337" s="7"/>
       <c r="B337" s="8"/>
       <c r="C337" s="15" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D337" s="10"/>
       <c r="E337" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F337" s="21">
         <v>2.0</v>
@@ -8291,7 +8537,7 @@
       <c r="C338" s="9"/>
       <c r="D338" s="10"/>
       <c r="E338" s="20" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F338" s="21">
         <v>1.0</v>
@@ -8313,7 +8559,7 @@
       <c r="A339" s="7"/>
       <c r="B339" s="8"/>
       <c r="C339" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D339" s="10"/>
       <c r="E339" s="11"/>
@@ -8335,7 +8581,7 @@
       <c r="A340" s="7"/>
       <c r="B340" s="8"/>
       <c r="C340" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D340" s="10"/>
       <c r="E340" s="11"/>
@@ -8357,7 +8603,7 @@
       <c r="A341" s="7"/>
       <c r="B341" s="8"/>
       <c r="C341" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D341" s="16">
         <v>2.0</v>
@@ -8381,7 +8627,7 @@
       <c r="A342" s="7"/>
       <c r="B342" s="8"/>
       <c r="C342" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D342" s="16">
         <v>1.0</v>
@@ -8424,7 +8670,7 @@
     <row r="344">
       <c r="A344" s="7"/>
       <c r="B344" s="14" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C344" s="15" t="s">
         <v>11</v>
@@ -8451,7 +8697,7 @@
       <c r="A345" s="7"/>
       <c r="B345" s="8"/>
       <c r="C345" s="15" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D345" s="16">
         <v>3.0</v>
@@ -8475,7 +8721,7 @@
       <c r="A346" s="7"/>
       <c r="B346" s="8"/>
       <c r="C346" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D346" s="10"/>
       <c r="E346" s="11"/>
@@ -8497,7 +8743,7 @@
       <c r="A347" s="7"/>
       <c r="B347" s="8"/>
       <c r="C347" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D347" s="10"/>
       <c r="E347" s="11"/>
@@ -8519,7 +8765,7 @@
       <c r="A348" s="7"/>
       <c r="B348" s="8"/>
       <c r="C348" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D348" s="10"/>
       <c r="E348" s="11"/>
@@ -8541,7 +8787,7 @@
       <c r="A349" s="7"/>
       <c r="B349" s="8"/>
       <c r="C349" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D349" s="10"/>
       <c r="E349" s="11"/>
@@ -8563,11 +8809,11 @@
       <c r="A350" s="7"/>
       <c r="B350" s="8"/>
       <c r="C350" s="15" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D350" s="10"/>
       <c r="E350" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F350" s="21">
         <v>2.0</v>
@@ -8591,7 +8837,7 @@
       <c r="C351" s="9"/>
       <c r="D351" s="10"/>
       <c r="E351" s="20" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F351" s="21">
         <v>1.0</v>
@@ -8613,7 +8859,7 @@
       <c r="A352" s="7"/>
       <c r="B352" s="8"/>
       <c r="C352" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D352" s="10"/>
       <c r="E352" s="11"/>
@@ -8635,7 +8881,7 @@
       <c r="A353" s="7"/>
       <c r="B353" s="8"/>
       <c r="C353" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D353" s="10"/>
       <c r="E353" s="11"/>
@@ -8657,7 +8903,7 @@
       <c r="A354" s="7"/>
       <c r="B354" s="8"/>
       <c r="C354" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D354" s="16">
         <v>2.0</v>
@@ -8681,7 +8927,7 @@
       <c r="A355" s="7"/>
       <c r="B355" s="8"/>
       <c r="C355" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D355" s="16">
         <v>1.0</v>
@@ -8724,10 +8970,10 @@
     <row r="357">
       <c r="A357" s="7"/>
       <c r="B357" s="14" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C357" s="15" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D357" s="16">
         <v>4.0</v>
@@ -8751,7 +8997,7 @@
       <c r="A358" s="7"/>
       <c r="B358" s="8"/>
       <c r="C358" s="15" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D358" s="16">
         <v>3.0</v>
@@ -8775,7 +9021,7 @@
       <c r="A359" s="7"/>
       <c r="B359" s="8"/>
       <c r="C359" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D359" s="10"/>
       <c r="E359" s="11"/>
@@ -8797,7 +9043,7 @@
       <c r="A360" s="7"/>
       <c r="B360" s="8"/>
       <c r="C360" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D360" s="10"/>
       <c r="E360" s="11"/>
@@ -8819,7 +9065,7 @@
       <c r="A361" s="7"/>
       <c r="B361" s="8"/>
       <c r="C361" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D361" s="10"/>
       <c r="E361" s="11"/>
@@ -8841,11 +9087,11 @@
       <c r="A362" s="7"/>
       <c r="B362" s="8"/>
       <c r="C362" s="15" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D362" s="10"/>
       <c r="E362" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F362" s="21">
         <v>2.0</v>
@@ -8869,7 +9115,7 @@
       <c r="C363" s="9"/>
       <c r="D363" s="10"/>
       <c r="E363" s="20" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F363" s="21">
         <v>1.0</v>
@@ -8891,7 +9137,7 @@
       <c r="A364" s="7"/>
       <c r="B364" s="8"/>
       <c r="C364" s="15" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D364" s="10"/>
       <c r="E364" s="11"/>
@@ -8913,7 +9159,7 @@
       <c r="A365" s="7"/>
       <c r="B365" s="8"/>
       <c r="C365" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D365" s="16">
         <v>2.0</v>
@@ -8937,7 +9183,7 @@
       <c r="A366" s="7"/>
       <c r="B366" s="8"/>
       <c r="C366" s="15" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D366" s="16"/>
       <c r="E366" s="11"/>
@@ -8959,7 +9205,7 @@
       <c r="A367" s="7"/>
       <c r="B367" s="8"/>
       <c r="C367" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D367" s="16"/>
       <c r="E367" s="11"/>
@@ -8981,7 +9227,7 @@
       <c r="A368" s="7"/>
       <c r="B368" s="8"/>
       <c r="C368" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D368" s="16">
         <v>1.0</v>
@@ -9024,10 +9270,10 @@
     <row r="370">
       <c r="A370" s="7"/>
       <c r="B370" s="14" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C370" s="15" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D370" s="16">
         <v>4.0</v>
@@ -9051,7 +9297,7 @@
       <c r="A371" s="7"/>
       <c r="B371" s="8"/>
       <c r="C371" s="15" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D371" s="16">
         <v>3.0</v>
@@ -9075,7 +9321,7 @@
       <c r="A372" s="7"/>
       <c r="B372" s="8"/>
       <c r="C372" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D372" s="10"/>
       <c r="E372" s="11"/>
@@ -9097,7 +9343,7 @@
       <c r="A373" s="7"/>
       <c r="B373" s="8"/>
       <c r="C373" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D373" s="10"/>
       <c r="E373" s="11"/>
@@ -9119,7 +9365,7 @@
       <c r="A374" s="7"/>
       <c r="B374" s="8"/>
       <c r="C374" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D374" s="10"/>
       <c r="E374" s="11"/>
@@ -9141,7 +9387,7 @@
       <c r="A375" s="7"/>
       <c r="B375" s="8"/>
       <c r="C375" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D375" s="10"/>
       <c r="E375" s="11"/>
@@ -9163,11 +9409,11 @@
       <c r="A376" s="7"/>
       <c r="B376" s="8"/>
       <c r="C376" s="15" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D376" s="10"/>
       <c r="E376" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F376" s="21">
         <v>2.0</v>
@@ -9191,7 +9437,7 @@
       <c r="C377" s="9"/>
       <c r="D377" s="10"/>
       <c r="E377" s="20" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F377" s="21">
         <v>1.0</v>
@@ -9213,7 +9459,7 @@
       <c r="A378" s="7"/>
       <c r="B378" s="8"/>
       <c r="C378" s="15" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D378" s="10"/>
       <c r="E378" s="11"/>
@@ -9235,7 +9481,7 @@
       <c r="A379" s="7"/>
       <c r="B379" s="8"/>
       <c r="C379" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D379" s="16">
         <v>2.0</v>
@@ -9259,7 +9505,7 @@
       <c r="A380" s="7"/>
       <c r="B380" s="8"/>
       <c r="C380" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D380" s="16">
         <v>1.0</v>
@@ -9302,16 +9548,16 @@
     <row r="382">
       <c r="A382" s="7"/>
       <c r="B382" s="14" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C382" s="15" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D382" s="16">
         <v>4.0</v>
       </c>
       <c r="E382" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F382" s="21">
         <v>2.0</v>
@@ -9335,7 +9581,7 @@
       <c r="C383" s="9"/>
       <c r="D383" s="10"/>
       <c r="E383" s="20" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F383" s="21">
         <v>2.0</v>
@@ -9357,15 +9603,15 @@
       <c r="A384" s="7"/>
       <c r="B384" s="8"/>
       <c r="C384" s="15" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D384" s="16">
         <v>3.0</v>
       </c>
       <c r="E384" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F384" s="26">
+        <v>96</v>
+      </c>
+      <c r="F384" s="33">
         <v>43221.0</v>
       </c>
       <c r="H384" s="7"/>
@@ -9387,9 +9633,9 @@
       <c r="C385" s="9"/>
       <c r="D385" s="10"/>
       <c r="E385" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F385" s="26">
+        <v>78</v>
+      </c>
+      <c r="F385" s="33">
         <v>43221.0</v>
       </c>
       <c r="H385" s="7"/>
@@ -9409,7 +9655,7 @@
       <c r="A386" s="7"/>
       <c r="B386" s="8"/>
       <c r="C386" s="15" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D386" s="10"/>
       <c r="E386" s="11"/>
@@ -9431,7 +9677,7 @@
       <c r="A387" s="7"/>
       <c r="B387" s="8"/>
       <c r="C387" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D387" s="10"/>
       <c r="E387" s="11"/>
@@ -9453,7 +9699,7 @@
       <c r="A388" s="7"/>
       <c r="B388" s="8"/>
       <c r="C388" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D388" s="10"/>
       <c r="E388" s="11"/>
@@ -9475,11 +9721,11 @@
       <c r="A389" s="7"/>
       <c r="B389" s="8"/>
       <c r="C389" s="15" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D389" s="10"/>
       <c r="E389" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F389" s="21">
         <v>2.0</v>
@@ -9503,7 +9749,7 @@
       <c r="C390" s="9"/>
       <c r="D390" s="10"/>
       <c r="E390" s="20" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F390" s="21">
         <v>1.0</v>
@@ -9525,7 +9771,7 @@
       <c r="A391" s="7"/>
       <c r="B391" s="8"/>
       <c r="C391" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D391" s="16">
         <v>2.0</v>
@@ -9549,7 +9795,7 @@
       <c r="A392" s="7"/>
       <c r="B392" s="8"/>
       <c r="C392" s="15" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D392" s="10"/>
       <c r="E392" s="11"/>
@@ -9571,7 +9817,7 @@
       <c r="A393" s="7"/>
       <c r="B393" s="8"/>
       <c r="C393" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D393" s="10"/>
       <c r="E393" s="11"/>
@@ -9593,7 +9839,7 @@
       <c r="A394" s="7"/>
       <c r="B394" s="8"/>
       <c r="C394" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D394" s="10"/>
       <c r="E394" s="11"/>
@@ -9615,7 +9861,7 @@
       <c r="A395" s="7"/>
       <c r="B395" s="8"/>
       <c r="C395" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D395" s="10"/>
       <c r="E395" s="11"/>
@@ -9637,7 +9883,7 @@
       <c r="A396" s="7"/>
       <c r="B396" s="8"/>
       <c r="C396" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D396" s="16">
         <v>1.0</v>
@@ -9680,16 +9926,16 @@
     <row r="398">
       <c r="A398" s="7"/>
       <c r="B398" s="14" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C398" s="15" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D398" s="16">
         <v>4.0</v>
       </c>
       <c r="E398" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F398" s="21">
         <v>2.0</v>
@@ -9713,7 +9959,7 @@
       <c r="C399" s="9"/>
       <c r="D399" s="10"/>
       <c r="E399" s="20" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F399" s="21">
         <v>2.0</v>
@@ -9735,13 +9981,13 @@
       <c r="A400" s="7"/>
       <c r="B400" s="8"/>
       <c r="C400" s="15" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D400" s="16">
         <v>3.0</v>
       </c>
       <c r="E400" s="20" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F400" s="21">
         <v>1.5</v>
@@ -9765,7 +10011,7 @@
       <c r="C401" s="9"/>
       <c r="D401" s="10"/>
       <c r="E401" s="20" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F401" s="21">
         <v>1.5</v>
@@ -9787,7 +10033,7 @@
       <c r="A402" s="7"/>
       <c r="B402" s="8"/>
       <c r="C402" s="15" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D402" s="10"/>
       <c r="E402" s="11"/>
@@ -9809,7 +10055,7 @@
       <c r="A403" s="7"/>
       <c r="B403" s="8"/>
       <c r="C403" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D403" s="10"/>
       <c r="E403" s="11"/>
@@ -9831,7 +10077,7 @@
       <c r="A404" s="7"/>
       <c r="B404" s="8"/>
       <c r="C404" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D404" s="10"/>
       <c r="E404" s="11"/>
@@ -9853,7 +10099,7 @@
       <c r="A405" s="7"/>
       <c r="B405" s="8"/>
       <c r="C405" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D405" s="10"/>
       <c r="E405" s="11"/>
@@ -9875,11 +10121,11 @@
       <c r="A406" s="7"/>
       <c r="B406" s="8"/>
       <c r="C406" s="15" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D406" s="10"/>
       <c r="E406" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F406" s="21">
         <v>2.0</v>
@@ -9903,7 +10149,7 @@
       <c r="C407" s="9"/>
       <c r="D407" s="10"/>
       <c r="E407" s="20" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F407" s="21">
         <v>1.0</v>
@@ -9925,7 +10171,7 @@
       <c r="A408" s="7"/>
       <c r="B408" s="8"/>
       <c r="C408" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D408" s="16">
         <v>2.0</v>
@@ -9949,7 +10195,7 @@
       <c r="A409" s="7"/>
       <c r="B409" s="8"/>
       <c r="C409" s="15" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D409" s="10"/>
       <c r="E409" s="11"/>
@@ -9971,7 +10217,7 @@
       <c r="A410" s="7"/>
       <c r="B410" s="8"/>
       <c r="C410" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D410" s="10"/>
       <c r="E410" s="11"/>
@@ -9993,7 +10239,7 @@
       <c r="A411" s="7"/>
       <c r="B411" s="8"/>
       <c r="C411" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D411" s="10"/>
       <c r="E411" s="11"/>
@@ -10015,7 +10261,7 @@
       <c r="A412" s="7"/>
       <c r="B412" s="8"/>
       <c r="C412" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D412" s="10"/>
       <c r="E412" s="11"/>
@@ -10037,7 +10283,7 @@
       <c r="A413" s="7"/>
       <c r="B413" s="8"/>
       <c r="C413" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D413" s="16">
         <v>1.0</v>
@@ -10080,10 +10326,10 @@
     <row r="415">
       <c r="A415" s="7"/>
       <c r="B415" s="14" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C415" s="15" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D415" s="16">
         <v>4.0</v>
@@ -10107,7 +10353,7 @@
       <c r="A416" s="7"/>
       <c r="B416" s="8"/>
       <c r="C416" s="15" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D416" s="16">
         <v>3.0</v>
@@ -10131,7 +10377,7 @@
       <c r="A417" s="7"/>
       <c r="B417" s="8"/>
       <c r="C417" s="15" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D417" s="10"/>
       <c r="E417" s="11"/>
@@ -10153,7 +10399,7 @@
       <c r="A418" s="7"/>
       <c r="B418" s="8"/>
       <c r="C418" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D418" s="10"/>
       <c r="E418" s="11"/>
@@ -10175,7 +10421,7 @@
       <c r="A419" s="7"/>
       <c r="B419" s="8"/>
       <c r="C419" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D419" s="10"/>
       <c r="E419" s="11"/>
@@ -10197,11 +10443,11 @@
       <c r="A420" s="7"/>
       <c r="B420" s="8"/>
       <c r="C420" s="15" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D420" s="10"/>
       <c r="E420" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F420" s="21">
         <v>2.0</v>
@@ -10225,7 +10471,7 @@
       <c r="C421" s="9"/>
       <c r="D421" s="10"/>
       <c r="E421" s="20" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F421" s="21">
         <v>1.0</v>
@@ -10247,7 +10493,7 @@
       <c r="A422" s="7"/>
       <c r="B422" s="8"/>
       <c r="C422" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D422" s="16">
         <v>2.0</v>
@@ -10271,7 +10517,7 @@
       <c r="A423" s="7"/>
       <c r="B423" s="8"/>
       <c r="C423" s="15" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D423" s="10"/>
       <c r="E423" s="11"/>
@@ -10293,7 +10539,7 @@
       <c r="A424" s="7"/>
       <c r="B424" s="8"/>
       <c r="C424" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D424" s="10"/>
       <c r="E424" s="11"/>
@@ -10315,7 +10561,7 @@
       <c r="A425" s="7"/>
       <c r="B425" s="8"/>
       <c r="C425" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D425" s="10"/>
       <c r="E425" s="11"/>
@@ -10337,7 +10583,7 @@
       <c r="A426" s="7"/>
       <c r="B426" s="8"/>
       <c r="C426" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D426" s="10"/>
       <c r="E426" s="11"/>
@@ -10359,7 +10605,7 @@
       <c r="A427" s="7"/>
       <c r="B427" s="8"/>
       <c r="C427" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D427" s="16">
         <v>1.0</v>
@@ -10402,10 +10648,10 @@
     <row r="429">
       <c r="A429" s="7"/>
       <c r="B429" s="14" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C429" s="15" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D429" s="16">
         <v>4.0</v>
@@ -10429,7 +10675,7 @@
       <c r="A430" s="7"/>
       <c r="B430" s="8"/>
       <c r="C430" s="15" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D430" s="16">
         <v>3.0</v>
@@ -10453,7 +10699,7 @@
       <c r="A431" s="7"/>
       <c r="B431" s="8"/>
       <c r="C431" s="15" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D431" s="10"/>
       <c r="E431" s="11"/>
@@ -10475,7 +10721,7 @@
       <c r="A432" s="7"/>
       <c r="B432" s="8"/>
       <c r="C432" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D432" s="10"/>
       <c r="E432" s="11"/>
@@ -10497,7 +10743,7 @@
       <c r="A433" s="7"/>
       <c r="B433" s="8"/>
       <c r="C433" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D433" s="10"/>
       <c r="E433" s="11"/>
@@ -10519,7 +10765,7 @@
       <c r="A434" s="7"/>
       <c r="B434" s="8"/>
       <c r="C434" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D434" s="10"/>
       <c r="E434" s="11"/>
@@ -10541,11 +10787,11 @@
       <c r="A435" s="7"/>
       <c r="B435" s="8"/>
       <c r="C435" s="15" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D435" s="10"/>
       <c r="E435" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F435" s="21">
         <v>2.0</v>
@@ -10569,7 +10815,7 @@
       <c r="C436" s="9"/>
       <c r="D436" s="10"/>
       <c r="E436" s="20" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F436" s="21">
         <v>1.0</v>
@@ -10591,7 +10837,7 @@
       <c r="A437" s="7"/>
       <c r="B437" s="8"/>
       <c r="C437" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D437" s="16">
         <v>2.0</v>
@@ -10615,7 +10861,7 @@
       <c r="A438" s="7"/>
       <c r="B438" s="8"/>
       <c r="C438" s="15" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D438" s="10"/>
       <c r="E438" s="11"/>
@@ -10637,7 +10883,7 @@
       <c r="A439" s="7"/>
       <c r="B439" s="8"/>
       <c r="C439" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D439" s="10"/>
       <c r="E439" s="11"/>
@@ -10659,7 +10905,7 @@
       <c r="A440" s="7"/>
       <c r="B440" s="8"/>
       <c r="C440" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D440" s="10"/>
       <c r="E440" s="11"/>
@@ -10681,7 +10927,7 @@
       <c r="A441" s="7"/>
       <c r="B441" s="8"/>
       <c r="C441" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D441" s="10"/>
       <c r="E441" s="11"/>
@@ -10703,7 +10949,7 @@
       <c r="A442" s="7"/>
       <c r="B442" s="8"/>
       <c r="C442" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D442" s="16">
         <v>1.0</v>
@@ -10746,10 +10992,10 @@
     <row r="444">
       <c r="A444" s="7"/>
       <c r="B444" s="14" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C444" s="15" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D444" s="16">
         <v>4.0</v>
@@ -10773,7 +11019,7 @@
       <c r="A445" s="7"/>
       <c r="B445" s="8"/>
       <c r="C445" s="15" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D445" s="16">
         <v>3.0</v>
@@ -10797,7 +11043,7 @@
       <c r="A446" s="7"/>
       <c r="B446" s="8"/>
       <c r="C446" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D446" s="10"/>
       <c r="E446" s="11"/>
@@ -10819,7 +11065,7 @@
       <c r="A447" s="7"/>
       <c r="B447" s="8"/>
       <c r="C447" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D447" s="10"/>
       <c r="E447" s="11"/>
@@ -10841,11 +11087,11 @@
       <c r="A448" s="7"/>
       <c r="B448" s="8"/>
       <c r="C448" s="15" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D448" s="10"/>
       <c r="E448" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F448" s="21">
         <v>2.0</v>
@@ -10869,7 +11115,7 @@
       <c r="C449" s="9"/>
       <c r="D449" s="10"/>
       <c r="E449" s="20" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F449" s="21">
         <v>1.0</v>
@@ -10891,7 +11137,7 @@
       <c r="A450" s="7"/>
       <c r="B450" s="8"/>
       <c r="C450" s="15" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D450" s="16">
         <v>2.0</v>
@@ -10915,7 +11161,7 @@
       <c r="A451" s="7"/>
       <c r="B451" s="8"/>
       <c r="C451" s="15" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D451" s="16"/>
       <c r="E451" s="11"/>
@@ -10937,7 +11183,7 @@
       <c r="A452" s="7"/>
       <c r="B452" s="8"/>
       <c r="C452" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D452" s="16"/>
       <c r="E452" s="11"/>
@@ -10959,7 +11205,7 @@
       <c r="A453" s="7"/>
       <c r="B453" s="8"/>
       <c r="C453" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D453" s="16"/>
       <c r="E453" s="11"/>
@@ -10981,7 +11227,7 @@
       <c r="A454" s="7"/>
       <c r="B454" s="8"/>
       <c r="C454" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D454" s="16"/>
       <c r="E454" s="11"/>
@@ -11003,7 +11249,7 @@
       <c r="A455" s="7"/>
       <c r="B455" s="8"/>
       <c r="C455" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D455" s="16"/>
       <c r="E455" s="11"/>
@@ -11025,7 +11271,7 @@
       <c r="A456" s="7"/>
       <c r="B456" s="8"/>
       <c r="C456" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D456" s="16"/>
       <c r="E456" s="11"/>
@@ -11047,7 +11293,7 @@
       <c r="A457" s="7"/>
       <c r="B457" s="8"/>
       <c r="C457" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D457" s="16">
         <v>1.0</v>
@@ -11072,8 +11318,8 @@
       <c r="B458" s="17"/>
       <c r="C458" s="18"/>
       <c r="D458" s="22"/>
-      <c r="E458" s="27"/>
-      <c r="F458" s="28"/>
+      <c r="E458" s="28"/>
+      <c r="F458" s="34"/>
       <c r="H458" s="7"/>
       <c r="I458" s="8"/>
       <c r="J458" s="9"/>
@@ -11089,17 +11335,17 @@
     </row>
     <row r="459">
       <c r="A459" s="7"/>
-      <c r="B459" s="29" t="s">
-        <v>85</v>
+      <c r="B459" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="C459" s="18" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D459" s="19">
         <v>4.0</v>
       </c>
-      <c r="E459" s="27"/>
-      <c r="F459" s="28"/>
+      <c r="E459" s="28"/>
+      <c r="F459" s="34"/>
       <c r="H459" s="7"/>
       <c r="I459" s="8"/>
       <c r="J459" s="9"/>
@@ -11117,13 +11363,13 @@
       <c r="A460" s="7"/>
       <c r="B460" s="17"/>
       <c r="C460" s="18" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D460" s="19">
         <v>3.0</v>
       </c>
-      <c r="E460" s="27"/>
-      <c r="F460" s="28"/>
+      <c r="E460" s="28"/>
+      <c r="F460" s="34"/>
       <c r="H460" s="7"/>
       <c r="I460" s="8"/>
       <c r="J460" s="9"/>
@@ -11141,11 +11387,11 @@
       <c r="A461" s="7"/>
       <c r="B461" s="17"/>
       <c r="C461" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D461" s="22"/>
-      <c r="E461" s="27"/>
-      <c r="F461" s="28"/>
+      <c r="E461" s="28"/>
+      <c r="F461" s="34"/>
       <c r="H461" s="7"/>
       <c r="I461" s="8"/>
       <c r="J461" s="9"/>
@@ -11163,11 +11409,11 @@
       <c r="A462" s="7"/>
       <c r="B462" s="17"/>
       <c r="C462" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D462" s="22"/>
-      <c r="E462" s="27"/>
-      <c r="F462" s="28"/>
+      <c r="E462" s="28"/>
+      <c r="F462" s="34"/>
       <c r="H462" s="7"/>
       <c r="I462" s="8"/>
       <c r="J462" s="9"/>
@@ -11184,12 +11430,12 @@
     <row r="463">
       <c r="A463" s="7"/>
       <c r="B463" s="17"/>
-      <c r="C463" s="30" t="s">
-        <v>38</v>
+      <c r="C463" s="32" t="s">
+        <v>39</v>
       </c>
       <c r="D463" s="22"/>
-      <c r="E463" s="27"/>
-      <c r="F463" s="28"/>
+      <c r="E463" s="28"/>
+      <c r="F463" s="34"/>
       <c r="H463" s="7"/>
       <c r="I463" s="8"/>
       <c r="J463" s="9"/>
@@ -11207,13 +11453,13 @@
       <c r="A464" s="7"/>
       <c r="B464" s="17"/>
       <c r="C464" s="18" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D464" s="22"/>
-      <c r="E464" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F464" s="31">
+      <c r="E464" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F464" s="29">
         <v>2.0</v>
       </c>
       <c r="H464" s="7"/>
@@ -11234,10 +11480,10 @@
       <c r="B465" s="17"/>
       <c r="C465" s="18"/>
       <c r="D465" s="22"/>
-      <c r="E465" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F465" s="31">
+      <c r="E465" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F465" s="29">
         <v>1.0</v>
       </c>
       <c r="H465" s="7"/>
@@ -11257,13 +11503,13 @@
       <c r="A466" s="7"/>
       <c r="B466" s="17"/>
       <c r="C466" s="18" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D466" s="19">
         <v>2.0</v>
       </c>
-      <c r="E466" s="27"/>
-      <c r="F466" s="28"/>
+      <c r="E466" s="28"/>
+      <c r="F466" s="34"/>
       <c r="H466" s="7"/>
       <c r="I466" s="8"/>
       <c r="J466" s="9"/>
@@ -11281,11 +11527,11 @@
       <c r="A467" s="7"/>
       <c r="B467" s="17"/>
       <c r="C467" s="18" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D467" s="22"/>
-      <c r="E467" s="27"/>
-      <c r="F467" s="28"/>
+      <c r="E467" s="28"/>
+      <c r="F467" s="34"/>
       <c r="H467" s="7"/>
       <c r="I467" s="8"/>
       <c r="J467" s="9"/>
@@ -11303,11 +11549,11 @@
       <c r="A468" s="7"/>
       <c r="B468" s="17"/>
       <c r="C468" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D468" s="22"/>
-      <c r="E468" s="27"/>
-      <c r="F468" s="28"/>
+      <c r="E468" s="28"/>
+      <c r="F468" s="34"/>
       <c r="H468" s="7"/>
       <c r="I468" s="8"/>
       <c r="J468" s="9"/>
@@ -11325,11 +11571,11 @@
       <c r="A469" s="7"/>
       <c r="B469" s="17"/>
       <c r="C469" s="18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D469" s="22"/>
-      <c r="E469" s="27"/>
-      <c r="F469" s="28"/>
+      <c r="E469" s="28"/>
+      <c r="F469" s="34"/>
       <c r="H469" s="7"/>
       <c r="I469" s="8"/>
       <c r="J469" s="9"/>
@@ -11347,11 +11593,11 @@
       <c r="A470" s="7"/>
       <c r="B470" s="17"/>
       <c r="C470" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D470" s="22"/>
-      <c r="E470" s="27"/>
-      <c r="F470" s="28"/>
+      <c r="E470" s="28"/>
+      <c r="F470" s="34"/>
       <c r="H470" s="7"/>
       <c r="I470" s="8"/>
       <c r="J470" s="9"/>
@@ -11369,11 +11615,11 @@
       <c r="A471" s="7"/>
       <c r="B471" s="17"/>
       <c r="C471" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D471" s="22"/>
-      <c r="E471" s="27"/>
-      <c r="F471" s="28"/>
+      <c r="E471" s="28"/>
+      <c r="F471" s="34"/>
       <c r="H471" s="7"/>
       <c r="I471" s="8"/>
       <c r="J471" s="9"/>
@@ -11391,11 +11637,11 @@
       <c r="A472" s="7"/>
       <c r="B472" s="17"/>
       <c r="C472" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D472" s="22"/>
-      <c r="E472" s="27"/>
-      <c r="F472" s="28"/>
+      <c r="E472" s="28"/>
+      <c r="F472" s="34"/>
       <c r="H472" s="7"/>
       <c r="I472" s="8"/>
       <c r="J472" s="9"/>
@@ -11413,13 +11659,13 @@
       <c r="A473" s="7"/>
       <c r="B473" s="17"/>
       <c r="C473" s="18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D473" s="19">
         <v>1.0</v>
       </c>
-      <c r="E473" s="27"/>
-      <c r="F473" s="28"/>
+      <c r="E473" s="28"/>
+      <c r="F473" s="34"/>
       <c r="H473" s="7"/>
       <c r="I473" s="8"/>
       <c r="J473" s="9"/>
@@ -11458,10 +11704,10 @@
         <v>9</v>
       </c>
       <c r="B475" s="14" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C475" s="15" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D475" s="16">
         <v>4.0</v>
@@ -11485,7 +11731,7 @@
       <c r="A476" s="7"/>
       <c r="B476" s="8"/>
       <c r="C476" s="15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D476" s="10"/>
       <c r="E476" s="11"/>
@@ -11507,7 +11753,7 @@
       <c r="A477" s="7"/>
       <c r="B477" s="8"/>
       <c r="C477" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D477" s="10"/>
       <c r="E477" s="11"/>
@@ -11529,7 +11775,7 @@
       <c r="A478" s="7"/>
       <c r="B478" s="8"/>
       <c r="C478" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D478" s="10"/>
       <c r="E478" s="11"/>
@@ -11551,11 +11797,11 @@
       <c r="A479" s="7"/>
       <c r="B479" s="8"/>
       <c r="C479" s="15" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D479" s="10"/>
       <c r="E479" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F479" s="21">
         <v>2.0</v>
@@ -11579,7 +11825,7 @@
       <c r="C480" s="9"/>
       <c r="D480" s="10"/>
       <c r="E480" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F480" s="21">
         <v>2.0</v>
@@ -11601,11 +11847,11 @@
       <c r="A481" s="7"/>
       <c r="B481" s="8"/>
       <c r="C481" s="15" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D481" s="10"/>
       <c r="E481" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F481" s="21">
         <v>1.0</v>
@@ -11629,7 +11875,7 @@
       <c r="C482" s="9"/>
       <c r="D482" s="10"/>
       <c r="E482" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F482" s="21">
         <v>1.0</v>
@@ -11653,7 +11899,7 @@
       <c r="C483" s="9"/>
       <c r="D483" s="10"/>
       <c r="E483" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F483" s="21">
         <v>1.0</v>
@@ -11677,7 +11923,7 @@
       <c r="C484" s="9"/>
       <c r="D484" s="10"/>
       <c r="E484" s="20" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F484" s="21">
         <v>1.0</v>
@@ -11699,7 +11945,7 @@
       <c r="A485" s="7"/>
       <c r="B485" s="8"/>
       <c r="C485" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D485" s="16">
         <v>2.0</v>

--- a/assets/All Classes.xlsx
+++ b/assets/All Classes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="110">
   <si>
     <t>Macros</t>
   </si>
@@ -166,6 +166,24 @@
     <t>Philosphie</t>
   </si>
   <si>
+    <t>1G</t>
+  </si>
+  <si>
+    <t>SciSoc</t>
+  </si>
+  <si>
+    <t>5M</t>
+  </si>
+  <si>
+    <t>Histo/Geo</t>
+  </si>
+  <si>
+    <t>EduArt</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
     <t>1E</t>
   </si>
   <si>
@@ -173,9 +191,6 @@
   </si>
   <si>
     <t>Dessin</t>
-  </si>
-  <si>
-    <t>5M</t>
   </si>
   <si>
     <t>Projets</t>
@@ -193,7 +208,7 @@
     <t>EduArt3</t>
   </si>
   <si>
-    <t>4C</t>
+    <t>4M</t>
   </si>
   <si>
     <t>1F</t>
@@ -206,12 +221,6 @@
   </si>
   <si>
     <t>EduMusic 3</t>
-  </si>
-  <si>
-    <t>EduArt</t>
-  </si>
-  <si>
-    <t>4M</t>
   </si>
   <si>
     <t>3MA</t>
@@ -529,11 +538,11 @@
     <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="13" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1894,17 +1903,13 @@
       <c r="R49" s="16">
         <v>4.0</v>
       </c>
-      <c r="S49" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="T49" s="21">
-        <v>2.0</v>
-      </c>
+      <c r="S49" s="20"/>
+      <c r="T49" s="21"/>
     </row>
     <row r="50">
       <c r="A50" s="7"/>
       <c r="B50" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>8</v>
@@ -1922,14 +1927,14 @@
       <c r="M50" s="12"/>
       <c r="O50" s="7"/>
       <c r="P50" s="8"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="T50" s="21">
-        <v>1.0</v>
-      </c>
+      <c r="Q50" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="R50" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="S50" s="20"/>
+      <c r="T50" s="21"/>
     </row>
     <row r="51">
       <c r="A51" s="7"/>
@@ -1949,17 +1954,11 @@
       <c r="O51" s="7"/>
       <c r="P51" s="8"/>
       <c r="Q51" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="R51" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="S51" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="T51" s="21">
-        <v>2.0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="R51" s="10"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="21"/>
     </row>
     <row r="52">
       <c r="A52" s="7"/>
@@ -1978,14 +1977,12 @@
       <c r="M52" s="12"/>
       <c r="O52" s="7"/>
       <c r="P52" s="8"/>
-      <c r="Q52" s="9"/>
+      <c r="Q52" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="R52" s="10"/>
-      <c r="S52" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="T52" s="21">
-        <v>1.0</v>
-      </c>
+      <c r="S52" s="20"/>
+      <c r="T52" s="21"/>
     </row>
     <row r="53">
       <c r="A53" s="7"/>
@@ -2005,11 +2002,17 @@
       <c r="O53" s="7"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="R53" s="16"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="12"/>
+        <v>54</v>
+      </c>
+      <c r="R53" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="S53" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="T53" s="21">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="7"/>
@@ -2030,12 +2033,14 @@
       <c r="M54" s="12"/>
       <c r="O54" s="7"/>
       <c r="P54" s="8"/>
-      <c r="Q54" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="R54" s="16"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="12"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="T54" s="21">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="7"/>
@@ -2054,10 +2059,12 @@
       <c r="M55" s="12"/>
       <c r="O55" s="7"/>
       <c r="P55" s="8"/>
-      <c r="Q55" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="R55" s="10"/>
+      <c r="Q55" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="R55" s="19">
+        <v>2.0</v>
+      </c>
       <c r="S55" s="11"/>
       <c r="T55" s="12"/>
     </row>
@@ -2078,10 +2085,10 @@
       <c r="M56" s="12"/>
       <c r="O56" s="7"/>
       <c r="P56" s="8"/>
-      <c r="Q56" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="R56" s="10"/>
+      <c r="Q56" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="R56" s="22"/>
       <c r="S56" s="11"/>
       <c r="T56" s="12"/>
     </row>
@@ -2102,12 +2109,10 @@
       <c r="M57" s="12"/>
       <c r="O57" s="7"/>
       <c r="P57" s="8"/>
-      <c r="Q57" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="R57" s="16">
-        <v>2.0</v>
-      </c>
+      <c r="Q57" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="R57" s="25"/>
       <c r="S57" s="11"/>
       <c r="T57" s="12"/>
     </row>
@@ -2129,7 +2134,7 @@
       <c r="O58" s="7"/>
       <c r="P58" s="8"/>
       <c r="Q58" s="15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R58" s="10"/>
       <c r="S58" s="11"/>
@@ -2153,7 +2158,7 @@
       <c r="O59" s="7"/>
       <c r="P59" s="8"/>
       <c r="Q59" s="15" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="R59" s="10"/>
       <c r="S59" s="11"/>
@@ -2179,9 +2184,11 @@
       <c r="O60" s="7"/>
       <c r="P60" s="8"/>
       <c r="Q60" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="R60" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="R60" s="16">
+        <v>1.0</v>
+      </c>
       <c r="S60" s="11"/>
       <c r="T60" s="12"/>
     </row>
@@ -2200,19 +2207,15 @@
       <c r="M61" s="12"/>
       <c r="O61" s="7"/>
       <c r="P61" s="8"/>
-      <c r="Q61" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="R61" s="16">
-        <v>1.0</v>
-      </c>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="16"/>
       <c r="S61" s="11"/>
       <c r="T61" s="12"/>
     </row>
     <row r="62">
       <c r="A62" s="7"/>
       <c r="B62" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>8</v>
@@ -2229,11 +2232,21 @@
       <c r="L62" s="11"/>
       <c r="M62" s="12"/>
       <c r="O62" s="7"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="12"/>
+      <c r="P62" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q62" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="R62" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="S62" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="T62" s="29">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="7"/>
@@ -2251,17 +2264,15 @@
       <c r="L63" s="11"/>
       <c r="M63" s="12"/>
       <c r="O63" s="7"/>
-      <c r="P63" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q63" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="R63" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="S63" s="11"/>
-      <c r="T63" s="12"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="T63" s="29">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="7"/>
@@ -2279,15 +2290,19 @@
       <c r="L64" s="11"/>
       <c r="M64" s="12"/>
       <c r="O64" s="7"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="R64" s="16">
+      <c r="P64" s="17"/>
+      <c r="Q64" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R64" s="24">
         <v>3.0</v>
       </c>
-      <c r="S64" s="11"/>
-      <c r="T64" s="12"/>
+      <c r="S64" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="T64" s="29">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="7"/>
@@ -2305,13 +2320,15 @@
       <c r="L65" s="11"/>
       <c r="M65" s="12"/>
       <c r="O65" s="7"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="R65" s="10"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="12"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="23"/>
+      <c r="R65" s="22"/>
+      <c r="S65" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="T65" s="29">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="7"/>
@@ -2329,13 +2346,13 @@
       <c r="L66" s="11"/>
       <c r="M66" s="12"/>
       <c r="O66" s="7"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="R66" s="16"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="12"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="R66" s="25"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="33"/>
     </row>
     <row r="67">
       <c r="A67" s="7"/>
@@ -2355,13 +2372,13 @@
       <c r="L67" s="11"/>
       <c r="M67" s="12"/>
       <c r="O67" s="7"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="R67" s="10"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="12"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="R67" s="22"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="33"/>
     </row>
     <row r="68">
       <c r="A68" s="7"/>
@@ -2379,13 +2396,13 @@
       <c r="L68" s="11"/>
       <c r="M68" s="12"/>
       <c r="O68" s="7"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="R68" s="10"/>
-      <c r="S68" s="11"/>
-      <c r="T68" s="12"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="R68" s="22"/>
+      <c r="S68" s="28"/>
+      <c r="T68" s="33"/>
     </row>
     <row r="69">
       <c r="A69" s="7"/>
@@ -2403,15 +2420,13 @@
       <c r="L69" s="11"/>
       <c r="M69" s="12"/>
       <c r="O69" s="7"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="R69" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="S69" s="11"/>
-      <c r="T69" s="12"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="R69" s="25"/>
+      <c r="S69" s="28"/>
+      <c r="T69" s="33"/>
     </row>
     <row r="70">
       <c r="A70" s="7"/>
@@ -2429,13 +2444,15 @@
       <c r="L70" s="11"/>
       <c r="M70" s="12"/>
       <c r="O70" s="7"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="R70" s="10"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="12"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="R70" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="S70" s="28"/>
+      <c r="T70" s="33"/>
     </row>
     <row r="71">
       <c r="A71" s="7"/>
@@ -2453,13 +2470,13 @@
       <c r="L71" s="11"/>
       <c r="M71" s="12"/>
       <c r="O71" s="7"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="R71" s="10"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="12"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="R71" s="22"/>
+      <c r="S71" s="28"/>
+      <c r="T71" s="33"/>
     </row>
     <row r="72">
       <c r="A72" s="7"/>
@@ -2477,13 +2494,13 @@
       <c r="L72" s="11"/>
       <c r="M72" s="12"/>
       <c r="O72" s="7"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="R72" s="16"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="12"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="R72" s="25"/>
+      <c r="S72" s="28"/>
+      <c r="T72" s="33"/>
     </row>
     <row r="73">
       <c r="A73" s="7"/>
@@ -2503,15 +2520,13 @@
       <c r="L73" s="11"/>
       <c r="M73" s="12"/>
       <c r="O73" s="7"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="R73" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="S73" s="11"/>
-      <c r="T73" s="12"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="R73" s="25"/>
+      <c r="S73" s="28"/>
+      <c r="T73" s="33"/>
     </row>
     <row r="74">
       <c r="A74" s="7"/>
@@ -2527,16 +2542,20 @@
       <c r="L74" s="11"/>
       <c r="M74" s="12"/>
       <c r="O74" s="7"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="10"/>
-      <c r="S74" s="11"/>
-      <c r="T74" s="12"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R74" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="S74" s="28"/>
+      <c r="T74" s="33"/>
     </row>
     <row r="75">
       <c r="A75" s="7"/>
       <c r="B75" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>8</v>
@@ -2553,11 +2572,11 @@
       <c r="L75" s="11"/>
       <c r="M75" s="12"/>
       <c r="O75" s="7"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="10"/>
-      <c r="S75" s="11"/>
-      <c r="T75" s="12"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="18"/>
+      <c r="R75" s="22"/>
+      <c r="S75" s="28"/>
+      <c r="T75" s="33"/>
     </row>
     <row r="76">
       <c r="A76" s="7"/>
@@ -2575,11 +2594,17 @@
       <c r="L76" s="11"/>
       <c r="M76" s="12"/>
       <c r="O76" s="7"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="10"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="12"/>
+      <c r="P76" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q76" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="R76" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="S76" s="28"/>
+      <c r="T76" s="33"/>
     </row>
     <row r="77">
       <c r="A77" s="7"/>
@@ -2597,11 +2622,15 @@
       <c r="L77" s="11"/>
       <c r="M77" s="12"/>
       <c r="O77" s="7"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="10"/>
-      <c r="S77" s="11"/>
-      <c r="T77" s="12"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="R77" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="S77" s="28"/>
+      <c r="T77" s="33"/>
     </row>
     <row r="78">
       <c r="A78" s="7"/>
@@ -2619,11 +2648,13 @@
       <c r="L78" s="11"/>
       <c r="M78" s="12"/>
       <c r="O78" s="7"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="10"/>
-      <c r="S78" s="11"/>
-      <c r="T78" s="12"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="R78" s="22"/>
+      <c r="S78" s="28"/>
+      <c r="T78" s="33"/>
     </row>
     <row r="79">
       <c r="A79" s="7"/>
@@ -2643,11 +2674,13 @@
       <c r="L79" s="11"/>
       <c r="M79" s="12"/>
       <c r="O79" s="7"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="10"/>
-      <c r="S79" s="11"/>
-      <c r="T79" s="12"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="R79" s="22"/>
+      <c r="S79" s="28"/>
+      <c r="T79" s="33"/>
     </row>
     <row r="80">
       <c r="A80" s="7"/>
@@ -2665,11 +2698,13 @@
       <c r="L80" s="11"/>
       <c r="M80" s="12"/>
       <c r="O80" s="7"/>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="10"/>
-      <c r="S80" s="11"/>
-      <c r="T80" s="12"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="R80" s="22"/>
+      <c r="S80" s="28"/>
+      <c r="T80" s="33"/>
     </row>
     <row r="81">
       <c r="A81" s="7"/>
@@ -2687,11 +2722,13 @@
       <c r="L81" s="11"/>
       <c r="M81" s="12"/>
       <c r="O81" s="7"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="9"/>
-      <c r="R81" s="10"/>
-      <c r="S81" s="11"/>
-      <c r="T81" s="12"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="R81" s="22"/>
+      <c r="S81" s="28"/>
+      <c r="T81" s="33"/>
     </row>
     <row r="82">
       <c r="A82" s="7"/>
@@ -2709,11 +2746,15 @@
       <c r="L82" s="11"/>
       <c r="M82" s="12"/>
       <c r="O82" s="7"/>
-      <c r="P82" s="8"/>
-      <c r="Q82" s="9"/>
-      <c r="R82" s="10"/>
-      <c r="S82" s="11"/>
-      <c r="T82" s="12"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="R82" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="S82" s="28"/>
+      <c r="T82" s="33"/>
     </row>
     <row r="83">
       <c r="A83" s="7"/>
@@ -2731,11 +2772,13 @@
       <c r="L83" s="11"/>
       <c r="M83" s="12"/>
       <c r="O83" s="7"/>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="9"/>
-      <c r="R83" s="10"/>
-      <c r="S83" s="11"/>
-      <c r="T83" s="12"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="R83" s="22"/>
+      <c r="S83" s="28"/>
+      <c r="T83" s="33"/>
     </row>
     <row r="84">
       <c r="A84" s="7"/>
@@ -2753,11 +2796,13 @@
       <c r="L84" s="11"/>
       <c r="M84" s="12"/>
       <c r="O84" s="7"/>
-      <c r="P84" s="8"/>
-      <c r="Q84" s="9"/>
-      <c r="R84" s="10"/>
-      <c r="S84" s="11"/>
-      <c r="T84" s="12"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="R84" s="22"/>
+      <c r="S84" s="28"/>
+      <c r="T84" s="33"/>
     </row>
     <row r="85">
       <c r="A85" s="7"/>
@@ -2777,11 +2822,13 @@
       <c r="L85" s="11"/>
       <c r="M85" s="12"/>
       <c r="O85" s="7"/>
-      <c r="P85" s="8"/>
-      <c r="Q85" s="9"/>
-      <c r="R85" s="10"/>
-      <c r="S85" s="11"/>
-      <c r="T85" s="12"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="R85" s="22"/>
+      <c r="S85" s="28"/>
+      <c r="T85" s="33"/>
     </row>
     <row r="86">
       <c r="A86" s="7"/>
@@ -2797,16 +2844,20 @@
       <c r="L86" s="11"/>
       <c r="M86" s="12"/>
       <c r="O86" s="7"/>
-      <c r="P86" s="8"/>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="10"/>
-      <c r="S86" s="11"/>
-      <c r="T86" s="12"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R86" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="S86" s="28"/>
+      <c r="T86" s="33"/>
     </row>
     <row r="87">
       <c r="A87" s="7"/>
       <c r="B87" s="14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>8</v>
@@ -2823,11 +2874,11 @@
       <c r="L87" s="11"/>
       <c r="M87" s="12"/>
       <c r="O87" s="7"/>
-      <c r="P87" s="8"/>
-      <c r="Q87" s="9"/>
-      <c r="R87" s="10"/>
-      <c r="S87" s="11"/>
-      <c r="T87" s="12"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="18"/>
+      <c r="R87" s="22"/>
+      <c r="S87" s="28"/>
+      <c r="T87" s="33"/>
     </row>
     <row r="88">
       <c r="A88" s="7"/>
@@ -2845,11 +2896,11 @@
       <c r="L88" s="11"/>
       <c r="M88" s="12"/>
       <c r="O88" s="7"/>
-      <c r="P88" s="8"/>
-      <c r="Q88" s="9"/>
-      <c r="R88" s="10"/>
-      <c r="S88" s="11"/>
-      <c r="T88" s="12"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="22"/>
+      <c r="S88" s="28"/>
+      <c r="T88" s="33"/>
     </row>
     <row r="89">
       <c r="A89" s="7"/>
@@ -2867,17 +2918,17 @@
       <c r="L89" s="11"/>
       <c r="M89" s="12"/>
       <c r="O89" s="7"/>
-      <c r="P89" s="8"/>
-      <c r="Q89" s="9"/>
-      <c r="R89" s="10"/>
-      <c r="S89" s="11"/>
-      <c r="T89" s="12"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="18"/>
+      <c r="R89" s="19"/>
+      <c r="S89" s="28"/>
+      <c r="T89" s="33"/>
     </row>
     <row r="90">
       <c r="A90" s="7"/>
       <c r="B90" s="8"/>
       <c r="C90" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D90" s="16">
         <v>3.0</v>
@@ -2891,11 +2942,11 @@
       <c r="L90" s="11"/>
       <c r="M90" s="12"/>
       <c r="O90" s="7"/>
-      <c r="P90" s="8"/>
-      <c r="Q90" s="9"/>
-      <c r="R90" s="10"/>
-      <c r="S90" s="11"/>
-      <c r="T90" s="12"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="22"/>
+      <c r="S90" s="28"/>
+      <c r="T90" s="33"/>
     </row>
     <row r="91">
       <c r="A91" s="7"/>
@@ -2915,11 +2966,11 @@
       <c r="L91" s="11"/>
       <c r="M91" s="12"/>
       <c r="O91" s="7"/>
-      <c r="P91" s="8"/>
-      <c r="Q91" s="9"/>
-      <c r="R91" s="10"/>
-      <c r="S91" s="11"/>
-      <c r="T91" s="12"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="18"/>
+      <c r="R91" s="22"/>
+      <c r="S91" s="28"/>
+      <c r="T91" s="33"/>
     </row>
     <row r="92">
       <c r="A92" s="7"/>
@@ -2937,11 +2988,11 @@
       <c r="L92" s="11"/>
       <c r="M92" s="12"/>
       <c r="O92" s="7"/>
-      <c r="P92" s="8"/>
-      <c r="Q92" s="9"/>
-      <c r="R92" s="10"/>
-      <c r="S92" s="11"/>
-      <c r="T92" s="12"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="22"/>
+      <c r="S92" s="28"/>
+      <c r="T92" s="33"/>
     </row>
     <row r="93">
       <c r="A93" s="7"/>
@@ -2959,11 +3010,11 @@
       <c r="L93" s="11"/>
       <c r="M93" s="12"/>
       <c r="O93" s="7"/>
-      <c r="P93" s="8"/>
-      <c r="Q93" s="9"/>
-      <c r="R93" s="10"/>
-      <c r="S93" s="11"/>
-      <c r="T93" s="12"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="18"/>
+      <c r="R93" s="19"/>
+      <c r="S93" s="28"/>
+      <c r="T93" s="33"/>
     </row>
     <row r="94">
       <c r="A94" s="7"/>
@@ -3122,7 +3173,7 @@
     <row r="101">
       <c r="A101" s="7"/>
       <c r="B101" s="14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>8</v>
@@ -3438,7 +3489,7 @@
     <row r="115">
       <c r="A115" s="7"/>
       <c r="B115" s="14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>17</v>
@@ -3732,7 +3783,7 @@
     <row r="128">
       <c r="A128" s="7"/>
       <c r="B128" s="14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C128" s="15" t="s">
         <v>17</v>
@@ -4026,7 +4077,7 @@
     <row r="141">
       <c r="A141" s="7"/>
       <c r="B141" s="14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>11</v>
@@ -4320,7 +4371,7 @@
     <row r="154">
       <c r="A154" s="7"/>
       <c r="B154" s="14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C154" s="15" t="s">
         <v>11</v>
@@ -4614,7 +4665,7 @@
     <row r="167">
       <c r="A167" s="7"/>
       <c r="B167" s="14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C167" s="15" t="s">
         <v>26</v>
@@ -4930,7 +4981,7 @@
     <row r="181">
       <c r="A181" s="7"/>
       <c r="B181" s="14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C181" s="15" t="s">
         <v>26</v>
@@ -5246,7 +5297,7 @@
     <row r="195">
       <c r="A195" s="7"/>
       <c r="B195" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C195" s="15" t="s">
         <v>27</v>
@@ -5255,7 +5306,7 @@
         <v>4.0</v>
       </c>
       <c r="E195" s="20" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F195" s="21">
         <v>1.25</v>
@@ -5279,7 +5330,7 @@
       <c r="C196" s="15"/>
       <c r="D196" s="16"/>
       <c r="E196" s="20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F196" s="21">
         <v>1.25</v>
@@ -5303,7 +5354,7 @@
       <c r="C197" s="15"/>
       <c r="D197" s="16"/>
       <c r="E197" s="20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F197" s="21">
         <v>1.25</v>
@@ -5592,7 +5643,7 @@
     <row r="210">
       <c r="A210" s="7"/>
       <c r="B210" s="14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C210" s="15" t="s">
         <v>27</v>
@@ -5601,7 +5652,7 @@
         <v>4.0</v>
       </c>
       <c r="E210" s="20" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F210" s="21">
         <v>1.0</v>
@@ -5625,7 +5676,7 @@
       <c r="C211" s="15"/>
       <c r="D211" s="16"/>
       <c r="E211" s="20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F211" s="21">
         <v>1.0</v>
@@ -5649,7 +5700,7 @@
       <c r="C212" s="15"/>
       <c r="D212" s="16"/>
       <c r="E212" s="20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F212" s="21">
         <v>1.0</v>
@@ -5938,7 +5989,7 @@
     <row r="225">
       <c r="A225" s="7"/>
       <c r="B225" s="14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C225" s="15" t="s">
         <v>30</v>
@@ -6232,7 +6283,7 @@
     <row r="238">
       <c r="A238" s="7"/>
       <c r="B238" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C238" s="15" t="s">
         <v>30</v>
@@ -6526,7 +6577,7 @@
     <row r="251">
       <c r="A251" s="7"/>
       <c r="B251" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C251" s="15" t="s">
         <v>26</v>
@@ -6864,7 +6915,7 @@
     <row r="266">
       <c r="A266" s="7"/>
       <c r="B266" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C266" s="15" t="s">
         <v>26</v>
@@ -7202,7 +7253,7 @@
     <row r="281">
       <c r="A281" s="7"/>
       <c r="B281" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C281" s="15" t="s">
         <v>8</v>
@@ -7273,7 +7324,7 @@
       <c r="A284" s="7"/>
       <c r="B284" s="8"/>
       <c r="C284" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D284" s="16">
         <v>3.0</v>
@@ -7297,7 +7348,7 @@
       <c r="A285" s="7"/>
       <c r="B285" s="8"/>
       <c r="C285" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D285" s="16"/>
       <c r="E285" s="20" t="s">
@@ -7325,7 +7376,7 @@
       <c r="C286" s="15"/>
       <c r="D286" s="16"/>
       <c r="E286" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F286" s="21">
         <v>1.0</v>
@@ -7480,7 +7531,7 @@
     <row r="293">
       <c r="A293" s="7"/>
       <c r="B293" s="14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C293" s="15" t="s">
         <v>8</v>
@@ -7575,7 +7626,7 @@
       <c r="A297" s="7"/>
       <c r="B297" s="8"/>
       <c r="C297" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D297" s="16"/>
       <c r="E297" s="11"/>
@@ -7597,7 +7648,7 @@
       <c r="A298" s="7"/>
       <c r="B298" s="8"/>
       <c r="C298" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D298" s="16"/>
       <c r="E298" s="20" t="s">
@@ -7625,7 +7676,7 @@
       <c r="C299" s="15"/>
       <c r="D299" s="16"/>
       <c r="E299" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F299" s="21">
         <v>1.0</v>
@@ -7758,7 +7809,7 @@
     <row r="305">
       <c r="A305" s="7"/>
       <c r="B305" s="14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C305" s="15" t="s">
         <v>36</v>
@@ -7903,7 +7954,7 @@
       <c r="A311" s="7"/>
       <c r="B311" s="8"/>
       <c r="C311" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D311" s="10"/>
       <c r="E311" s="20" t="s">
@@ -7931,7 +7982,7 @@
       <c r="C312" s="9"/>
       <c r="D312" s="10"/>
       <c r="E312" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F312" s="21">
         <v>1.0</v>
@@ -8064,7 +8115,7 @@
     <row r="318">
       <c r="A318" s="7"/>
       <c r="B318" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C318" s="15" t="s">
         <v>36</v>
@@ -8231,7 +8282,7 @@
       <c r="A325" s="7"/>
       <c r="B325" s="8"/>
       <c r="C325" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D325" s="10"/>
       <c r="E325" s="20" t="s">
@@ -8259,7 +8310,7 @@
       <c r="C326" s="9"/>
       <c r="D326" s="10"/>
       <c r="E326" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F326" s="21">
         <v>1.0</v>
@@ -8392,7 +8443,7 @@
     <row r="332">
       <c r="A332" s="7"/>
       <c r="B332" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C332" s="15" t="s">
         <v>11</v>
@@ -8509,7 +8560,7 @@
       <c r="A337" s="7"/>
       <c r="B337" s="8"/>
       <c r="C337" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D337" s="10"/>
       <c r="E337" s="20" t="s">
@@ -8537,7 +8588,7 @@
       <c r="C338" s="9"/>
       <c r="D338" s="10"/>
       <c r="E338" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F338" s="21">
         <v>1.0</v>
@@ -8670,7 +8721,7 @@
     <row r="344">
       <c r="A344" s="7"/>
       <c r="B344" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C344" s="15" t="s">
         <v>11</v>
@@ -8809,7 +8860,7 @@
       <c r="A350" s="7"/>
       <c r="B350" s="8"/>
       <c r="C350" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D350" s="10"/>
       <c r="E350" s="20" t="s">
@@ -8837,7 +8888,7 @@
       <c r="C351" s="9"/>
       <c r="D351" s="10"/>
       <c r="E351" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F351" s="21">
         <v>1.0</v>
@@ -8970,7 +9021,7 @@
     <row r="357">
       <c r="A357" s="7"/>
       <c r="B357" s="14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C357" s="15" t="s">
         <v>26</v>
@@ -9087,7 +9138,7 @@
       <c r="A362" s="7"/>
       <c r="B362" s="8"/>
       <c r="C362" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D362" s="10"/>
       <c r="E362" s="20" t="s">
@@ -9115,7 +9166,7 @@
       <c r="C363" s="9"/>
       <c r="D363" s="10"/>
       <c r="E363" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F363" s="21">
         <v>1.0</v>
@@ -9270,7 +9321,7 @@
     <row r="370">
       <c r="A370" s="7"/>
       <c r="B370" s="14" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C370" s="15" t="s">
         <v>26</v>
@@ -9409,7 +9460,7 @@
       <c r="A376" s="7"/>
       <c r="B376" s="8"/>
       <c r="C376" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D376" s="10"/>
       <c r="E376" s="20" t="s">
@@ -9437,7 +9488,7 @@
       <c r="C377" s="9"/>
       <c r="D377" s="10"/>
       <c r="E377" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F377" s="21">
         <v>1.0</v>
@@ -9548,16 +9599,16 @@
     <row r="382">
       <c r="A382" s="7"/>
       <c r="B382" s="14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C382" s="15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D382" s="16">
         <v>4.0</v>
       </c>
       <c r="E382" s="20" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F382" s="21">
         <v>2.0</v>
@@ -9581,7 +9632,7 @@
       <c r="C383" s="9"/>
       <c r="D383" s="10"/>
       <c r="E383" s="20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F383" s="21">
         <v>2.0</v>
@@ -9603,15 +9654,15 @@
       <c r="A384" s="7"/>
       <c r="B384" s="8"/>
       <c r="C384" s="15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D384" s="16">
         <v>3.0</v>
       </c>
       <c r="E384" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F384" s="33">
+        <v>99</v>
+      </c>
+      <c r="F384" s="34">
         <v>43221.0</v>
       </c>
       <c r="H384" s="7"/>
@@ -9633,9 +9684,9 @@
       <c r="C385" s="9"/>
       <c r="D385" s="10"/>
       <c r="E385" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F385" s="33">
+        <v>81</v>
+      </c>
+      <c r="F385" s="34">
         <v>43221.0</v>
       </c>
       <c r="H385" s="7"/>
@@ -9721,7 +9772,7 @@
       <c r="A389" s="7"/>
       <c r="B389" s="8"/>
       <c r="C389" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D389" s="10"/>
       <c r="E389" s="20" t="s">
@@ -9749,7 +9800,7 @@
       <c r="C390" s="9"/>
       <c r="D390" s="10"/>
       <c r="E390" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F390" s="21">
         <v>1.0</v>
@@ -9926,16 +9977,16 @@
     <row r="398">
       <c r="A398" s="7"/>
       <c r="B398" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C398" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="C398" s="15" t="s">
-        <v>94</v>
       </c>
       <c r="D398" s="16">
         <v>4.0</v>
       </c>
       <c r="E398" s="20" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F398" s="21">
         <v>2.0</v>
@@ -9959,7 +10010,7 @@
       <c r="C399" s="9"/>
       <c r="D399" s="10"/>
       <c r="E399" s="20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F399" s="21">
         <v>2.0</v>
@@ -9981,13 +10032,13 @@
       <c r="A400" s="7"/>
       <c r="B400" s="8"/>
       <c r="C400" s="15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D400" s="16">
         <v>3.0</v>
       </c>
       <c r="E400" s="20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F400" s="21">
         <v>1.5</v>
@@ -10011,7 +10062,7 @@
       <c r="C401" s="9"/>
       <c r="D401" s="10"/>
       <c r="E401" s="20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F401" s="21">
         <v>1.5</v>
@@ -10121,7 +10172,7 @@
       <c r="A406" s="7"/>
       <c r="B406" s="8"/>
       <c r="C406" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D406" s="10"/>
       <c r="E406" s="20" t="s">
@@ -10149,7 +10200,7 @@
       <c r="C407" s="9"/>
       <c r="D407" s="10"/>
       <c r="E407" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F407" s="21">
         <v>1.0</v>
@@ -10326,10 +10377,10 @@
     <row r="415">
       <c r="A415" s="7"/>
       <c r="B415" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C415" s="15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D415" s="16">
         <v>4.0</v>
@@ -10353,7 +10404,7 @@
       <c r="A416" s="7"/>
       <c r="B416" s="8"/>
       <c r="C416" s="15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D416" s="16">
         <v>3.0</v>
@@ -10443,7 +10494,7 @@
       <c r="A420" s="7"/>
       <c r="B420" s="8"/>
       <c r="C420" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D420" s="10"/>
       <c r="E420" s="20" t="s">
@@ -10471,7 +10522,7 @@
       <c r="C421" s="9"/>
       <c r="D421" s="10"/>
       <c r="E421" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F421" s="21">
         <v>1.0</v>
@@ -10648,10 +10699,10 @@
     <row r="429">
       <c r="A429" s="7"/>
       <c r="B429" s="14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C429" s="15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D429" s="16">
         <v>4.0</v>
@@ -10675,7 +10726,7 @@
       <c r="A430" s="7"/>
       <c r="B430" s="8"/>
       <c r="C430" s="15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D430" s="16">
         <v>3.0</v>
@@ -10787,7 +10838,7 @@
       <c r="A435" s="7"/>
       <c r="B435" s="8"/>
       <c r="C435" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D435" s="10"/>
       <c r="E435" s="20" t="s">
@@ -10815,7 +10866,7 @@
       <c r="C436" s="9"/>
       <c r="D436" s="10"/>
       <c r="E436" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F436" s="21">
         <v>1.0</v>
@@ -10992,7 +11043,7 @@
     <row r="444">
       <c r="A444" s="7"/>
       <c r="B444" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C444" s="15" t="s">
         <v>26</v>
@@ -11087,7 +11138,7 @@
       <c r="A448" s="7"/>
       <c r="B448" s="8"/>
       <c r="C448" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D448" s="10"/>
       <c r="E448" s="20" t="s">
@@ -11115,7 +11166,7 @@
       <c r="C449" s="9"/>
       <c r="D449" s="10"/>
       <c r="E449" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F449" s="21">
         <v>1.0</v>
@@ -11319,7 +11370,7 @@
       <c r="C458" s="18"/>
       <c r="D458" s="22"/>
       <c r="E458" s="28"/>
-      <c r="F458" s="34"/>
+      <c r="F458" s="33"/>
       <c r="H458" s="7"/>
       <c r="I458" s="8"/>
       <c r="J458" s="9"/>
@@ -11336,7 +11387,7 @@
     <row r="459">
       <c r="A459" s="7"/>
       <c r="B459" s="27" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C459" s="18" t="s">
         <v>26</v>
@@ -11345,7 +11396,7 @@
         <v>4.0</v>
       </c>
       <c r="E459" s="28"/>
-      <c r="F459" s="34"/>
+      <c r="F459" s="33"/>
       <c r="H459" s="7"/>
       <c r="I459" s="8"/>
       <c r="J459" s="9"/>
@@ -11369,7 +11420,7 @@
         <v>3.0</v>
       </c>
       <c r="E460" s="28"/>
-      <c r="F460" s="34"/>
+      <c r="F460" s="33"/>
       <c r="H460" s="7"/>
       <c r="I460" s="8"/>
       <c r="J460" s="9"/>
@@ -11391,7 +11442,7 @@
       </c>
       <c r="D461" s="22"/>
       <c r="E461" s="28"/>
-      <c r="F461" s="34"/>
+      <c r="F461" s="33"/>
       <c r="H461" s="7"/>
       <c r="I461" s="8"/>
       <c r="J461" s="9"/>
@@ -11413,7 +11464,7 @@
       </c>
       <c r="D462" s="22"/>
       <c r="E462" s="28"/>
-      <c r="F462" s="34"/>
+      <c r="F462" s="33"/>
       <c r="H462" s="7"/>
       <c r="I462" s="8"/>
       <c r="J462" s="9"/>
@@ -11435,7 +11486,7 @@
       </c>
       <c r="D463" s="22"/>
       <c r="E463" s="28"/>
-      <c r="F463" s="34"/>
+      <c r="F463" s="33"/>
       <c r="H463" s="7"/>
       <c r="I463" s="8"/>
       <c r="J463" s="9"/>
@@ -11453,7 +11504,7 @@
       <c r="A464" s="7"/>
       <c r="B464" s="17"/>
       <c r="C464" s="18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D464" s="22"/>
       <c r="E464" s="28" t="s">
@@ -11481,7 +11532,7 @@
       <c r="C465" s="18"/>
       <c r="D465" s="22"/>
       <c r="E465" s="28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F465" s="29">
         <v>1.0</v>
@@ -11509,7 +11560,7 @@
         <v>2.0</v>
       </c>
       <c r="E466" s="28"/>
-      <c r="F466" s="34"/>
+      <c r="F466" s="33"/>
       <c r="H466" s="7"/>
       <c r="I466" s="8"/>
       <c r="J466" s="9"/>
@@ -11531,7 +11582,7 @@
       </c>
       <c r="D467" s="22"/>
       <c r="E467" s="28"/>
-      <c r="F467" s="34"/>
+      <c r="F467" s="33"/>
       <c r="H467" s="7"/>
       <c r="I467" s="8"/>
       <c r="J467" s="9"/>
@@ -11553,7 +11604,7 @@
       </c>
       <c r="D468" s="22"/>
       <c r="E468" s="28"/>
-      <c r="F468" s="34"/>
+      <c r="F468" s="33"/>
       <c r="H468" s="7"/>
       <c r="I468" s="8"/>
       <c r="J468" s="9"/>
@@ -11575,7 +11626,7 @@
       </c>
       <c r="D469" s="22"/>
       <c r="E469" s="28"/>
-      <c r="F469" s="34"/>
+      <c r="F469" s="33"/>
       <c r="H469" s="7"/>
       <c r="I469" s="8"/>
       <c r="J469" s="9"/>
@@ -11597,7 +11648,7 @@
       </c>
       <c r="D470" s="22"/>
       <c r="E470" s="28"/>
-      <c r="F470" s="34"/>
+      <c r="F470" s="33"/>
       <c r="H470" s="7"/>
       <c r="I470" s="8"/>
       <c r="J470" s="9"/>
@@ -11619,7 +11670,7 @@
       </c>
       <c r="D471" s="22"/>
       <c r="E471" s="28"/>
-      <c r="F471" s="34"/>
+      <c r="F471" s="33"/>
       <c r="H471" s="7"/>
       <c r="I471" s="8"/>
       <c r="J471" s="9"/>
@@ -11641,7 +11692,7 @@
       </c>
       <c r="D472" s="22"/>
       <c r="E472" s="28"/>
-      <c r="F472" s="34"/>
+      <c r="F472" s="33"/>
       <c r="H472" s="7"/>
       <c r="I472" s="8"/>
       <c r="J472" s="9"/>
@@ -11665,7 +11716,7 @@
         <v>1.0</v>
       </c>
       <c r="E473" s="28"/>
-      <c r="F473" s="34"/>
+      <c r="F473" s="33"/>
       <c r="H473" s="7"/>
       <c r="I473" s="8"/>
       <c r="J473" s="9"/>
@@ -11704,10 +11755,10 @@
         <v>9</v>
       </c>
       <c r="B475" s="14" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C475" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D475" s="16">
         <v>4.0</v>
@@ -11797,7 +11848,7 @@
       <c r="A479" s="7"/>
       <c r="B479" s="8"/>
       <c r="C479" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D479" s="10"/>
       <c r="E479" s="20" t="s">
@@ -11847,7 +11898,7 @@
       <c r="A481" s="7"/>
       <c r="B481" s="8"/>
       <c r="C481" s="15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D481" s="10"/>
       <c r="E481" s="20" t="s">
@@ -11923,7 +11974,7 @@
       <c r="C484" s="9"/>
       <c r="D484" s="10"/>
       <c r="E484" s="20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F484" s="21">
         <v>1.0</v>

--- a/assets/All Classes.xlsx
+++ b/assets/All Classes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="258">
   <si>
     <t>Macros</t>
   </si>
@@ -640,15 +640,15 @@
     <t>Langage Médias</t>
   </si>
   <si>
+    <t>Travail Personnel</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
     <t>3MG</t>
   </si>
   <si>
-    <t>Travail Personnel</t>
-  </si>
-  <si>
-    <t>Communication</t>
-  </si>
-  <si>
     <t>Sciences</t>
   </si>
   <si>
@@ -667,12 +667,12 @@
     <t>2GSH</t>
   </si>
   <si>
+    <t>4GSO</t>
+  </si>
+  <si>
     <t>2CA</t>
   </si>
   <si>
-    <t>4GSO</t>
-  </si>
-  <si>
     <t>Histo/Civique</t>
   </si>
   <si>
@@ -763,10 +763,10 @@
     <t>3GSN</t>
   </si>
   <si>
+    <t>2GSN</t>
+  </si>
+  <si>
     <t>2CF</t>
-  </si>
-  <si>
-    <t>2GSN</t>
   </si>
   <si>
     <t>4GACV</t>
@@ -7591,7 +7591,7 @@
       <c r="A231" s="8"/>
       <c r="B231" s="9"/>
       <c r="C231" s="17" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D231" s="18"/>
       <c r="E231" s="12"/>
@@ -7617,7 +7617,7 @@
       <c r="A232" s="8"/>
       <c r="B232" s="9"/>
       <c r="C232" s="17" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D232" s="18"/>
       <c r="E232" s="12"/>
@@ -7643,9 +7643,9 @@
       <c r="A233" s="8"/>
       <c r="B233" s="9"/>
       <c r="C233" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D233" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="D233" s="18"/>
       <c r="E233" s="12"/>
       <c r="F233" s="13"/>
       <c r="H233" s="8"/>
@@ -7671,7 +7671,7 @@
       <c r="A234" s="8"/>
       <c r="B234" s="9"/>
       <c r="C234" s="17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D234" s="11"/>
       <c r="E234" s="12"/>
@@ -7699,7 +7699,7 @@
       <c r="A235" s="8"/>
       <c r="B235" s="9"/>
       <c r="C235" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D235" s="11"/>
       <c r="E235" s="12"/>
@@ -7725,11 +7725,9 @@
       <c r="A236" s="8"/>
       <c r="B236" s="9"/>
       <c r="C236" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D236" s="18">
-        <v>1.0</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D236" s="11"/>
       <c r="E236" s="12"/>
       <c r="F236" s="13"/>
       <c r="H236" s="8"/>
@@ -7752,8 +7750,12 @@
     <row r="237">
       <c r="A237" s="8"/>
       <c r="B237" s="9"/>
-      <c r="C237" s="10"/>
-      <c r="D237" s="11"/>
+      <c r="C237" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D237" s="18">
+        <v>1.0</v>
+      </c>
       <c r="E237" s="12"/>
       <c r="F237" s="13"/>
       <c r="H237" s="8"/>
@@ -7775,15 +7777,9 @@
     </row>
     <row r="238">
       <c r="A238" s="8"/>
-      <c r="B238" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C238" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D238" s="18">
-        <v>4.0</v>
-      </c>
+      <c r="B238" s="9"/>
+      <c r="C238" s="10"/>
+      <c r="D238" s="11"/>
       <c r="E238" s="12"/>
       <c r="F238" s="13"/>
       <c r="H238" s="8"/>
@@ -7809,12 +7805,14 @@
     </row>
     <row r="239">
       <c r="A239" s="8"/>
-      <c r="B239" s="9"/>
+      <c r="B239" s="16" t="s">
+        <v>198</v>
+      </c>
       <c r="C239" s="17" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D239" s="18">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E239" s="12"/>
       <c r="F239" s="13"/>
@@ -7837,9 +7835,11 @@
       <c r="A240" s="8"/>
       <c r="B240" s="9"/>
       <c r="C240" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D240" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="D240" s="18">
+        <v>3.0</v>
+      </c>
       <c r="E240" s="12"/>
       <c r="F240" s="13"/>
       <c r="H240" s="8"/>
@@ -7869,7 +7869,7 @@
       <c r="A241" s="8"/>
       <c r="B241" s="9"/>
       <c r="C241" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D241" s="11"/>
       <c r="E241" s="12"/>
@@ -7895,7 +7895,7 @@
       <c r="A242" s="8"/>
       <c r="B242" s="9"/>
       <c r="C242" s="17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D242" s="11"/>
       <c r="E242" s="12"/>
@@ -7925,7 +7925,7 @@
       <c r="A243" s="8"/>
       <c r="B243" s="9"/>
       <c r="C243" s="17" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D243" s="11"/>
       <c r="E243" s="12"/>
@@ -7951,11 +7951,9 @@
       <c r="A244" s="8"/>
       <c r="B244" s="9"/>
       <c r="C244" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D244" s="18">
-        <v>2.0</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D244" s="11"/>
       <c r="E244" s="12"/>
       <c r="F244" s="13"/>
       <c r="H244" s="8"/>
@@ -7981,9 +7979,11 @@
       <c r="A245" s="8"/>
       <c r="B245" s="9"/>
       <c r="C245" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D245" s="18"/>
+        <v>54</v>
+      </c>
+      <c r="D245" s="18">
+        <v>2.0</v>
+      </c>
       <c r="E245" s="12"/>
       <c r="F245" s="13"/>
       <c r="H245" s="8"/>
@@ -8007,7 +8007,7 @@
       <c r="A246" s="8"/>
       <c r="B246" s="9"/>
       <c r="C246" s="17" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="D246" s="18"/>
       <c r="E246" s="12"/>
@@ -8033,9 +8033,9 @@
       <c r="A247" s="8"/>
       <c r="B247" s="9"/>
       <c r="C247" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D247" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="D247" s="18"/>
       <c r="E247" s="12"/>
       <c r="F247" s="13"/>
       <c r="H247" s="8"/>
@@ -8059,9 +8059,9 @@
       <c r="A248" s="8"/>
       <c r="B248" s="9"/>
       <c r="C248" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D248" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="D248" s="18"/>
       <c r="E248" s="12"/>
       <c r="F248" s="13"/>
       <c r="H248" s="8"/>
@@ -8085,11 +8085,9 @@
       <c r="A249" s="8"/>
       <c r="B249" s="9"/>
       <c r="C249" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D249" s="18">
-        <v>1.0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D249" s="11"/>
       <c r="E249" s="12"/>
       <c r="F249" s="13"/>
       <c r="H249" s="8"/>
@@ -8112,7 +8110,9 @@
     <row r="250">
       <c r="A250" s="8"/>
       <c r="B250" s="9"/>
-      <c r="C250" s="10"/>
+      <c r="C250" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="D250" s="11"/>
       <c r="E250" s="12"/>
       <c r="F250" s="13"/>
@@ -8139,14 +8139,12 @@
     </row>
     <row r="251">
       <c r="A251" s="8"/>
-      <c r="B251" s="16" t="s">
-        <v>209</v>
-      </c>
+      <c r="B251" s="9"/>
       <c r="C251" s="17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D251" s="18">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E251" s="12"/>
       <c r="F251" s="13"/>
@@ -8161,7 +8159,7 @@
       <c r="O251" s="8"/>
       <c r="P251" s="19"/>
       <c r="Q251" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R251" s="26"/>
       <c r="S251" s="12"/>
@@ -8170,18 +8168,14 @@
     <row r="252">
       <c r="A252" s="8"/>
       <c r="B252" s="9"/>
-      <c r="C252" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D252" s="18">
-        <v>3.0</v>
-      </c>
+      <c r="C252" s="10"/>
+      <c r="D252" s="11"/>
       <c r="E252" s="12"/>
       <c r="F252" s="13"/>
       <c r="H252" s="8"/>
       <c r="I252" s="19"/>
       <c r="J252" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K252" s="26"/>
       <c r="L252" s="22"/>
@@ -8197,11 +8191,15 @@
     </row>
     <row r="253">
       <c r="A253" s="8"/>
-      <c r="B253" s="9"/>
+      <c r="B253" s="16" t="s">
+        <v>211</v>
+      </c>
       <c r="C253" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D253" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="D253" s="18">
+        <v>4.0</v>
+      </c>
       <c r="E253" s="12"/>
       <c r="F253" s="13"/>
       <c r="H253" s="8"/>
@@ -8225,9 +8223,11 @@
       <c r="A254" s="8"/>
       <c r="B254" s="9"/>
       <c r="C254" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D254" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="D254" s="18">
+        <v>3.0</v>
+      </c>
       <c r="E254" s="12"/>
       <c r="F254" s="13"/>
       <c r="H254" s="8"/>
@@ -8251,7 +8251,7 @@
       <c r="A255" s="8"/>
       <c r="B255" s="9"/>
       <c r="C255" s="17" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D255" s="11"/>
       <c r="E255" s="12"/>
@@ -8279,11 +8279,9 @@
       <c r="A256" s="8"/>
       <c r="B256" s="9"/>
       <c r="C256" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D256" s="18">
-        <v>2.0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D256" s="11"/>
       <c r="E256" s="12"/>
       <c r="F256" s="13"/>
       <c r="H256" s="8"/>
@@ -8305,9 +8303,9 @@
       <c r="A257" s="8"/>
       <c r="B257" s="9"/>
       <c r="C257" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D257" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="D257" s="11"/>
       <c r="E257" s="12"/>
       <c r="F257" s="13"/>
       <c r="H257" s="8"/>
@@ -8329,9 +8327,11 @@
       <c r="A258" s="8"/>
       <c r="B258" s="9"/>
       <c r="C258" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D258" s="18"/>
+        <v>54</v>
+      </c>
+      <c r="D258" s="18">
+        <v>2.0</v>
+      </c>
       <c r="E258" s="12"/>
       <c r="F258" s="13"/>
       <c r="H258" s="8"/>
@@ -8353,7 +8353,7 @@
       <c r="A259" s="8"/>
       <c r="B259" s="9"/>
       <c r="C259" s="17" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D259" s="18"/>
       <c r="E259" s="12"/>
@@ -8377,9 +8377,9 @@
       <c r="A260" s="8"/>
       <c r="B260" s="9"/>
       <c r="C260" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D260" s="11"/>
+        <v>62</v>
+      </c>
+      <c r="D260" s="18"/>
       <c r="E260" s="12"/>
       <c r="F260" s="13"/>
       <c r="H260" s="8"/>
@@ -8401,9 +8401,9 @@
       <c r="A261" s="8"/>
       <c r="B261" s="9"/>
       <c r="C261" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D261" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="D261" s="18"/>
       <c r="E261" s="12"/>
       <c r="F261" s="13"/>
       <c r="H261" s="8"/>
@@ -8425,7 +8425,7 @@
       <c r="A262" s="8"/>
       <c r="B262" s="9"/>
       <c r="C262" s="17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D262" s="11"/>
       <c r="E262" s="12"/>
@@ -8451,7 +8451,7 @@
       <c r="A263" s="8"/>
       <c r="B263" s="9"/>
       <c r="C263" s="17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D263" s="11"/>
       <c r="E263" s="12"/>
@@ -8475,11 +8475,9 @@
       <c r="A264" s="8"/>
       <c r="B264" s="9"/>
       <c r="C264" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D264" s="18">
-        <v>1.0</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D264" s="11"/>
       <c r="E264" s="12"/>
       <c r="F264" s="13"/>
       <c r="H264" s="8"/>
@@ -8500,7 +8498,9 @@
     <row r="265">
       <c r="A265" s="8"/>
       <c r="B265" s="9"/>
-      <c r="C265" s="10"/>
+      <c r="C265" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="D265" s="11"/>
       <c r="E265" s="12"/>
       <c r="F265" s="13"/>
@@ -8521,14 +8521,12 @@
     </row>
     <row r="266">
       <c r="A266" s="8"/>
-      <c r="B266" s="16" t="s">
-        <v>209</v>
-      </c>
+      <c r="B266" s="9"/>
       <c r="C266" s="17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D266" s="18">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E266" s="12"/>
       <c r="F266" s="13"/>
@@ -8552,12 +8550,8 @@
     <row r="267">
       <c r="A267" s="8"/>
       <c r="B267" s="9"/>
-      <c r="C267" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D267" s="18">
-        <v>3.0</v>
-      </c>
+      <c r="C267" s="10"/>
+      <c r="D267" s="11"/>
       <c r="E267" s="12"/>
       <c r="F267" s="13"/>
       <c r="H267" s="8"/>
@@ -8575,11 +8569,15 @@
     </row>
     <row r="268">
       <c r="A268" s="8"/>
-      <c r="B268" s="9"/>
+      <c r="B268" s="16" t="s">
+        <v>211</v>
+      </c>
       <c r="C268" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D268" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="D268" s="18">
+        <v>4.0</v>
+      </c>
       <c r="E268" s="12"/>
       <c r="F268" s="13"/>
       <c r="H268" s="8"/>
@@ -8605,9 +8603,11 @@
       <c r="A269" s="8"/>
       <c r="B269" s="9"/>
       <c r="C269" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D269" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="D269" s="18">
+        <v>3.0</v>
+      </c>
       <c r="E269" s="12"/>
       <c r="F269" s="13"/>
       <c r="H269" s="8"/>
@@ -8629,7 +8629,7 @@
       <c r="A270" s="8"/>
       <c r="B270" s="9"/>
       <c r="C270" s="17" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D270" s="11"/>
       <c r="E270" s="12"/>
@@ -8653,9 +8653,9 @@
       <c r="A271" s="8"/>
       <c r="B271" s="9"/>
       <c r="C271" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D271" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="D271" s="11"/>
       <c r="E271" s="12"/>
       <c r="F271" s="13"/>
       <c r="H271" s="8"/>
@@ -8677,11 +8677,9 @@
       <c r="A272" s="8"/>
       <c r="B272" s="9"/>
       <c r="C272" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D272" s="18">
-        <v>2.0</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D272" s="11"/>
       <c r="E272" s="12"/>
       <c r="F272" s="13"/>
       <c r="H272" s="8"/>
@@ -8703,7 +8701,7 @@
       <c r="A273" s="8"/>
       <c r="B273" s="9"/>
       <c r="C273" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D273" s="18"/>
       <c r="E273" s="12"/>
@@ -8729,9 +8727,11 @@
       <c r="A274" s="8"/>
       <c r="B274" s="9"/>
       <c r="C274" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D274" s="18"/>
+        <v>54</v>
+      </c>
+      <c r="D274" s="18">
+        <v>2.0</v>
+      </c>
       <c r="E274" s="12"/>
       <c r="F274" s="13"/>
       <c r="H274" s="8"/>
@@ -8753,9 +8753,9 @@
       <c r="A275" s="8"/>
       <c r="B275" s="9"/>
       <c r="C275" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D275" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="D275" s="18"/>
       <c r="E275" s="12"/>
       <c r="F275" s="13"/>
       <c r="H275" s="8"/>
@@ -8777,9 +8777,9 @@
       <c r="A276" s="8"/>
       <c r="B276" s="9"/>
       <c r="C276" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D276" s="11"/>
+        <v>62</v>
+      </c>
+      <c r="D276" s="18"/>
       <c r="E276" s="12"/>
       <c r="F276" s="13"/>
       <c r="H276" s="8"/>
@@ -8801,7 +8801,7 @@
       <c r="A277" s="8"/>
       <c r="B277" s="9"/>
       <c r="C277" s="17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D277" s="11"/>
       <c r="E277" s="12"/>
@@ -8825,7 +8825,7 @@
       <c r="A278" s="8"/>
       <c r="B278" s="9"/>
       <c r="C278" s="17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D278" s="11"/>
       <c r="E278" s="12"/>
@@ -8851,11 +8851,9 @@
       <c r="A279" s="8"/>
       <c r="B279" s="9"/>
       <c r="C279" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D279" s="18">
-        <v>1.0</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D279" s="11"/>
       <c r="E279" s="12"/>
       <c r="F279" s="13"/>
       <c r="H279" s="8"/>
@@ -8876,7 +8874,9 @@
     <row r="280">
       <c r="A280" s="8"/>
       <c r="B280" s="9"/>
-      <c r="C280" s="10"/>
+      <c r="C280" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="D280" s="11"/>
       <c r="E280" s="12"/>
       <c r="F280" s="13"/>
@@ -8899,14 +8899,12 @@
     </row>
     <row r="281">
       <c r="A281" s="8"/>
-      <c r="B281" s="16" t="s">
-        <v>218</v>
-      </c>
+      <c r="B281" s="9"/>
       <c r="C281" s="17" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D281" s="18">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E281" s="12"/>
       <c r="F281" s="13"/>
@@ -8926,15 +8924,13 @@
     <row r="282">
       <c r="A282" s="8"/>
       <c r="B282" s="9"/>
-      <c r="C282" s="17" t="s">
-        <v>22</v>
-      </c>
+      <c r="C282" s="10"/>
       <c r="D282" s="11"/>
       <c r="E282" s="12"/>
       <c r="F282" s="13"/>
       <c r="H282" s="8"/>
       <c r="I282" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J282" s="27" t="s">
         <v>106</v>
@@ -8953,11 +8949,15 @@
     </row>
     <row r="283">
       <c r="A283" s="8"/>
-      <c r="B283" s="9"/>
+      <c r="B283" s="16" t="s">
+        <v>219</v>
+      </c>
       <c r="C283" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D283" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="D283" s="18">
+        <v>4.0</v>
+      </c>
       <c r="E283" s="12"/>
       <c r="F283" s="13"/>
       <c r="H283" s="8"/>
@@ -8981,11 +8981,9 @@
       <c r="A284" s="8"/>
       <c r="B284" s="9"/>
       <c r="C284" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D284" s="18">
-        <v>3.0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D284" s="11"/>
       <c r="E284" s="12"/>
       <c r="F284" s="13"/>
       <c r="H284" s="8"/>
@@ -9007,15 +9005,11 @@
       <c r="A285" s="8"/>
       <c r="B285" s="9"/>
       <c r="C285" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="D285" s="18"/>
-      <c r="E285" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F285" s="25">
-        <v>2.0</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D285" s="11"/>
+      <c r="E285" s="12"/>
+      <c r="F285" s="13"/>
       <c r="H285" s="8"/>
       <c r="I285" s="19"/>
       <c r="J285" s="27" t="s">
@@ -9034,14 +9028,14 @@
     <row r="286">
       <c r="A286" s="8"/>
       <c r="B286" s="9"/>
-      <c r="C286" s="17"/>
-      <c r="D286" s="18"/>
-      <c r="E286" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F286" s="25">
-        <v>1.0</v>
-      </c>
+      <c r="C286" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D286" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="E286" s="12"/>
+      <c r="F286" s="13"/>
       <c r="H286" s="8"/>
       <c r="I286" s="19"/>
       <c r="J286" s="27" t="s">
@@ -9061,13 +9055,15 @@
       <c r="A287" s="8"/>
       <c r="B287" s="9"/>
       <c r="C287" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D287" s="18">
+        <v>220</v>
+      </c>
+      <c r="D287" s="18"/>
+      <c r="E287" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F287" s="25">
         <v>2.0</v>
       </c>
-      <c r="E287" s="12"/>
-      <c r="F287" s="13"/>
       <c r="H287" s="8"/>
       <c r="I287" s="19"/>
       <c r="J287" s="27" t="s">
@@ -9086,12 +9082,14 @@
     <row r="288">
       <c r="A288" s="8"/>
       <c r="B288" s="9"/>
-      <c r="C288" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D288" s="11"/>
-      <c r="E288" s="12"/>
-      <c r="F288" s="13"/>
+      <c r="C288" s="17"/>
+      <c r="D288" s="18"/>
+      <c r="E288" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F288" s="25">
+        <v>1.0</v>
+      </c>
       <c r="H288" s="8"/>
       <c r="I288" s="19"/>
       <c r="J288" s="27" t="s">
@@ -9113,9 +9111,11 @@
       <c r="A289" s="8"/>
       <c r="B289" s="9"/>
       <c r="C289" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D289" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="D289" s="18">
+        <v>2.0</v>
+      </c>
       <c r="E289" s="12"/>
       <c r="F289" s="13"/>
       <c r="H289" s="8"/>
@@ -9137,7 +9137,7 @@
       <c r="A290" s="8"/>
       <c r="B290" s="9"/>
       <c r="C290" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D290" s="11"/>
       <c r="E290" s="12"/>
@@ -9161,11 +9161,9 @@
       <c r="A291" s="8"/>
       <c r="B291" s="9"/>
       <c r="C291" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D291" s="18">
-        <v>1.0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D291" s="11"/>
       <c r="E291" s="12"/>
       <c r="F291" s="13"/>
       <c r="H291" s="8"/>
@@ -9186,7 +9184,9 @@
     <row r="292">
       <c r="A292" s="8"/>
       <c r="B292" s="9"/>
-      <c r="C292" s="10"/>
+      <c r="C292" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="D292" s="11"/>
       <c r="E292" s="12"/>
       <c r="F292" s="13"/>
@@ -9207,14 +9207,12 @@
     </row>
     <row r="293">
       <c r="A293" s="8"/>
-      <c r="B293" s="16" t="s">
-        <v>222</v>
-      </c>
+      <c r="B293" s="9"/>
       <c r="C293" s="17" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D293" s="18">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E293" s="12"/>
       <c r="F293" s="13"/>
@@ -9236,9 +9234,7 @@
     <row r="294">
       <c r="A294" s="8"/>
       <c r="B294" s="9"/>
-      <c r="C294" s="17" t="s">
-        <v>22</v>
-      </c>
+      <c r="C294" s="10"/>
       <c r="D294" s="11"/>
       <c r="E294" s="12"/>
       <c r="F294" s="13"/>
@@ -9261,11 +9257,15 @@
     </row>
     <row r="295">
       <c r="A295" s="8"/>
-      <c r="B295" s="9"/>
+      <c r="B295" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="C295" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D295" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="D295" s="18">
+        <v>4.0</v>
+      </c>
       <c r="E295" s="12"/>
       <c r="F295" s="13"/>
       <c r="H295" s="8"/>
@@ -9285,11 +9285,9 @@
       <c r="A296" s="8"/>
       <c r="B296" s="9"/>
       <c r="C296" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D296" s="18">
-        <v>3.0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D296" s="11"/>
       <c r="E296" s="12"/>
       <c r="F296" s="13"/>
       <c r="H296" s="8"/>
@@ -9315,9 +9313,9 @@
       <c r="A297" s="8"/>
       <c r="B297" s="9"/>
       <c r="C297" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D297" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="D297" s="11"/>
       <c r="E297" s="12"/>
       <c r="F297" s="13"/>
       <c r="H297" s="8"/>
@@ -9341,15 +9339,13 @@
       <c r="A298" s="8"/>
       <c r="B298" s="9"/>
       <c r="C298" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="D298" s="18"/>
-      <c r="E298" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F298" s="25">
-        <v>2.0</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D298" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="E298" s="12"/>
+      <c r="F298" s="13"/>
       <c r="H298" s="8"/>
       <c r="I298" s="19"/>
       <c r="J298" s="27" t="s">
@@ -9368,14 +9364,12 @@
     <row r="299">
       <c r="A299" s="8"/>
       <c r="B299" s="9"/>
-      <c r="C299" s="17"/>
+      <c r="C299" s="17" t="s">
+        <v>104</v>
+      </c>
       <c r="D299" s="18"/>
-      <c r="E299" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F299" s="25">
-        <v>1.0</v>
-      </c>
+      <c r="E299" s="12"/>
+      <c r="F299" s="13"/>
       <c r="H299" s="8"/>
       <c r="I299" s="19"/>
       <c r="J299" s="27" t="s">
@@ -9395,13 +9389,15 @@
       <c r="A300" s="8"/>
       <c r="B300" s="9"/>
       <c r="C300" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D300" s="18">
+        <v>220</v>
+      </c>
+      <c r="D300" s="18"/>
+      <c r="E300" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F300" s="25">
         <v>2.0</v>
       </c>
-      <c r="E300" s="12"/>
-      <c r="F300" s="13"/>
       <c r="H300" s="8"/>
       <c r="I300" s="19"/>
       <c r="J300" s="27" t="s">
@@ -9420,12 +9416,14 @@
     <row r="301">
       <c r="A301" s="8"/>
       <c r="B301" s="9"/>
-      <c r="C301" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D301" s="11"/>
-      <c r="E301" s="12"/>
-      <c r="F301" s="13"/>
+      <c r="C301" s="17"/>
+      <c r="D301" s="18"/>
+      <c r="E301" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F301" s="25">
+        <v>1.0</v>
+      </c>
       <c r="H301" s="8"/>
       <c r="I301" s="19"/>
       <c r="J301" s="27" t="s">
@@ -9445,9 +9443,11 @@
       <c r="A302" s="8"/>
       <c r="B302" s="9"/>
       <c r="C302" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D302" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="D302" s="18">
+        <v>2.0</v>
+      </c>
       <c r="E302" s="12"/>
       <c r="F302" s="13"/>
       <c r="H302" s="8"/>
@@ -9471,11 +9471,9 @@
       <c r="A303" s="8"/>
       <c r="B303" s="9"/>
       <c r="C303" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D303" s="18">
-        <v>1.0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D303" s="11"/>
       <c r="E303" s="12"/>
       <c r="F303" s="13"/>
       <c r="H303" s="8"/>
@@ -9496,7 +9494,9 @@
     <row r="304">
       <c r="A304" s="8"/>
       <c r="B304" s="9"/>
-      <c r="C304" s="10"/>
+      <c r="C304" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="D304" s="11"/>
       <c r="E304" s="12"/>
       <c r="F304" s="13"/>
@@ -9517,21 +9517,15 @@
     </row>
     <row r="305">
       <c r="A305" s="8"/>
-      <c r="B305" s="16" t="s">
-        <v>224</v>
-      </c>
+      <c r="B305" s="9"/>
       <c r="C305" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D305" s="18">
-        <v>4.0</v>
-      </c>
-      <c r="E305" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F305" s="25">
-        <v>3.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="E305" s="12"/>
+      <c r="F305" s="13"/>
       <c r="H305" s="8"/>
       <c r="I305" s="19"/>
       <c r="J305" s="27" t="s">
@@ -9552,12 +9546,8 @@
       <c r="B306" s="9"/>
       <c r="C306" s="10"/>
       <c r="D306" s="11"/>
-      <c r="E306" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F306" s="25">
-        <v>1.0</v>
-      </c>
+      <c r="E306" s="12"/>
+      <c r="F306" s="13"/>
       <c r="H306" s="8"/>
       <c r="I306" s="19"/>
       <c r="J306" s="27" t="s">
@@ -9575,15 +9565,21 @@
     </row>
     <row r="307">
       <c r="A307" s="8"/>
-      <c r="B307" s="9"/>
+      <c r="B307" s="16" t="s">
+        <v>224</v>
+      </c>
       <c r="C307" s="17" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D307" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="E307" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F307" s="25">
         <v>3.0</v>
       </c>
-      <c r="E307" s="12"/>
-      <c r="F307" s="13"/>
       <c r="H307" s="8"/>
       <c r="I307" s="19"/>
       <c r="J307" s="27" t="s">
@@ -9604,12 +9600,14 @@
     <row r="308">
       <c r="A308" s="8"/>
       <c r="B308" s="9"/>
-      <c r="C308" s="17" t="s">
-        <v>22</v>
-      </c>
+      <c r="C308" s="10"/>
       <c r="D308" s="11"/>
-      <c r="E308" s="12"/>
-      <c r="F308" s="13"/>
+      <c r="E308" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F308" s="25">
+        <v>1.0</v>
+      </c>
       <c r="H308" s="8"/>
       <c r="I308" s="19"/>
       <c r="J308" s="27"/>
@@ -9627,9 +9625,11 @@
       <c r="A309" s="8"/>
       <c r="B309" s="9"/>
       <c r="C309" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D309" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="D309" s="18">
+        <v>3.0</v>
+      </c>
       <c r="E309" s="12"/>
       <c r="F309" s="13"/>
       <c r="H309" s="8"/>
@@ -9655,7 +9655,7 @@
       <c r="A310" s="8"/>
       <c r="B310" s="9"/>
       <c r="C310" s="17" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D310" s="11"/>
       <c r="E310" s="12"/>
@@ -9679,15 +9679,11 @@
       <c r="A311" s="8"/>
       <c r="B311" s="9"/>
       <c r="C311" s="17" t="s">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="D311" s="11"/>
-      <c r="E311" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F311" s="25">
-        <v>2.0</v>
-      </c>
+      <c r="E311" s="12"/>
+      <c r="F311" s="13"/>
       <c r="H311" s="8"/>
       <c r="I311" s="19"/>
       <c r="J311" s="27" t="s">
@@ -9706,14 +9702,12 @@
     <row r="312">
       <c r="A312" s="8"/>
       <c r="B312" s="9"/>
-      <c r="C312" s="10"/>
+      <c r="C312" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="D312" s="11"/>
-      <c r="E312" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F312" s="25">
-        <v>1.0</v>
-      </c>
+      <c r="E312" s="12"/>
+      <c r="F312" s="13"/>
       <c r="H312" s="8"/>
       <c r="I312" s="19"/>
       <c r="J312" s="27" t="s">
@@ -9733,11 +9727,15 @@
       <c r="A313" s="8"/>
       <c r="B313" s="9"/>
       <c r="C313" s="17" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="D313" s="11"/>
-      <c r="E313" s="12"/>
-      <c r="F313" s="13"/>
+      <c r="E313" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F313" s="25">
+        <v>2.0</v>
+      </c>
       <c r="H313" s="8"/>
       <c r="I313" s="19"/>
       <c r="J313" s="27" t="s">
@@ -9756,12 +9754,14 @@
     <row r="314">
       <c r="A314" s="8"/>
       <c r="B314" s="9"/>
-      <c r="C314" s="17" t="s">
-        <v>55</v>
-      </c>
+      <c r="C314" s="10"/>
       <c r="D314" s="11"/>
-      <c r="E314" s="12"/>
-      <c r="F314" s="13"/>
+      <c r="E314" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F314" s="25">
+        <v>1.0</v>
+      </c>
       <c r="H314" s="8"/>
       <c r="I314" s="19"/>
       <c r="J314" s="27" t="s">
@@ -9781,11 +9781,9 @@
       <c r="A315" s="8"/>
       <c r="B315" s="9"/>
       <c r="C315" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D315" s="18">
-        <v>2.0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D315" s="11"/>
       <c r="E315" s="12"/>
       <c r="F315" s="13"/>
       <c r="H315" s="8"/>
@@ -9807,11 +9805,9 @@
       <c r="A316" s="8"/>
       <c r="B316" s="9"/>
       <c r="C316" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D316" s="18">
-        <v>1.0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D316" s="11"/>
       <c r="E316" s="12"/>
       <c r="F316" s="13"/>
       <c r="H316" s="8"/>
@@ -9832,8 +9828,12 @@
     <row r="317">
       <c r="A317" s="8"/>
       <c r="B317" s="9"/>
-      <c r="C317" s="10"/>
-      <c r="D317" s="11"/>
+      <c r="C317" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D317" s="18">
+        <v>2.0</v>
+      </c>
       <c r="E317" s="12"/>
       <c r="F317" s="13"/>
       <c r="H317" s="8"/>
@@ -9855,21 +9855,15 @@
     </row>
     <row r="318">
       <c r="A318" s="8"/>
-      <c r="B318" s="16" t="s">
-        <v>226</v>
-      </c>
+      <c r="B318" s="9"/>
       <c r="C318" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D318" s="18">
-        <v>4.0</v>
-      </c>
-      <c r="E318" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F318" s="25">
-        <v>3.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="E318" s="12"/>
+      <c r="F318" s="13"/>
       <c r="H318" s="8"/>
       <c r="I318" s="33"/>
       <c r="J318" s="27" t="s">
@@ -9890,12 +9884,8 @@
       <c r="B319" s="9"/>
       <c r="C319" s="10"/>
       <c r="D319" s="11"/>
-      <c r="E319" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F319" s="25">
-        <v>1.0</v>
-      </c>
+      <c r="E319" s="12"/>
+      <c r="F319" s="13"/>
       <c r="H319" s="8"/>
       <c r="I319" s="19"/>
       <c r="J319" s="27" t="s">
@@ -9913,15 +9903,21 @@
     </row>
     <row r="320">
       <c r="A320" s="8"/>
-      <c r="B320" s="9"/>
+      <c r="B320" s="16" t="s">
+        <v>226</v>
+      </c>
       <c r="C320" s="17" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D320" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="E320" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F320" s="25">
         <v>3.0</v>
       </c>
-      <c r="E320" s="12"/>
-      <c r="F320" s="13"/>
       <c r="H320" s="8"/>
       <c r="I320" s="19"/>
       <c r="J320" s="27" t="s">
@@ -9942,12 +9938,14 @@
     <row r="321">
       <c r="A321" s="8"/>
       <c r="B321" s="9"/>
-      <c r="C321" s="17" t="s">
-        <v>22</v>
-      </c>
+      <c r="C321" s="10"/>
       <c r="D321" s="11"/>
-      <c r="E321" s="12"/>
-      <c r="F321" s="13"/>
+      <c r="E321" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F321" s="25">
+        <v>1.0</v>
+      </c>
       <c r="H321" s="8"/>
       <c r="I321" s="19"/>
       <c r="J321" s="27" t="s">
@@ -9967,9 +9965,11 @@
       <c r="A322" s="8"/>
       <c r="B322" s="9"/>
       <c r="C322" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D322" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="D322" s="18">
+        <v>3.0</v>
+      </c>
       <c r="E322" s="12"/>
       <c r="F322" s="13"/>
       <c r="H322" s="8"/>
@@ -9989,7 +9989,7 @@
       <c r="A323" s="8"/>
       <c r="B323" s="9"/>
       <c r="C323" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D323" s="11"/>
       <c r="E323" s="12"/>
@@ -10017,7 +10017,7 @@
       <c r="A324" s="8"/>
       <c r="B324" s="9"/>
       <c r="C324" s="17" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D324" s="11"/>
       <c r="E324" s="12"/>
@@ -10041,15 +10041,11 @@
       <c r="A325" s="8"/>
       <c r="B325" s="9"/>
       <c r="C325" s="17" t="s">
-        <v>220</v>
+        <v>51</v>
       </c>
       <c r="D325" s="11"/>
-      <c r="E325" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F325" s="25">
-        <v>2.0</v>
-      </c>
+      <c r="E325" s="12"/>
+      <c r="F325" s="13"/>
       <c r="H325" s="8"/>
       <c r="I325" s="19"/>
       <c r="J325" s="27" t="s">
@@ -10068,14 +10064,12 @@
     <row r="326">
       <c r="A326" s="8"/>
       <c r="B326" s="9"/>
-      <c r="C326" s="10"/>
+      <c r="C326" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="D326" s="11"/>
-      <c r="E326" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F326" s="25">
-        <v>1.0</v>
-      </c>
+      <c r="E326" s="12"/>
+      <c r="F326" s="13"/>
       <c r="H326" s="8"/>
       <c r="I326" s="19"/>
       <c r="J326" s="27" t="s">
@@ -10097,11 +10091,15 @@
       <c r="A327" s="8"/>
       <c r="B327" s="9"/>
       <c r="C327" s="17" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="D327" s="11"/>
-      <c r="E327" s="12"/>
-      <c r="F327" s="13"/>
+      <c r="E327" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F327" s="25">
+        <v>2.0</v>
+      </c>
       <c r="H327" s="8"/>
       <c r="I327" s="19"/>
       <c r="J327" s="27" t="s">
@@ -10120,12 +10118,14 @@
     <row r="328">
       <c r="A328" s="8"/>
       <c r="B328" s="9"/>
-      <c r="C328" s="17" t="s">
-        <v>55</v>
-      </c>
+      <c r="C328" s="10"/>
       <c r="D328" s="11"/>
-      <c r="E328" s="12"/>
-      <c r="F328" s="13"/>
+      <c r="E328" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F328" s="25">
+        <v>1.0</v>
+      </c>
       <c r="H328" s="8"/>
       <c r="I328" s="19"/>
       <c r="J328" s="27" t="s">
@@ -10145,11 +10145,9 @@
       <c r="A329" s="8"/>
       <c r="B329" s="9"/>
       <c r="C329" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D329" s="18">
-        <v>2.0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D329" s="11"/>
       <c r="E329" s="12"/>
       <c r="F329" s="13"/>
       <c r="H329" s="8"/>
@@ -10171,11 +10169,9 @@
       <c r="A330" s="8"/>
       <c r="B330" s="9"/>
       <c r="C330" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D330" s="18">
-        <v>1.0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D330" s="11"/>
       <c r="E330" s="12"/>
       <c r="F330" s="13"/>
       <c r="H330" s="8"/>
@@ -10196,8 +10192,12 @@
     <row r="331">
       <c r="A331" s="8"/>
       <c r="B331" s="9"/>
-      <c r="C331" s="10"/>
-      <c r="D331" s="11"/>
+      <c r="C331" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D331" s="18">
+        <v>2.0</v>
+      </c>
       <c r="E331" s="12"/>
       <c r="F331" s="13"/>
       <c r="H331" s="8"/>
@@ -10217,14 +10217,12 @@
     </row>
     <row r="332">
       <c r="A332" s="8"/>
-      <c r="B332" s="16" t="s">
-        <v>232</v>
-      </c>
+      <c r="B332" s="9"/>
       <c r="C332" s="17" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D332" s="18">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E332" s="12"/>
       <c r="F332" s="13"/>
@@ -10248,12 +10246,8 @@
     <row r="333">
       <c r="A333" s="8"/>
       <c r="B333" s="9"/>
-      <c r="C333" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D333" s="18">
-        <v>3.0</v>
-      </c>
+      <c r="C333" s="10"/>
+      <c r="D333" s="11"/>
       <c r="E333" s="12"/>
       <c r="F333" s="13"/>
       <c r="H333" s="8"/>
@@ -10273,11 +10267,15 @@
     </row>
     <row r="334">
       <c r="A334" s="8"/>
-      <c r="B334" s="9"/>
+      <c r="B334" s="16" t="s">
+        <v>232</v>
+      </c>
       <c r="C334" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D334" s="11"/>
+        <v>62</v>
+      </c>
+      <c r="D334" s="18">
+        <v>4.0</v>
+      </c>
       <c r="E334" s="12"/>
       <c r="F334" s="13"/>
       <c r="H334" s="8"/>
@@ -10299,9 +10297,11 @@
       <c r="A335" s="8"/>
       <c r="B335" s="9"/>
       <c r="C335" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D335" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="D335" s="18">
+        <v>3.0</v>
+      </c>
       <c r="E335" s="12"/>
       <c r="F335" s="13"/>
       <c r="H335" s="8"/>
@@ -10325,7 +10325,7 @@
       <c r="A336" s="8"/>
       <c r="B336" s="9"/>
       <c r="C336" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D336" s="11"/>
       <c r="E336" s="12"/>
@@ -10347,15 +10347,11 @@
       <c r="A337" s="8"/>
       <c r="B337" s="9"/>
       <c r="C337" s="17" t="s">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="D337" s="11"/>
-      <c r="E337" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F337" s="25">
-        <v>2.0</v>
-      </c>
+      <c r="E337" s="12"/>
+      <c r="F337" s="13"/>
       <c r="H337" s="8"/>
       <c r="I337" s="19" t="s">
         <v>233</v>
@@ -10378,14 +10374,12 @@
     <row r="338">
       <c r="A338" s="8"/>
       <c r="B338" s="9"/>
-      <c r="C338" s="10"/>
+      <c r="C338" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="D338" s="11"/>
-      <c r="E338" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F338" s="25">
-        <v>1.0</v>
-      </c>
+      <c r="E338" s="12"/>
+      <c r="F338" s="13"/>
       <c r="H338" s="8"/>
       <c r="I338" s="19"/>
       <c r="J338" s="27" t="s">
@@ -10405,11 +10399,15 @@
       <c r="A339" s="8"/>
       <c r="B339" s="9"/>
       <c r="C339" s="17" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="D339" s="11"/>
-      <c r="E339" s="12"/>
-      <c r="F339" s="13"/>
+      <c r="E339" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F339" s="25">
+        <v>2.0</v>
+      </c>
       <c r="H339" s="8"/>
       <c r="I339" s="19"/>
       <c r="J339" s="27" t="s">
@@ -10428,12 +10426,14 @@
     <row r="340">
       <c r="A340" s="8"/>
       <c r="B340" s="9"/>
-      <c r="C340" s="17" t="s">
-        <v>55</v>
-      </c>
+      <c r="C340" s="10"/>
       <c r="D340" s="11"/>
-      <c r="E340" s="12"/>
-      <c r="F340" s="13"/>
+      <c r="E340" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F340" s="25">
+        <v>1.0</v>
+      </c>
       <c r="H340" s="8"/>
       <c r="I340" s="19"/>
       <c r="J340" s="27" t="s">
@@ -10455,11 +10455,9 @@
       <c r="A341" s="8"/>
       <c r="B341" s="9"/>
       <c r="C341" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D341" s="18">
-        <v>2.0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D341" s="11"/>
       <c r="E341" s="12"/>
       <c r="F341" s="13"/>
       <c r="H341" s="8"/>
@@ -10481,11 +10479,9 @@
       <c r="A342" s="8"/>
       <c r="B342" s="9"/>
       <c r="C342" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D342" s="18">
-        <v>1.0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D342" s="11"/>
       <c r="E342" s="12"/>
       <c r="F342" s="13"/>
       <c r="H342" s="8"/>
@@ -10506,8 +10502,12 @@
     <row r="343">
       <c r="A343" s="8"/>
       <c r="B343" s="9"/>
-      <c r="C343" s="10"/>
-      <c r="D343" s="11"/>
+      <c r="C343" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D343" s="18">
+        <v>2.0</v>
+      </c>
       <c r="E343" s="12"/>
       <c r="F343" s="13"/>
       <c r="H343" s="8"/>
@@ -10527,14 +10527,12 @@
     </row>
     <row r="344">
       <c r="A344" s="8"/>
-      <c r="B344" s="16" t="s">
-        <v>234</v>
-      </c>
+      <c r="B344" s="9"/>
       <c r="C344" s="17" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D344" s="18">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E344" s="12"/>
       <c r="F344" s="13"/>
@@ -10556,12 +10554,8 @@
     <row r="345">
       <c r="A345" s="8"/>
       <c r="B345" s="9"/>
-      <c r="C345" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D345" s="18">
-        <v>3.0</v>
-      </c>
+      <c r="C345" s="10"/>
+      <c r="D345" s="11"/>
       <c r="E345" s="12"/>
       <c r="F345" s="13"/>
       <c r="H345" s="8"/>
@@ -10581,11 +10575,15 @@
     </row>
     <row r="346">
       <c r="A346" s="8"/>
-      <c r="B346" s="9"/>
+      <c r="B346" s="16" t="s">
+        <v>234</v>
+      </c>
       <c r="C346" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D346" s="11"/>
+        <v>62</v>
+      </c>
+      <c r="D346" s="18">
+        <v>4.0</v>
+      </c>
       <c r="E346" s="12"/>
       <c r="F346" s="13"/>
       <c r="H346" s="8"/>
@@ -10609,9 +10607,11 @@
       <c r="A347" s="8"/>
       <c r="B347" s="9"/>
       <c r="C347" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D347" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="D347" s="18">
+        <v>3.0</v>
+      </c>
       <c r="E347" s="12"/>
       <c r="F347" s="13"/>
       <c r="H347" s="8"/>
@@ -10633,7 +10633,7 @@
       <c r="A348" s="8"/>
       <c r="B348" s="9"/>
       <c r="C348" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D348" s="11"/>
       <c r="E348" s="12"/>
@@ -10657,7 +10657,7 @@
       <c r="A349" s="8"/>
       <c r="B349" s="9"/>
       <c r="C349" s="17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D349" s="11"/>
       <c r="E349" s="12"/>
@@ -10683,15 +10683,11 @@
       <c r="A350" s="8"/>
       <c r="B350" s="9"/>
       <c r="C350" s="17" t="s">
-        <v>220</v>
+        <v>51</v>
       </c>
       <c r="D350" s="11"/>
-      <c r="E350" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F350" s="25">
-        <v>2.0</v>
-      </c>
+      <c r="E350" s="12"/>
+      <c r="F350" s="13"/>
       <c r="H350" s="8"/>
       <c r="I350" s="19"/>
       <c r="J350" s="27"/>
@@ -10708,14 +10704,12 @@
     <row r="351">
       <c r="A351" s="8"/>
       <c r="B351" s="9"/>
-      <c r="C351" s="10"/>
+      <c r="C351" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="D351" s="11"/>
-      <c r="E351" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F351" s="25">
-        <v>1.0</v>
-      </c>
+      <c r="E351" s="12"/>
+      <c r="F351" s="13"/>
       <c r="H351" s="8"/>
       <c r="I351" s="19" t="s">
         <v>235</v>
@@ -10739,11 +10733,15 @@
       <c r="A352" s="8"/>
       <c r="B352" s="9"/>
       <c r="C352" s="17" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="D352" s="11"/>
-      <c r="E352" s="12"/>
-      <c r="F352" s="13"/>
+      <c r="E352" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F352" s="25">
+        <v>2.0</v>
+      </c>
       <c r="H352" s="8"/>
       <c r="I352" s="19"/>
       <c r="J352" s="27" t="s">
@@ -10762,12 +10760,14 @@
     <row r="353">
       <c r="A353" s="8"/>
       <c r="B353" s="9"/>
-      <c r="C353" s="17" t="s">
-        <v>55</v>
-      </c>
+      <c r="C353" s="10"/>
       <c r="D353" s="11"/>
-      <c r="E353" s="12"/>
-      <c r="F353" s="13"/>
+      <c r="E353" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F353" s="25">
+        <v>1.0</v>
+      </c>
       <c r="H353" s="8"/>
       <c r="I353" s="19"/>
       <c r="J353" s="27" t="s">
@@ -10787,11 +10787,9 @@
       <c r="A354" s="8"/>
       <c r="B354" s="9"/>
       <c r="C354" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D354" s="18">
-        <v>2.0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D354" s="11"/>
       <c r="E354" s="12"/>
       <c r="F354" s="13"/>
       <c r="H354" s="8"/>
@@ -10815,11 +10813,9 @@
       <c r="A355" s="8"/>
       <c r="B355" s="9"/>
       <c r="C355" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D355" s="18">
-        <v>1.0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D355" s="11"/>
       <c r="E355" s="12"/>
       <c r="F355" s="13"/>
       <c r="H355" s="8"/>
@@ -10840,8 +10836,12 @@
     <row r="356">
       <c r="A356" s="8"/>
       <c r="B356" s="9"/>
-      <c r="C356" s="10"/>
-      <c r="D356" s="11"/>
+      <c r="C356" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D356" s="18">
+        <v>2.0</v>
+      </c>
       <c r="E356" s="12"/>
       <c r="F356" s="13"/>
       <c r="H356" s="8"/>
@@ -10861,14 +10861,12 @@
     </row>
     <row r="357">
       <c r="A357" s="8"/>
-      <c r="B357" s="16" t="s">
-        <v>236</v>
-      </c>
+      <c r="B357" s="9"/>
       <c r="C357" s="17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D357" s="18">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E357" s="12"/>
       <c r="F357" s="13"/>
@@ -10890,12 +10888,8 @@
     <row r="358">
       <c r="A358" s="8"/>
       <c r="B358" s="9"/>
-      <c r="C358" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D358" s="18">
-        <v>3.0</v>
-      </c>
+      <c r="C358" s="10"/>
+      <c r="D358" s="11"/>
       <c r="E358" s="12"/>
       <c r="F358" s="13"/>
       <c r="H358" s="8"/>
@@ -10915,11 +10909,15 @@
     </row>
     <row r="359">
       <c r="A359" s="8"/>
-      <c r="B359" s="9"/>
+      <c r="B359" s="16" t="s">
+        <v>236</v>
+      </c>
       <c r="C359" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D359" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="D359" s="18">
+        <v>4.0</v>
+      </c>
       <c r="E359" s="12"/>
       <c r="F359" s="13"/>
       <c r="H359" s="8"/>
@@ -10943,9 +10941,11 @@
       <c r="A360" s="8"/>
       <c r="B360" s="9"/>
       <c r="C360" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D360" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="D360" s="18">
+        <v>3.0</v>
+      </c>
       <c r="E360" s="12"/>
       <c r="F360" s="13"/>
       <c r="H360" s="8"/>
@@ -10967,7 +10967,7 @@
       <c r="A361" s="8"/>
       <c r="B361" s="9"/>
       <c r="C361" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D361" s="11"/>
       <c r="E361" s="12"/>
@@ -10991,15 +10991,11 @@
       <c r="A362" s="8"/>
       <c r="B362" s="9"/>
       <c r="C362" s="17" t="s">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="D362" s="11"/>
-      <c r="E362" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F362" s="25">
-        <v>2.0</v>
-      </c>
+      <c r="E362" s="12"/>
+      <c r="F362" s="13"/>
       <c r="H362" s="8"/>
       <c r="I362" s="19"/>
       <c r="J362" s="27" t="s">
@@ -11020,14 +11016,12 @@
     <row r="363">
       <c r="A363" s="8"/>
       <c r="B363" s="9"/>
-      <c r="C363" s="10"/>
+      <c r="C363" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="D363" s="11"/>
-      <c r="E363" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F363" s="25">
-        <v>1.0</v>
-      </c>
+      <c r="E363" s="12"/>
+      <c r="F363" s="13"/>
       <c r="H363" s="8"/>
       <c r="I363" s="19"/>
       <c r="J363" s="27"/>
@@ -11045,11 +11039,15 @@
       <c r="A364" s="8"/>
       <c r="B364" s="9"/>
       <c r="C364" s="17" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="D364" s="11"/>
-      <c r="E364" s="12"/>
-      <c r="F364" s="13"/>
+      <c r="E364" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F364" s="25">
+        <v>2.0</v>
+      </c>
       <c r="H364" s="8"/>
       <c r="I364" s="19" t="s">
         <v>237</v>
@@ -11072,14 +11070,14 @@
     <row r="365">
       <c r="A365" s="8"/>
       <c r="B365" s="9"/>
-      <c r="C365" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D365" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="E365" s="12"/>
-      <c r="F365" s="13"/>
+      <c r="C365" s="10"/>
+      <c r="D365" s="11"/>
+      <c r="E365" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F365" s="25">
+        <v>1.0</v>
+      </c>
       <c r="H365" s="8"/>
       <c r="I365" s="19"/>
       <c r="J365" s="27" t="s">
@@ -11099,9 +11097,9 @@
       <c r="A366" s="8"/>
       <c r="B366" s="9"/>
       <c r="C366" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D366" s="18"/>
+        <v>67</v>
+      </c>
+      <c r="D366" s="11"/>
       <c r="E366" s="12"/>
       <c r="F366" s="13"/>
       <c r="H366" s="8"/>
@@ -11123,9 +11121,11 @@
       <c r="A367" s="8"/>
       <c r="B367" s="9"/>
       <c r="C367" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D367" s="18"/>
+        <v>41</v>
+      </c>
+      <c r="D367" s="18">
+        <v>2.0</v>
+      </c>
       <c r="E367" s="12"/>
       <c r="F367" s="13"/>
       <c r="H367" s="8"/>
@@ -11149,11 +11149,9 @@
       <c r="A368" s="8"/>
       <c r="B368" s="9"/>
       <c r="C368" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D368" s="18">
-        <v>1.0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D368" s="18"/>
       <c r="E368" s="12"/>
       <c r="F368" s="13"/>
       <c r="H368" s="8"/>
@@ -11174,8 +11172,10 @@
     <row r="369">
       <c r="A369" s="8"/>
       <c r="B369" s="9"/>
-      <c r="C369" s="10"/>
-      <c r="D369" s="11"/>
+      <c r="C369" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D369" s="18"/>
       <c r="E369" s="12"/>
       <c r="F369" s="13"/>
       <c r="H369" s="8"/>
@@ -11195,14 +11195,12 @@
     </row>
     <row r="370">
       <c r="A370" s="8"/>
-      <c r="B370" s="16" t="s">
-        <v>238</v>
-      </c>
+      <c r="B370" s="9"/>
       <c r="C370" s="17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D370" s="18">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E370" s="12"/>
       <c r="F370" s="13"/>
@@ -11224,12 +11222,8 @@
     <row r="371">
       <c r="A371" s="8"/>
       <c r="B371" s="9"/>
-      <c r="C371" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D371" s="18">
-        <v>3.0</v>
-      </c>
+      <c r="C371" s="10"/>
+      <c r="D371" s="11"/>
       <c r="E371" s="12"/>
       <c r="F371" s="13"/>
       <c r="H371" s="8"/>
@@ -11249,11 +11243,15 @@
     </row>
     <row r="372">
       <c r="A372" s="8"/>
-      <c r="B372" s="9"/>
+      <c r="B372" s="16" t="s">
+        <v>238</v>
+      </c>
       <c r="C372" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D372" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="D372" s="18">
+        <v>4.0</v>
+      </c>
       <c r="E372" s="12"/>
       <c r="F372" s="13"/>
       <c r="H372" s="8"/>
@@ -11277,9 +11275,11 @@
       <c r="A373" s="8"/>
       <c r="B373" s="9"/>
       <c r="C373" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D373" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="D373" s="18">
+        <v>3.0</v>
+      </c>
       <c r="E373" s="12"/>
       <c r="F373" s="13"/>
       <c r="H373" s="8"/>
@@ -11301,7 +11301,7 @@
       <c r="A374" s="8"/>
       <c r="B374" s="9"/>
       <c r="C374" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D374" s="11"/>
       <c r="E374" s="12"/>
@@ -11325,7 +11325,7 @@
       <c r="A375" s="8"/>
       <c r="B375" s="9"/>
       <c r="C375" s="17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D375" s="11"/>
       <c r="E375" s="12"/>
@@ -11351,15 +11351,11 @@
       <c r="A376" s="8"/>
       <c r="B376" s="9"/>
       <c r="C376" s="17" t="s">
-        <v>220</v>
+        <v>51</v>
       </c>
       <c r="D376" s="11"/>
-      <c r="E376" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F376" s="25">
-        <v>2.0</v>
-      </c>
+      <c r="E376" s="12"/>
+      <c r="F376" s="13"/>
       <c r="H376" s="8"/>
       <c r="I376" s="19"/>
       <c r="J376" s="27"/>
@@ -11376,14 +11372,12 @@
     <row r="377">
       <c r="A377" s="8"/>
       <c r="B377" s="9"/>
-      <c r="C377" s="10"/>
+      <c r="C377" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="D377" s="11"/>
-      <c r="E377" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F377" s="25">
-        <v>1.0</v>
-      </c>
+      <c r="E377" s="12"/>
+      <c r="F377" s="13"/>
       <c r="H377" s="8"/>
       <c r="I377" s="19" t="s">
         <v>239</v>
@@ -11407,11 +11401,15 @@
       <c r="A378" s="8"/>
       <c r="B378" s="9"/>
       <c r="C378" s="17" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="D378" s="11"/>
-      <c r="E378" s="12"/>
-      <c r="F378" s="13"/>
+      <c r="E378" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F378" s="25">
+        <v>2.0</v>
+      </c>
       <c r="H378" s="8"/>
       <c r="I378" s="19"/>
       <c r="J378" s="27" t="s">
@@ -11430,14 +11428,14 @@
     <row r="379">
       <c r="A379" s="8"/>
       <c r="B379" s="9"/>
-      <c r="C379" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D379" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="E379" s="12"/>
-      <c r="F379" s="13"/>
+      <c r="C379" s="10"/>
+      <c r="D379" s="11"/>
+      <c r="E379" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F379" s="25">
+        <v>1.0</v>
+      </c>
       <c r="H379" s="8"/>
       <c r="I379" s="19"/>
       <c r="J379" s="27" t="s">
@@ -11457,11 +11455,9 @@
       <c r="A380" s="8"/>
       <c r="B380" s="9"/>
       <c r="C380" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D380" s="18">
-        <v>1.0</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D380" s="11"/>
       <c r="E380" s="12"/>
       <c r="F380" s="13"/>
       <c r="H380" s="8"/>
@@ -11484,8 +11480,12 @@
     <row r="381">
       <c r="A381" s="8"/>
       <c r="B381" s="9"/>
-      <c r="C381" s="10"/>
-      <c r="D381" s="11"/>
+      <c r="C381" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D381" s="18">
+        <v>2.0</v>
+      </c>
       <c r="E381" s="12"/>
       <c r="F381" s="13"/>
       <c r="H381" s="8"/>
@@ -11505,21 +11505,15 @@
     </row>
     <row r="382">
       <c r="A382" s="8"/>
-      <c r="B382" s="16" t="s">
-        <v>240</v>
-      </c>
+      <c r="B382" s="9"/>
       <c r="C382" s="17" t="s">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="D382" s="18">
-        <v>4.0</v>
-      </c>
-      <c r="E382" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F382" s="25">
-        <v>2.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="E382" s="12"/>
+      <c r="F382" s="13"/>
       <c r="H382" s="8"/>
       <c r="I382" s="19"/>
       <c r="J382" s="27" t="s">
@@ -11540,12 +11534,8 @@
       <c r="B383" s="9"/>
       <c r="C383" s="10"/>
       <c r="D383" s="11"/>
-      <c r="E383" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="F383" s="25">
-        <v>2.0</v>
-      </c>
+      <c r="E383" s="12"/>
+      <c r="F383" s="13"/>
       <c r="H383" s="8"/>
       <c r="I383" s="19"/>
       <c r="J383" s="27" t="s">
@@ -11563,18 +11553,20 @@
     </row>
     <row r="384">
       <c r="A384" s="8"/>
-      <c r="B384" s="9"/>
+      <c r="B384" s="16" t="s">
+        <v>240</v>
+      </c>
       <c r="C384" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D384" s="18">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E384" s="24" t="s">
-        <v>243</v>
+        <v>84</v>
       </c>
       <c r="F384" s="25">
-        <v>1.5</v>
+        <v>2.0</v>
       </c>
       <c r="H384" s="8"/>
       <c r="I384" s="19"/>
@@ -11597,10 +11589,10 @@
       <c r="C385" s="10"/>
       <c r="D385" s="11"/>
       <c r="E385" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F385" s="25">
-        <v>1.5</v>
+        <v>2.0</v>
       </c>
       <c r="H385" s="8"/>
       <c r="I385" s="19"/>
@@ -11621,11 +11613,17 @@
       <c r="A386" s="8"/>
       <c r="B386" s="9"/>
       <c r="C386" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D386" s="11"/>
-      <c r="E386" s="12"/>
-      <c r="F386" s="13"/>
+        <v>242</v>
+      </c>
+      <c r="D386" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="E386" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="F386" s="25">
+        <v>1.5</v>
+      </c>
       <c r="H386" s="8"/>
       <c r="I386" s="33"/>
       <c r="J386" s="27" t="s">
@@ -11644,12 +11642,14 @@
     <row r="387">
       <c r="A387" s="8"/>
       <c r="B387" s="9"/>
-      <c r="C387" s="17" t="s">
-        <v>22</v>
-      </c>
+      <c r="C387" s="10"/>
       <c r="D387" s="11"/>
-      <c r="E387" s="12"/>
-      <c r="F387" s="13"/>
+      <c r="E387" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F387" s="25">
+        <v>1.5</v>
+      </c>
       <c r="H387" s="8"/>
       <c r="I387" s="19"/>
       <c r="J387" s="27" t="s">
@@ -11671,7 +11671,7 @@
       <c r="A388" s="8"/>
       <c r="B388" s="9"/>
       <c r="C388" s="17" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D388" s="11"/>
       <c r="E388" s="12"/>
@@ -11697,15 +11697,11 @@
       <c r="A389" s="8"/>
       <c r="B389" s="9"/>
       <c r="C389" s="17" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="D389" s="11"/>
-      <c r="E389" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F389" s="25">
-        <v>2.0</v>
-      </c>
+      <c r="E389" s="12"/>
+      <c r="F389" s="13"/>
       <c r="H389" s="8"/>
       <c r="I389" s="19"/>
       <c r="J389" s="27"/>
@@ -11722,14 +11718,12 @@
     <row r="390">
       <c r="A390" s="8"/>
       <c r="B390" s="9"/>
-      <c r="C390" s="10"/>
+      <c r="C390" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="D390" s="11"/>
-      <c r="E390" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F390" s="25">
-        <v>1.0</v>
-      </c>
+      <c r="E390" s="12"/>
+      <c r="F390" s="13"/>
       <c r="H390" s="8"/>
       <c r="I390" s="19" t="s">
         <v>244</v>
@@ -11753,13 +11747,15 @@
       <c r="A391" s="8"/>
       <c r="B391" s="9"/>
       <c r="C391" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D391" s="18">
+        <v>220</v>
+      </c>
+      <c r="D391" s="11"/>
+      <c r="E391" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F391" s="25">
         <v>2.0</v>
       </c>
-      <c r="E391" s="12"/>
-      <c r="F391" s="13"/>
       <c r="H391" s="8"/>
       <c r="I391" s="19"/>
       <c r="J391" s="27" t="s">
@@ -11778,12 +11774,14 @@
     <row r="392">
       <c r="A392" s="8"/>
       <c r="B392" s="9"/>
-      <c r="C392" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="C392" s="10"/>
       <c r="D392" s="11"/>
-      <c r="E392" s="12"/>
-      <c r="F392" s="13"/>
+      <c r="E392" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F392" s="25">
+        <v>1.0</v>
+      </c>
       <c r="H392" s="8"/>
       <c r="I392" s="19"/>
       <c r="J392" s="27" t="s">
@@ -11803,9 +11801,11 @@
       <c r="A393" s="8"/>
       <c r="B393" s="9"/>
       <c r="C393" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D393" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="D393" s="18">
+        <v>2.0</v>
+      </c>
       <c r="E393" s="12"/>
       <c r="F393" s="13"/>
       <c r="H393" s="8"/>
@@ -11829,7 +11829,7 @@
       <c r="A394" s="8"/>
       <c r="B394" s="9"/>
       <c r="C394" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D394" s="11"/>
       <c r="E394" s="12"/>
@@ -11853,7 +11853,7 @@
       <c r="A395" s="8"/>
       <c r="B395" s="9"/>
       <c r="C395" s="17" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D395" s="11"/>
       <c r="E395" s="12"/>
@@ -11877,11 +11877,9 @@
       <c r="A396" s="8"/>
       <c r="B396" s="9"/>
       <c r="C396" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D396" s="18">
-        <v>1.0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D396" s="11"/>
       <c r="E396" s="12"/>
       <c r="F396" s="13"/>
       <c r="H396" s="8"/>
@@ -11902,7 +11900,9 @@
     <row r="397">
       <c r="A397" s="8"/>
       <c r="B397" s="9"/>
-      <c r="C397" s="10"/>
+      <c r="C397" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="D397" s="11"/>
       <c r="E397" s="12"/>
       <c r="F397" s="13"/>
@@ -11923,21 +11923,15 @@
     </row>
     <row r="398">
       <c r="A398" s="8"/>
-      <c r="B398" s="16" t="s">
-        <v>245</v>
-      </c>
+      <c r="B398" s="9"/>
       <c r="C398" s="17" t="s">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="D398" s="18">
-        <v>4.0</v>
-      </c>
-      <c r="E398" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F398" s="25">
-        <v>2.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="E398" s="12"/>
+      <c r="F398" s="13"/>
       <c r="H398" s="8"/>
       <c r="I398" s="19"/>
       <c r="J398" s="20" t="s">
@@ -11958,12 +11952,8 @@
       <c r="B399" s="9"/>
       <c r="C399" s="10"/>
       <c r="D399" s="11"/>
-      <c r="E399" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="F399" s="25">
-        <v>2.0</v>
-      </c>
+      <c r="E399" s="12"/>
+      <c r="F399" s="13"/>
       <c r="H399" s="8"/>
       <c r="I399" s="33"/>
       <c r="J399" s="27" t="s">
@@ -11983,18 +11973,20 @@
     </row>
     <row r="400">
       <c r="A400" s="8"/>
-      <c r="B400" s="9"/>
+      <c r="B400" s="16" t="s">
+        <v>245</v>
+      </c>
       <c r="C400" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D400" s="18">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E400" s="24" t="s">
-        <v>243</v>
+        <v>84</v>
       </c>
       <c r="F400" s="25">
-        <v>1.5</v>
+        <v>2.0</v>
       </c>
       <c r="H400" s="8"/>
       <c r="I400" s="19"/>
@@ -12017,10 +12009,10 @@
       <c r="C401" s="10"/>
       <c r="D401" s="11"/>
       <c r="E401" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F401" s="25">
-        <v>1.5</v>
+        <v>2.0</v>
       </c>
       <c r="H401" s="8"/>
       <c r="I401" s="19"/>
@@ -12041,11 +12033,17 @@
       <c r="A402" s="8"/>
       <c r="B402" s="9"/>
       <c r="C402" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D402" s="11"/>
-      <c r="E402" s="12"/>
-      <c r="F402" s="13"/>
+        <v>242</v>
+      </c>
+      <c r="D402" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="E402" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="F402" s="25">
+        <v>1.5</v>
+      </c>
       <c r="H402" s="8"/>
       <c r="I402" s="19"/>
       <c r="J402" s="27" t="s">
@@ -12066,12 +12064,14 @@
     <row r="403">
       <c r="A403" s="8"/>
       <c r="B403" s="9"/>
-      <c r="C403" s="17" t="s">
-        <v>22</v>
-      </c>
+      <c r="C403" s="10"/>
       <c r="D403" s="11"/>
-      <c r="E403" s="12"/>
-      <c r="F403" s="13"/>
+      <c r="E403" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F403" s="25">
+        <v>1.5</v>
+      </c>
       <c r="H403" s="8"/>
       <c r="I403" s="19"/>
       <c r="J403" s="27"/>
@@ -12089,7 +12089,7 @@
       <c r="A404" s="8"/>
       <c r="B404" s="9"/>
       <c r="C404" s="17" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D404" s="11"/>
       <c r="E404" s="12"/>
@@ -12117,7 +12117,7 @@
       <c r="A405" s="8"/>
       <c r="B405" s="9"/>
       <c r="C405" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D405" s="11"/>
       <c r="E405" s="12"/>
@@ -12141,15 +12141,11 @@
       <c r="A406" s="8"/>
       <c r="B406" s="9"/>
       <c r="C406" s="17" t="s">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="D406" s="11"/>
-      <c r="E406" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F406" s="25">
-        <v>2.0</v>
-      </c>
+      <c r="E406" s="12"/>
+      <c r="F406" s="13"/>
       <c r="H406" s="8"/>
       <c r="I406" s="19"/>
       <c r="J406" s="27" t="s">
@@ -12168,14 +12164,12 @@
     <row r="407">
       <c r="A407" s="8"/>
       <c r="B407" s="9"/>
-      <c r="C407" s="10"/>
+      <c r="C407" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="D407" s="11"/>
-      <c r="E407" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F407" s="25">
-        <v>1.0</v>
-      </c>
+      <c r="E407" s="12"/>
+      <c r="F407" s="13"/>
       <c r="H407" s="8"/>
       <c r="I407" s="19"/>
       <c r="J407" s="27" t="s">
@@ -12195,13 +12189,15 @@
       <c r="A408" s="8"/>
       <c r="B408" s="9"/>
       <c r="C408" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D408" s="18">
+        <v>220</v>
+      </c>
+      <c r="D408" s="11"/>
+      <c r="E408" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F408" s="25">
         <v>2.0</v>
       </c>
-      <c r="E408" s="12"/>
-      <c r="F408" s="13"/>
       <c r="H408" s="8"/>
       <c r="I408" s="19"/>
       <c r="J408" s="27" t="s">
@@ -12222,12 +12218,14 @@
     <row r="409">
       <c r="A409" s="8"/>
       <c r="B409" s="9"/>
-      <c r="C409" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="C409" s="10"/>
       <c r="D409" s="11"/>
-      <c r="E409" s="12"/>
-      <c r="F409" s="13"/>
+      <c r="E409" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F409" s="25">
+        <v>1.0</v>
+      </c>
       <c r="H409" s="8"/>
       <c r="I409" s="19"/>
       <c r="J409" s="27" t="s">
@@ -12247,9 +12245,11 @@
       <c r="A410" s="8"/>
       <c r="B410" s="9"/>
       <c r="C410" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D410" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="D410" s="18">
+        <v>2.0</v>
+      </c>
       <c r="E410" s="12"/>
       <c r="F410" s="13"/>
       <c r="H410" s="8"/>
@@ -12271,7 +12271,7 @@
       <c r="A411" s="8"/>
       <c r="B411" s="9"/>
       <c r="C411" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D411" s="11"/>
       <c r="E411" s="12"/>
@@ -12297,7 +12297,7 @@
       <c r="A412" s="8"/>
       <c r="B412" s="9"/>
       <c r="C412" s="17" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D412" s="11"/>
       <c r="E412" s="12"/>
@@ -12321,11 +12321,9 @@
       <c r="A413" s="8"/>
       <c r="B413" s="9"/>
       <c r="C413" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D413" s="18">
-        <v>1.0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D413" s="11"/>
       <c r="E413" s="12"/>
       <c r="F413" s="13"/>
       <c r="H413" s="8"/>
@@ -12346,7 +12344,9 @@
     <row r="414">
       <c r="A414" s="8"/>
       <c r="B414" s="9"/>
-      <c r="C414" s="10"/>
+      <c r="C414" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="D414" s="11"/>
       <c r="E414" s="12"/>
       <c r="F414" s="13"/>
@@ -12367,14 +12367,12 @@
     </row>
     <row r="415">
       <c r="A415" s="8"/>
-      <c r="B415" s="16" t="s">
-        <v>248</v>
-      </c>
+      <c r="B415" s="9"/>
       <c r="C415" s="17" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="D415" s="18">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E415" s="12"/>
       <c r="F415" s="13"/>
@@ -12398,12 +12396,8 @@
     <row r="416">
       <c r="A416" s="8"/>
       <c r="B416" s="9"/>
-      <c r="C416" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D416" s="18">
-        <v>3.0</v>
-      </c>
+      <c r="C416" s="10"/>
+      <c r="D416" s="11"/>
       <c r="E416" s="12"/>
       <c r="F416" s="13"/>
       <c r="H416" s="8"/>
@@ -12421,11 +12415,15 @@
     </row>
     <row r="417">
       <c r="A417" s="8"/>
-      <c r="B417" s="9"/>
+      <c r="B417" s="16" t="s">
+        <v>248</v>
+      </c>
       <c r="C417" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D417" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="D417" s="18">
+        <v>4.0</v>
+      </c>
       <c r="E417" s="12"/>
       <c r="F417" s="13"/>
       <c r="H417" s="8"/>
@@ -12451,9 +12449,11 @@
       <c r="A418" s="8"/>
       <c r="B418" s="9"/>
       <c r="C418" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D418" s="11"/>
+        <v>97</v>
+      </c>
+      <c r="D418" s="18">
+        <v>3.0</v>
+      </c>
       <c r="E418" s="12"/>
       <c r="F418" s="13"/>
       <c r="H418" s="8"/>
@@ -12475,7 +12475,7 @@
       <c r="A419" s="8"/>
       <c r="B419" s="9"/>
       <c r="C419" s="17" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D419" s="11"/>
       <c r="E419" s="12"/>
@@ -12499,15 +12499,11 @@
       <c r="A420" s="8"/>
       <c r="B420" s="9"/>
       <c r="C420" s="17" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="D420" s="11"/>
-      <c r="E420" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F420" s="25">
-        <v>2.0</v>
-      </c>
+      <c r="E420" s="12"/>
+      <c r="F420" s="13"/>
       <c r="H420" s="8"/>
       <c r="I420" s="19"/>
       <c r="J420" s="27" t="s">
@@ -12526,14 +12522,12 @@
     <row r="421">
       <c r="A421" s="8"/>
       <c r="B421" s="9"/>
-      <c r="C421" s="10"/>
+      <c r="C421" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="D421" s="11"/>
-      <c r="E421" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F421" s="25">
-        <v>1.0</v>
-      </c>
+      <c r="E421" s="12"/>
+      <c r="F421" s="13"/>
       <c r="H421" s="8"/>
       <c r="I421" s="19"/>
       <c r="J421" s="27" t="s">
@@ -12555,13 +12549,15 @@
       <c r="A422" s="8"/>
       <c r="B422" s="9"/>
       <c r="C422" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D422" s="18">
+        <v>220</v>
+      </c>
+      <c r="D422" s="11"/>
+      <c r="E422" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F422" s="25">
         <v>2.0</v>
       </c>
-      <c r="E422" s="12"/>
-      <c r="F422" s="13"/>
       <c r="H422" s="8"/>
       <c r="I422" s="19"/>
       <c r="J422" s="27" t="s">
@@ -12580,12 +12576,14 @@
     <row r="423">
       <c r="A423" s="8"/>
       <c r="B423" s="9"/>
-      <c r="C423" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="C423" s="10"/>
       <c r="D423" s="11"/>
-      <c r="E423" s="12"/>
-      <c r="F423" s="13"/>
+      <c r="E423" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F423" s="25">
+        <v>1.0</v>
+      </c>
       <c r="H423" s="8"/>
       <c r="I423" s="19"/>
       <c r="J423" s="27" t="s">
@@ -12605,9 +12603,11 @@
       <c r="A424" s="8"/>
       <c r="B424" s="9"/>
       <c r="C424" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D424" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="D424" s="18">
+        <v>2.0</v>
+      </c>
       <c r="E424" s="12"/>
       <c r="F424" s="13"/>
       <c r="H424" s="8"/>
@@ -12631,7 +12631,7 @@
       <c r="A425" s="8"/>
       <c r="B425" s="9"/>
       <c r="C425" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D425" s="11"/>
       <c r="E425" s="12"/>
@@ -12655,7 +12655,7 @@
       <c r="A426" s="8"/>
       <c r="B426" s="9"/>
       <c r="C426" s="17" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D426" s="11"/>
       <c r="E426" s="12"/>
@@ -12679,11 +12679,9 @@
       <c r="A427" s="8"/>
       <c r="B427" s="9"/>
       <c r="C427" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D427" s="18">
-        <v>1.0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D427" s="11"/>
       <c r="E427" s="12"/>
       <c r="F427" s="13"/>
       <c r="H427" s="8"/>
@@ -12704,7 +12702,9 @@
     <row r="428">
       <c r="A428" s="8"/>
       <c r="B428" s="9"/>
-      <c r="C428" s="10"/>
+      <c r="C428" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="D428" s="11"/>
       <c r="E428" s="12"/>
       <c r="F428" s="13"/>
@@ -12727,14 +12727,12 @@
     </row>
     <row r="429">
       <c r="A429" s="8"/>
-      <c r="B429" s="16" t="s">
-        <v>250</v>
-      </c>
+      <c r="B429" s="9"/>
       <c r="C429" s="17" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="D429" s="18">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E429" s="12"/>
       <c r="F429" s="13"/>
@@ -12754,17 +12752,13 @@
     <row r="430">
       <c r="A430" s="8"/>
       <c r="B430" s="9"/>
-      <c r="C430" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D430" s="18">
-        <v>3.0</v>
-      </c>
+      <c r="C430" s="10"/>
+      <c r="D430" s="11"/>
       <c r="E430" s="12"/>
       <c r="F430" s="13"/>
       <c r="H430" s="8"/>
       <c r="I430" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J430" s="27" t="s">
         <v>62</v>
@@ -12783,11 +12777,15 @@
     </row>
     <row r="431">
       <c r="A431" s="8"/>
-      <c r="B431" s="9"/>
+      <c r="B431" s="16" t="s">
+        <v>251</v>
+      </c>
       <c r="C431" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D431" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="D431" s="18">
+        <v>4.0</v>
+      </c>
       <c r="E431" s="12"/>
       <c r="F431" s="13"/>
       <c r="H431" s="8"/>
@@ -12809,9 +12807,11 @@
       <c r="A432" s="8"/>
       <c r="B432" s="9"/>
       <c r="C432" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D432" s="11"/>
+        <v>97</v>
+      </c>
+      <c r="D432" s="18">
+        <v>3.0</v>
+      </c>
       <c r="E432" s="12"/>
       <c r="F432" s="13"/>
       <c r="H432" s="8"/>
@@ -12833,7 +12833,7 @@
       <c r="A433" s="8"/>
       <c r="B433" s="9"/>
       <c r="C433" s="17" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D433" s="11"/>
       <c r="E433" s="12"/>
@@ -12857,7 +12857,7 @@
       <c r="A434" s="8"/>
       <c r="B434" s="9"/>
       <c r="C434" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D434" s="11"/>
       <c r="E434" s="12"/>
@@ -12883,15 +12883,11 @@
       <c r="A435" s="8"/>
       <c r="B435" s="9"/>
       <c r="C435" s="17" t="s">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="D435" s="11"/>
-      <c r="E435" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F435" s="25">
-        <v>2.0</v>
-      </c>
+      <c r="E435" s="12"/>
+      <c r="F435" s="13"/>
       <c r="H435" s="8"/>
       <c r="I435" s="19"/>
       <c r="J435" s="27" t="s">
@@ -12910,14 +12906,12 @@
     <row r="436">
       <c r="A436" s="8"/>
       <c r="B436" s="9"/>
-      <c r="C436" s="10"/>
+      <c r="C436" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="D436" s="11"/>
-      <c r="E436" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F436" s="25">
-        <v>1.0</v>
-      </c>
+      <c r="E436" s="12"/>
+      <c r="F436" s="13"/>
       <c r="H436" s="8"/>
       <c r="I436" s="19"/>
       <c r="J436" s="27" t="s">
@@ -12937,13 +12931,15 @@
       <c r="A437" s="8"/>
       <c r="B437" s="9"/>
       <c r="C437" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D437" s="18">
+        <v>220</v>
+      </c>
+      <c r="D437" s="11"/>
+      <c r="E437" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F437" s="25">
         <v>2.0</v>
       </c>
-      <c r="E437" s="12"/>
-      <c r="F437" s="13"/>
       <c r="H437" s="8"/>
       <c r="I437" s="19"/>
       <c r="J437" s="27" t="s">
@@ -12962,12 +12958,14 @@
     <row r="438">
       <c r="A438" s="8"/>
       <c r="B438" s="9"/>
-      <c r="C438" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="C438" s="10"/>
       <c r="D438" s="11"/>
-      <c r="E438" s="12"/>
-      <c r="F438" s="13"/>
+      <c r="E438" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F438" s="25">
+        <v>1.0</v>
+      </c>
       <c r="H438" s="8"/>
       <c r="I438" s="19"/>
       <c r="J438" s="20" t="s">
@@ -12989,9 +12987,11 @@
       <c r="A439" s="8"/>
       <c r="B439" s="9"/>
       <c r="C439" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D439" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="D439" s="18">
+        <v>2.0</v>
+      </c>
       <c r="E439" s="12"/>
       <c r="F439" s="13"/>
       <c r="H439" s="8"/>
@@ -13013,7 +13013,7 @@
       <c r="A440" s="8"/>
       <c r="B440" s="9"/>
       <c r="C440" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D440" s="11"/>
       <c r="E440" s="12"/>
@@ -13037,7 +13037,7 @@
       <c r="A441" s="8"/>
       <c r="B441" s="9"/>
       <c r="C441" s="17" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D441" s="11"/>
       <c r="E441" s="12"/>
@@ -13063,11 +13063,9 @@
       <c r="A442" s="8"/>
       <c r="B442" s="9"/>
       <c r="C442" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D442" s="18">
-        <v>1.0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D442" s="11"/>
       <c r="E442" s="12"/>
       <c r="F442" s="13"/>
       <c r="H442" s="8"/>
@@ -13086,7 +13084,9 @@
     <row r="443">
       <c r="A443" s="8"/>
       <c r="B443" s="9"/>
-      <c r="C443" s="10"/>
+      <c r="C443" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="D443" s="11"/>
       <c r="E443" s="12"/>
       <c r="F443" s="13"/>
@@ -13111,14 +13111,12 @@
     </row>
     <row r="444">
       <c r="A444" s="8"/>
-      <c r="B444" s="16" t="s">
-        <v>253</v>
-      </c>
+      <c r="B444" s="9"/>
       <c r="C444" s="17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D444" s="18">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E444" s="12"/>
       <c r="F444" s="13"/>
@@ -13142,12 +13140,8 @@
     <row r="445">
       <c r="A445" s="8"/>
       <c r="B445" s="9"/>
-      <c r="C445" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D445" s="18">
-        <v>3.0</v>
-      </c>
+      <c r="C445" s="10"/>
+      <c r="D445" s="11"/>
       <c r="E445" s="12"/>
       <c r="F445" s="13"/>
       <c r="H445" s="8"/>
@@ -13167,11 +13161,15 @@
     </row>
     <row r="446">
       <c r="A446" s="8"/>
-      <c r="B446" s="9"/>
+      <c r="B446" s="16" t="s">
+        <v>253</v>
+      </c>
       <c r="C446" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D446" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="D446" s="18">
+        <v>4.0</v>
+      </c>
       <c r="E446" s="12"/>
       <c r="F446" s="13"/>
       <c r="H446" s="8"/>
@@ -13193,9 +13191,11 @@
       <c r="A447" s="8"/>
       <c r="B447" s="9"/>
       <c r="C447" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D447" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="D447" s="18">
+        <v>3.0</v>
+      </c>
       <c r="E447" s="12"/>
       <c r="F447" s="13"/>
       <c r="H447" s="8"/>
@@ -13217,15 +13217,11 @@
       <c r="A448" s="8"/>
       <c r="B448" s="9"/>
       <c r="C448" s="17" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="D448" s="11"/>
-      <c r="E448" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F448" s="25">
-        <v>2.0</v>
-      </c>
+      <c r="E448" s="12"/>
+      <c r="F448" s="13"/>
       <c r="H448" s="8"/>
       <c r="I448" s="19"/>
       <c r="J448" s="27" t="s">
@@ -13244,14 +13240,12 @@
     <row r="449">
       <c r="A449" s="8"/>
       <c r="B449" s="9"/>
-      <c r="C449" s="10"/>
+      <c r="C449" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="D449" s="11"/>
-      <c r="E449" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F449" s="25">
-        <v>1.0</v>
-      </c>
+      <c r="E449" s="12"/>
+      <c r="F449" s="13"/>
       <c r="H449" s="8"/>
       <c r="I449" s="19"/>
       <c r="J449" s="34" t="s">
@@ -13271,13 +13265,15 @@
       <c r="A450" s="8"/>
       <c r="B450" s="9"/>
       <c r="C450" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D450" s="18">
+        <v>220</v>
+      </c>
+      <c r="D450" s="11"/>
+      <c r="E450" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F450" s="25">
         <v>2.0</v>
       </c>
-      <c r="E450" s="12"/>
-      <c r="F450" s="13"/>
       <c r="H450" s="8"/>
       <c r="I450" s="19"/>
       <c r="J450" s="27" t="s">
@@ -13296,12 +13292,14 @@
     <row r="451">
       <c r="A451" s="8"/>
       <c r="B451" s="9"/>
-      <c r="C451" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D451" s="18"/>
-      <c r="E451" s="12"/>
-      <c r="F451" s="13"/>
+      <c r="C451" s="10"/>
+      <c r="D451" s="11"/>
+      <c r="E451" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F451" s="25">
+        <v>1.0</v>
+      </c>
       <c r="H451" s="8"/>
       <c r="I451" s="19"/>
       <c r="J451" s="27" t="s">
@@ -13323,9 +13321,11 @@
       <c r="A452" s="8"/>
       <c r="B452" s="9"/>
       <c r="C452" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D452" s="18"/>
+        <v>67</v>
+      </c>
+      <c r="D452" s="18">
+        <v>2.0</v>
+      </c>
       <c r="E452" s="12"/>
       <c r="F452" s="13"/>
       <c r="H452" s="8"/>
@@ -13347,7 +13347,7 @@
       <c r="A453" s="8"/>
       <c r="B453" s="9"/>
       <c r="C453" s="17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D453" s="18"/>
       <c r="E453" s="12"/>
@@ -13371,7 +13371,7 @@
       <c r="A454" s="8"/>
       <c r="B454" s="9"/>
       <c r="C454" s="17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D454" s="18"/>
       <c r="E454" s="12"/>
@@ -13395,7 +13395,7 @@
       <c r="A455" s="8"/>
       <c r="B455" s="9"/>
       <c r="C455" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D455" s="18"/>
       <c r="E455" s="12"/>
@@ -13421,7 +13421,7 @@
       <c r="A456" s="8"/>
       <c r="B456" s="9"/>
       <c r="C456" s="17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D456" s="18"/>
       <c r="E456" s="12"/>
@@ -13443,11 +13443,9 @@
       <c r="A457" s="8"/>
       <c r="B457" s="9"/>
       <c r="C457" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D457" s="18">
-        <v>1.0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D457" s="18"/>
       <c r="E457" s="12"/>
       <c r="F457" s="13"/>
       <c r="H457" s="8"/>
@@ -13471,11 +13469,13 @@
     </row>
     <row r="458">
       <c r="A458" s="8"/>
-      <c r="B458" s="19"/>
-      <c r="C458" s="20"/>
-      <c r="D458" s="26"/>
-      <c r="E458" s="22"/>
-      <c r="F458" s="23"/>
+      <c r="B458" s="9"/>
+      <c r="C458" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D458" s="18"/>
+      <c r="E458" s="12"/>
+      <c r="F458" s="13"/>
       <c r="H458" s="8"/>
       <c r="I458" s="19"/>
       <c r="J458" s="27" t="s">
@@ -13495,17 +13495,15 @@
     </row>
     <row r="459">
       <c r="A459" s="8"/>
-      <c r="B459" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="C459" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D459" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="E459" s="22"/>
-      <c r="F459" s="23"/>
+      <c r="B459" s="9"/>
+      <c r="C459" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D459" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="E459" s="12"/>
+      <c r="F459" s="13"/>
       <c r="H459" s="8"/>
       <c r="I459" s="19"/>
       <c r="J459" s="27" t="s">
@@ -13524,12 +13522,8 @@
     <row r="460">
       <c r="A460" s="8"/>
       <c r="B460" s="19"/>
-      <c r="C460" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D460" s="21">
-        <v>3.0</v>
-      </c>
+      <c r="C460" s="20"/>
+      <c r="D460" s="26"/>
       <c r="E460" s="22"/>
       <c r="F460" s="23"/>
       <c r="H460" s="8"/>
@@ -13549,11 +13543,15 @@
     </row>
     <row r="461">
       <c r="A461" s="8"/>
-      <c r="B461" s="19"/>
+      <c r="B461" s="32" t="s">
+        <v>256</v>
+      </c>
       <c r="C461" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D461" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="D461" s="21">
+        <v>4.0</v>
+      </c>
       <c r="E461" s="22"/>
       <c r="F461" s="23"/>
       <c r="H461" s="8"/>
@@ -13575,9 +13573,11 @@
       <c r="A462" s="8"/>
       <c r="B462" s="19"/>
       <c r="C462" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D462" s="26"/>
+        <v>68</v>
+      </c>
+      <c r="D462" s="21">
+        <v>3.0</v>
+      </c>
       <c r="E462" s="22"/>
       <c r="F462" s="23"/>
       <c r="H462" s="8"/>
@@ -13598,8 +13598,8 @@
     <row r="463">
       <c r="A463" s="8"/>
       <c r="B463" s="19"/>
-      <c r="C463" s="35" t="s">
-        <v>51</v>
+      <c r="C463" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="D463" s="26"/>
       <c r="E463" s="22"/>
@@ -13623,15 +13623,11 @@
       <c r="A464" s="8"/>
       <c r="B464" s="19"/>
       <c r="C464" s="20" t="s">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="D464" s="26"/>
-      <c r="E464" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F464" s="30">
-        <v>2.0</v>
-      </c>
+      <c r="E464" s="22"/>
+      <c r="F464" s="23"/>
       <c r="H464" s="8"/>
       <c r="I464" s="19"/>
       <c r="J464" s="27" t="s">
@@ -13650,14 +13646,12 @@
     <row r="465">
       <c r="A465" s="8"/>
       <c r="B465" s="19"/>
-      <c r="C465" s="20"/>
+      <c r="C465" s="35" t="s">
+        <v>51</v>
+      </c>
       <c r="D465" s="26"/>
-      <c r="E465" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="F465" s="30">
-        <v>1.0</v>
-      </c>
+      <c r="E465" s="22"/>
+      <c r="F465" s="23"/>
       <c r="H465" s="8"/>
       <c r="I465" s="19"/>
       <c r="J465" s="27" t="s">
@@ -13679,13 +13673,15 @@
       <c r="A466" s="8"/>
       <c r="B466" s="19"/>
       <c r="C466" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D466" s="21">
+        <v>220</v>
+      </c>
+      <c r="D466" s="26"/>
+      <c r="E466" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F466" s="30">
         <v>2.0</v>
       </c>
-      <c r="E466" s="22"/>
-      <c r="F466" s="23"/>
       <c r="H466" s="8"/>
       <c r="I466" s="19"/>
       <c r="J466" s="27" t="s">
@@ -13704,12 +13700,14 @@
     <row r="467">
       <c r="A467" s="8"/>
       <c r="B467" s="19"/>
-      <c r="C467" s="20" t="s">
-        <v>34</v>
-      </c>
+      <c r="C467" s="20"/>
       <c r="D467" s="26"/>
-      <c r="E467" s="22"/>
-      <c r="F467" s="23"/>
+      <c r="E467" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="F467" s="30">
+        <v>1.0</v>
+      </c>
       <c r="H467" s="8"/>
       <c r="I467" s="19"/>
       <c r="J467" s="27" t="s">
@@ -13729,9 +13727,11 @@
       <c r="A468" s="8"/>
       <c r="B468" s="19"/>
       <c r="C468" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D468" s="26"/>
+        <v>67</v>
+      </c>
+      <c r="D468" s="21">
+        <v>2.0</v>
+      </c>
       <c r="E468" s="22"/>
       <c r="F468" s="23"/>
       <c r="H468" s="8"/>
@@ -13753,7 +13753,7 @@
       <c r="A469" s="8"/>
       <c r="B469" s="19"/>
       <c r="C469" s="20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D469" s="26"/>
       <c r="E469" s="22"/>
@@ -13779,7 +13779,7 @@
       <c r="A470" s="8"/>
       <c r="B470" s="19"/>
       <c r="C470" s="20" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D470" s="26"/>
       <c r="E470" s="22"/>
@@ -13801,7 +13801,7 @@
       <c r="A471" s="8"/>
       <c r="B471" s="19"/>
       <c r="C471" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D471" s="26"/>
       <c r="E471" s="22"/>
@@ -13829,7 +13829,7 @@
       <c r="A472" s="8"/>
       <c r="B472" s="19"/>
       <c r="C472" s="20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D472" s="26"/>
       <c r="E472" s="22"/>
@@ -13853,11 +13853,9 @@
       <c r="A473" s="8"/>
       <c r="B473" s="19"/>
       <c r="C473" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D473" s="21">
-        <v>1.0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D473" s="26"/>
       <c r="E473" s="22"/>
       <c r="F473" s="23"/>
       <c r="H473" s="8"/>
@@ -13879,11 +13877,13 @@
     </row>
     <row r="474">
       <c r="A474" s="8"/>
-      <c r="B474" s="9"/>
-      <c r="C474" s="10"/>
-      <c r="D474" s="11"/>
-      <c r="E474" s="12"/>
-      <c r="F474" s="13"/>
+      <c r="B474" s="19"/>
+      <c r="C474" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D474" s="26"/>
+      <c r="E474" s="22"/>
+      <c r="F474" s="23"/>
       <c r="H474" s="15"/>
       <c r="I474" s="19"/>
       <c r="J474" s="27" t="s">
@@ -13900,12 +13900,16 @@
       <c r="T474" s="13"/>
     </row>
     <row r="475">
-      <c r="A475" s="15"/>
-      <c r="B475" s="16"/>
-      <c r="C475" s="17"/>
-      <c r="D475" s="18"/>
-      <c r="E475" s="12"/>
-      <c r="F475" s="13"/>
+      <c r="A475" s="8"/>
+      <c r="B475" s="19"/>
+      <c r="C475" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D475" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="E475" s="22"/>
+      <c r="F475" s="23"/>
       <c r="H475" s="8"/>
       <c r="I475" s="19"/>
       <c r="J475" s="27" t="s">
@@ -13924,7 +13928,7 @@
     <row r="476">
       <c r="A476" s="8"/>
       <c r="B476" s="9"/>
-      <c r="C476" s="17"/>
+      <c r="C476" s="10"/>
       <c r="D476" s="11"/>
       <c r="E476" s="12"/>
       <c r="F476" s="13"/>
@@ -14021,7 +14025,7 @@
       <c r="H480" s="8"/>
       <c r="I480" s="19"/>
       <c r="J480" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K480" s="26"/>
       <c r="L480" s="22"/>

--- a/assets/All Classes.xlsx
+++ b/assets/All Classes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="258">
   <si>
     <t>Macros</t>
   </si>
@@ -757,10 +757,10 @@
     <t>EduCitoyen</t>
   </si>
   <si>
+    <t>3GSN</t>
+  </si>
+  <si>
     <t>2MF</t>
-  </si>
-  <si>
-    <t>3GSN</t>
   </si>
   <si>
     <t>2GSN</t>
@@ -895,7 +895,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1004,6 +1004,9 @@
     <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -11504,16 +11507,14 @@
       <c r="T381" s="13"/>
     </row>
     <row r="382">
-      <c r="A382" s="8"/>
-      <c r="B382" s="9"/>
+      <c r="A382" s="40"/>
+      <c r="B382" s="19"/>
       <c r="C382" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D382" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="E382" s="12"/>
-      <c r="F382" s="13"/>
+        <v>72</v>
+      </c>
+      <c r="D382" s="21"/>
+      <c r="E382" s="22"/>
+      <c r="F382" s="23"/>
       <c r="H382" s="8"/>
       <c r="I382" s="19"/>
       <c r="J382" s="27" t="s">
@@ -11530,12 +11531,14 @@
       <c r="T382" s="13"/>
     </row>
     <row r="383">
-      <c r="A383" s="8"/>
-      <c r="B383" s="9"/>
-      <c r="C383" s="10"/>
-      <c r="D383" s="11"/>
-      <c r="E383" s="12"/>
-      <c r="F383" s="13"/>
+      <c r="A383" s="40"/>
+      <c r="B383" s="19"/>
+      <c r="C383" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D383" s="21"/>
+      <c r="E383" s="22"/>
+      <c r="F383" s="23"/>
       <c r="H383" s="8"/>
       <c r="I383" s="19"/>
       <c r="J383" s="27" t="s">
@@ -11553,21 +11556,15 @@
     </row>
     <row r="384">
       <c r="A384" s="8"/>
-      <c r="B384" s="16" t="s">
-        <v>240</v>
-      </c>
+      <c r="B384" s="9"/>
       <c r="C384" s="17" t="s">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="D384" s="18">
-        <v>4.0</v>
-      </c>
-      <c r="E384" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F384" s="25">
-        <v>2.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="E384" s="12"/>
+      <c r="F384" s="13"/>
       <c r="H384" s="8"/>
       <c r="I384" s="19"/>
       <c r="J384" s="27" t="s">
@@ -11588,12 +11585,8 @@
       <c r="B385" s="9"/>
       <c r="C385" s="10"/>
       <c r="D385" s="11"/>
-      <c r="E385" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="F385" s="25">
-        <v>2.0</v>
-      </c>
+      <c r="E385" s="12"/>
+      <c r="F385" s="13"/>
       <c r="H385" s="8"/>
       <c r="I385" s="19"/>
       <c r="J385" s="20" t="s">
@@ -11611,18 +11604,20 @@
     </row>
     <row r="386">
       <c r="A386" s="8"/>
-      <c r="B386" s="9"/>
+      <c r="B386" s="16" t="s">
+        <v>240</v>
+      </c>
       <c r="C386" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D386" s="18">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E386" s="24" t="s">
-        <v>243</v>
+        <v>84</v>
       </c>
       <c r="F386" s="25">
-        <v>1.5</v>
+        <v>2.0</v>
       </c>
       <c r="H386" s="8"/>
       <c r="I386" s="33"/>
@@ -11645,10 +11640,10 @@
       <c r="C387" s="10"/>
       <c r="D387" s="11"/>
       <c r="E387" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F387" s="25">
-        <v>1.5</v>
+        <v>2.0</v>
       </c>
       <c r="H387" s="8"/>
       <c r="I387" s="19"/>
@@ -11671,11 +11666,17 @@
       <c r="A388" s="8"/>
       <c r="B388" s="9"/>
       <c r="C388" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D388" s="11"/>
-      <c r="E388" s="12"/>
-      <c r="F388" s="13"/>
+        <v>242</v>
+      </c>
+      <c r="D388" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="E388" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="F388" s="25">
+        <v>1.5</v>
+      </c>
       <c r="H388" s="8"/>
       <c r="I388" s="19"/>
       <c r="J388" s="27" t="s">
@@ -11696,12 +11697,14 @@
     <row r="389">
       <c r="A389" s="8"/>
       <c r="B389" s="9"/>
-      <c r="C389" s="17" t="s">
-        <v>22</v>
-      </c>
+      <c r="C389" s="10"/>
       <c r="D389" s="11"/>
-      <c r="E389" s="12"/>
-      <c r="F389" s="13"/>
+      <c r="E389" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F389" s="25">
+        <v>1.5</v>
+      </c>
       <c r="H389" s="8"/>
       <c r="I389" s="19"/>
       <c r="J389" s="27"/>
@@ -11719,7 +11722,7 @@
       <c r="A390" s="8"/>
       <c r="B390" s="9"/>
       <c r="C390" s="17" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D390" s="11"/>
       <c r="E390" s="12"/>
@@ -11747,15 +11750,11 @@
       <c r="A391" s="8"/>
       <c r="B391" s="9"/>
       <c r="C391" s="17" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="D391" s="11"/>
-      <c r="E391" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F391" s="25">
-        <v>2.0</v>
-      </c>
+      <c r="E391" s="12"/>
+      <c r="F391" s="13"/>
       <c r="H391" s="8"/>
       <c r="I391" s="19"/>
       <c r="J391" s="27" t="s">
@@ -11774,14 +11773,12 @@
     <row r="392">
       <c r="A392" s="8"/>
       <c r="B392" s="9"/>
-      <c r="C392" s="10"/>
+      <c r="C392" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="D392" s="11"/>
-      <c r="E392" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F392" s="25">
-        <v>1.0</v>
-      </c>
+      <c r="E392" s="12"/>
+      <c r="F392" s="13"/>
       <c r="H392" s="8"/>
       <c r="I392" s="19"/>
       <c r="J392" s="27" t="s">
@@ -11801,13 +11798,15 @@
       <c r="A393" s="8"/>
       <c r="B393" s="9"/>
       <c r="C393" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D393" s="18">
+        <v>220</v>
+      </c>
+      <c r="D393" s="11"/>
+      <c r="E393" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F393" s="25">
         <v>2.0</v>
       </c>
-      <c r="E393" s="12"/>
-      <c r="F393" s="13"/>
       <c r="H393" s="8"/>
       <c r="I393" s="19"/>
       <c r="J393" s="27" t="s">
@@ -11828,12 +11827,14 @@
     <row r="394">
       <c r="A394" s="8"/>
       <c r="B394" s="9"/>
-      <c r="C394" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="C394" s="10"/>
       <c r="D394" s="11"/>
-      <c r="E394" s="12"/>
-      <c r="F394" s="13"/>
+      <c r="E394" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F394" s="25">
+        <v>1.0</v>
+      </c>
       <c r="H394" s="8"/>
       <c r="I394" s="19"/>
       <c r="J394" s="27" t="s">
@@ -11853,9 +11854,11 @@
       <c r="A395" s="8"/>
       <c r="B395" s="9"/>
       <c r="C395" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D395" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="D395" s="18">
+        <v>2.0</v>
+      </c>
       <c r="E395" s="12"/>
       <c r="F395" s="13"/>
       <c r="H395" s="8"/>
@@ -11877,7 +11880,7 @@
       <c r="A396" s="8"/>
       <c r="B396" s="9"/>
       <c r="C396" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D396" s="11"/>
       <c r="E396" s="12"/>
@@ -11901,7 +11904,7 @@
       <c r="A397" s="8"/>
       <c r="B397" s="9"/>
       <c r="C397" s="17" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D397" s="11"/>
       <c r="E397" s="12"/>
@@ -11925,11 +11928,9 @@
       <c r="A398" s="8"/>
       <c r="B398" s="9"/>
       <c r="C398" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D398" s="18">
-        <v>1.0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D398" s="11"/>
       <c r="E398" s="12"/>
       <c r="F398" s="13"/>
       <c r="H398" s="8"/>
@@ -11950,7 +11951,9 @@
     <row r="399">
       <c r="A399" s="8"/>
       <c r="B399" s="9"/>
-      <c r="C399" s="10"/>
+      <c r="C399" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="D399" s="11"/>
       <c r="E399" s="12"/>
       <c r="F399" s="13"/>
@@ -11973,21 +11976,15 @@
     </row>
     <row r="400">
       <c r="A400" s="8"/>
-      <c r="B400" s="16" t="s">
-        <v>245</v>
-      </c>
+      <c r="B400" s="9"/>
       <c r="C400" s="17" t="s">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="D400" s="18">
-        <v>4.0</v>
-      </c>
-      <c r="E400" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F400" s="25">
-        <v>2.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="E400" s="12"/>
+      <c r="F400" s="13"/>
       <c r="H400" s="8"/>
       <c r="I400" s="19"/>
       <c r="J400" s="27" t="s">
@@ -12008,12 +12005,8 @@
       <c r="B401" s="9"/>
       <c r="C401" s="10"/>
       <c r="D401" s="11"/>
-      <c r="E401" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="F401" s="25">
-        <v>2.0</v>
-      </c>
+      <c r="E401" s="12"/>
+      <c r="F401" s="13"/>
       <c r="H401" s="8"/>
       <c r="I401" s="19"/>
       <c r="J401" s="27" t="s">
@@ -12031,18 +12024,20 @@
     </row>
     <row r="402">
       <c r="A402" s="8"/>
-      <c r="B402" s="9"/>
+      <c r="B402" s="16" t="s">
+        <v>245</v>
+      </c>
       <c r="C402" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D402" s="18">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E402" s="24" t="s">
-        <v>243</v>
+        <v>84</v>
       </c>
       <c r="F402" s="25">
-        <v>1.5</v>
+        <v>2.0</v>
       </c>
       <c r="H402" s="8"/>
       <c r="I402" s="19"/>
@@ -12067,10 +12062,10 @@
       <c r="C403" s="10"/>
       <c r="D403" s="11"/>
       <c r="E403" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F403" s="25">
-        <v>1.5</v>
+        <v>2.0</v>
       </c>
       <c r="H403" s="8"/>
       <c r="I403" s="19"/>
@@ -12089,11 +12084,17 @@
       <c r="A404" s="8"/>
       <c r="B404" s="9"/>
       <c r="C404" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D404" s="11"/>
-      <c r="E404" s="12"/>
-      <c r="F404" s="13"/>
+        <v>242</v>
+      </c>
+      <c r="D404" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="E404" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="F404" s="25">
+        <v>1.5</v>
+      </c>
       <c r="H404" s="8"/>
       <c r="I404" s="19" t="s">
         <v>246</v>
@@ -12116,12 +12117,14 @@
     <row r="405">
       <c r="A405" s="8"/>
       <c r="B405" s="9"/>
-      <c r="C405" s="17" t="s">
-        <v>22</v>
-      </c>
+      <c r="C405" s="10"/>
       <c r="D405" s="11"/>
-      <c r="E405" s="12"/>
-      <c r="F405" s="13"/>
+      <c r="E405" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F405" s="25">
+        <v>1.5</v>
+      </c>
       <c r="H405" s="8"/>
       <c r="I405" s="19"/>
       <c r="J405" s="27" t="s">
@@ -12141,7 +12144,7 @@
       <c r="A406" s="8"/>
       <c r="B406" s="9"/>
       <c r="C406" s="17" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D406" s="11"/>
       <c r="E406" s="12"/>
@@ -12165,7 +12168,7 @@
       <c r="A407" s="8"/>
       <c r="B407" s="9"/>
       <c r="C407" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D407" s="11"/>
       <c r="E407" s="12"/>
@@ -12189,15 +12192,11 @@
       <c r="A408" s="8"/>
       <c r="B408" s="9"/>
       <c r="C408" s="17" t="s">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="D408" s="11"/>
-      <c r="E408" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F408" s="25">
-        <v>2.0</v>
-      </c>
+      <c r="E408" s="12"/>
+      <c r="F408" s="13"/>
       <c r="H408" s="8"/>
       <c r="I408" s="19"/>
       <c r="J408" s="27" t="s">
@@ -12218,14 +12217,12 @@
     <row r="409">
       <c r="A409" s="8"/>
       <c r="B409" s="9"/>
-      <c r="C409" s="10"/>
+      <c r="C409" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="D409" s="11"/>
-      <c r="E409" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F409" s="25">
-        <v>1.0</v>
-      </c>
+      <c r="E409" s="12"/>
+      <c r="F409" s="13"/>
       <c r="H409" s="8"/>
       <c r="I409" s="19"/>
       <c r="J409" s="27" t="s">
@@ -12245,13 +12242,15 @@
       <c r="A410" s="8"/>
       <c r="B410" s="9"/>
       <c r="C410" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D410" s="18">
+        <v>220</v>
+      </c>
+      <c r="D410" s="11"/>
+      <c r="E410" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F410" s="25">
         <v>2.0</v>
       </c>
-      <c r="E410" s="12"/>
-      <c r="F410" s="13"/>
       <c r="H410" s="8"/>
       <c r="I410" s="19"/>
       <c r="J410" s="27" t="s">
@@ -12270,12 +12269,14 @@
     <row r="411">
       <c r="A411" s="8"/>
       <c r="B411" s="9"/>
-      <c r="C411" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="C411" s="10"/>
       <c r="D411" s="11"/>
-      <c r="E411" s="12"/>
-      <c r="F411" s="13"/>
+      <c r="E411" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F411" s="25">
+        <v>1.0</v>
+      </c>
       <c r="H411" s="8"/>
       <c r="I411" s="19"/>
       <c r="J411" s="27" t="s">
@@ -12297,9 +12298,11 @@
       <c r="A412" s="8"/>
       <c r="B412" s="9"/>
       <c r="C412" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D412" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="D412" s="18">
+        <v>2.0</v>
+      </c>
       <c r="E412" s="12"/>
       <c r="F412" s="13"/>
       <c r="H412" s="8"/>
@@ -12321,7 +12324,7 @@
       <c r="A413" s="8"/>
       <c r="B413" s="9"/>
       <c r="C413" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D413" s="11"/>
       <c r="E413" s="12"/>
@@ -12345,7 +12348,7 @@
       <c r="A414" s="8"/>
       <c r="B414" s="9"/>
       <c r="C414" s="17" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D414" s="11"/>
       <c r="E414" s="12"/>
@@ -12369,11 +12372,9 @@
       <c r="A415" s="8"/>
       <c r="B415" s="9"/>
       <c r="C415" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D415" s="18">
-        <v>1.0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D415" s="11"/>
       <c r="E415" s="12"/>
       <c r="F415" s="13"/>
       <c r="H415" s="8"/>
@@ -12396,7 +12397,9 @@
     <row r="416">
       <c r="A416" s="8"/>
       <c r="B416" s="9"/>
-      <c r="C416" s="10"/>
+      <c r="C416" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="D416" s="11"/>
       <c r="E416" s="12"/>
       <c r="F416" s="13"/>
@@ -12415,20 +12418,18 @@
     </row>
     <row r="417">
       <c r="A417" s="8"/>
-      <c r="B417" s="16" t="s">
-        <v>248</v>
-      </c>
+      <c r="B417" s="9"/>
       <c r="C417" s="17" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="D417" s="18">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E417" s="12"/>
       <c r="F417" s="13"/>
       <c r="H417" s="8"/>
       <c r="I417" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J417" s="27" t="s">
         <v>62</v>
@@ -12448,12 +12449,8 @@
     <row r="418">
       <c r="A418" s="8"/>
       <c r="B418" s="9"/>
-      <c r="C418" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D418" s="18">
-        <v>3.0</v>
-      </c>
+      <c r="C418" s="10"/>
+      <c r="D418" s="11"/>
       <c r="E418" s="12"/>
       <c r="F418" s="13"/>
       <c r="H418" s="8"/>
@@ -12473,11 +12470,15 @@
     </row>
     <row r="419">
       <c r="A419" s="8"/>
-      <c r="B419" s="9"/>
+      <c r="B419" s="16" t="s">
+        <v>249</v>
+      </c>
       <c r="C419" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D419" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="D419" s="18">
+        <v>4.0</v>
+      </c>
       <c r="E419" s="12"/>
       <c r="F419" s="13"/>
       <c r="H419" s="8"/>
@@ -12499,9 +12500,11 @@
       <c r="A420" s="8"/>
       <c r="B420" s="9"/>
       <c r="C420" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D420" s="11"/>
+        <v>97</v>
+      </c>
+      <c r="D420" s="18">
+        <v>3.0</v>
+      </c>
       <c r="E420" s="12"/>
       <c r="F420" s="13"/>
       <c r="H420" s="8"/>
@@ -12523,7 +12526,7 @@
       <c r="A421" s="8"/>
       <c r="B421" s="9"/>
       <c r="C421" s="17" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D421" s="11"/>
       <c r="E421" s="12"/>
@@ -12549,15 +12552,11 @@
       <c r="A422" s="8"/>
       <c r="B422" s="9"/>
       <c r="C422" s="17" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="D422" s="11"/>
-      <c r="E422" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F422" s="25">
-        <v>2.0</v>
-      </c>
+      <c r="E422" s="12"/>
+      <c r="F422" s="13"/>
       <c r="H422" s="8"/>
       <c r="I422" s="19"/>
       <c r="J422" s="27" t="s">
@@ -12576,14 +12575,12 @@
     <row r="423">
       <c r="A423" s="8"/>
       <c r="B423" s="9"/>
-      <c r="C423" s="10"/>
+      <c r="C423" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="D423" s="11"/>
-      <c r="E423" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F423" s="25">
-        <v>1.0</v>
-      </c>
+      <c r="E423" s="12"/>
+      <c r="F423" s="13"/>
       <c r="H423" s="8"/>
       <c r="I423" s="19"/>
       <c r="J423" s="27" t="s">
@@ -12603,13 +12600,15 @@
       <c r="A424" s="8"/>
       <c r="B424" s="9"/>
       <c r="C424" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D424" s="18">
+        <v>220</v>
+      </c>
+      <c r="D424" s="11"/>
+      <c r="E424" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F424" s="25">
         <v>2.0</v>
       </c>
-      <c r="E424" s="12"/>
-      <c r="F424" s="13"/>
       <c r="H424" s="8"/>
       <c r="I424" s="19"/>
       <c r="J424" s="27" t="s">
@@ -12630,12 +12629,14 @@
     <row r="425">
       <c r="A425" s="8"/>
       <c r="B425" s="9"/>
-      <c r="C425" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="C425" s="10"/>
       <c r="D425" s="11"/>
-      <c r="E425" s="12"/>
-      <c r="F425" s="13"/>
+      <c r="E425" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F425" s="25">
+        <v>1.0</v>
+      </c>
       <c r="H425" s="8"/>
       <c r="I425" s="19"/>
       <c r="J425" s="20" t="s">
@@ -12655,9 +12656,11 @@
       <c r="A426" s="8"/>
       <c r="B426" s="9"/>
       <c r="C426" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D426" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="D426" s="18">
+        <v>2.0</v>
+      </c>
       <c r="E426" s="12"/>
       <c r="F426" s="13"/>
       <c r="H426" s="8"/>
@@ -12679,7 +12682,7 @@
       <c r="A427" s="8"/>
       <c r="B427" s="9"/>
       <c r="C427" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D427" s="11"/>
       <c r="E427" s="12"/>
@@ -12703,7 +12706,7 @@
       <c r="A428" s="8"/>
       <c r="B428" s="9"/>
       <c r="C428" s="17" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D428" s="11"/>
       <c r="E428" s="12"/>
@@ -12729,11 +12732,9 @@
       <c r="A429" s="8"/>
       <c r="B429" s="9"/>
       <c r="C429" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D429" s="18">
-        <v>1.0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D429" s="11"/>
       <c r="E429" s="12"/>
       <c r="F429" s="13"/>
       <c r="H429" s="8"/>
@@ -12752,7 +12753,9 @@
     <row r="430">
       <c r="A430" s="8"/>
       <c r="B430" s="9"/>
-      <c r="C430" s="10"/>
+      <c r="C430" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="D430" s="11"/>
       <c r="E430" s="12"/>
       <c r="F430" s="13"/>
@@ -12777,14 +12780,12 @@
     </row>
     <row r="431">
       <c r="A431" s="8"/>
-      <c r="B431" s="16" t="s">
-        <v>251</v>
-      </c>
+      <c r="B431" s="9"/>
       <c r="C431" s="17" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="D431" s="18">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E431" s="12"/>
       <c r="F431" s="13"/>
@@ -12806,12 +12807,8 @@
     <row r="432">
       <c r="A432" s="8"/>
       <c r="B432" s="9"/>
-      <c r="C432" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D432" s="18">
-        <v>3.0</v>
-      </c>
+      <c r="C432" s="10"/>
+      <c r="D432" s="11"/>
       <c r="E432" s="12"/>
       <c r="F432" s="13"/>
       <c r="H432" s="8"/>
@@ -12831,11 +12828,15 @@
     </row>
     <row r="433">
       <c r="A433" s="8"/>
-      <c r="B433" s="9"/>
+      <c r="B433" s="16" t="s">
+        <v>251</v>
+      </c>
       <c r="C433" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D433" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="D433" s="18">
+        <v>4.0</v>
+      </c>
       <c r="E433" s="12"/>
       <c r="F433" s="13"/>
       <c r="H433" s="8"/>
@@ -12857,9 +12858,11 @@
       <c r="A434" s="8"/>
       <c r="B434" s="9"/>
       <c r="C434" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D434" s="11"/>
+        <v>97</v>
+      </c>
+      <c r="D434" s="18">
+        <v>3.0</v>
+      </c>
       <c r="E434" s="12"/>
       <c r="F434" s="13"/>
       <c r="H434" s="8"/>
@@ -12883,7 +12886,7 @@
       <c r="A435" s="8"/>
       <c r="B435" s="9"/>
       <c r="C435" s="17" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D435" s="11"/>
       <c r="E435" s="12"/>
@@ -12907,7 +12910,7 @@
       <c r="A436" s="8"/>
       <c r="B436" s="9"/>
       <c r="C436" s="17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D436" s="11"/>
       <c r="E436" s="12"/>
@@ -12931,15 +12934,11 @@
       <c r="A437" s="8"/>
       <c r="B437" s="9"/>
       <c r="C437" s="17" t="s">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="D437" s="11"/>
-      <c r="E437" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F437" s="25">
-        <v>2.0</v>
-      </c>
+      <c r="E437" s="12"/>
+      <c r="F437" s="13"/>
       <c r="H437" s="8"/>
       <c r="I437" s="19"/>
       <c r="J437" s="27" t="s">
@@ -12958,14 +12957,12 @@
     <row r="438">
       <c r="A438" s="8"/>
       <c r="B438" s="9"/>
-      <c r="C438" s="10"/>
+      <c r="C438" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="D438" s="11"/>
-      <c r="E438" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F438" s="25">
-        <v>1.0</v>
-      </c>
+      <c r="E438" s="12"/>
+      <c r="F438" s="13"/>
       <c r="H438" s="8"/>
       <c r="I438" s="19"/>
       <c r="J438" s="20" t="s">
@@ -12987,13 +12984,15 @@
       <c r="A439" s="8"/>
       <c r="B439" s="9"/>
       <c r="C439" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D439" s="18">
+        <v>220</v>
+      </c>
+      <c r="D439" s="11"/>
+      <c r="E439" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F439" s="25">
         <v>2.0</v>
       </c>
-      <c r="E439" s="12"/>
-      <c r="F439" s="13"/>
       <c r="H439" s="8"/>
       <c r="I439" s="33"/>
       <c r="J439" s="27" t="s">
@@ -13012,12 +13011,14 @@
     <row r="440">
       <c r="A440" s="8"/>
       <c r="B440" s="9"/>
-      <c r="C440" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="C440" s="10"/>
       <c r="D440" s="11"/>
-      <c r="E440" s="12"/>
-      <c r="F440" s="13"/>
+      <c r="E440" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F440" s="25">
+        <v>1.0</v>
+      </c>
       <c r="H440" s="8"/>
       <c r="I440" s="19"/>
       <c r="J440" s="27" t="s">
@@ -13037,9 +13038,11 @@
       <c r="A441" s="8"/>
       <c r="B441" s="9"/>
       <c r="C441" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D441" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="D441" s="18">
+        <v>2.0</v>
+      </c>
       <c r="E441" s="12"/>
       <c r="F441" s="13"/>
       <c r="H441" s="8"/>
@@ -13063,7 +13066,7 @@
       <c r="A442" s="8"/>
       <c r="B442" s="9"/>
       <c r="C442" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D442" s="11"/>
       <c r="E442" s="12"/>
@@ -13085,7 +13088,7 @@
       <c r="A443" s="8"/>
       <c r="B443" s="9"/>
       <c r="C443" s="17" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D443" s="11"/>
       <c r="E443" s="12"/>
@@ -13113,11 +13116,9 @@
       <c r="A444" s="8"/>
       <c r="B444" s="9"/>
       <c r="C444" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D444" s="18">
-        <v>1.0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D444" s="11"/>
       <c r="E444" s="12"/>
       <c r="F444" s="13"/>
       <c r="H444" s="8"/>
@@ -13140,7 +13141,9 @@
     <row r="445">
       <c r="A445" s="8"/>
       <c r="B445" s="9"/>
-      <c r="C445" s="10"/>
+      <c r="C445" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="D445" s="11"/>
       <c r="E445" s="12"/>
       <c r="F445" s="13"/>
@@ -13161,14 +13164,12 @@
     </row>
     <row r="446">
       <c r="A446" s="8"/>
-      <c r="B446" s="16" t="s">
-        <v>253</v>
-      </c>
+      <c r="B446" s="9"/>
       <c r="C446" s="17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D446" s="18">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E446" s="12"/>
       <c r="F446" s="13"/>
@@ -13190,12 +13191,8 @@
     <row r="447">
       <c r="A447" s="8"/>
       <c r="B447" s="9"/>
-      <c r="C447" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D447" s="18">
-        <v>3.0</v>
-      </c>
+      <c r="C447" s="10"/>
+      <c r="D447" s="11"/>
       <c r="E447" s="12"/>
       <c r="F447" s="13"/>
       <c r="H447" s="8"/>
@@ -13215,11 +13212,15 @@
     </row>
     <row r="448">
       <c r="A448" s="8"/>
-      <c r="B448" s="9"/>
+      <c r="B448" s="16" t="s">
+        <v>253</v>
+      </c>
       <c r="C448" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D448" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="D448" s="18">
+        <v>4.0</v>
+      </c>
       <c r="E448" s="12"/>
       <c r="F448" s="13"/>
       <c r="H448" s="8"/>
@@ -13241,9 +13242,11 @@
       <c r="A449" s="8"/>
       <c r="B449" s="9"/>
       <c r="C449" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D449" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="D449" s="18">
+        <v>3.0</v>
+      </c>
       <c r="E449" s="12"/>
       <c r="F449" s="13"/>
       <c r="H449" s="8"/>
@@ -13265,15 +13268,11 @@
       <c r="A450" s="8"/>
       <c r="B450" s="9"/>
       <c r="C450" s="17" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="D450" s="11"/>
-      <c r="E450" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F450" s="25">
-        <v>2.0</v>
-      </c>
+      <c r="E450" s="12"/>
+      <c r="F450" s="13"/>
       <c r="H450" s="8"/>
       <c r="I450" s="19"/>
       <c r="J450" s="27" t="s">
@@ -13292,14 +13291,12 @@
     <row r="451">
       <c r="A451" s="8"/>
       <c r="B451" s="9"/>
-      <c r="C451" s="10"/>
+      <c r="C451" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="D451" s="11"/>
-      <c r="E451" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F451" s="25">
-        <v>1.0</v>
-      </c>
+      <c r="E451" s="12"/>
+      <c r="F451" s="13"/>
       <c r="H451" s="8"/>
       <c r="I451" s="19"/>
       <c r="J451" s="27" t="s">
@@ -13321,13 +13318,15 @@
       <c r="A452" s="8"/>
       <c r="B452" s="9"/>
       <c r="C452" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D452" s="18">
+        <v>220</v>
+      </c>
+      <c r="D452" s="11"/>
+      <c r="E452" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F452" s="25">
         <v>2.0</v>
       </c>
-      <c r="E452" s="12"/>
-      <c r="F452" s="13"/>
       <c r="H452" s="8"/>
       <c r="I452" s="19"/>
       <c r="J452" s="27" t="s">
@@ -13346,12 +13345,14 @@
     <row r="453">
       <c r="A453" s="8"/>
       <c r="B453" s="9"/>
-      <c r="C453" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D453" s="18"/>
-      <c r="E453" s="12"/>
-      <c r="F453" s="13"/>
+      <c r="C453" s="10"/>
+      <c r="D453" s="11"/>
+      <c r="E453" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F453" s="25">
+        <v>1.0</v>
+      </c>
       <c r="H453" s="8"/>
       <c r="I453" s="19"/>
       <c r="J453" s="20" t="s">
@@ -13371,9 +13372,11 @@
       <c r="A454" s="8"/>
       <c r="B454" s="9"/>
       <c r="C454" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D454" s="18"/>
+        <v>67</v>
+      </c>
+      <c r="D454" s="18">
+        <v>2.0</v>
+      </c>
       <c r="E454" s="12"/>
       <c r="F454" s="13"/>
       <c r="H454" s="8"/>
@@ -13395,7 +13398,7 @@
       <c r="A455" s="8"/>
       <c r="B455" s="9"/>
       <c r="C455" s="17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D455" s="18"/>
       <c r="E455" s="12"/>
@@ -13421,7 +13424,7 @@
       <c r="A456" s="8"/>
       <c r="B456" s="9"/>
       <c r="C456" s="17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D456" s="18"/>
       <c r="E456" s="12"/>
@@ -13443,7 +13446,7 @@
       <c r="A457" s="8"/>
       <c r="B457" s="9"/>
       <c r="C457" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D457" s="18"/>
       <c r="E457" s="12"/>
@@ -13471,7 +13474,7 @@
       <c r="A458" s="8"/>
       <c r="B458" s="9"/>
       <c r="C458" s="17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D458" s="18"/>
       <c r="E458" s="12"/>
@@ -13497,11 +13500,9 @@
       <c r="A459" s="8"/>
       <c r="B459" s="9"/>
       <c r="C459" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D459" s="18">
-        <v>1.0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D459" s="18"/>
       <c r="E459" s="12"/>
       <c r="F459" s="13"/>
       <c r="H459" s="8"/>
@@ -13521,11 +13522,13 @@
     </row>
     <row r="460">
       <c r="A460" s="8"/>
-      <c r="B460" s="19"/>
-      <c r="C460" s="20"/>
-      <c r="D460" s="26"/>
-      <c r="E460" s="22"/>
-      <c r="F460" s="23"/>
+      <c r="B460" s="9"/>
+      <c r="C460" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D460" s="18"/>
+      <c r="E460" s="12"/>
+      <c r="F460" s="13"/>
       <c r="H460" s="8"/>
       <c r="I460" s="19"/>
       <c r="J460" s="27" t="s">
@@ -13543,17 +13546,15 @@
     </row>
     <row r="461">
       <c r="A461" s="8"/>
-      <c r="B461" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="C461" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D461" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="E461" s="22"/>
-      <c r="F461" s="23"/>
+      <c r="B461" s="9"/>
+      <c r="C461" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D461" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="E461" s="12"/>
+      <c r="F461" s="13"/>
       <c r="H461" s="8"/>
       <c r="I461" s="19"/>
       <c r="J461" s="27" t="s">
@@ -13572,12 +13573,8 @@
     <row r="462">
       <c r="A462" s="8"/>
       <c r="B462" s="19"/>
-      <c r="C462" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D462" s="21">
-        <v>3.0</v>
-      </c>
+      <c r="C462" s="20"/>
+      <c r="D462" s="26"/>
       <c r="E462" s="22"/>
       <c r="F462" s="23"/>
       <c r="H462" s="8"/>
@@ -13597,11 +13594,15 @@
     </row>
     <row r="463">
       <c r="A463" s="8"/>
-      <c r="B463" s="19"/>
+      <c r="B463" s="32" t="s">
+        <v>256</v>
+      </c>
       <c r="C463" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D463" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="D463" s="21">
+        <v>4.0</v>
+      </c>
       <c r="E463" s="22"/>
       <c r="F463" s="23"/>
       <c r="H463" s="8"/>
@@ -13623,9 +13624,11 @@
       <c r="A464" s="8"/>
       <c r="B464" s="19"/>
       <c r="C464" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D464" s="26"/>
+        <v>68</v>
+      </c>
+      <c r="D464" s="21">
+        <v>3.0</v>
+      </c>
       <c r="E464" s="22"/>
       <c r="F464" s="23"/>
       <c r="H464" s="8"/>
@@ -13646,8 +13649,8 @@
     <row r="465">
       <c r="A465" s="8"/>
       <c r="B465" s="19"/>
-      <c r="C465" s="35" t="s">
-        <v>51</v>
+      <c r="C465" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="D465" s="26"/>
       <c r="E465" s="22"/>
@@ -13673,15 +13676,11 @@
       <c r="A466" s="8"/>
       <c r="B466" s="19"/>
       <c r="C466" s="20" t="s">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="D466" s="26"/>
-      <c r="E466" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F466" s="30">
-        <v>2.0</v>
-      </c>
+      <c r="E466" s="22"/>
+      <c r="F466" s="23"/>
       <c r="H466" s="8"/>
       <c r="I466" s="19"/>
       <c r="J466" s="27" t="s">
@@ -13700,14 +13699,12 @@
     <row r="467">
       <c r="A467" s="8"/>
       <c r="B467" s="19"/>
-      <c r="C467" s="20"/>
+      <c r="C467" s="35" t="s">
+        <v>51</v>
+      </c>
       <c r="D467" s="26"/>
-      <c r="E467" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="F467" s="30">
-        <v>1.0</v>
-      </c>
+      <c r="E467" s="22"/>
+      <c r="F467" s="23"/>
       <c r="H467" s="8"/>
       <c r="I467" s="19"/>
       <c r="J467" s="27" t="s">
@@ -13727,13 +13724,15 @@
       <c r="A468" s="8"/>
       <c r="B468" s="19"/>
       <c r="C468" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D468" s="21">
+        <v>220</v>
+      </c>
+      <c r="D468" s="26"/>
+      <c r="E468" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F468" s="30">
         <v>2.0</v>
       </c>
-      <c r="E468" s="22"/>
-      <c r="F468" s="23"/>
       <c r="H468" s="8"/>
       <c r="I468" s="19"/>
       <c r="J468" s="20" t="s">
@@ -13752,12 +13751,14 @@
     <row r="469">
       <c r="A469" s="8"/>
       <c r="B469" s="19"/>
-      <c r="C469" s="20" t="s">
-        <v>34</v>
-      </c>
+      <c r="C469" s="20"/>
       <c r="D469" s="26"/>
-      <c r="E469" s="22"/>
-      <c r="F469" s="23"/>
+      <c r="E469" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="F469" s="30">
+        <v>1.0</v>
+      </c>
       <c r="H469" s="8"/>
       <c r="I469" s="33"/>
       <c r="J469" s="27" t="s">
@@ -13779,9 +13780,11 @@
       <c r="A470" s="8"/>
       <c r="B470" s="19"/>
       <c r="C470" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D470" s="26"/>
+        <v>67</v>
+      </c>
+      <c r="D470" s="21">
+        <v>2.0</v>
+      </c>
       <c r="E470" s="22"/>
       <c r="F470" s="23"/>
       <c r="H470" s="8"/>
@@ -13801,7 +13804,7 @@
       <c r="A471" s="8"/>
       <c r="B471" s="19"/>
       <c r="C471" s="20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D471" s="26"/>
       <c r="E471" s="22"/>
@@ -13829,7 +13832,7 @@
       <c r="A472" s="8"/>
       <c r="B472" s="19"/>
       <c r="C472" s="20" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D472" s="26"/>
       <c r="E472" s="22"/>
@@ -13853,7 +13856,7 @@
       <c r="A473" s="8"/>
       <c r="B473" s="19"/>
       <c r="C473" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D473" s="26"/>
       <c r="E473" s="22"/>
@@ -13879,7 +13882,7 @@
       <c r="A474" s="8"/>
       <c r="B474" s="19"/>
       <c r="C474" s="20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D474" s="26"/>
       <c r="E474" s="22"/>
@@ -13903,11 +13906,9 @@
       <c r="A475" s="8"/>
       <c r="B475" s="19"/>
       <c r="C475" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D475" s="21">
-        <v>1.0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D475" s="26"/>
       <c r="E475" s="22"/>
       <c r="F475" s="23"/>
       <c r="H475" s="8"/>
@@ -13927,11 +13928,13 @@
     </row>
     <row r="476">
       <c r="A476" s="8"/>
-      <c r="B476" s="9"/>
-      <c r="C476" s="10"/>
-      <c r="D476" s="11"/>
-      <c r="E476" s="12"/>
-      <c r="F476" s="13"/>
+      <c r="B476" s="19"/>
+      <c r="C476" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D476" s="26"/>
+      <c r="E476" s="22"/>
+      <c r="F476" s="23"/>
       <c r="H476" s="8"/>
       <c r="I476" s="19"/>
       <c r="J476" s="27" t="s">
@@ -13949,11 +13952,15 @@
     </row>
     <row r="477">
       <c r="A477" s="8"/>
-      <c r="B477" s="9"/>
-      <c r="C477" s="17"/>
-      <c r="D477" s="11"/>
-      <c r="E477" s="12"/>
-      <c r="F477" s="13"/>
+      <c r="B477" s="19"/>
+      <c r="C477" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D477" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="E477" s="22"/>
+      <c r="F477" s="23"/>
       <c r="H477" s="8"/>
       <c r="I477" s="19"/>
       <c r="J477" s="34" t="s">

--- a/assets/All Classes.xlsx
+++ b/assets/All Classes.xlsx
@@ -11,26 +11,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="272">
+  <si>
+    <t>ClassNames</t>
+  </si>
+  <si>
+    <t>SubjectName</t>
+  </si>
+  <si>
+    <t>SubjectCoef</t>
+  </si>
+  <si>
+    <t>CombiName</t>
+  </si>
+  <si>
+    <t>CombiCoef</t>
+  </si>
   <si>
     <t>Macros</t>
   </si>
   <si>
-    <t>ClassNames</t>
-  </si>
-  <si>
-    <t>SubjectName</t>
-  </si>
-  <si>
-    <t>SubjectCoef</t>
-  </si>
-  <si>
-    <t>CombiName</t>
-  </si>
-  <si>
-    <t>CombiCoef</t>
-  </si>
-  <si>
     <t>skipped class</t>
   </si>
   <si>
@@ -658,12 +658,36 @@
     <t>ConProf 1</t>
   </si>
   <si>
+    <t>1I</t>
+  </si>
+  <si>
+    <t>Mathé 1</t>
+  </si>
+  <si>
     <t>ConProf 2</t>
   </si>
   <si>
+    <t>Mathé 2</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Pogrammation</t>
+  </si>
+  <si>
+    <t>AmInf</t>
+  </si>
+  <si>
+    <t>MaiOuv</t>
+  </si>
+  <si>
     <t>ConSci</t>
   </si>
   <si>
+    <t>EduPys</t>
+  </si>
+  <si>
     <t>2GSH</t>
   </si>
   <si>
@@ -785,6 +809,24 @@
   </si>
   <si>
     <t>2GACV</t>
+  </si>
+  <si>
+    <t>3I</t>
+  </si>
+  <si>
+    <t>Programmation</t>
+  </si>
+  <si>
+    <t>Design graphique</t>
+  </si>
+  <si>
+    <t>TechIn</t>
+  </si>
+  <si>
+    <t>ComMed</t>
+  </si>
+  <si>
+    <t>2I</t>
   </si>
 </sst>
 </file>
@@ -1038,59 +1080,57 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>6</v>
@@ -8296,11 +8336,21 @@
       <c r="L256" s="22"/>
       <c r="M256" s="23"/>
       <c r="O256" s="8"/>
-      <c r="P256" s="9"/>
-      <c r="Q256" s="10"/>
-      <c r="R256" s="11"/>
-      <c r="S256" s="12"/>
-      <c r="T256" s="13"/>
+      <c r="P256" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q256" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="R256" s="21">
+        <v>3.0</v>
+      </c>
+      <c r="S256" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="T256" s="30">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="8"/>
@@ -8314,17 +8364,21 @@
       <c r="H257" s="8"/>
       <c r="I257" s="19"/>
       <c r="J257" s="27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K257" s="26"/>
       <c r="L257" s="22"/>
       <c r="M257" s="23"/>
       <c r="O257" s="8"/>
-      <c r="P257" s="9"/>
-      <c r="Q257" s="10"/>
-      <c r="R257" s="11"/>
-      <c r="S257" s="12"/>
-      <c r="T257" s="13"/>
+      <c r="P257" s="19"/>
+      <c r="Q257" s="20"/>
+      <c r="R257" s="26"/>
+      <c r="S257" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="T257" s="30">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="8"/>
@@ -8346,11 +8400,13 @@
       <c r="L258" s="22"/>
       <c r="M258" s="23"/>
       <c r="O258" s="8"/>
-      <c r="P258" s="9"/>
-      <c r="Q258" s="10"/>
-      <c r="R258" s="11"/>
-      <c r="S258" s="12"/>
-      <c r="T258" s="13"/>
+      <c r="P258" s="19"/>
+      <c r="Q258" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="R258" s="26"/>
+      <c r="S258" s="22"/>
+      <c r="T258" s="23"/>
     </row>
     <row r="259">
       <c r="A259" s="8"/>
@@ -8370,11 +8426,13 @@
       <c r="L259" s="22"/>
       <c r="M259" s="23"/>
       <c r="O259" s="8"/>
-      <c r="P259" s="9"/>
-      <c r="Q259" s="10"/>
-      <c r="R259" s="11"/>
-      <c r="S259" s="12"/>
-      <c r="T259" s="13"/>
+      <c r="P259" s="19"/>
+      <c r="Q259" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="R259" s="26"/>
+      <c r="S259" s="22"/>
+      <c r="T259" s="23"/>
     </row>
     <row r="260">
       <c r="A260" s="8"/>
@@ -8394,11 +8452,13 @@
       <c r="L260" s="22"/>
       <c r="M260" s="23"/>
       <c r="O260" s="8"/>
-      <c r="P260" s="9"/>
-      <c r="Q260" s="10"/>
-      <c r="R260" s="11"/>
-      <c r="S260" s="12"/>
-      <c r="T260" s="13"/>
+      <c r="P260" s="19"/>
+      <c r="Q260" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="R260" s="26"/>
+      <c r="S260" s="22"/>
+      <c r="T260" s="23"/>
     </row>
     <row r="261">
       <c r="A261" s="8"/>
@@ -8418,11 +8478,15 @@
       <c r="L261" s="22"/>
       <c r="M261" s="23"/>
       <c r="O261" s="8"/>
-      <c r="P261" s="9"/>
-      <c r="Q261" s="10"/>
-      <c r="R261" s="11"/>
-      <c r="S261" s="12"/>
-      <c r="T261" s="13"/>
+      <c r="P261" s="19"/>
+      <c r="Q261" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="R261" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="S261" s="22"/>
+      <c r="T261" s="23"/>
     </row>
     <row r="262">
       <c r="A262" s="8"/>
@@ -8444,11 +8508,13 @@
       <c r="L262" s="22"/>
       <c r="M262" s="23"/>
       <c r="O262" s="8"/>
-      <c r="P262" s="9"/>
-      <c r="Q262" s="10"/>
-      <c r="R262" s="11"/>
-      <c r="S262" s="12"/>
-      <c r="T262" s="13"/>
+      <c r="P262" s="19"/>
+      <c r="Q262" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="R262" s="26"/>
+      <c r="S262" s="22"/>
+      <c r="T262" s="23"/>
     </row>
     <row r="263">
       <c r="A263" s="8"/>
@@ -8468,11 +8534,13 @@
       <c r="L263" s="22"/>
       <c r="M263" s="23"/>
       <c r="O263" s="8"/>
-      <c r="P263" s="9"/>
-      <c r="Q263" s="10"/>
-      <c r="R263" s="11"/>
-      <c r="S263" s="12"/>
-      <c r="T263" s="13"/>
+      <c r="P263" s="19"/>
+      <c r="Q263" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="R263" s="26"/>
+      <c r="S263" s="22"/>
+      <c r="T263" s="23"/>
     </row>
     <row r="264">
       <c r="A264" s="8"/>
@@ -8492,11 +8560,13 @@
       <c r="L264" s="22"/>
       <c r="M264" s="23"/>
       <c r="O264" s="8"/>
-      <c r="P264" s="9"/>
-      <c r="Q264" s="10"/>
-      <c r="R264" s="11"/>
-      <c r="S264" s="12"/>
-      <c r="T264" s="13"/>
+      <c r="P264" s="19"/>
+      <c r="Q264" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="R264" s="26"/>
+      <c r="S264" s="22"/>
+      <c r="T264" s="23"/>
     </row>
     <row r="265">
       <c r="A265" s="8"/>
@@ -8510,17 +8580,21 @@
       <c r="H265" s="8"/>
       <c r="I265" s="19"/>
       <c r="J265" s="27" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="K265" s="28"/>
       <c r="L265" s="22"/>
       <c r="M265" s="23"/>
       <c r="O265" s="8"/>
-      <c r="P265" s="9"/>
-      <c r="Q265" s="10"/>
-      <c r="R265" s="11"/>
-      <c r="S265" s="12"/>
-      <c r="T265" s="13"/>
+      <c r="P265" s="19"/>
+      <c r="Q265" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="R265" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="S265" s="22"/>
+      <c r="T265" s="23"/>
     </row>
     <row r="266">
       <c r="A266" s="8"/>
@@ -8585,7 +8659,7 @@
       <c r="F268" s="13"/>
       <c r="H268" s="8"/>
       <c r="I268" s="19" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="J268" s="27" t="s">
         <v>140</v>
@@ -8933,7 +9007,7 @@
       <c r="F282" s="13"/>
       <c r="H282" s="8"/>
       <c r="I282" s="19" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="J282" s="27" t="s">
         <v>106</v>
@@ -8953,7 +9027,7 @@
     <row r="283">
       <c r="A283" s="8"/>
       <c r="B283" s="16" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C283" s="17" t="s">
         <v>13</v>
@@ -9058,7 +9132,7 @@
       <c r="A287" s="8"/>
       <c r="B287" s="9"/>
       <c r="C287" s="17" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D287" s="18"/>
       <c r="E287" s="24" t="s">
@@ -9088,7 +9162,7 @@
       <c r="C288" s="17"/>
       <c r="D288" s="18"/>
       <c r="E288" s="24" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F288" s="25">
         <v>1.0</v>
@@ -9261,7 +9335,7 @@
     <row r="295">
       <c r="A295" s="8"/>
       <c r="B295" s="16" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C295" s="17" t="s">
         <v>13</v>
@@ -9295,7 +9369,7 @@
       <c r="F296" s="13"/>
       <c r="H296" s="8"/>
       <c r="I296" s="19" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="J296" s="27" t="s">
         <v>106</v>
@@ -9392,7 +9466,7 @@
       <c r="A300" s="8"/>
       <c r="B300" s="9"/>
       <c r="C300" s="17" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D300" s="18"/>
       <c r="E300" s="24" t="s">
@@ -9422,7 +9496,7 @@
       <c r="C301" s="17"/>
       <c r="D301" s="18"/>
       <c r="E301" s="24" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F301" s="25">
         <v>1.0</v>
@@ -9569,7 +9643,7 @@
     <row r="307">
       <c r="A307" s="8"/>
       <c r="B307" s="16" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C307" s="17" t="s">
         <v>46</v>
@@ -9637,7 +9711,7 @@
       <c r="F309" s="13"/>
       <c r="H309" s="8"/>
       <c r="I309" s="19" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="J309" s="27" t="s">
         <v>26</v>
@@ -9730,7 +9804,7 @@
       <c r="A313" s="8"/>
       <c r="B313" s="9"/>
       <c r="C313" s="17" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D313" s="11"/>
       <c r="E313" s="24" t="s">
@@ -9760,7 +9834,7 @@
       <c r="C314" s="10"/>
       <c r="D314" s="11"/>
       <c r="E314" s="24" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F314" s="25">
         <v>1.0</v>
@@ -9907,7 +9981,7 @@
     <row r="320">
       <c r="A320" s="8"/>
       <c r="B320" s="16" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C320" s="17" t="s">
         <v>46</v>
@@ -9999,10 +10073,10 @@
       <c r="F323" s="13"/>
       <c r="H323" s="8"/>
       <c r="I323" s="19" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="J323" s="27" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="K323" s="26">
         <v>4.0</v>
@@ -10028,7 +10102,7 @@
       <c r="H324" s="8"/>
       <c r="I324" s="19"/>
       <c r="J324" s="27" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="K324" s="28"/>
       <c r="L324" s="22"/>
@@ -10052,7 +10126,7 @@
       <c r="H325" s="8"/>
       <c r="I325" s="19"/>
       <c r="J325" s="27" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="K325" s="26"/>
       <c r="L325" s="22"/>
@@ -10094,7 +10168,7 @@
       <c r="A327" s="8"/>
       <c r="B327" s="9"/>
       <c r="C327" s="17" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D327" s="11"/>
       <c r="E327" s="24" t="s">
@@ -10106,7 +10180,7 @@
       <c r="H327" s="8"/>
       <c r="I327" s="19"/>
       <c r="J327" s="27" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="K327" s="26"/>
       <c r="L327" s="22"/>
@@ -10124,7 +10198,7 @@
       <c r="C328" s="10"/>
       <c r="D328" s="11"/>
       <c r="E328" s="24" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F328" s="25">
         <v>1.0</v>
@@ -10271,7 +10345,7 @@
     <row r="334">
       <c r="A334" s="8"/>
       <c r="B334" s="16" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C334" s="17" t="s">
         <v>62</v>
@@ -10357,10 +10431,10 @@
       <c r="F337" s="13"/>
       <c r="H337" s="8"/>
       <c r="I337" s="19" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="J337" s="27" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="K337" s="26">
         <v>4.0</v>
@@ -10386,7 +10460,7 @@
       <c r="H338" s="8"/>
       <c r="I338" s="19"/>
       <c r="J338" s="27" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="K338" s="26"/>
       <c r="L338" s="22"/>
@@ -10402,7 +10476,7 @@
       <c r="A339" s="8"/>
       <c r="B339" s="9"/>
       <c r="C339" s="17" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D339" s="11"/>
       <c r="E339" s="24" t="s">
@@ -10414,7 +10488,7 @@
       <c r="H339" s="8"/>
       <c r="I339" s="19"/>
       <c r="J339" s="27" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="K339" s="28"/>
       <c r="L339" s="22"/>
@@ -10432,7 +10506,7 @@
       <c r="C340" s="10"/>
       <c r="D340" s="11"/>
       <c r="E340" s="24" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F340" s="25">
         <v>1.0</v>
@@ -10466,7 +10540,7 @@
       <c r="H341" s="8"/>
       <c r="I341" s="19"/>
       <c r="J341" s="27" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="K341" s="26"/>
       <c r="L341" s="22"/>
@@ -10579,7 +10653,7 @@
     <row r="346">
       <c r="A346" s="8"/>
       <c r="B346" s="16" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C346" s="17" t="s">
         <v>62</v>
@@ -10715,7 +10789,7 @@
       <c r="F351" s="13"/>
       <c r="H351" s="8"/>
       <c r="I351" s="19" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="J351" s="27" t="s">
         <v>24</v>
@@ -10736,7 +10810,7 @@
       <c r="A352" s="8"/>
       <c r="B352" s="9"/>
       <c r="C352" s="17" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D352" s="11"/>
       <c r="E352" s="24" t="s">
@@ -10766,7 +10840,7 @@
       <c r="C353" s="10"/>
       <c r="D353" s="11"/>
       <c r="E353" s="24" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F353" s="25">
         <v>1.0</v>
@@ -10913,7 +10987,7 @@
     <row r="359">
       <c r="A359" s="8"/>
       <c r="B359" s="16" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C359" s="17" t="s">
         <v>39</v>
@@ -11042,7 +11116,7 @@
       <c r="A364" s="8"/>
       <c r="B364" s="9"/>
       <c r="C364" s="17" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D364" s="11"/>
       <c r="E364" s="24" t="s">
@@ -11053,7 +11127,7 @@
       </c>
       <c r="H364" s="8"/>
       <c r="I364" s="19" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="J364" s="27" t="s">
         <v>24</v>
@@ -11076,7 +11150,7 @@
       <c r="C365" s="10"/>
       <c r="D365" s="11"/>
       <c r="E365" s="24" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F365" s="25">
         <v>1.0</v>
@@ -11247,7 +11321,7 @@
     <row r="372">
       <c r="A372" s="8"/>
       <c r="B372" s="16" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C372" s="17" t="s">
         <v>39</v>
@@ -11383,7 +11457,7 @@
       <c r="F377" s="13"/>
       <c r="H377" s="8"/>
       <c r="I377" s="19" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="J377" s="27" t="s">
         <v>24</v>
@@ -11404,7 +11478,7 @@
       <c r="A378" s="8"/>
       <c r="B378" s="9"/>
       <c r="C378" s="17" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D378" s="11"/>
       <c r="E378" s="24" t="s">
@@ -11434,7 +11508,7 @@
       <c r="C379" s="10"/>
       <c r="D379" s="11"/>
       <c r="E379" s="24" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F379" s="25">
         <v>1.0</v>
@@ -11605,10 +11679,10 @@
     <row r="386">
       <c r="A386" s="8"/>
       <c r="B386" s="16" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C386" s="17" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D386" s="18">
         <v>4.0</v>
@@ -11666,13 +11740,13 @@
       <c r="A388" s="8"/>
       <c r="B388" s="9"/>
       <c r="C388" s="17" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D388" s="18">
         <v>3.0</v>
       </c>
       <c r="E388" s="24" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F388" s="25">
         <v>1.5</v>
@@ -11729,7 +11803,7 @@
       <c r="F390" s="13"/>
       <c r="H390" s="8"/>
       <c r="I390" s="19" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="J390" s="27" t="s">
         <v>24</v>
@@ -11798,7 +11872,7 @@
       <c r="A393" s="8"/>
       <c r="B393" s="9"/>
       <c r="C393" s="17" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D393" s="11"/>
       <c r="E393" s="24" t="s">
@@ -11830,7 +11904,7 @@
       <c r="C394" s="10"/>
       <c r="D394" s="11"/>
       <c r="E394" s="24" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F394" s="25">
         <v>1.0</v>
@@ -12025,10 +12099,10 @@
     <row r="402">
       <c r="A402" s="8"/>
       <c r="B402" s="16" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C402" s="17" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D402" s="18">
         <v>4.0</v>
@@ -12084,20 +12158,20 @@
       <c r="A404" s="8"/>
       <c r="B404" s="9"/>
       <c r="C404" s="17" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D404" s="18">
         <v>3.0</v>
       </c>
       <c r="E404" s="24" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F404" s="25">
         <v>1.5</v>
       </c>
       <c r="H404" s="8"/>
       <c r="I404" s="19" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="J404" s="27" t="s">
         <v>62</v>
@@ -12242,7 +12316,7 @@
       <c r="A410" s="8"/>
       <c r="B410" s="9"/>
       <c r="C410" s="17" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D410" s="11"/>
       <c r="E410" s="24" t="s">
@@ -12272,7 +12346,7 @@
       <c r="C411" s="10"/>
       <c r="D411" s="11"/>
       <c r="E411" s="24" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F411" s="25">
         <v>1.0</v>
@@ -12332,7 +12406,7 @@
       <c r="H413" s="8"/>
       <c r="I413" s="33"/>
       <c r="J413" s="27" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="K413" s="26"/>
       <c r="L413" s="22"/>
@@ -12429,7 +12503,7 @@
       <c r="F417" s="13"/>
       <c r="H417" s="8"/>
       <c r="I417" s="19" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="J417" s="27" t="s">
         <v>62</v>
@@ -12471,7 +12545,7 @@
     <row r="419">
       <c r="A419" s="8"/>
       <c r="B419" s="16" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C419" s="17" t="s">
         <v>95</v>
@@ -12600,7 +12674,7 @@
       <c r="A424" s="8"/>
       <c r="B424" s="9"/>
       <c r="C424" s="17" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D424" s="11"/>
       <c r="E424" s="24" t="s">
@@ -12632,7 +12706,7 @@
       <c r="C425" s="10"/>
       <c r="D425" s="11"/>
       <c r="E425" s="24" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F425" s="25">
         <v>1.0</v>
@@ -12666,7 +12740,7 @@
       <c r="H426" s="8"/>
       <c r="I426" s="33"/>
       <c r="J426" s="27" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="K426" s="26"/>
       <c r="L426" s="22"/>
@@ -12761,7 +12835,7 @@
       <c r="F430" s="13"/>
       <c r="H430" s="8"/>
       <c r="I430" s="19" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="J430" s="27" t="s">
         <v>62</v>
@@ -12829,7 +12903,7 @@
     <row r="433">
       <c r="A433" s="8"/>
       <c r="B433" s="16" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C433" s="17" t="s">
         <v>95</v>
@@ -12984,7 +13058,7 @@
       <c r="A439" s="8"/>
       <c r="B439" s="9"/>
       <c r="C439" s="17" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D439" s="11"/>
       <c r="E439" s="24" t="s">
@@ -13014,7 +13088,7 @@
       <c r="C440" s="10"/>
       <c r="D440" s="11"/>
       <c r="E440" s="24" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F440" s="25">
         <v>1.0</v>
@@ -13095,7 +13169,7 @@
       <c r="F443" s="13"/>
       <c r="H443" s="8"/>
       <c r="I443" s="19" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J443" s="27" t="s">
         <v>201</v>
@@ -13213,7 +13287,7 @@
     <row r="448">
       <c r="A448" s="8"/>
       <c r="B448" s="16" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C448" s="17" t="s">
         <v>39</v>
@@ -13300,7 +13374,7 @@
       <c r="H451" s="8"/>
       <c r="I451" s="19"/>
       <c r="J451" s="27" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="K451" s="21">
         <v>2.0</v>
@@ -13318,7 +13392,7 @@
       <c r="A452" s="8"/>
       <c r="B452" s="9"/>
       <c r="C452" s="17" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D452" s="11"/>
       <c r="E452" s="24" t="s">
@@ -13348,7 +13422,7 @@
       <c r="C453" s="10"/>
       <c r="D453" s="11"/>
       <c r="E453" s="24" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F453" s="25">
         <v>1.0</v>
@@ -13356,7 +13430,7 @@
       <c r="H453" s="8"/>
       <c r="I453" s="19"/>
       <c r="J453" s="20" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="K453" s="26"/>
       <c r="L453" s="22"/>
@@ -13453,7 +13527,7 @@
       <c r="F457" s="13"/>
       <c r="H457" s="8"/>
       <c r="I457" s="19" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="J457" s="27" t="s">
         <v>201</v>
@@ -13595,7 +13669,7 @@
     <row r="463">
       <c r="A463" s="8"/>
       <c r="B463" s="32" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C463" s="20" t="s">
         <v>39</v>
@@ -13658,7 +13732,7 @@
       <c r="H465" s="8"/>
       <c r="I465" s="19"/>
       <c r="J465" s="27" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="K465" s="21">
         <v>2.0</v>
@@ -13708,7 +13782,7 @@
       <c r="H467" s="8"/>
       <c r="I467" s="19"/>
       <c r="J467" s="27" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="K467" s="28"/>
       <c r="L467" s="22"/>
@@ -13724,7 +13798,7 @@
       <c r="A468" s="8"/>
       <c r="B468" s="19"/>
       <c r="C468" s="20" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D468" s="26"/>
       <c r="E468" s="22" t="s">
@@ -13754,7 +13828,7 @@
       <c r="C469" s="20"/>
       <c r="D469" s="26"/>
       <c r="E469" s="22" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F469" s="30">
         <v>1.0</v>
@@ -13811,7 +13885,7 @@
       <c r="F471" s="23"/>
       <c r="H471" s="8"/>
       <c r="I471" s="19" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="J471" s="27" t="s">
         <v>201</v>
@@ -14000,9 +14074,15 @@
     </row>
     <row r="479">
       <c r="A479" s="8"/>
-      <c r="B479" s="9"/>
-      <c r="C479" s="17"/>
-      <c r="D479" s="11"/>
+      <c r="B479" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C479" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D479" s="18">
+        <v>4.0</v>
+      </c>
       <c r="E479" s="24"/>
       <c r="F479" s="25"/>
       <c r="H479" s="8"/>
@@ -14025,8 +14105,12 @@
     <row r="480">
       <c r="A480" s="8"/>
       <c r="B480" s="9"/>
-      <c r="C480" s="10"/>
-      <c r="D480" s="11"/>
+      <c r="C480" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D480" s="21">
+        <v>3.0</v>
+      </c>
       <c r="E480" s="24"/>
       <c r="F480" s="25"/>
       <c r="H480" s="8"/>
@@ -14047,8 +14131,10 @@
     <row r="481">
       <c r="A481" s="8"/>
       <c r="B481" s="9"/>
-      <c r="C481" s="17"/>
-      <c r="D481" s="11"/>
+      <c r="C481" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D481" s="26"/>
       <c r="E481" s="24"/>
       <c r="F481" s="25"/>
       <c r="H481" s="8"/>
@@ -14069,8 +14155,10 @@
     <row r="482">
       <c r="A482" s="8"/>
       <c r="B482" s="9"/>
-      <c r="C482" s="10"/>
-      <c r="D482" s="11"/>
+      <c r="C482" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D482" s="26"/>
       <c r="E482" s="24"/>
       <c r="F482" s="25"/>
       <c r="H482" s="8"/>
@@ -14091,7 +14179,9 @@
     <row r="483">
       <c r="A483" s="8"/>
       <c r="B483" s="9"/>
-      <c r="C483" s="10"/>
+      <c r="C483" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="D483" s="11"/>
       <c r="E483" s="24"/>
       <c r="F483" s="25"/>
@@ -14115,7 +14205,9 @@
     <row r="484">
       <c r="A484" s="8"/>
       <c r="B484" s="9"/>
-      <c r="C484" s="10"/>
+      <c r="C484" s="17" t="s">
+        <v>267</v>
+      </c>
       <c r="D484" s="11"/>
       <c r="E484" s="24"/>
       <c r="F484" s="25"/>
@@ -14135,16 +14227,20 @@
     <row r="485">
       <c r="A485" s="8"/>
       <c r="B485" s="9"/>
-      <c r="C485" s="17"/>
-      <c r="D485" s="18"/>
+      <c r="C485" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D485" s="18">
+        <v>2.0</v>
+      </c>
       <c r="E485" s="12"/>
       <c r="F485" s="13"/>
       <c r="H485" s="8"/>
       <c r="I485" s="33"/>
-      <c r="J485" s="34"/>
-      <c r="K485" s="26"/>
-      <c r="L485" s="12"/>
-      <c r="M485" s="13"/>
+      <c r="J485" s="27"/>
+      <c r="K485" s="21"/>
+      <c r="L485" s="22"/>
+      <c r="M485" s="30"/>
       <c r="O485" s="8"/>
       <c r="P485" s="9"/>
       <c r="Q485" s="10"/>
@@ -14155,7 +14251,9 @@
     <row r="486">
       <c r="A486" s="8"/>
       <c r="B486" s="9"/>
-      <c r="C486" s="10"/>
+      <c r="C486" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="D486" s="11"/>
       <c r="E486" s="12"/>
       <c r="F486" s="13"/>
@@ -14163,8 +14261,8 @@
       <c r="I486" s="19"/>
       <c r="J486" s="20"/>
       <c r="K486" s="26"/>
-      <c r="L486" s="12"/>
-      <c r="M486" s="13"/>
+      <c r="L486" s="22"/>
+      <c r="M486" s="30"/>
       <c r="O486" s="8"/>
       <c r="P486" s="9"/>
       <c r="Q486" s="10"/>
@@ -14175,16 +14273,18 @@
     <row r="487">
       <c r="A487" s="8"/>
       <c r="B487" s="16"/>
-      <c r="C487" s="17"/>
+      <c r="C487" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="D487" s="18"/>
       <c r="E487" s="12"/>
       <c r="F487" s="13"/>
       <c r="H487" s="8"/>
       <c r="I487" s="19"/>
       <c r="J487" s="20"/>
-      <c r="K487" s="21"/>
-      <c r="L487" s="12"/>
-      <c r="M487" s="13"/>
+      <c r="K487" s="26"/>
+      <c r="L487" s="22"/>
+      <c r="M487" s="23"/>
       <c r="O487" s="8"/>
       <c r="P487" s="9"/>
       <c r="Q487" s="10"/>
@@ -14195,16 +14295,18 @@
     <row r="488">
       <c r="A488" s="8"/>
       <c r="B488" s="9"/>
-      <c r="C488" s="17"/>
+      <c r="C488" s="17" t="s">
+        <v>268</v>
+      </c>
       <c r="D488" s="11"/>
       <c r="E488" s="12"/>
       <c r="F488" s="13"/>
       <c r="H488" s="8"/>
       <c r="I488" s="19"/>
-      <c r="J488" s="36"/>
+      <c r="J488" s="20"/>
       <c r="K488" s="26"/>
-      <c r="L488" s="12"/>
-      <c r="M488" s="13"/>
+      <c r="L488" s="22"/>
+      <c r="M488" s="23"/>
       <c r="O488" s="8"/>
       <c r="P488" s="9"/>
       <c r="Q488" s="10"/>
@@ -14215,7 +14317,9 @@
     <row r="489">
       <c r="A489" s="8"/>
       <c r="B489" s="9"/>
-      <c r="C489" s="17"/>
+      <c r="C489" s="17" t="s">
+        <v>269</v>
+      </c>
       <c r="D489" s="11"/>
       <c r="E489" s="12"/>
       <c r="F489" s="13"/>
@@ -14223,8 +14327,8 @@
       <c r="I489" s="19"/>
       <c r="J489" s="20"/>
       <c r="K489" s="26"/>
-      <c r="L489" s="12"/>
-      <c r="M489" s="13"/>
+      <c r="L489" s="22"/>
+      <c r="M489" s="23"/>
       <c r="O489" s="8"/>
       <c r="P489" s="9"/>
       <c r="Q489" s="10"/>
@@ -14235,16 +14339,18 @@
     <row r="490">
       <c r="A490" s="8"/>
       <c r="B490" s="9"/>
-      <c r="C490" s="17"/>
+      <c r="C490" s="17" t="s">
+        <v>270</v>
+      </c>
       <c r="D490" s="11"/>
       <c r="E490" s="12"/>
       <c r="F490" s="13"/>
       <c r="H490" s="8"/>
       <c r="I490" s="19"/>
       <c r="J490" s="20"/>
-      <c r="K490" s="26"/>
-      <c r="L490" s="12"/>
-      <c r="M490" s="13"/>
+      <c r="K490" s="21"/>
+      <c r="L490" s="22"/>
+      <c r="M490" s="23"/>
       <c r="O490" s="8"/>
       <c r="P490" s="9"/>
       <c r="Q490" s="10"/>
@@ -14255,16 +14361,18 @@
     <row r="491">
       <c r="A491" s="8"/>
       <c r="B491" s="9"/>
-      <c r="C491" s="17"/>
+      <c r="C491" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="D491" s="11"/>
       <c r="E491" s="12"/>
       <c r="F491" s="13"/>
       <c r="H491" s="8"/>
       <c r="I491" s="19"/>
       <c r="J491" s="20"/>
-      <c r="K491" s="21"/>
-      <c r="L491" s="12"/>
-      <c r="M491" s="13"/>
+      <c r="K491" s="26"/>
+      <c r="L491" s="22"/>
+      <c r="M491" s="23"/>
       <c r="O491" s="8"/>
       <c r="P491" s="9"/>
       <c r="Q491" s="10"/>
@@ -14275,16 +14383,20 @@
     <row r="492">
       <c r="A492" s="8"/>
       <c r="B492" s="9"/>
-      <c r="C492" s="17"/>
-      <c r="D492" s="11"/>
+      <c r="C492" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D492" s="18">
+        <v>1.0</v>
+      </c>
       <c r="E492" s="24"/>
       <c r="F492" s="25"/>
       <c r="H492" s="8"/>
-      <c r="I492" s="9"/>
-      <c r="J492" s="10"/>
-      <c r="K492" s="11"/>
-      <c r="L492" s="12"/>
-      <c r="M492" s="13"/>
+      <c r="I492" s="19"/>
+      <c r="J492" s="20"/>
+      <c r="K492" s="26"/>
+      <c r="L492" s="22"/>
+      <c r="M492" s="23"/>
       <c r="O492" s="8"/>
       <c r="P492" s="9"/>
       <c r="Q492" s="10"/>
@@ -14300,11 +14412,11 @@
       <c r="E493" s="24"/>
       <c r="F493" s="25"/>
       <c r="H493" s="8"/>
-      <c r="I493" s="9"/>
-      <c r="J493" s="10"/>
-      <c r="K493" s="11"/>
-      <c r="L493" s="12"/>
-      <c r="M493" s="13"/>
+      <c r="I493" s="19"/>
+      <c r="J493" s="20"/>
+      <c r="K493" s="26"/>
+      <c r="L493" s="22"/>
+      <c r="M493" s="23"/>
       <c r="O493" s="8"/>
       <c r="P493" s="9"/>
       <c r="Q493" s="10"/>
@@ -14314,17 +14426,23 @@
     </row>
     <row r="494">
       <c r="A494" s="8"/>
-      <c r="B494" s="9"/>
-      <c r="C494" s="17"/>
-      <c r="D494" s="11"/>
+      <c r="B494" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C494" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D494" s="18">
+        <v>4.0</v>
+      </c>
       <c r="E494" s="24"/>
       <c r="F494" s="25"/>
       <c r="H494" s="8"/>
-      <c r="I494" s="9"/>
-      <c r="J494" s="10"/>
-      <c r="K494" s="11"/>
-      <c r="L494" s="12"/>
-      <c r="M494" s="13"/>
+      <c r="I494" s="19"/>
+      <c r="J494" s="20"/>
+      <c r="K494" s="21"/>
+      <c r="L494" s="22"/>
+      <c r="M494" s="23"/>
       <c r="O494" s="8"/>
       <c r="P494" s="9"/>
       <c r="Q494" s="10"/>
@@ -14335,8 +14453,12 @@
     <row r="495">
       <c r="A495" s="8"/>
       <c r="B495" s="9"/>
-      <c r="C495" s="10"/>
-      <c r="D495" s="11"/>
+      <c r="C495" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D495" s="21">
+        <v>3.0</v>
+      </c>
       <c r="E495" s="24"/>
       <c r="F495" s="25"/>
       <c r="H495" s="8"/>
@@ -14355,8 +14477,10 @@
     <row r="496">
       <c r="A496" s="8"/>
       <c r="B496" s="9"/>
-      <c r="C496" s="10"/>
-      <c r="D496" s="11"/>
+      <c r="C496" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D496" s="26"/>
       <c r="E496" s="24"/>
       <c r="F496" s="25"/>
       <c r="H496" s="8"/>
@@ -14375,8 +14499,10 @@
     <row r="497">
       <c r="A497" s="8"/>
       <c r="B497" s="9"/>
-      <c r="C497" s="10"/>
-      <c r="D497" s="11"/>
+      <c r="C497" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D497" s="26"/>
       <c r="E497" s="24"/>
       <c r="F497" s="25"/>
       <c r="H497" s="8"/>
@@ -14395,8 +14521,10 @@
     <row r="498">
       <c r="A498" s="8"/>
       <c r="B498" s="9"/>
-      <c r="C498" s="17"/>
-      <c r="D498" s="18"/>
+      <c r="C498" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D498" s="11"/>
       <c r="E498" s="12"/>
       <c r="F498" s="13"/>
       <c r="H498" s="8"/>
@@ -14415,7 +14543,9 @@
     <row r="499">
       <c r="A499" s="8"/>
       <c r="B499" s="9"/>
-      <c r="C499" s="10"/>
+      <c r="C499" s="17" t="s">
+        <v>267</v>
+      </c>
       <c r="D499" s="11"/>
       <c r="E499" s="12"/>
       <c r="F499" s="13"/>
@@ -14435,8 +14565,10 @@
     <row r="500">
       <c r="A500" s="8"/>
       <c r="B500" s="9"/>
-      <c r="C500" s="10"/>
-      <c r="D500" s="11"/>
+      <c r="C500" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="D500" s="28"/>
       <c r="E500" s="12"/>
       <c r="F500" s="13"/>
       <c r="H500" s="8"/>
@@ -14455,7 +14587,9 @@
     <row r="501">
       <c r="A501" s="8"/>
       <c r="B501" s="9"/>
-      <c r="C501" s="10"/>
+      <c r="C501" s="17" t="s">
+        <v>221</v>
+      </c>
       <c r="D501" s="11"/>
       <c r="E501" s="12"/>
       <c r="F501" s="13"/>
@@ -14474,9 +14608,11 @@
     </row>
     <row r="502">
       <c r="A502" s="8"/>
-      <c r="B502" s="9"/>
-      <c r="C502" s="10"/>
-      <c r="D502" s="11"/>
+      <c r="B502" s="16"/>
+      <c r="C502" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D502" s="18"/>
       <c r="E502" s="12"/>
       <c r="F502" s="13"/>
       <c r="H502" s="8"/>
@@ -14495,8 +14631,12 @@
     <row r="503">
       <c r="A503" s="8"/>
       <c r="B503" s="9"/>
-      <c r="C503" s="10"/>
-      <c r="D503" s="11"/>
+      <c r="C503" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D503" s="37">
+        <v>2.0</v>
+      </c>
       <c r="E503" s="12"/>
       <c r="F503" s="13"/>
       <c r="H503" s="8"/>
@@ -14515,8 +14655,10 @@
     <row r="504">
       <c r="A504" s="8"/>
       <c r="B504" s="9"/>
-      <c r="C504" s="10"/>
-      <c r="D504" s="11"/>
+      <c r="C504" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D504" s="26"/>
       <c r="E504" s="12"/>
       <c r="F504" s="13"/>
       <c r="H504" s="8"/>
@@ -14535,8 +14677,10 @@
     <row r="505">
       <c r="A505" s="8"/>
       <c r="B505" s="9"/>
-      <c r="C505" s="10"/>
-      <c r="D505" s="11"/>
+      <c r="C505" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D505" s="26"/>
       <c r="E505" s="12"/>
       <c r="F505" s="13"/>
       <c r="H505" s="8"/>
@@ -14555,8 +14699,12 @@
     <row r="506">
       <c r="A506" s="8"/>
       <c r="B506" s="9"/>
-      <c r="C506" s="10"/>
-      <c r="D506" s="11"/>
+      <c r="C506" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D506" s="21">
+        <v>1.0</v>
+      </c>
       <c r="E506" s="12"/>
       <c r="F506" s="13"/>
       <c r="H506" s="8"/>
@@ -14575,8 +14723,8 @@
     <row r="507">
       <c r="A507" s="8"/>
       <c r="B507" s="9"/>
-      <c r="C507" s="10"/>
-      <c r="D507" s="11"/>
+      <c r="C507" s="34"/>
+      <c r="D507" s="28"/>
       <c r="E507" s="12"/>
       <c r="F507" s="13"/>
       <c r="H507" s="8"/>
@@ -14594,11 +14742,11 @@
     </row>
     <row r="508">
       <c r="A508" s="8"/>
-      <c r="B508" s="9"/>
-      <c r="C508" s="10"/>
-      <c r="D508" s="11"/>
-      <c r="E508" s="12"/>
-      <c r="F508" s="13"/>
+      <c r="B508" s="16"/>
+      <c r="C508" s="35"/>
+      <c r="D508" s="37"/>
+      <c r="E508" s="24"/>
+      <c r="F508" s="25"/>
       <c r="H508" s="8"/>
       <c r="I508" s="9"/>
       <c r="J508" s="10"/>
@@ -14615,10 +14763,10 @@
     <row r="509">
       <c r="A509" s="8"/>
       <c r="B509" s="9"/>
-      <c r="C509" s="10"/>
-      <c r="D509" s="11"/>
-      <c r="E509" s="12"/>
-      <c r="F509" s="13"/>
+      <c r="C509" s="20"/>
+      <c r="D509" s="26"/>
+      <c r="E509" s="24"/>
+      <c r="F509" s="25"/>
       <c r="H509" s="8"/>
       <c r="I509" s="9"/>
       <c r="J509" s="10"/>
@@ -14635,8 +14783,8 @@
     <row r="510">
       <c r="A510" s="8"/>
       <c r="B510" s="9"/>
-      <c r="C510" s="10"/>
-      <c r="D510" s="11"/>
+      <c r="C510" s="35"/>
+      <c r="D510" s="21"/>
       <c r="E510" s="12"/>
       <c r="F510" s="13"/>
       <c r="H510" s="8"/>
@@ -14655,7 +14803,7 @@
     <row r="511">
       <c r="A511" s="8"/>
       <c r="B511" s="9"/>
-      <c r="C511" s="10"/>
+      <c r="C511" s="17"/>
       <c r="D511" s="11"/>
       <c r="E511" s="12"/>
       <c r="F511" s="13"/>
@@ -14675,7 +14823,7 @@
     <row r="512">
       <c r="A512" s="8"/>
       <c r="B512" s="9"/>
-      <c r="C512" s="10"/>
+      <c r="C512" s="17"/>
       <c r="D512" s="11"/>
       <c r="E512" s="12"/>
       <c r="F512" s="13"/>
@@ -14695,8 +14843,8 @@
     <row r="513">
       <c r="A513" s="8"/>
       <c r="B513" s="9"/>
-      <c r="C513" s="10"/>
-      <c r="D513" s="11"/>
+      <c r="C513" s="17"/>
+      <c r="D513" s="18"/>
       <c r="E513" s="12"/>
       <c r="F513" s="13"/>
       <c r="H513" s="8"/>
@@ -14715,7 +14863,7 @@
     <row r="514">
       <c r="A514" s="8"/>
       <c r="B514" s="9"/>
-      <c r="C514" s="10"/>
+      <c r="C514" s="17"/>
       <c r="D514" s="11"/>
       <c r="E514" s="12"/>
       <c r="F514" s="13"/>
@@ -14735,7 +14883,7 @@
     <row r="515">
       <c r="A515" s="8"/>
       <c r="B515" s="9"/>
-      <c r="C515" s="10"/>
+      <c r="C515" s="17"/>
       <c r="D515" s="11"/>
       <c r="E515" s="12"/>
       <c r="F515" s="13"/>
@@ -14755,7 +14903,7 @@
     <row r="516">
       <c r="A516" s="8"/>
       <c r="B516" s="9"/>
-      <c r="C516" s="10"/>
+      <c r="C516" s="17"/>
       <c r="D516" s="11"/>
       <c r="E516" s="12"/>
       <c r="F516" s="13"/>
@@ -14775,8 +14923,8 @@
     <row r="517">
       <c r="A517" s="8"/>
       <c r="B517" s="9"/>
-      <c r="C517" s="10"/>
-      <c r="D517" s="11"/>
+      <c r="C517" s="17"/>
+      <c r="D517" s="18"/>
       <c r="E517" s="12"/>
       <c r="F517" s="13"/>
       <c r="H517" s="8"/>

--- a/assets/All Classes.xlsx
+++ b/assets/All Classes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="283">
   <si>
     <t>ClassNames</t>
   </si>
@@ -700,6 +700,27 @@
     <t>2GSH</t>
   </si>
   <si>
+    <t>1GMMA</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Projet</t>
+  </si>
+  <si>
+    <t>Medias</t>
+  </si>
+  <si>
+    <t>Conmo</t>
+  </si>
+  <si>
+    <t>Comep</t>
+  </si>
+  <si>
+    <t>1GMMF</t>
+  </si>
+  <si>
     <t>2CA</t>
   </si>
   <si>
@@ -829,7 +850,16 @@
     <t>Design graphique</t>
   </si>
   <si>
+    <t>2GMMA</t>
+  </si>
+  <si>
     <t>2I</t>
+  </si>
+  <si>
+    <t>Droit/Finance</t>
+  </si>
+  <si>
+    <t>2GMMF</t>
   </si>
 </sst>
 </file>
@@ -8820,9 +8850,15 @@
       <c r="L271" s="22"/>
       <c r="M271" s="23"/>
       <c r="O271" s="8"/>
-      <c r="P271" s="9"/>
-      <c r="Q271" s="10"/>
-      <c r="R271" s="11"/>
+      <c r="P271" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q271" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="R271" s="42">
+        <v>4.0</v>
+      </c>
       <c r="S271" s="12"/>
       <c r="T271" s="13"/>
     </row>
@@ -8844,9 +8880,11 @@
       <c r="L272" s="22"/>
       <c r="M272" s="23"/>
       <c r="O272" s="8"/>
-      <c r="P272" s="9"/>
-      <c r="Q272" s="27"/>
-      <c r="R272" s="21"/>
+      <c r="P272" s="19"/>
+      <c r="Q272" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="R272" s="26"/>
       <c r="S272" s="22"/>
       <c r="T272" s="30"/>
     </row>
@@ -8868,9 +8906,11 @@
       <c r="L273" s="22"/>
       <c r="M273" s="23"/>
       <c r="O273" s="8"/>
-      <c r="P273" s="9"/>
-      <c r="Q273" s="27"/>
-      <c r="R273" s="28"/>
+      <c r="P273" s="19"/>
+      <c r="Q273" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="R273" s="26"/>
       <c r="S273" s="22"/>
       <c r="T273" s="30"/>
     </row>
@@ -8892,9 +8932,13 @@
       <c r="L274" s="22"/>
       <c r="M274" s="23"/>
       <c r="O274" s="8"/>
-      <c r="P274" s="9"/>
-      <c r="Q274" s="27"/>
-      <c r="R274" s="11"/>
+      <c r="P274" s="19"/>
+      <c r="Q274" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="R274" s="42">
+        <v>3.0</v>
+      </c>
       <c r="S274" s="12"/>
       <c r="T274" s="13"/>
     </row>
@@ -8916,9 +8960,11 @@
       <c r="L275" s="22"/>
       <c r="M275" s="23"/>
       <c r="O275" s="8"/>
-      <c r="P275" s="9"/>
-      <c r="Q275" s="20"/>
-      <c r="R275" s="11"/>
+      <c r="P275" s="19"/>
+      <c r="Q275" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="R275" s="42"/>
       <c r="S275" s="12"/>
       <c r="T275" s="13"/>
     </row>
@@ -8944,9 +8990,11 @@
       <c r="L276" s="22"/>
       <c r="M276" s="23"/>
       <c r="O276" s="8"/>
-      <c r="P276" s="9"/>
-      <c r="Q276" s="10"/>
-      <c r="R276" s="11"/>
+      <c r="P276" s="19"/>
+      <c r="Q276" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="R276" s="26"/>
       <c r="S276" s="12"/>
       <c r="T276" s="13"/>
     </row>
@@ -8968,9 +9016,11 @@
       <c r="L277" s="22"/>
       <c r="M277" s="23"/>
       <c r="O277" s="8"/>
-      <c r="P277" s="9"/>
-      <c r="Q277" s="10"/>
-      <c r="R277" s="11"/>
+      <c r="P277" s="19"/>
+      <c r="Q277" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="R277" s="26"/>
       <c r="S277" s="12"/>
       <c r="T277" s="13"/>
     </row>
@@ -8992,9 +9042,11 @@
       <c r="L278" s="22"/>
       <c r="M278" s="23"/>
       <c r="O278" s="8"/>
-      <c r="P278" s="9"/>
-      <c r="Q278" s="10"/>
-      <c r="R278" s="11"/>
+      <c r="P278" s="19"/>
+      <c r="Q278" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="R278" s="26"/>
       <c r="S278" s="12"/>
       <c r="T278" s="13"/>
     </row>
@@ -9016,9 +9068,11 @@
       <c r="L279" s="22"/>
       <c r="M279" s="23"/>
       <c r="O279" s="8"/>
-      <c r="P279" s="9"/>
-      <c r="Q279" s="10"/>
-      <c r="R279" s="11"/>
+      <c r="P279" s="19"/>
+      <c r="Q279" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="R279" s="42"/>
       <c r="S279" s="12"/>
       <c r="T279" s="13"/>
     </row>
@@ -9040,9 +9094,13 @@
       <c r="L280" s="22"/>
       <c r="M280" s="23"/>
       <c r="O280" s="8"/>
-      <c r="P280" s="9"/>
-      <c r="Q280" s="10"/>
-      <c r="R280" s="11"/>
+      <c r="P280" s="19"/>
+      <c r="Q280" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="R280" s="21">
+        <v>1.0</v>
+      </c>
       <c r="S280" s="12"/>
       <c r="T280" s="13"/>
     </row>
@@ -9066,9 +9124,13 @@
       <c r="L281" s="22"/>
       <c r="M281" s="23"/>
       <c r="O281" s="8"/>
-      <c r="P281" s="9"/>
-      <c r="Q281" s="10"/>
-      <c r="R281" s="11"/>
+      <c r="P281" s="19"/>
+      <c r="Q281" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="R281" s="42">
+        <v>1.0</v>
+      </c>
       <c r="S281" s="12"/>
       <c r="T281" s="13"/>
     </row>
@@ -9118,9 +9180,15 @@
       <c r="L283" s="22"/>
       <c r="M283" s="23"/>
       <c r="O283" s="8"/>
-      <c r="P283" s="9"/>
-      <c r="Q283" s="10"/>
-      <c r="R283" s="11"/>
+      <c r="P283" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q283" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="R283" s="42">
+        <v>4.0</v>
+      </c>
       <c r="S283" s="12"/>
       <c r="T283" s="13"/>
     </row>
@@ -9138,16 +9206,18 @@
       <c r="L284" s="22"/>
       <c r="M284" s="23"/>
       <c r="O284" s="8"/>
-      <c r="P284" s="9"/>
-      <c r="Q284" s="10"/>
-      <c r="R284" s="11"/>
+      <c r="P284" s="19"/>
+      <c r="Q284" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="R284" s="26"/>
       <c r="S284" s="12"/>
       <c r="T284" s="13"/>
     </row>
     <row r="285">
       <c r="A285" s="8"/>
       <c r="B285" s="16" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C285" s="17" t="s">
         <v>13</v>
@@ -9159,7 +9229,7 @@
       <c r="F285" s="13"/>
       <c r="H285" s="8"/>
       <c r="I285" s="19" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="J285" s="27" t="s">
         <v>107</v>
@@ -9170,9 +9240,11 @@
       <c r="L285" s="22"/>
       <c r="M285" s="23"/>
       <c r="O285" s="8"/>
-      <c r="P285" s="9"/>
-      <c r="Q285" s="10"/>
-      <c r="R285" s="11"/>
+      <c r="P285" s="19"/>
+      <c r="Q285" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="R285" s="26"/>
       <c r="S285" s="12"/>
       <c r="T285" s="13"/>
     </row>
@@ -9196,9 +9268,13 @@
       <c r="L286" s="22"/>
       <c r="M286" s="23"/>
       <c r="O286" s="8"/>
-      <c r="P286" s="9"/>
-      <c r="Q286" s="10"/>
-      <c r="R286" s="11"/>
+      <c r="P286" s="19"/>
+      <c r="Q286" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="R286" s="42">
+        <v>3.0</v>
+      </c>
       <c r="S286" s="12"/>
       <c r="T286" s="13"/>
     </row>
@@ -9220,9 +9296,11 @@
       <c r="L287" s="22"/>
       <c r="M287" s="23"/>
       <c r="O287" s="8"/>
-      <c r="P287" s="9"/>
-      <c r="Q287" s="10"/>
-      <c r="R287" s="11"/>
+      <c r="P287" s="19"/>
+      <c r="Q287" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="R287" s="42"/>
       <c r="S287" s="12"/>
       <c r="T287" s="13"/>
     </row>
@@ -9246,9 +9324,11 @@
       <c r="L288" s="22"/>
       <c r="M288" s="23"/>
       <c r="O288" s="8"/>
-      <c r="P288" s="9"/>
-      <c r="Q288" s="10"/>
-      <c r="R288" s="11"/>
+      <c r="P288" s="19"/>
+      <c r="Q288" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="R288" s="26"/>
       <c r="S288" s="12"/>
       <c r="T288" s="13"/>
     </row>
@@ -9256,7 +9336,7 @@
       <c r="A289" s="8"/>
       <c r="B289" s="9"/>
       <c r="C289" s="17" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D289" s="18"/>
       <c r="E289" s="24" t="s">
@@ -9274,9 +9354,11 @@
       <c r="L289" s="22"/>
       <c r="M289" s="23"/>
       <c r="O289" s="8"/>
-      <c r="P289" s="9"/>
-      <c r="Q289" s="10"/>
-      <c r="R289" s="11"/>
+      <c r="P289" s="19"/>
+      <c r="Q289" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="R289" s="26"/>
       <c r="S289" s="12"/>
       <c r="T289" s="13"/>
     </row>
@@ -9286,7 +9368,7 @@
       <c r="C290" s="17"/>
       <c r="D290" s="18"/>
       <c r="E290" s="24" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F290" s="25">
         <v>1.0</v>
@@ -9300,9 +9382,11 @@
       <c r="L290" s="22"/>
       <c r="M290" s="23"/>
       <c r="O290" s="8"/>
-      <c r="P290" s="9"/>
-      <c r="Q290" s="10"/>
-      <c r="R290" s="11"/>
+      <c r="P290" s="19"/>
+      <c r="Q290" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="R290" s="26"/>
       <c r="S290" s="12"/>
       <c r="T290" s="13"/>
     </row>
@@ -9328,9 +9412,11 @@
       <c r="L291" s="29"/>
       <c r="M291" s="49"/>
       <c r="O291" s="8"/>
-      <c r="P291" s="9"/>
-      <c r="Q291" s="10"/>
-      <c r="R291" s="11"/>
+      <c r="P291" s="19"/>
+      <c r="Q291" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="R291" s="42"/>
       <c r="S291" s="12"/>
       <c r="T291" s="13"/>
     </row>
@@ -9352,9 +9438,13 @@
       <c r="L292" s="29"/>
       <c r="M292" s="49"/>
       <c r="O292" s="8"/>
-      <c r="P292" s="9"/>
-      <c r="Q292" s="10"/>
-      <c r="R292" s="11"/>
+      <c r="P292" s="19"/>
+      <c r="Q292" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="R292" s="21">
+        <v>1.0</v>
+      </c>
       <c r="S292" s="12"/>
       <c r="T292" s="13"/>
     </row>
@@ -9376,9 +9466,13 @@
       <c r="L293" s="29"/>
       <c r="M293" s="49"/>
       <c r="O293" s="8"/>
-      <c r="P293" s="9"/>
-      <c r="Q293" s="10"/>
-      <c r="R293" s="11"/>
+      <c r="P293" s="19"/>
+      <c r="Q293" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="R293" s="42">
+        <v>1.0</v>
+      </c>
       <c r="S293" s="12"/>
       <c r="T293" s="13"/>
     </row>
@@ -9457,7 +9551,7 @@
     <row r="297">
       <c r="A297" s="8"/>
       <c r="B297" s="16" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C297" s="17" t="s">
         <v>13</v>
@@ -9517,7 +9611,7 @@
       <c r="F299" s="13"/>
       <c r="H299" s="8"/>
       <c r="I299" s="19" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="J299" s="27" t="s">
         <v>107</v>
@@ -9590,7 +9684,7 @@
       <c r="A302" s="8"/>
       <c r="B302" s="9"/>
       <c r="C302" s="17" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D302" s="18"/>
       <c r="E302" s="24" t="s">
@@ -9620,7 +9714,7 @@
       <c r="C303" s="17"/>
       <c r="D303" s="18"/>
       <c r="E303" s="24" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F303" s="25">
         <v>1.0</v>
@@ -9773,7 +9867,7 @@
     <row r="309">
       <c r="A309" s="8"/>
       <c r="B309" s="16" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C309" s="17" t="s">
         <v>46</v>
@@ -9891,7 +9985,7 @@
       <c r="F313" s="13"/>
       <c r="H313" s="8"/>
       <c r="I313" s="19" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="J313" s="27" t="s">
         <v>26</v>
@@ -9936,7 +10030,7 @@
       <c r="A315" s="8"/>
       <c r="B315" s="9"/>
       <c r="C315" s="17" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D315" s="11"/>
       <c r="E315" s="24" t="s">
@@ -9966,7 +10060,7 @@
       <c r="C316" s="10"/>
       <c r="D316" s="11"/>
       <c r="E316" s="24" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F316" s="25">
         <v>1.0</v>
@@ -10113,7 +10207,7 @@
     <row r="322">
       <c r="A322" s="8"/>
       <c r="B322" s="16" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C322" s="17" t="s">
         <v>46</v>
@@ -10253,10 +10347,10 @@
       <c r="F327" s="13"/>
       <c r="H327" s="8"/>
       <c r="I327" s="19" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="J327" s="27" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="K327" s="21">
         <v>4.0</v>
@@ -10282,7 +10376,7 @@
       <c r="H328" s="8"/>
       <c r="I328" s="19"/>
       <c r="J328" s="27" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K328" s="26"/>
       <c r="L328" s="22"/>
@@ -10298,7 +10392,7 @@
       <c r="A329" s="8"/>
       <c r="B329" s="9"/>
       <c r="C329" s="17" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D329" s="11"/>
       <c r="E329" s="24" t="s">
@@ -10310,7 +10404,7 @@
       <c r="H329" s="8"/>
       <c r="I329" s="19"/>
       <c r="J329" s="27" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="K329" s="26"/>
       <c r="L329" s="22"/>
@@ -10328,7 +10422,7 @@
       <c r="C330" s="10"/>
       <c r="D330" s="11"/>
       <c r="E330" s="24" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F330" s="25">
         <v>1.0</v>
@@ -10362,7 +10456,7 @@
       <c r="H331" s="8"/>
       <c r="I331" s="33"/>
       <c r="J331" s="27" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="K331" s="28"/>
       <c r="L331" s="22"/>
@@ -10475,7 +10569,7 @@
     <row r="336">
       <c r="A336" s="8"/>
       <c r="B336" s="16" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C336" s="17" t="s">
         <v>62</v>
@@ -10614,7 +10708,7 @@
       <c r="A341" s="8"/>
       <c r="B341" s="9"/>
       <c r="C341" s="17" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D341" s="11"/>
       <c r="E341" s="24" t="s">
@@ -10642,17 +10736,17 @@
       <c r="C342" s="10"/>
       <c r="D342" s="11"/>
       <c r="E342" s="24" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F342" s="25">
         <v>1.0</v>
       </c>
       <c r="H342" s="8"/>
       <c r="I342" s="19" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="J342" s="27" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="K342" s="31">
         <v>4.0</v>
@@ -10678,7 +10772,7 @@
       <c r="H343" s="8"/>
       <c r="I343" s="19"/>
       <c r="J343" s="27" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K343" s="28"/>
       <c r="L343" s="22"/>
@@ -10702,7 +10796,7 @@
       <c r="H344" s="8"/>
       <c r="I344" s="19"/>
       <c r="J344" s="20" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="K344" s="26"/>
       <c r="L344" s="22"/>
@@ -10756,7 +10850,7 @@
       <c r="H346" s="8"/>
       <c r="I346" s="19"/>
       <c r="J346" s="27" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="K346" s="26"/>
       <c r="L346" s="22"/>
@@ -10793,7 +10887,7 @@
     <row r="348">
       <c r="A348" s="8"/>
       <c r="B348" s="16" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C348" s="17" t="s">
         <v>62</v>
@@ -10946,7 +11040,7 @@
       <c r="A354" s="8"/>
       <c r="B354" s="9"/>
       <c r="C354" s="17" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D354" s="11"/>
       <c r="E354" s="24" t="s">
@@ -10978,7 +11072,7 @@
       <c r="C355" s="10"/>
       <c r="D355" s="11"/>
       <c r="E355" s="24" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F355" s="25">
         <v>1.0</v>
@@ -11007,7 +11101,7 @@
       <c r="F356" s="13"/>
       <c r="H356" s="8"/>
       <c r="I356" s="19" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J356" s="27" t="s">
         <v>24</v>
@@ -11127,7 +11221,7 @@
     <row r="361">
       <c r="A361" s="8"/>
       <c r="B361" s="16" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C361" s="17" t="s">
         <v>39</v>
@@ -11262,7 +11356,7 @@
       <c r="A366" s="8"/>
       <c r="B366" s="9"/>
       <c r="C366" s="17" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D366" s="11"/>
       <c r="E366" s="24" t="s">
@@ -11294,7 +11388,7 @@
       <c r="C367" s="10"/>
       <c r="D367" s="11"/>
       <c r="E367" s="24" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F367" s="25">
         <v>1.0</v>
@@ -11375,7 +11469,7 @@
       <c r="F370" s="13"/>
       <c r="H370" s="8"/>
       <c r="I370" s="19" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="J370" s="27" t="s">
         <v>24</v>
@@ -11469,7 +11563,7 @@
     <row r="374">
       <c r="A374" s="8"/>
       <c r="B374" s="16" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C374" s="17" t="s">
         <v>39</v>
@@ -11622,7 +11716,7 @@
       <c r="A380" s="8"/>
       <c r="B380" s="9"/>
       <c r="C380" s="17" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D380" s="11"/>
       <c r="E380" s="24" t="s">
@@ -11652,7 +11746,7 @@
       <c r="C381" s="10"/>
       <c r="D381" s="11"/>
       <c r="E381" s="24" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F381" s="25">
         <v>1.0</v>
@@ -11709,7 +11803,7 @@
       <c r="F383" s="13"/>
       <c r="H383" s="8"/>
       <c r="I383" s="19" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="J383" s="27" t="s">
         <v>24</v>
@@ -11827,10 +11921,10 @@
     <row r="388">
       <c r="A388" s="8"/>
       <c r="B388" s="16" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C388" s="17" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D388" s="18">
         <v>4.0</v>
@@ -11886,13 +11980,13 @@
       <c r="A390" s="8"/>
       <c r="B390" s="9"/>
       <c r="C390" s="17" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D390" s="18">
         <v>3.0</v>
       </c>
       <c r="E390" s="24" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F390" s="25">
         <v>1.5</v>
@@ -12018,7 +12112,7 @@
       <c r="A395" s="8"/>
       <c r="B395" s="9"/>
       <c r="C395" s="17" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D395" s="11"/>
       <c r="E395" s="24" t="s">
@@ -12046,14 +12140,14 @@
       <c r="C396" s="10"/>
       <c r="D396" s="11"/>
       <c r="E396" s="24" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F396" s="25">
         <v>1.0</v>
       </c>
       <c r="H396" s="8"/>
       <c r="I396" s="19" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="J396" s="27" t="s">
         <v>24</v>
@@ -12245,10 +12339,10 @@
     <row r="404">
       <c r="A404" s="8"/>
       <c r="B404" s="16" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C404" s="17" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D404" s="18">
         <v>4.0</v>
@@ -12306,13 +12400,13 @@
       <c r="A406" s="8"/>
       <c r="B406" s="9"/>
       <c r="C406" s="17" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D406" s="18">
         <v>3.0</v>
       </c>
       <c r="E406" s="24" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F406" s="25">
         <v>1.5</v>
@@ -12417,7 +12511,7 @@
       <c r="F410" s="13"/>
       <c r="H410" s="8"/>
       <c r="I410" s="19" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="J410" s="27" t="s">
         <v>62</v>
@@ -12462,7 +12556,7 @@
       <c r="A412" s="8"/>
       <c r="B412" s="9"/>
       <c r="C412" s="17" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D412" s="11"/>
       <c r="E412" s="24" t="s">
@@ -12492,7 +12586,7 @@
       <c r="C413" s="10"/>
       <c r="D413" s="11"/>
       <c r="E413" s="24" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F413" s="25">
         <v>1.0</v>
@@ -12697,7 +12791,7 @@
     <row r="421">
       <c r="A421" s="8"/>
       <c r="B421" s="16" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C421" s="17" t="s">
         <v>95</v>
@@ -12783,7 +12877,7 @@
       <c r="F424" s="13"/>
       <c r="H424" s="8"/>
       <c r="I424" s="19" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="J424" s="27" t="s">
         <v>62</v>
@@ -12828,7 +12922,7 @@
       <c r="A426" s="8"/>
       <c r="B426" s="9"/>
       <c r="C426" s="17" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D426" s="11"/>
       <c r="E426" s="24" t="s">
@@ -12858,7 +12952,7 @@
       <c r="C427" s="10"/>
       <c r="D427" s="11"/>
       <c r="E427" s="24" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F427" s="25">
         <v>1.0</v>
@@ -13018,7 +13112,7 @@
       <c r="H433" s="8"/>
       <c r="I433" s="19"/>
       <c r="J433" s="27" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="K433" s="26"/>
       <c r="L433" s="22"/>
@@ -13055,7 +13149,7 @@
     <row r="435">
       <c r="A435" s="8"/>
       <c r="B435" s="16" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C435" s="17" t="s">
         <v>95</v>
@@ -13117,7 +13211,7 @@
       <c r="F437" s="13"/>
       <c r="H437" s="8"/>
       <c r="I437" s="19" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J437" s="27" t="s">
         <v>62</v>
@@ -13210,7 +13304,7 @@
       <c r="A441" s="8"/>
       <c r="B441" s="9"/>
       <c r="C441" s="17" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D441" s="11"/>
       <c r="E441" s="24" t="s">
@@ -13242,7 +13336,7 @@
       <c r="C442" s="10"/>
       <c r="D442" s="11"/>
       <c r="E442" s="24" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F442" s="25">
         <v>1.0</v>
@@ -13437,7 +13531,7 @@
     <row r="450">
       <c r="A450" s="8"/>
       <c r="B450" s="16" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C450" s="17" t="s">
         <v>39</v>
@@ -13449,7 +13543,7 @@
       <c r="F450" s="13"/>
       <c r="H450" s="8"/>
       <c r="I450" s="19" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="J450" s="27" t="s">
         <v>201</v>
@@ -13546,7 +13640,7 @@
       <c r="A454" s="8"/>
       <c r="B454" s="9"/>
       <c r="C454" s="17" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D454" s="11"/>
       <c r="E454" s="24" t="s">
@@ -13576,7 +13670,7 @@
       <c r="C455" s="10"/>
       <c r="D455" s="11"/>
       <c r="E455" s="24" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F455" s="25">
         <v>1.0</v>
@@ -13658,7 +13752,7 @@
       <c r="H458" s="8"/>
       <c r="I458" s="19"/>
       <c r="J458" s="27" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K458" s="21">
         <v>2.0</v>
@@ -13827,7 +13921,7 @@
     <row r="465">
       <c r="A465" s="8"/>
       <c r="B465" s="32" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C465" s="20" t="s">
         <v>39</v>
@@ -13839,7 +13933,7 @@
       <c r="F465" s="23"/>
       <c r="H465" s="8"/>
       <c r="I465" s="19" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="J465" s="27" t="s">
         <v>201</v>
@@ -13960,7 +14054,7 @@
       <c r="A470" s="8"/>
       <c r="B470" s="19"/>
       <c r="C470" s="20" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D470" s="26"/>
       <c r="E470" s="22" t="s">
@@ -13990,7 +14084,7 @@
       <c r="C471" s="20"/>
       <c r="D471" s="26"/>
       <c r="E471" s="22" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F471" s="30">
         <v>1.0</v>
@@ -14048,7 +14142,7 @@
       <c r="H473" s="8"/>
       <c r="I473" s="19"/>
       <c r="J473" s="27" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K473" s="21">
         <v>2.0</v>
@@ -14098,7 +14192,7 @@
       <c r="H475" s="8"/>
       <c r="I475" s="19"/>
       <c r="J475" s="27" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="K475" s="26"/>
       <c r="L475" s="22"/>
@@ -14195,7 +14289,7 @@
       <c r="F479" s="23"/>
       <c r="H479" s="8"/>
       <c r="I479" s="19" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="J479" s="27" t="s">
         <v>201</v>
@@ -14237,7 +14331,7 @@
     <row r="481">
       <c r="A481" s="8"/>
       <c r="B481" s="16" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C481" s="17" t="s">
         <v>24</v>
@@ -14340,7 +14434,7 @@
       <c r="A485" s="8"/>
       <c r="B485" s="9"/>
       <c r="C485" s="20" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D485" s="21">
         <v>3.0</v>
@@ -14466,7 +14560,7 @@
       <c r="A490" s="8"/>
       <c r="B490" s="9"/>
       <c r="C490" s="17" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D490" s="11"/>
       <c r="E490" s="12"/>
@@ -14550,9 +14644,15 @@
       <c r="E493" s="12"/>
       <c r="F493" s="13"/>
       <c r="H493" s="8"/>
-      <c r="I493" s="19"/>
-      <c r="J493" s="20"/>
-      <c r="K493" s="26"/>
+      <c r="I493" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="J493" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="K493" s="42">
+        <v>4.0</v>
+      </c>
       <c r="L493" s="22"/>
       <c r="M493" s="23"/>
       <c r="O493" s="8"/>
@@ -14575,7 +14675,9 @@
       <c r="F494" s="25"/>
       <c r="H494" s="8"/>
       <c r="I494" s="19"/>
-      <c r="J494" s="20"/>
+      <c r="J494" s="35" t="s">
+        <v>230</v>
+      </c>
       <c r="K494" s="26"/>
       <c r="L494" s="22"/>
       <c r="M494" s="23"/>
@@ -14597,7 +14699,9 @@
       <c r="F495" s="25"/>
       <c r="H495" s="8"/>
       <c r="I495" s="19"/>
-      <c r="J495" s="20"/>
+      <c r="J495" s="35" t="s">
+        <v>234</v>
+      </c>
       <c r="K495" s="26"/>
       <c r="L495" s="22"/>
       <c r="M495" s="23"/>
@@ -14617,7 +14721,9 @@
       <c r="F496" s="25"/>
       <c r="H496" s="8"/>
       <c r="I496" s="19"/>
-      <c r="J496" s="20"/>
+      <c r="J496" s="35" t="s">
+        <v>232</v>
+      </c>
       <c r="K496" s="26"/>
       <c r="L496" s="22"/>
       <c r="M496" s="23"/>
@@ -14631,7 +14737,7 @@
     <row r="497">
       <c r="A497" s="8"/>
       <c r="B497" s="19" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C497" s="20" t="s">
         <v>24</v>
@@ -14643,8 +14749,12 @@
       <c r="F497" s="49"/>
       <c r="H497" s="8"/>
       <c r="I497" s="19"/>
-      <c r="J497" s="20"/>
-      <c r="K497" s="26"/>
+      <c r="J497" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="K497" s="42">
+        <v>3.0</v>
+      </c>
       <c r="L497" s="22"/>
       <c r="M497" s="23"/>
       <c r="O497" s="8"/>
@@ -14665,7 +14775,9 @@
       <c r="F498" s="49"/>
       <c r="H498" s="8"/>
       <c r="I498" s="19"/>
-      <c r="J498" s="20"/>
+      <c r="J498" s="35" t="s">
+        <v>18</v>
+      </c>
       <c r="K498" s="26"/>
       <c r="L498" s="22"/>
       <c r="M498" s="23"/>
@@ -14687,7 +14799,9 @@
       <c r="F499" s="49"/>
       <c r="H499" s="8"/>
       <c r="I499" s="19"/>
-      <c r="J499" s="20"/>
+      <c r="J499" s="35" t="s">
+        <v>67</v>
+      </c>
       <c r="K499" s="26"/>
       <c r="L499" s="22"/>
       <c r="M499" s="23"/>
@@ -14709,7 +14823,9 @@
       <c r="F500" s="23"/>
       <c r="H500" s="8"/>
       <c r="I500" s="19"/>
-      <c r="J500" s="20"/>
+      <c r="J500" s="35" t="s">
+        <v>233</v>
+      </c>
       <c r="K500" s="26"/>
       <c r="L500" s="22"/>
       <c r="M500" s="23"/>
@@ -14731,8 +14847,12 @@
       <c r="F501" s="23"/>
       <c r="H501" s="8"/>
       <c r="I501" s="19"/>
-      <c r="J501" s="20"/>
-      <c r="K501" s="26"/>
+      <c r="J501" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K501" s="42">
+        <v>2.0</v>
+      </c>
       <c r="L501" s="22"/>
       <c r="M501" s="23"/>
       <c r="O501" s="8"/>
@@ -14746,14 +14866,16 @@
       <c r="A502" s="8"/>
       <c r="B502" s="19"/>
       <c r="C502" s="27" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D502" s="42"/>
       <c r="E502" s="22"/>
       <c r="F502" s="23"/>
       <c r="H502" s="8"/>
       <c r="I502" s="19"/>
-      <c r="J502" s="20"/>
+      <c r="J502" s="35" t="s">
+        <v>281</v>
+      </c>
       <c r="K502" s="26"/>
       <c r="L502" s="22"/>
       <c r="M502" s="23"/>
@@ -14775,8 +14897,12 @@
       <c r="F503" s="13"/>
       <c r="H503" s="8"/>
       <c r="I503" s="19"/>
-      <c r="J503" s="20"/>
-      <c r="K503" s="26"/>
+      <c r="J503" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="K503" s="42">
+        <v>1.0</v>
+      </c>
       <c r="L503" s="22"/>
       <c r="M503" s="23"/>
       <c r="O503" s="8"/>
@@ -14826,9 +14952,15 @@
         <v>1.0</v>
       </c>
       <c r="H505" s="8"/>
-      <c r="I505" s="19"/>
-      <c r="J505" s="20"/>
-      <c r="K505" s="26"/>
+      <c r="I505" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="J505" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="K505" s="42">
+        <v>4.0</v>
+      </c>
       <c r="L505" s="22"/>
       <c r="M505" s="23"/>
       <c r="O505" s="8"/>
@@ -14842,14 +14974,16 @@
       <c r="A506" s="8"/>
       <c r="B506" s="19"/>
       <c r="C506" s="27" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D506" s="26"/>
       <c r="E506" s="22"/>
       <c r="F506" s="23"/>
       <c r="H506" s="8"/>
       <c r="I506" s="19"/>
-      <c r="J506" s="20"/>
+      <c r="J506" s="35" t="s">
+        <v>230</v>
+      </c>
       <c r="K506" s="26"/>
       <c r="L506" s="22"/>
       <c r="M506" s="23"/>
@@ -14871,7 +15005,9 @@
       <c r="F507" s="23"/>
       <c r="H507" s="8"/>
       <c r="I507" s="19"/>
-      <c r="J507" s="20"/>
+      <c r="J507" s="35" t="s">
+        <v>234</v>
+      </c>
       <c r="K507" s="26"/>
       <c r="L507" s="22"/>
       <c r="M507" s="23"/>
@@ -14893,7 +15029,9 @@
       <c r="F508" s="23"/>
       <c r="H508" s="8"/>
       <c r="I508" s="19"/>
-      <c r="J508" s="20"/>
+      <c r="J508" s="35" t="s">
+        <v>232</v>
+      </c>
       <c r="K508" s="26"/>
       <c r="L508" s="22"/>
       <c r="M508" s="23"/>
@@ -14917,8 +15055,12 @@
       <c r="F509" s="23"/>
       <c r="H509" s="8"/>
       <c r="I509" s="19"/>
-      <c r="J509" s="20"/>
-      <c r="K509" s="26"/>
+      <c r="J509" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="K509" s="42">
+        <v>3.0</v>
+      </c>
       <c r="L509" s="22"/>
       <c r="M509" s="23"/>
       <c r="O509" s="8"/>
@@ -14937,7 +15079,9 @@
       <c r="F510" s="23"/>
       <c r="H510" s="8"/>
       <c r="I510" s="19"/>
-      <c r="J510" s="20"/>
+      <c r="J510" s="35" t="s">
+        <v>22</v>
+      </c>
       <c r="K510" s="26"/>
       <c r="L510" s="22"/>
       <c r="M510" s="23"/>
@@ -14957,7 +15101,9 @@
       <c r="F511" s="13"/>
       <c r="H511" s="8"/>
       <c r="I511" s="19"/>
-      <c r="J511" s="20"/>
+      <c r="J511" s="35" t="s">
+        <v>67</v>
+      </c>
       <c r="K511" s="26"/>
       <c r="L511" s="22"/>
       <c r="M511" s="23"/>
@@ -14977,7 +15123,9 @@
       <c r="F512" s="13"/>
       <c r="H512" s="8"/>
       <c r="I512" s="19"/>
-      <c r="J512" s="20"/>
+      <c r="J512" s="35" t="s">
+        <v>233</v>
+      </c>
       <c r="K512" s="26"/>
       <c r="L512" s="22"/>
       <c r="M512" s="23"/>
@@ -14997,8 +15145,12 @@
       <c r="F513" s="13"/>
       <c r="H513" s="8"/>
       <c r="I513" s="19"/>
-      <c r="J513" s="20"/>
-      <c r="K513" s="26"/>
+      <c r="J513" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K513" s="42">
+        <v>2.0</v>
+      </c>
       <c r="L513" s="22"/>
       <c r="M513" s="23"/>
       <c r="O513" s="8"/>
@@ -15017,7 +15169,9 @@
       <c r="F514" s="13"/>
       <c r="H514" s="8"/>
       <c r="I514" s="19"/>
-      <c r="J514" s="20"/>
+      <c r="J514" s="35" t="s">
+        <v>281</v>
+      </c>
       <c r="K514" s="26"/>
       <c r="L514" s="22"/>
       <c r="M514" s="23"/>
@@ -15037,8 +15191,12 @@
       <c r="F515" s="13"/>
       <c r="H515" s="8"/>
       <c r="I515" s="19"/>
-      <c r="J515" s="20"/>
-      <c r="K515" s="26"/>
+      <c r="J515" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="K515" s="42">
+        <v>1.0</v>
+      </c>
       <c r="L515" s="22"/>
       <c r="M515" s="23"/>
       <c r="O515" s="8"/>

--- a/assets/All Classes.xlsx
+++ b/assets/All Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\GitHub\Datz-master\Datz-master\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D74646-879C-4D12-A2FD-59681EB97E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CB8E5F-8BB3-40ED-B688-B285B73B89B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="290">
   <si>
     <t>ClassNames</t>
   </si>
@@ -446,9 +446,6 @@
   </si>
   <si>
     <t>BioHum</t>
-  </si>
-  <si>
-    <t>ConProf</t>
   </si>
   <si>
     <t>SciMéd</t>
@@ -899,7 +896,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -918,6 +915,16 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1019,7 +1026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1048,6 +1055,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1367,9 +1376,9 @@
   </sheetPr>
   <dimension ref="A1:X1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q317" sqref="Q317"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S142" sqref="S142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5403,8 +5412,8 @@
       <c r="M140" s="19"/>
       <c r="O140" s="8"/>
       <c r="P140" s="9"/>
-      <c r="Q140" s="10" t="s">
-        <v>142</v>
+      <c r="Q140" s="24" t="s">
+        <v>218</v>
       </c>
       <c r="R140" s="11"/>
       <c r="S140" s="12"/>
@@ -5429,10 +5438,10 @@
       <c r="M141" s="19"/>
       <c r="O141" s="8"/>
       <c r="P141" s="9"/>
-      <c r="Q141" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="R141" s="20"/>
+      <c r="Q141" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="R141" s="11"/>
       <c r="S141" s="12"/>
       <c r="T141" s="13"/>
     </row>
@@ -5445,7 +5454,7 @@
       <c r="F142" s="13"/>
       <c r="H142" s="8"/>
       <c r="I142" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J142" s="16" t="s">
         <v>22</v>
@@ -5458,7 +5467,7 @@
       <c r="O142" s="8"/>
       <c r="P142" s="9"/>
       <c r="Q142" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="R142" s="20"/>
       <c r="S142" s="12"/>
@@ -5467,7 +5476,7 @@
     <row r="143" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="B143" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C143" s="10" t="s">
         <v>62</v>
@@ -5488,7 +5497,7 @@
       <c r="O143" s="8"/>
       <c r="P143" s="9"/>
       <c r="Q143" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R143" s="20"/>
       <c r="S143" s="12"/>
@@ -5516,7 +5525,7 @@
       <c r="O144" s="8"/>
       <c r="P144" s="9"/>
       <c r="Q144" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R144" s="20"/>
       <c r="S144" s="12"/>
@@ -5542,11 +5551,9 @@
       <c r="O145" s="8"/>
       <c r="P145" s="9"/>
       <c r="Q145" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="R145" s="17">
-        <v>3</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="R145" s="20"/>
       <c r="S145" s="12"/>
       <c r="T145" s="13"/>
     </row>
@@ -5572,9 +5579,11 @@
       <c r="O146" s="8"/>
       <c r="P146" s="9"/>
       <c r="Q146" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="R146" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="R146" s="17">
+        <v>3</v>
+      </c>
       <c r="S146" s="12"/>
       <c r="T146" s="13"/>
     </row>
@@ -5598,7 +5607,7 @@
       <c r="O147" s="8"/>
       <c r="P147" s="9"/>
       <c r="Q147" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R147" s="20"/>
       <c r="S147" s="12"/>
@@ -5624,11 +5633,9 @@
       <c r="O148" s="8"/>
       <c r="P148" s="9"/>
       <c r="Q148" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="R148" s="17">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="R148" s="20"/>
       <c r="S148" s="12"/>
       <c r="T148" s="13"/>
     </row>
@@ -5651,8 +5658,12 @@
       <c r="M149" s="19"/>
       <c r="O149" s="8"/>
       <c r="P149" s="9"/>
-      <c r="Q149" s="10"/>
-      <c r="R149" s="11"/>
+      <c r="Q149" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R149" s="17">
+        <v>1</v>
+      </c>
       <c r="S149" s="12"/>
       <c r="T149" s="13"/>
     </row>
@@ -5676,15 +5687,9 @@
       <c r="L150" s="18"/>
       <c r="M150" s="19"/>
       <c r="O150" s="8"/>
-      <c r="P150" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q150" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="R150" s="11">
-        <v>4</v>
-      </c>
+      <c r="P150" s="9"/>
+      <c r="Q150" s="10"/>
+      <c r="R150" s="11"/>
       <c r="S150" s="12"/>
       <c r="T150" s="13"/>
     </row>
@@ -5708,11 +5713,15 @@
       <c r="L151" s="18"/>
       <c r="M151" s="19"/>
       <c r="O151" s="8"/>
-      <c r="P151" s="9"/>
+      <c r="P151" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="Q151" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="R151" s="11"/>
+        <v>141</v>
+      </c>
+      <c r="R151" s="11">
+        <v>4</v>
+      </c>
       <c r="S151" s="12"/>
       <c r="T151" s="13"/>
     </row>
@@ -5736,7 +5745,7 @@
       <c r="O152" s="8"/>
       <c r="P152" s="9"/>
       <c r="Q152" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="R152" s="11"/>
       <c r="S152" s="12"/>
@@ -5764,7 +5773,7 @@
       <c r="O153" s="8"/>
       <c r="P153" s="9"/>
       <c r="Q153" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R153" s="11"/>
       <c r="S153" s="12"/>
@@ -5792,7 +5801,7 @@
       <c r="O154" s="8"/>
       <c r="P154" s="9"/>
       <c r="Q154" s="10" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="R154" s="11"/>
       <c r="S154" s="12"/>
@@ -5816,18 +5825,16 @@
       <c r="O155" s="8"/>
       <c r="P155" s="9"/>
       <c r="Q155" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R155" s="11">
-        <v>3</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="R155" s="11"/>
       <c r="S155" s="12"/>
       <c r="T155" s="13"/>
     </row>
     <row r="156" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="8"/>
       <c r="B156" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C156" s="10" t="s">
         <v>62</v>
@@ -5846,9 +5853,11 @@
       <c r="O156" s="8"/>
       <c r="P156" s="9"/>
       <c r="Q156" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R156" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="R156" s="11">
+        <v>3</v>
+      </c>
       <c r="S156" s="12"/>
       <c r="T156" s="13"/>
     </row>
@@ -5865,7 +5874,7 @@
       <c r="F157" s="13"/>
       <c r="H157" s="8"/>
       <c r="I157" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J157" s="16" t="s">
         <v>18</v>
@@ -5878,7 +5887,7 @@
       <c r="O157" s="8"/>
       <c r="P157" s="9"/>
       <c r="Q157" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R157" s="11"/>
       <c r="S157" s="12"/>
@@ -5904,7 +5913,7 @@
       <c r="O158" s="8"/>
       <c r="P158" s="9"/>
       <c r="Q158" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R158" s="11"/>
       <c r="S158" s="12"/>
@@ -5929,12 +5938,10 @@
       <c r="M159" s="19"/>
       <c r="O159" s="8"/>
       <c r="P159" s="9"/>
-      <c r="Q159" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="R159" s="17">
-        <v>2</v>
-      </c>
+      <c r="Q159" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R159" s="11"/>
       <c r="S159" s="12"/>
       <c r="T159" s="13"/>
     </row>
@@ -5958,9 +5965,11 @@
       <c r="O160" s="8"/>
       <c r="P160" s="9"/>
       <c r="Q160" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="R160" s="20"/>
+        <v>153</v>
+      </c>
+      <c r="R160" s="17">
+        <v>2</v>
+      </c>
       <c r="S160" s="12"/>
       <c r="T160" s="13"/>
     </row>
@@ -5986,11 +5995,9 @@
       <c r="O161" s="8"/>
       <c r="P161" s="9"/>
       <c r="Q161" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="R161" s="17">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="R161" s="20"/>
       <c r="S161" s="12"/>
       <c r="T161" s="13"/>
     </row>
@@ -6013,8 +6020,12 @@
       <c r="M162" s="19"/>
       <c r="O162" s="8"/>
       <c r="P162" s="9"/>
-      <c r="Q162" s="10"/>
-      <c r="R162" s="11"/>
+      <c r="Q162" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R162" s="17">
+        <v>1</v>
+      </c>
       <c r="S162" s="12"/>
       <c r="T162" s="13"/>
     </row>
@@ -6036,21 +6047,11 @@
       <c r="L163" s="18"/>
       <c r="M163" s="19"/>
       <c r="O163" s="8"/>
-      <c r="P163" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q163" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="R163" s="17">
-        <v>4</v>
-      </c>
-      <c r="S163" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="T163" s="21">
-        <v>1</v>
-      </c>
+      <c r="P163" s="9"/>
+      <c r="Q163" s="10"/>
+      <c r="R163" s="11"/>
+      <c r="S163" s="12"/>
+      <c r="T163" s="13"/>
     </row>
     <row r="164" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="8"/>
@@ -6072,11 +6073,17 @@
       <c r="L164" s="18"/>
       <c r="M164" s="19"/>
       <c r="O164" s="8"/>
-      <c r="P164" s="15"/>
-      <c r="Q164" s="16"/>
-      <c r="R164" s="20"/>
+      <c r="P164" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q164" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="R164" s="17">
+        <v>4</v>
+      </c>
       <c r="S164" s="18" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="T164" s="21">
         <v>1</v>
@@ -6101,15 +6108,13 @@
       <c r="M165" s="19"/>
       <c r="O165" s="8"/>
       <c r="P165" s="15"/>
-      <c r="Q165" s="16" t="s">
-        <v>158</v>
-      </c>
+      <c r="Q165" s="16"/>
       <c r="R165" s="20"/>
       <c r="S165" s="18" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="T165" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
@@ -6131,13 +6136,15 @@
       <c r="M166" s="19"/>
       <c r="O166" s="8"/>
       <c r="P166" s="15"/>
-      <c r="Q166" s="16"/>
+      <c r="Q166" s="16" t="s">
+        <v>157</v>
+      </c>
       <c r="R166" s="20"/>
       <c r="S166" s="18" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="T166" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
@@ -6166,10 +6173,10 @@
       <c r="Q167" s="16"/>
       <c r="R167" s="20"/>
       <c r="S167" s="18" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="T167" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
@@ -6187,12 +6194,10 @@
       <c r="M168" s="19"/>
       <c r="O168" s="8"/>
       <c r="P168" s="15"/>
-      <c r="Q168" s="16" t="s">
-        <v>160</v>
-      </c>
+      <c r="Q168" s="16"/>
       <c r="R168" s="20"/>
       <c r="S168" s="18" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="T168" s="21">
         <v>1</v>
@@ -6201,7 +6206,7 @@
     <row r="169" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="8"/>
       <c r="B169" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C169" s="10" t="s">
         <v>39</v>
@@ -6213,7 +6218,7 @@
       <c r="F169" s="13"/>
       <c r="H169" s="8"/>
       <c r="I169" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J169" s="16" t="s">
         <v>26</v>
@@ -6225,10 +6230,12 @@
       <c r="M169" s="19"/>
       <c r="O169" s="8"/>
       <c r="P169" s="15"/>
-      <c r="Q169" s="16"/>
+      <c r="Q169" s="16" t="s">
+        <v>159</v>
+      </c>
       <c r="R169" s="20"/>
       <c r="S169" s="18" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="T169" s="21">
         <v>1</v>
@@ -6258,7 +6265,7 @@
       <c r="Q170" s="16"/>
       <c r="R170" s="20"/>
       <c r="S170" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T170" s="21">
         <v>1</v>
@@ -6283,15 +6290,13 @@
       <c r="M171" s="19"/>
       <c r="O171" s="8"/>
       <c r="P171" s="15"/>
-      <c r="Q171" s="16" t="s">
-        <v>165</v>
-      </c>
+      <c r="Q171" s="16"/>
       <c r="R171" s="20"/>
       <c r="S171" s="18" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="T171" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
@@ -6313,13 +6318,15 @@
       <c r="M172" s="19"/>
       <c r="O172" s="8"/>
       <c r="P172" s="15"/>
-      <c r="Q172" s="16"/>
+      <c r="Q172" s="16" t="s">
+        <v>164</v>
+      </c>
       <c r="R172" s="20"/>
       <c r="S172" s="18" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="T172" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
@@ -6341,12 +6348,14 @@
       <c r="M173" s="19"/>
       <c r="O173" s="8"/>
       <c r="P173" s="15"/>
-      <c r="Q173" s="16" t="s">
-        <v>143</v>
-      </c>
+      <c r="Q173" s="16"/>
       <c r="R173" s="20"/>
-      <c r="S173" s="18"/>
-      <c r="T173" s="19"/>
+      <c r="S173" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="T173" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="174" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="8"/>
@@ -6362,7 +6371,7 @@
       <c r="H174" s="8"/>
       <c r="I174" s="15"/>
       <c r="J174" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K174" s="17">
         <v>2</v>
@@ -6372,7 +6381,7 @@
       <c r="O174" s="8"/>
       <c r="P174" s="15"/>
       <c r="Q174" s="16" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="R174" s="20"/>
       <c r="S174" s="18"/>
@@ -6390,14 +6399,16 @@
       <c r="H175" s="8"/>
       <c r="I175" s="15"/>
       <c r="J175" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K175" s="20"/>
       <c r="L175" s="18"/>
       <c r="M175" s="19"/>
       <c r="O175" s="8"/>
       <c r="P175" s="15"/>
-      <c r="Q175" s="16"/>
+      <c r="Q175" s="16" t="s">
+        <v>167</v>
+      </c>
       <c r="R175" s="20"/>
       <c r="S175" s="18"/>
       <c r="T175" s="19"/>
@@ -6414,21 +6425,15 @@
       <c r="H176" s="8"/>
       <c r="I176" s="15"/>
       <c r="J176" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K176" s="20"/>
       <c r="L176" s="18"/>
       <c r="M176" s="19"/>
       <c r="O176" s="8"/>
-      <c r="P176" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q176" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="R176" s="17">
-        <v>4</v>
-      </c>
+      <c r="P176" s="15"/>
+      <c r="Q176" s="16"/>
+      <c r="R176" s="20"/>
       <c r="S176" s="18"/>
       <c r="T176" s="19"/>
     </row>
@@ -6444,17 +6449,21 @@
       <c r="H177" s="8"/>
       <c r="I177" s="15"/>
       <c r="J177" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K177" s="20"/>
       <c r="L177" s="18"/>
       <c r="M177" s="19"/>
       <c r="O177" s="8"/>
-      <c r="P177" s="15"/>
+      <c r="P177" s="15" t="s">
+        <v>148</v>
+      </c>
       <c r="Q177" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="R177" s="20"/>
+        <v>141</v>
+      </c>
+      <c r="R177" s="17">
+        <v>4</v>
+      </c>
       <c r="S177" s="18"/>
       <c r="T177" s="19"/>
     </row>
@@ -6478,7 +6487,7 @@
       <c r="O178" s="8"/>
       <c r="P178" s="15"/>
       <c r="Q178" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="R178" s="20"/>
       <c r="S178" s="18"/>
@@ -6504,7 +6513,7 @@
       <c r="O179" s="8"/>
       <c r="P179" s="15"/>
       <c r="Q179" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R179" s="20"/>
       <c r="S179" s="18"/>
@@ -6536,7 +6545,7 @@
       <c r="O180" s="8"/>
       <c r="P180" s="15"/>
       <c r="Q180" s="16" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="R180" s="20"/>
       <c r="S180" s="18"/>
@@ -6566,11 +6575,9 @@
       <c r="O181" s="8"/>
       <c r="P181" s="15"/>
       <c r="Q181" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="R181" s="17">
-        <v>3</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="R181" s="20"/>
       <c r="S181" s="18"/>
       <c r="T181" s="19"/>
     </row>
@@ -6592,16 +6599,18 @@
       <c r="O182" s="8"/>
       <c r="P182" s="15"/>
       <c r="Q182" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="R182" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="R182" s="17">
+        <v>3</v>
+      </c>
       <c r="S182" s="18"/>
       <c r="T182" s="19"/>
     </row>
     <row r="183" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="8"/>
       <c r="B183" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C183" s="10" t="s">
         <v>39</v>
@@ -6624,7 +6633,7 @@
       <c r="O183" s="8"/>
       <c r="P183" s="15"/>
       <c r="Q183" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R183" s="20"/>
       <c r="S183" s="18"/>
@@ -6650,7 +6659,7 @@
       <c r="O184" s="8"/>
       <c r="P184" s="15"/>
       <c r="Q184" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R184" s="20"/>
       <c r="S184" s="18"/>
@@ -6667,7 +6676,7 @@
       <c r="F185" s="13"/>
       <c r="H185" s="8"/>
       <c r="I185" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J185" s="16" t="s">
         <v>26</v>
@@ -6680,11 +6689,9 @@
       <c r="O185" s="8"/>
       <c r="P185" s="15"/>
       <c r="Q185" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="R185" s="17">
-        <v>2</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="R185" s="20"/>
       <c r="S185" s="18"/>
       <c r="T185" s="19"/>
     </row>
@@ -6708,9 +6715,11 @@
       <c r="O186" s="8"/>
       <c r="P186" s="15"/>
       <c r="Q186" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="R186" s="20"/>
+        <v>153</v>
+      </c>
+      <c r="R186" s="17">
+        <v>2</v>
+      </c>
       <c r="S186" s="18"/>
       <c r="T186" s="19"/>
     </row>
@@ -6734,11 +6743,9 @@
       <c r="O187" s="8"/>
       <c r="P187" s="15"/>
       <c r="Q187" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="R187" s="17">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="R187" s="20"/>
       <c r="S187" s="18"/>
       <c r="T187" s="19"/>
     </row>
@@ -6761,8 +6768,12 @@
       <c r="M188" s="19"/>
       <c r="O188" s="8"/>
       <c r="P188" s="15"/>
-      <c r="Q188" s="16"/>
-      <c r="R188" s="20"/>
+      <c r="Q188" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R188" s="17">
+        <v>1</v>
+      </c>
       <c r="S188" s="18"/>
       <c r="T188" s="19"/>
     </row>
@@ -6786,15 +6797,9 @@
       <c r="L189" s="18"/>
       <c r="M189" s="19"/>
       <c r="O189" s="8"/>
-      <c r="P189" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q189" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="R189" s="17">
-        <v>3</v>
-      </c>
+      <c r="P189" s="15"/>
+      <c r="Q189" s="16"/>
+      <c r="R189" s="20"/>
       <c r="S189" s="18"/>
       <c r="T189" s="19"/>
     </row>
@@ -6810,7 +6815,7 @@
       <c r="H190" s="8"/>
       <c r="I190" s="15"/>
       <c r="J190" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K190" s="17">
         <v>2</v>
@@ -6818,11 +6823,15 @@
       <c r="L190" s="18"/>
       <c r="M190" s="19"/>
       <c r="O190" s="8"/>
-      <c r="P190" s="15"/>
+      <c r="P190" s="15" t="s">
+        <v>173</v>
+      </c>
       <c r="Q190" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="R190" s="20"/>
+        <v>26</v>
+      </c>
+      <c r="R190" s="17">
+        <v>3</v>
+      </c>
       <c r="S190" s="18"/>
       <c r="T190" s="19"/>
     </row>
@@ -6838,7 +6847,7 @@
       <c r="H191" s="8"/>
       <c r="I191" s="15"/>
       <c r="J191" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K191" s="20"/>
       <c r="L191" s="18"/>
@@ -6846,7 +6855,7 @@
       <c r="O191" s="8"/>
       <c r="P191" s="15"/>
       <c r="Q191" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R191" s="20"/>
       <c r="S191" s="18"/>
@@ -6864,7 +6873,7 @@
       <c r="H192" s="8"/>
       <c r="I192" s="15"/>
       <c r="J192" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K192" s="20"/>
       <c r="L192" s="18"/>
@@ -6872,7 +6881,7 @@
       <c r="O192" s="8"/>
       <c r="P192" s="15"/>
       <c r="Q192" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="R192" s="20"/>
       <c r="S192" s="18"/>
@@ -6890,7 +6899,7 @@
       <c r="H193" s="8"/>
       <c r="I193" s="15"/>
       <c r="J193" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K193" s="20"/>
       <c r="L193" s="18"/>
@@ -6898,7 +6907,7 @@
       <c r="O193" s="8"/>
       <c r="P193" s="15"/>
       <c r="Q193" s="16" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="R193" s="20"/>
       <c r="S193" s="18"/>
@@ -6924,7 +6933,7 @@
       <c r="O194" s="8"/>
       <c r="P194" s="15"/>
       <c r="Q194" s="16" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="R194" s="20"/>
       <c r="S194" s="18"/>
@@ -6952,7 +6961,7 @@
       <c r="O195" s="8"/>
       <c r="P195" s="15"/>
       <c r="Q195" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R195" s="20"/>
       <c r="S195" s="18"/>
@@ -6976,7 +6985,7 @@
       <c r="O196" s="8"/>
       <c r="P196" s="15"/>
       <c r="Q196" s="16" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="R196" s="20"/>
       <c r="S196" s="18"/>
@@ -6985,7 +6994,7 @@
     <row r="197" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="8"/>
       <c r="B197" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C197" s="10" t="s">
         <v>38</v>
@@ -7010,11 +7019,9 @@
       <c r="O197" s="8"/>
       <c r="P197" s="15"/>
       <c r="Q197" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="R197" s="17">
-        <v>2</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="R197" s="20"/>
       <c r="S197" s="18"/>
       <c r="T197" s="19"/>
     </row>
@@ -7024,7 +7031,7 @@
       <c r="C198" s="10"/>
       <c r="D198" s="11"/>
       <c r="E198" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F198" s="13">
         <v>1.25</v>
@@ -7042,9 +7049,11 @@
       <c r="O198" s="8"/>
       <c r="P198" s="15"/>
       <c r="Q198" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="R198" s="20"/>
+        <v>34</v>
+      </c>
+      <c r="R198" s="17">
+        <v>2</v>
+      </c>
       <c r="S198" s="18"/>
       <c r="T198" s="19"/>
     </row>
@@ -7054,7 +7063,7 @@
       <c r="C199" s="10"/>
       <c r="D199" s="11"/>
       <c r="E199" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F199" s="13">
         <v>1.25</v>
@@ -7068,11 +7077,9 @@
       <c r="O199" s="8"/>
       <c r="P199" s="15"/>
       <c r="Q199" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="R199" s="17">
-        <v>1</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="R199" s="20"/>
       <c r="S199" s="18"/>
       <c r="T199" s="19"/>
     </row>
@@ -7089,7 +7096,7 @@
       <c r="F200" s="13"/>
       <c r="H200" s="8"/>
       <c r="I200" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J200" s="16" t="s">
         <v>26</v>
@@ -7102,9 +7109,11 @@
       <c r="O200" s="8"/>
       <c r="P200" s="15"/>
       <c r="Q200" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="R200" s="20"/>
+        <v>179</v>
+      </c>
+      <c r="R200" s="17">
+        <v>1</v>
+      </c>
       <c r="S200" s="18"/>
       <c r="T200" s="19"/>
     </row>
@@ -7128,7 +7137,7 @@
       <c r="O201" s="8"/>
       <c r="P201" s="15"/>
       <c r="Q201" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R201" s="20"/>
       <c r="S201" s="18"/>
@@ -7153,10 +7162,12 @@
       <c r="M202" s="19"/>
       <c r="O202" s="8"/>
       <c r="P202" s="15"/>
-      <c r="Q202" s="16"/>
+      <c r="Q202" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="R202" s="20"/>
-      <c r="S202" s="12"/>
-      <c r="T202" s="13"/>
+      <c r="S202" s="18"/>
+      <c r="T202" s="19"/>
     </row>
     <row r="203" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="8"/>
@@ -7176,15 +7187,9 @@
       <c r="L203" s="18"/>
       <c r="M203" s="19"/>
       <c r="O203" s="8"/>
-      <c r="P203" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q203" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R203" s="11">
-        <v>4</v>
-      </c>
+      <c r="P203" s="15"/>
+      <c r="Q203" s="16"/>
+      <c r="R203" s="20"/>
       <c r="S203" s="12"/>
       <c r="T203" s="13"/>
     </row>
@@ -7208,11 +7213,15 @@
       <c r="L204" s="18"/>
       <c r="M204" s="19"/>
       <c r="O204" s="8"/>
-      <c r="P204" s="9"/>
+      <c r="P204" s="9" t="s">
+        <v>181</v>
+      </c>
       <c r="Q204" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="R204" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="R204" s="11">
+        <v>4</v>
+      </c>
       <c r="S204" s="12"/>
       <c r="T204" s="13"/>
     </row>
@@ -7238,7 +7247,7 @@
       <c r="O205" s="8"/>
       <c r="P205" s="9"/>
       <c r="Q205" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R205" s="11"/>
       <c r="S205" s="12"/>
@@ -7264,11 +7273,9 @@
       <c r="O206" s="8"/>
       <c r="P206" s="9"/>
       <c r="Q206" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="R206" s="11">
-        <v>3</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="R206" s="11"/>
       <c r="S206" s="12"/>
       <c r="T206" s="13"/>
     </row>
@@ -7292,9 +7299,11 @@
       <c r="O207" s="8"/>
       <c r="P207" s="9"/>
       <c r="Q207" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R207" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="R207" s="11">
+        <v>3</v>
+      </c>
       <c r="S207" s="12"/>
       <c r="T207" s="13"/>
     </row>
@@ -7310,7 +7319,7 @@
       <c r="H208" s="8"/>
       <c r="I208" s="15"/>
       <c r="J208" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K208" s="20"/>
       <c r="L208" s="18"/>
@@ -7318,7 +7327,7 @@
       <c r="O208" s="8"/>
       <c r="P208" s="9"/>
       <c r="Q208" s="10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R208" s="11"/>
       <c r="S208" s="12"/>
@@ -7344,7 +7353,7 @@
       <c r="O209" s="8"/>
       <c r="P209" s="9"/>
       <c r="Q209" s="10" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="R209" s="11"/>
       <c r="S209" s="12"/>
@@ -7372,7 +7381,7 @@
       <c r="O210" s="8"/>
       <c r="P210" s="9"/>
       <c r="Q210" s="10" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="R210" s="11"/>
       <c r="S210" s="12"/>
@@ -7396,7 +7405,7 @@
       <c r="O211" s="8"/>
       <c r="P211" s="9"/>
       <c r="Q211" s="10" t="s">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="R211" s="11"/>
       <c r="S211" s="12"/>
@@ -7405,7 +7414,7 @@
     <row r="212" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="8"/>
       <c r="B212" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C212" s="10" t="s">
         <v>38</v>
@@ -7432,7 +7441,7 @@
       <c r="O212" s="8"/>
       <c r="P212" s="9"/>
       <c r="Q212" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="R212" s="11"/>
       <c r="S212" s="12"/>
@@ -7444,7 +7453,7 @@
       <c r="C213" s="10"/>
       <c r="D213" s="11"/>
       <c r="E213" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F213" s="13">
         <v>1</v>
@@ -7458,11 +7467,9 @@
       <c r="O213" s="8"/>
       <c r="P213" s="9"/>
       <c r="Q213" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="R213" s="11">
-        <v>2</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="R213" s="11"/>
       <c r="S213" s="12"/>
       <c r="T213" s="13"/>
     </row>
@@ -7472,14 +7479,14 @@
       <c r="C214" s="10"/>
       <c r="D214" s="11"/>
       <c r="E214" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F214" s="13">
         <v>1</v>
       </c>
       <c r="H214" s="8"/>
       <c r="I214" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J214" s="16" t="s">
         <v>62</v>
@@ -7492,10 +7499,10 @@
       <c r="O214" s="8"/>
       <c r="P214" s="9"/>
       <c r="Q214" s="10" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="R214" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S214" s="12"/>
       <c r="T214" s="13"/>
@@ -7523,8 +7530,12 @@
       <c r="M215" s="19"/>
       <c r="O215" s="8"/>
       <c r="P215" s="9"/>
-      <c r="Q215" s="10"/>
-      <c r="R215" s="11"/>
+      <c r="Q215" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="R215" s="11">
+        <v>1</v>
+      </c>
       <c r="S215" s="12"/>
       <c r="T215" s="13"/>
     </row>
@@ -7546,15 +7557,9 @@
       <c r="L216" s="18"/>
       <c r="M216" s="19"/>
       <c r="O216" s="8"/>
-      <c r="P216" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q216" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R216" s="11">
-        <v>4</v>
-      </c>
+      <c r="P216" s="9"/>
+      <c r="Q216" s="10"/>
+      <c r="R216" s="11"/>
       <c r="S216" s="12"/>
       <c r="T216" s="13"/>
     </row>
@@ -7576,11 +7581,15 @@
       <c r="L217" s="18"/>
       <c r="M217" s="19"/>
       <c r="O217" s="8"/>
-      <c r="P217" s="9"/>
+      <c r="P217" s="9" t="s">
+        <v>188</v>
+      </c>
       <c r="Q217" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="R217" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="R217" s="11">
+        <v>4</v>
+      </c>
       <c r="S217" s="12"/>
       <c r="T217" s="13"/>
     </row>
@@ -7604,7 +7613,7 @@
       <c r="O218" s="8"/>
       <c r="P218" s="9"/>
       <c r="Q218" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="R218" s="11"/>
       <c r="S218" s="12"/>
@@ -7630,11 +7639,9 @@
       <c r="O219" s="8"/>
       <c r="P219" s="9"/>
       <c r="Q219" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R219" s="11">
-        <v>3</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="R219" s="11"/>
       <c r="S219" s="12"/>
       <c r="T219" s="13"/>
     </row>
@@ -7660,9 +7667,11 @@
       <c r="O220" s="8"/>
       <c r="P220" s="9"/>
       <c r="Q220" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R220" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="R220" s="11">
+        <v>3</v>
+      </c>
       <c r="S220" s="12"/>
       <c r="T220" s="13"/>
     </row>
@@ -7688,7 +7697,7 @@
       <c r="O221" s="8"/>
       <c r="P221" s="9"/>
       <c r="Q221" s="10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="R221" s="11"/>
       <c r="S221" s="12"/>
@@ -7706,7 +7715,7 @@
       <c r="H222" s="8"/>
       <c r="I222" s="15"/>
       <c r="J222" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K222" s="20"/>
       <c r="L222" s="18"/>
@@ -7714,7 +7723,7 @@
       <c r="O222" s="8"/>
       <c r="P222" s="9"/>
       <c r="Q222" s="10" t="s">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="R222" s="11"/>
       <c r="S222" s="12"/>
@@ -7740,7 +7749,7 @@
       <c r="O223" s="8"/>
       <c r="P223" s="9"/>
       <c r="Q223" s="10" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="R223" s="11"/>
       <c r="S223" s="12"/>
@@ -7772,7 +7781,7 @@
       <c r="O224" s="8"/>
       <c r="P224" s="9"/>
       <c r="Q224" s="10" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="R224" s="11"/>
       <c r="S224" s="12"/>
@@ -7802,11 +7811,9 @@
       <c r="O225" s="8"/>
       <c r="P225" s="9"/>
       <c r="Q225" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="R225" s="11">
-        <v>2</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="R225" s="11"/>
       <c r="S225" s="12"/>
       <c r="T225" s="13"/>
     </row>
@@ -7828,16 +7835,18 @@
       <c r="O226" s="8"/>
       <c r="P226" s="9"/>
       <c r="Q226" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="R226" s="11"/>
+        <v>194</v>
+      </c>
+      <c r="R226" s="11">
+        <v>2</v>
+      </c>
       <c r="S226" s="12"/>
       <c r="T226" s="13"/>
     </row>
     <row r="227" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="8"/>
       <c r="B227" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C227" s="10" t="s">
         <v>40</v>
@@ -7860,7 +7869,7 @@
       <c r="O227" s="8"/>
       <c r="P227" s="9"/>
       <c r="Q227" s="10" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="R227" s="11"/>
       <c r="S227" s="12"/>
@@ -7886,11 +7895,9 @@
       <c r="O228" s="8"/>
       <c r="P228" s="9"/>
       <c r="Q228" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="R228" s="11">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="R228" s="11"/>
       <c r="S228" s="12"/>
       <c r="T228" s="13"/>
     </row>
@@ -7905,7 +7912,7 @@
       <c r="F229" s="13"/>
       <c r="H229" s="8"/>
       <c r="I229" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J229" s="16" t="s">
         <v>62</v>
@@ -7917,8 +7924,12 @@
       <c r="M229" s="19"/>
       <c r="O229" s="8"/>
       <c r="P229" s="9"/>
-      <c r="Q229" s="10"/>
-      <c r="R229" s="11"/>
+      <c r="Q229" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="R229" s="11">
+        <v>1</v>
+      </c>
       <c r="S229" s="12"/>
       <c r="T229" s="13"/>
     </row>
@@ -7940,15 +7951,9 @@
       <c r="L230" s="18"/>
       <c r="M230" s="19"/>
       <c r="O230" s="8"/>
-      <c r="P230" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q230" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="R230" s="17">
-        <v>4</v>
-      </c>
+      <c r="P230" s="9"/>
+      <c r="Q230" s="10"/>
+      <c r="R230" s="11"/>
       <c r="S230" s="12"/>
       <c r="T230" s="13"/>
     </row>
@@ -7972,11 +7977,15 @@
       <c r="L231" s="18"/>
       <c r="M231" s="19"/>
       <c r="O231" s="8"/>
-      <c r="P231" s="15"/>
+      <c r="P231" s="15" t="s">
+        <v>197</v>
+      </c>
       <c r="Q231" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="R231" s="20"/>
+        <v>62</v>
+      </c>
+      <c r="R231" s="17">
+        <v>4</v>
+      </c>
       <c r="S231" s="12"/>
       <c r="T231" s="13"/>
     </row>
@@ -8002,7 +8011,7 @@
       <c r="O232" s="8"/>
       <c r="P232" s="15"/>
       <c r="Q232" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R232" s="20"/>
       <c r="S232" s="12"/>
@@ -8028,7 +8037,7 @@
       <c r="O233" s="8"/>
       <c r="P233" s="15"/>
       <c r="Q233" s="16" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="R233" s="20"/>
       <c r="S233" s="12"/>
@@ -8054,11 +8063,9 @@
       <c r="O234" s="8"/>
       <c r="P234" s="15"/>
       <c r="Q234" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="R234" s="17">
-        <v>3</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="R234" s="20"/>
       <c r="S234" s="12"/>
       <c r="T234" s="13"/>
     </row>
@@ -8082,9 +8089,11 @@
       <c r="O235" s="8"/>
       <c r="P235" s="15"/>
       <c r="Q235" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="R235" s="20"/>
+        <v>22</v>
+      </c>
+      <c r="R235" s="17">
+        <v>3</v>
+      </c>
       <c r="S235" s="12"/>
       <c r="T235" s="13"/>
     </row>
@@ -8110,7 +8119,7 @@
       <c r="O236" s="8"/>
       <c r="P236" s="15"/>
       <c r="Q236" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="R236" s="20"/>
       <c r="S236" s="12"/>
@@ -8128,7 +8137,7 @@
       <c r="H237" s="8"/>
       <c r="I237" s="15"/>
       <c r="J237" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K237" s="20"/>
       <c r="L237" s="18"/>
@@ -8136,9 +8145,9 @@
       <c r="O237" s="8"/>
       <c r="P237" s="15"/>
       <c r="Q237" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="R237" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="R237" s="20"/>
       <c r="S237" s="12"/>
       <c r="T237" s="13"/>
     </row>
@@ -8162,12 +8171,10 @@
       <c r="O238" s="8"/>
       <c r="P238" s="15"/>
       <c r="Q238" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="R238" s="17">
-        <v>2</v>
-      </c>
-      <c r="S238" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="R238" s="17"/>
+      <c r="S238" s="12"/>
       <c r="T238" s="13"/>
     </row>
     <row r="239" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
@@ -8192,9 +8199,11 @@
       <c r="O239" s="8"/>
       <c r="P239" s="15"/>
       <c r="Q239" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="R239" s="20"/>
+        <v>126</v>
+      </c>
+      <c r="R239" s="17">
+        <v>2</v>
+      </c>
       <c r="S239" s="18"/>
       <c r="T239" s="13"/>
     </row>
@@ -8216,18 +8225,16 @@
       <c r="O240" s="8"/>
       <c r="P240" s="15"/>
       <c r="Q240" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="R240" s="17">
-        <v>1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="R240" s="20"/>
       <c r="S240" s="18"/>
       <c r="T240" s="13"/>
     </row>
     <row r="241" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="8"/>
       <c r="B241" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C241" s="10" t="s">
         <v>40</v>
@@ -8249,9 +8256,13 @@
       <c r="M241" s="19"/>
       <c r="O241" s="8"/>
       <c r="P241" s="15"/>
-      <c r="Q241" s="16"/>
-      <c r="R241" s="17"/>
-      <c r="S241" s="12"/>
+      <c r="Q241" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R241" s="17">
+        <v>1</v>
+      </c>
+      <c r="S241" s="18"/>
       <c r="T241" s="13"/>
     </row>
     <row r="242" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
@@ -8272,15 +8283,9 @@
       <c r="L242" s="18"/>
       <c r="M242" s="19"/>
       <c r="O242" s="8"/>
-      <c r="P242" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q242" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="R242" s="17">
-        <v>4</v>
-      </c>
+      <c r="P242" s="15"/>
+      <c r="Q242" s="16"/>
+      <c r="R242" s="17"/>
       <c r="S242" s="12"/>
       <c r="T242" s="13"/>
     </row>
@@ -8295,7 +8300,7 @@
       <c r="F243" s="13"/>
       <c r="H243" s="8"/>
       <c r="I243" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J243" s="16" t="s">
         <v>129</v>
@@ -8306,11 +8311,15 @@
       <c r="L243" s="18"/>
       <c r="M243" s="19"/>
       <c r="O243" s="8"/>
-      <c r="P243" s="15"/>
+      <c r="P243" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="Q243" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="R243" s="20"/>
+        <v>200</v>
+      </c>
+      <c r="R243" s="17">
+        <v>4</v>
+      </c>
       <c r="S243" s="12"/>
       <c r="T243" s="13"/>
     </row>
@@ -8336,11 +8345,9 @@
       <c r="O244" s="8"/>
       <c r="P244" s="15"/>
       <c r="Q244" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="R244" s="17">
-        <v>3</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="R244" s="20"/>
       <c r="S244" s="12"/>
       <c r="T244" s="13"/>
     </row>
@@ -8364,9 +8371,11 @@
       <c r="O245" s="8"/>
       <c r="P245" s="15"/>
       <c r="Q245" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="R245" s="20"/>
+        <v>22</v>
+      </c>
+      <c r="R245" s="17">
+        <v>3</v>
+      </c>
       <c r="S245" s="12"/>
       <c r="T245" s="13"/>
     </row>
@@ -8390,7 +8399,7 @@
       <c r="O246" s="8"/>
       <c r="P246" s="15"/>
       <c r="Q246" s="16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="R246" s="20"/>
       <c r="S246" s="12"/>
@@ -8418,7 +8427,7 @@
       <c r="O247" s="8"/>
       <c r="P247" s="15"/>
       <c r="Q247" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="R247" s="20"/>
       <c r="S247" s="12"/>
@@ -8436,15 +8445,15 @@
       <c r="H248" s="8"/>
       <c r="I248" s="15"/>
       <c r="J248" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K248" s="20"/>
       <c r="L248" s="18"/>
       <c r="M248" s="19"/>
       <c r="O248" s="8"/>
       <c r="P248" s="15"/>
-      <c r="Q248" s="22" t="s">
-        <v>204</v>
+      <c r="Q248" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="R248" s="20"/>
       <c r="S248" s="12"/>
@@ -8469,8 +8478,8 @@
       <c r="M249" s="19"/>
       <c r="O249" s="8"/>
       <c r="P249" s="15"/>
-      <c r="Q249" s="16" t="s">
-        <v>205</v>
+      <c r="Q249" s="22" t="s">
+        <v>203</v>
       </c>
       <c r="R249" s="20"/>
       <c r="S249" s="12"/>
@@ -8488,7 +8497,7 @@
       <c r="H250" s="8"/>
       <c r="I250" s="15"/>
       <c r="J250" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K250" s="20"/>
       <c r="L250" s="18"/>
@@ -8496,11 +8505,9 @@
       <c r="O250" s="8"/>
       <c r="P250" s="15"/>
       <c r="Q250" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="R250" s="17">
-        <v>2</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="R250" s="20"/>
       <c r="S250" s="12"/>
       <c r="T250" s="13"/>
     </row>
@@ -8516,17 +8523,19 @@
       <c r="H251" s="8"/>
       <c r="I251" s="15"/>
       <c r="J251" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K251" s="20"/>
       <c r="L251" s="18"/>
       <c r="M251" s="19"/>
       <c r="O251" s="8"/>
       <c r="P251" s="15"/>
-      <c r="Q251" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="R251" s="20"/>
+      <c r="Q251" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="R251" s="17">
+        <v>2</v>
+      </c>
       <c r="S251" s="12"/>
       <c r="T251" s="13"/>
     </row>
@@ -8542,15 +8551,15 @@
       <c r="H252" s="8"/>
       <c r="I252" s="15"/>
       <c r="J252" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K252" s="20"/>
       <c r="L252" s="18"/>
       <c r="M252" s="19"/>
       <c r="O252" s="8"/>
       <c r="P252" s="15"/>
-      <c r="Q252" s="16" t="s">
-        <v>107</v>
+      <c r="Q252" s="22" t="s">
+        <v>208</v>
       </c>
       <c r="R252" s="20"/>
       <c r="S252" s="12"/>
@@ -8580,7 +8589,7 @@
       <c r="O253" s="8"/>
       <c r="P253" s="15"/>
       <c r="Q253" s="16" t="s">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="R253" s="20"/>
       <c r="S253" s="12"/>
@@ -8604,18 +8613,16 @@
       <c r="O254" s="8"/>
       <c r="P254" s="15"/>
       <c r="Q254" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="R254" s="17">
-        <v>1</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="R254" s="20"/>
       <c r="S254" s="12"/>
       <c r="T254" s="13"/>
     </row>
     <row r="255" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="8"/>
       <c r="B255" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C255" s="10" t="s">
         <v>39</v>
@@ -8628,15 +8635,19 @@
       <c r="H255" s="8"/>
       <c r="I255" s="15"/>
       <c r="J255" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K255" s="20"/>
       <c r="L255" s="18"/>
       <c r="M255" s="19"/>
       <c r="O255" s="8"/>
-      <c r="P255" s="9"/>
-      <c r="Q255" s="10"/>
-      <c r="R255" s="11"/>
+      <c r="P255" s="15"/>
+      <c r="Q255" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R255" s="17">
+        <v>1</v>
+      </c>
       <c r="S255" s="12"/>
       <c r="T255" s="13"/>
     </row>
@@ -8660,21 +8671,11 @@
       <c r="L256" s="18"/>
       <c r="M256" s="19"/>
       <c r="O256" s="8"/>
-      <c r="P256" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q256" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="R256" s="17">
-        <v>3</v>
-      </c>
-      <c r="S256" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="T256" s="21">
-        <v>1</v>
-      </c>
+      <c r="P256" s="9"/>
+      <c r="Q256" s="10"/>
+      <c r="R256" s="11"/>
+      <c r="S256" s="12"/>
+      <c r="T256" s="13"/>
     </row>
     <row r="257" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="8"/>
@@ -8692,14 +8693,20 @@
       <c r="L257" s="18"/>
       <c r="M257" s="19"/>
       <c r="O257" s="8"/>
-      <c r="P257" s="15"/>
-      <c r="Q257" s="16"/>
-      <c r="R257" s="20"/>
+      <c r="P257" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q257" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="R257" s="17">
+        <v>3</v>
+      </c>
       <c r="S257" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="T257" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
@@ -8713,7 +8720,7 @@
       <c r="F258" s="13"/>
       <c r="H258" s="8"/>
       <c r="I258" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J258" s="16" t="s">
         <v>141</v>
@@ -8725,12 +8732,14 @@
       <c r="M258" s="19"/>
       <c r="O258" s="8"/>
       <c r="P258" s="15"/>
-      <c r="Q258" s="10" t="s">
-        <v>218</v>
-      </c>
+      <c r="Q258" s="16"/>
       <c r="R258" s="20"/>
-      <c r="S258" s="18"/>
-      <c r="T258" s="19"/>
+      <c r="S258" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="T258" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="259" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="8"/>
@@ -8744,15 +8753,15 @@
       <c r="H259" s="8"/>
       <c r="I259" s="15"/>
       <c r="J259" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K259" s="20"/>
       <c r="L259" s="18"/>
       <c r="M259" s="19"/>
       <c r="O259" s="8"/>
       <c r="P259" s="15"/>
-      <c r="Q259" s="16" t="s">
-        <v>220</v>
+      <c r="Q259" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="R259" s="20"/>
       <c r="S259" s="18"/>
@@ -8772,7 +8781,7 @@
       <c r="H260" s="8"/>
       <c r="I260" s="15"/>
       <c r="J260" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K260" s="20"/>
       <c r="L260" s="18"/>
@@ -8780,7 +8789,7 @@
       <c r="O260" s="8"/>
       <c r="P260" s="15"/>
       <c r="Q260" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="R260" s="20"/>
       <c r="S260" s="18"/>
@@ -8798,7 +8807,7 @@
       <c r="H261" s="8"/>
       <c r="I261" s="15"/>
       <c r="J261" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K261" s="20"/>
       <c r="L261" s="18"/>
@@ -8806,9 +8815,9 @@
       <c r="O261" s="8"/>
       <c r="P261" s="15"/>
       <c r="Q261" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="R261" s="17"/>
+        <v>221</v>
+      </c>
+      <c r="R261" s="20"/>
       <c r="S261" s="18"/>
       <c r="T261" s="19"/>
     </row>
@@ -8824,7 +8833,7 @@
       <c r="H262" s="8"/>
       <c r="I262" s="15"/>
       <c r="J262" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K262" s="20"/>
       <c r="L262" s="18"/>
@@ -8832,9 +8841,9 @@
       <c r="O262" s="8"/>
       <c r="P262" s="15"/>
       <c r="Q262" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="R262" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="R262" s="17"/>
       <c r="S262" s="18"/>
       <c r="T262" s="19"/>
     </row>
@@ -8850,7 +8859,7 @@
       <c r="H263" s="8"/>
       <c r="I263" s="15"/>
       <c r="J263" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K263" s="20"/>
       <c r="L263" s="18"/>
@@ -8858,9 +8867,9 @@
       <c r="O263" s="8"/>
       <c r="P263" s="15"/>
       <c r="Q263" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="R263" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="R263" s="20"/>
       <c r="S263" s="18"/>
       <c r="T263" s="19"/>
     </row>
@@ -8876,7 +8885,7 @@
       <c r="H264" s="8"/>
       <c r="I264" s="15"/>
       <c r="J264" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K264" s="20"/>
       <c r="L264" s="18"/>
@@ -8884,17 +8893,11 @@
       <c r="O264" s="8"/>
       <c r="P264" s="15"/>
       <c r="Q264" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="R264" s="17">
-        <v>2</v>
-      </c>
-      <c r="S264" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="T264" s="21">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="R264" s="17"/>
+      <c r="S264" s="18"/>
+      <c r="T264" s="19"/>
     </row>
     <row r="265" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="8"/>
@@ -8917,10 +8920,14 @@
       <c r="M265" s="19"/>
       <c r="O265" s="8"/>
       <c r="P265" s="15"/>
-      <c r="Q265" s="16"/>
-      <c r="R265" s="20"/>
+      <c r="Q265" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="R265" s="17">
+        <v>2</v>
+      </c>
       <c r="S265" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="T265" s="21">
         <v>1</v>
@@ -8937,20 +8944,22 @@
       <c r="F266" s="13"/>
       <c r="H266" s="8"/>
       <c r="I266" s="15"/>
-      <c r="J266" s="16" t="s">
+      <c r="J266" s="24" t="s">
         <v>22</v>
       </c>
       <c r="K266" s="20"/>
-      <c r="L266" s="18"/>
+      <c r="L266" s="25"/>
       <c r="M266" s="19"/>
       <c r="O266" s="8"/>
-      <c r="P266" s="9"/>
-      <c r="Q266" s="16" t="s">
-        <v>54</v>
-      </c>
+      <c r="P266" s="15"/>
+      <c r="Q266" s="16"/>
       <c r="R266" s="20"/>
-      <c r="S266" s="12"/>
-      <c r="T266" s="13"/>
+      <c r="S266" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="T266" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="267" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="8"/>
@@ -8972,7 +8981,7 @@
       <c r="O267" s="8"/>
       <c r="P267" s="9"/>
       <c r="Q267" s="16" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="R267" s="20"/>
       <c r="S267" s="12"/>
@@ -8992,7 +9001,7 @@
       <c r="H268" s="8"/>
       <c r="I268" s="15"/>
       <c r="J268" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K268" s="20"/>
       <c r="L268" s="18"/>
@@ -9000,7 +9009,7 @@
       <c r="O268" s="8"/>
       <c r="P268" s="9"/>
       <c r="Q268" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R268" s="20"/>
       <c r="S268" s="12"/>
@@ -9026,18 +9035,16 @@
       <c r="O269" s="8"/>
       <c r="P269" s="9"/>
       <c r="Q269" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="R269" s="17">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="R269" s="20"/>
       <c r="S269" s="12"/>
       <c r="T269" s="13"/>
     </row>
     <row r="270" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="8"/>
       <c r="B270" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C270" s="10" t="s">
         <v>39</v>
@@ -9055,8 +9062,12 @@
       <c r="M270" s="19"/>
       <c r="O270" s="8"/>
       <c r="P270" s="9"/>
-      <c r="Q270" s="10"/>
-      <c r="R270" s="11"/>
+      <c r="Q270" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="R270" s="17">
+        <v>1</v>
+      </c>
       <c r="S270" s="12"/>
       <c r="T270" s="13"/>
     </row>
@@ -9073,7 +9084,7 @@
       <c r="F271" s="13"/>
       <c r="H271" s="8"/>
       <c r="I271" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J271" s="16" t="s">
         <v>141</v>
@@ -9084,15 +9095,9 @@
       <c r="L271" s="18"/>
       <c r="M271" s="19"/>
       <c r="O271" s="8"/>
-      <c r="P271" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q271" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="R271" s="20">
-        <v>4</v>
-      </c>
+      <c r="P271" s="9"/>
+      <c r="Q271" s="10"/>
+      <c r="R271" s="11"/>
       <c r="S271" s="12"/>
       <c r="T271" s="13"/>
     </row>
@@ -9108,19 +9113,23 @@
       <c r="H272" s="8"/>
       <c r="I272" s="15"/>
       <c r="J272" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K272" s="20"/>
       <c r="L272" s="18"/>
       <c r="M272" s="19"/>
       <c r="O272" s="8"/>
-      <c r="P272" s="15"/>
+      <c r="P272" s="15" t="s">
+        <v>228</v>
+      </c>
       <c r="Q272" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="R272" s="20"/>
-      <c r="S272" s="18"/>
-      <c r="T272" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="R272" s="20">
+        <v>4</v>
+      </c>
+      <c r="S272" s="12"/>
+      <c r="T272" s="13"/>
     </row>
     <row r="273" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="8"/>
@@ -9134,7 +9143,7 @@
       <c r="H273" s="8"/>
       <c r="I273" s="15"/>
       <c r="J273" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K273" s="20"/>
       <c r="L273" s="18"/>
@@ -9142,7 +9151,7 @@
       <c r="O273" s="8"/>
       <c r="P273" s="15"/>
       <c r="Q273" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R273" s="20"/>
       <c r="S273" s="18"/>
@@ -9160,7 +9169,7 @@
       <c r="H274" s="8"/>
       <c r="I274" s="15"/>
       <c r="J274" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K274" s="20"/>
       <c r="L274" s="18"/>
@@ -9168,13 +9177,11 @@
       <c r="O274" s="8"/>
       <c r="P274" s="15"/>
       <c r="Q274" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="R274" s="20">
-        <v>3</v>
-      </c>
-      <c r="S274" s="12"/>
-      <c r="T274" s="13"/>
+        <v>230</v>
+      </c>
+      <c r="R274" s="20"/>
+      <c r="S274" s="18"/>
+      <c r="T274" s="21"/>
     </row>
     <row r="275" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="8"/>
@@ -9188,7 +9195,7 @@
       <c r="H275" s="8"/>
       <c r="I275" s="15"/>
       <c r="J275" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K275" s="20"/>
       <c r="L275" s="18"/>
@@ -9196,9 +9203,11 @@
       <c r="O275" s="8"/>
       <c r="P275" s="15"/>
       <c r="Q275" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="R275" s="20"/>
+        <v>231</v>
+      </c>
+      <c r="R275" s="20">
+        <v>3</v>
+      </c>
       <c r="S275" s="12"/>
       <c r="T275" s="13"/>
     </row>
@@ -9226,7 +9235,7 @@
       <c r="O276" s="8"/>
       <c r="P276" s="15"/>
       <c r="Q276" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R276" s="20"/>
       <c r="S276" s="12"/>
@@ -9252,7 +9261,7 @@
       <c r="O277" s="8"/>
       <c r="P277" s="15"/>
       <c r="Q277" s="16" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="R277" s="20"/>
       <c r="S277" s="12"/>
@@ -9278,7 +9287,7 @@
       <c r="O278" s="8"/>
       <c r="P278" s="15"/>
       <c r="Q278" s="16" t="s">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="R278" s="20"/>
       <c r="S278" s="12"/>
@@ -9304,7 +9313,7 @@
       <c r="O279" s="8"/>
       <c r="P279" s="15"/>
       <c r="Q279" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R279" s="20"/>
       <c r="S279" s="12"/>
@@ -9322,7 +9331,7 @@
       <c r="H280" s="8"/>
       <c r="I280" s="15"/>
       <c r="J280" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K280" s="20"/>
       <c r="L280" s="18"/>
@@ -9330,11 +9339,9 @@
       <c r="O280" s="8"/>
       <c r="P280" s="15"/>
       <c r="Q280" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="R280" s="17">
-        <v>1</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="R280" s="20"/>
       <c r="S280" s="12"/>
       <c r="T280" s="13"/>
     </row>
@@ -9350,7 +9357,7 @@
       <c r="H281" s="8"/>
       <c r="I281" s="15"/>
       <c r="J281" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K281" s="20">
         <v>2</v>
@@ -9360,9 +9367,9 @@
       <c r="O281" s="8"/>
       <c r="P281" s="15"/>
       <c r="Q281" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="R281" s="20">
+        <v>24</v>
+      </c>
+      <c r="R281" s="17">
         <v>1</v>
       </c>
       <c r="S281" s="12"/>
@@ -9386,9 +9393,13 @@
       <c r="L282" s="18"/>
       <c r="M282" s="19"/>
       <c r="O282" s="8"/>
-      <c r="P282" s="9"/>
-      <c r="Q282" s="10"/>
-      <c r="R282" s="11"/>
+      <c r="P282" s="15"/>
+      <c r="Q282" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R282" s="20">
+        <v>1</v>
+      </c>
       <c r="S282" s="12"/>
       <c r="T282" s="13"/>
     </row>
@@ -9414,15 +9425,9 @@
       <c r="L283" s="18"/>
       <c r="M283" s="19"/>
       <c r="O283" s="8"/>
-      <c r="P283" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q283" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="R283" s="20">
-        <v>4</v>
-      </c>
+      <c r="P283" s="9"/>
+      <c r="Q283" s="10"/>
+      <c r="R283" s="11"/>
       <c r="S283" s="12"/>
       <c r="T283" s="13"/>
     </row>
@@ -9440,18 +9445,22 @@
       <c r="L284" s="18"/>
       <c r="M284" s="19"/>
       <c r="O284" s="8"/>
-      <c r="P284" s="15"/>
+      <c r="P284" s="15" t="s">
+        <v>234</v>
+      </c>
       <c r="Q284" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="R284" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="R284" s="20">
+        <v>4</v>
+      </c>
       <c r="S284" s="12"/>
       <c r="T284" s="13"/>
     </row>
     <row r="285" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="8"/>
       <c r="B285" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C285" s="10" t="s">
         <v>13</v>
@@ -9463,7 +9472,7 @@
       <c r="F285" s="13"/>
       <c r="H285" s="8"/>
       <c r="I285" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J285" s="16" t="s">
         <v>107</v>
@@ -9476,7 +9485,7 @@
       <c r="O285" s="8"/>
       <c r="P285" s="15"/>
       <c r="Q285" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R285" s="20"/>
       <c r="S285" s="12"/>
@@ -9504,11 +9513,9 @@
       <c r="O286" s="8"/>
       <c r="P286" s="15"/>
       <c r="Q286" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="R286" s="20">
-        <v>3</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="R286" s="20"/>
       <c r="S286" s="12"/>
       <c r="T286" s="13"/>
     </row>
@@ -9532,9 +9539,11 @@
       <c r="O287" s="8"/>
       <c r="P287" s="15"/>
       <c r="Q287" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="R287" s="20"/>
+        <v>231</v>
+      </c>
+      <c r="R287" s="20">
+        <v>3</v>
+      </c>
       <c r="S287" s="12"/>
       <c r="T287" s="13"/>
     </row>
@@ -9560,7 +9569,7 @@
       <c r="O288" s="8"/>
       <c r="P288" s="15"/>
       <c r="Q288" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R288" s="20"/>
       <c r="S288" s="12"/>
@@ -9570,7 +9579,7 @@
       <c r="A289" s="8"/>
       <c r="B289" s="9"/>
       <c r="C289" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D289" s="11"/>
       <c r="E289" s="12" t="s">
@@ -9590,7 +9599,7 @@
       <c r="O289" s="8"/>
       <c r="P289" s="15"/>
       <c r="Q289" s="16" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="R289" s="20"/>
       <c r="S289" s="12"/>
@@ -9602,7 +9611,7 @@
       <c r="C290" s="10"/>
       <c r="D290" s="11"/>
       <c r="E290" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F290" s="13">
         <v>1</v>
@@ -9618,7 +9627,7 @@
       <c r="O290" s="8"/>
       <c r="P290" s="15"/>
       <c r="Q290" s="16" t="s">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="R290" s="20"/>
       <c r="S290" s="12"/>
@@ -9648,7 +9657,7 @@
       <c r="O291" s="8"/>
       <c r="P291" s="15"/>
       <c r="Q291" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R291" s="20"/>
       <c r="S291" s="12"/>
@@ -9666,7 +9675,7 @@
       <c r="H292" s="8"/>
       <c r="I292" s="15"/>
       <c r="J292" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K292" s="20"/>
       <c r="L292" s="18"/>
@@ -9674,11 +9683,9 @@
       <c r="O292" s="8"/>
       <c r="P292" s="15"/>
       <c r="Q292" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="R292" s="17">
-        <v>1</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="R292" s="20"/>
       <c r="S292" s="12"/>
       <c r="T292" s="13"/>
     </row>
@@ -9702,9 +9709,9 @@
       <c r="O293" s="8"/>
       <c r="P293" s="15"/>
       <c r="Q293" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="R293" s="20">
+        <v>24</v>
+      </c>
+      <c r="R293" s="17">
         <v>1</v>
       </c>
       <c r="S293" s="12"/>
@@ -9728,9 +9735,13 @@
       <c r="L294" s="18"/>
       <c r="M294" s="19"/>
       <c r="O294" s="8"/>
-      <c r="P294" s="9"/>
-      <c r="Q294" s="10"/>
-      <c r="R294" s="11"/>
+      <c r="P294" s="15"/>
+      <c r="Q294" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R294" s="20">
+        <v>1</v>
+      </c>
       <c r="S294" s="12"/>
       <c r="T294" s="13"/>
     </row>
@@ -9754,15 +9765,9 @@
       <c r="L295" s="18"/>
       <c r="M295" s="19"/>
       <c r="O295" s="8"/>
-      <c r="P295" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q295" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R295" s="11">
-        <v>4</v>
-      </c>
+      <c r="P295" s="9"/>
+      <c r="Q295" s="10"/>
+      <c r="R295" s="11"/>
       <c r="S295" s="12"/>
       <c r="T295" s="13"/>
     </row>
@@ -9782,18 +9787,22 @@
       <c r="L296" s="18"/>
       <c r="M296" s="19"/>
       <c r="O296" s="8"/>
-      <c r="P296" s="9"/>
+      <c r="P296" s="9" t="s">
+        <v>282</v>
+      </c>
       <c r="Q296" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R296" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="R296" s="11">
+        <v>4</v>
+      </c>
       <c r="S296" s="12"/>
       <c r="T296" s="13"/>
     </row>
     <row r="297" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="8"/>
       <c r="B297" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C297" s="10" t="s">
         <v>13</v>
@@ -9816,7 +9825,7 @@
       <c r="O297" s="8"/>
       <c r="P297" s="9"/>
       <c r="Q297" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R297" s="11"/>
       <c r="S297" s="12"/>
@@ -9840,7 +9849,7 @@
       <c r="O298" s="8"/>
       <c r="P298" s="9"/>
       <c r="Q298" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="R298" s="11"/>
       <c r="S298" s="12"/>
@@ -9857,7 +9866,7 @@
       <c r="F299" s="13"/>
       <c r="H299" s="8"/>
       <c r="I299" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J299" s="16" t="s">
         <v>107</v>
@@ -9870,11 +9879,9 @@
       <c r="O299" s="8"/>
       <c r="P299" s="9"/>
       <c r="Q299" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="R299" s="11">
-        <v>3</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="R299" s="11"/>
       <c r="S299" s="12"/>
       <c r="T299" s="13"/>
     </row>
@@ -9902,10 +9909,10 @@
       <c r="O300" s="8"/>
       <c r="P300" s="9"/>
       <c r="Q300" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="R300" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S300" s="12"/>
       <c r="T300" s="13"/>
@@ -9930,9 +9937,11 @@
       <c r="O301" s="8"/>
       <c r="P301" s="9"/>
       <c r="Q301" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="R301" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="R301" s="11">
+        <v>2</v>
+      </c>
       <c r="S301" s="12"/>
       <c r="T301" s="13"/>
     </row>
@@ -9940,7 +9949,7 @@
       <c r="A302" s="8"/>
       <c r="B302" s="9"/>
       <c r="C302" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D302" s="11"/>
       <c r="E302" s="12" t="s">
@@ -9960,7 +9969,7 @@
       <c r="O302" s="8"/>
       <c r="P302" s="9"/>
       <c r="Q302" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R302" s="11"/>
       <c r="S302" s="12"/>
@@ -9972,7 +9981,7 @@
       <c r="C303" s="10"/>
       <c r="D303" s="11"/>
       <c r="E303" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F303" s="13">
         <v>1</v>
@@ -9988,7 +9997,7 @@
       <c r="O303" s="8"/>
       <c r="P303" s="9"/>
       <c r="Q303" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R303" s="11"/>
       <c r="S303" s="12"/>
@@ -10016,11 +10025,9 @@
       <c r="O304" s="8"/>
       <c r="P304" s="9"/>
       <c r="Q304" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="R304" s="11">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="R304" s="11"/>
       <c r="S304" s="12"/>
       <c r="T304" s="13"/>
     </row>
@@ -10045,8 +10052,12 @@
       <c r="M305" s="19"/>
       <c r="O305" s="8"/>
       <c r="P305" s="9"/>
-      <c r="Q305" s="10"/>
-      <c r="R305" s="11"/>
+      <c r="Q305" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="R305" s="11">
+        <v>1</v>
+      </c>
       <c r="S305" s="12"/>
       <c r="T305" s="13"/>
     </row>
@@ -10062,21 +10073,15 @@
       <c r="H306" s="8"/>
       <c r="I306" s="15"/>
       <c r="J306" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K306" s="20"/>
       <c r="L306" s="18"/>
       <c r="M306" s="19"/>
       <c r="O306" s="8"/>
-      <c r="P306" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q306" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R306" s="11">
-        <v>4</v>
-      </c>
+      <c r="P306" s="9"/>
+      <c r="Q306" s="10"/>
+      <c r="R306" s="11"/>
       <c r="S306" s="12"/>
       <c r="T306" s="13"/>
     </row>
@@ -10100,11 +10105,15 @@
       <c r="L307" s="18"/>
       <c r="M307" s="19"/>
       <c r="O307" s="8"/>
-      <c r="P307" s="9"/>
+      <c r="P307" s="9" t="s">
+        <v>289</v>
+      </c>
       <c r="Q307" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R307" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="R307" s="11">
+        <v>4</v>
+      </c>
       <c r="S307" s="12"/>
       <c r="T307" s="13"/>
     </row>
@@ -10132,7 +10141,7 @@
       <c r="O308" s="8"/>
       <c r="P308" s="9"/>
       <c r="Q308" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R308" s="11"/>
       <c r="S308" s="12"/>
@@ -10141,7 +10150,7 @@
     <row r="309" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="8"/>
       <c r="B309" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C309" s="10" t="s">
         <v>46</v>
@@ -10168,7 +10177,7 @@
       <c r="O309" s="8"/>
       <c r="P309" s="9"/>
       <c r="Q309" s="10" t="s">
-        <v>287</v>
+        <v>26</v>
       </c>
       <c r="R309" s="11"/>
       <c r="S309" s="12"/>
@@ -10196,11 +10205,9 @@
       <c r="O310" s="8"/>
       <c r="P310" s="9"/>
       <c r="Q310" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="R310" s="11">
-        <v>3</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="R310" s="11"/>
       <c r="S310" s="12"/>
       <c r="T310" s="13"/>
     </row>
@@ -10228,9 +10235,11 @@
       <c r="O311" s="8"/>
       <c r="P311" s="9"/>
       <c r="Q311" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="R311" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="R311" s="11">
+        <v>3</v>
+      </c>
       <c r="S311" s="12"/>
       <c r="T311" s="13"/>
     </row>
@@ -10252,11 +10261,9 @@
       <c r="O312" s="8"/>
       <c r="P312" s="9"/>
       <c r="Q312" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R312" s="11">
-        <v>2</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="R312" s="11"/>
       <c r="S312" s="12"/>
       <c r="T312" s="13"/>
     </row>
@@ -10271,7 +10278,7 @@
       <c r="F313" s="13"/>
       <c r="H313" s="8"/>
       <c r="I313" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J313" s="16" t="s">
         <v>26</v>
@@ -10284,9 +10291,11 @@
       <c r="O313" s="8"/>
       <c r="P313" s="9"/>
       <c r="Q313" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="R313" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="R313" s="11">
+        <v>2</v>
+      </c>
       <c r="S313" s="12"/>
       <c r="T313" s="13"/>
     </row>
@@ -10310,7 +10319,7 @@
       <c r="O314" s="8"/>
       <c r="P314" s="9"/>
       <c r="Q314" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R314" s="11"/>
       <c r="S314" s="12"/>
@@ -10320,7 +10329,7 @@
       <c r="A315" s="8"/>
       <c r="B315" s="9"/>
       <c r="C315" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D315" s="11"/>
       <c r="E315" s="12" t="s">
@@ -10340,11 +10349,9 @@
       <c r="O315" s="8"/>
       <c r="P315" s="9"/>
       <c r="Q315" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="R315" s="11">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="R315" s="11"/>
       <c r="S315" s="12"/>
       <c r="T315" s="13"/>
     </row>
@@ -10354,7 +10361,7 @@
       <c r="C316" s="10"/>
       <c r="D316" s="11"/>
       <c r="E316" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F316" s="13">
         <v>1</v>
@@ -10369,8 +10376,12 @@
       <c r="M316" s="19"/>
       <c r="O316" s="8"/>
       <c r="P316" s="9"/>
-      <c r="Q316" s="10"/>
-      <c r="R316" s="11"/>
+      <c r="Q316" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="R316" s="11">
+        <v>1</v>
+      </c>
       <c r="S316" s="12"/>
       <c r="T316" s="13"/>
     </row>
@@ -10410,7 +10421,7 @@
       <c r="H318" s="8"/>
       <c r="I318" s="15"/>
       <c r="J318" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K318" s="20"/>
       <c r="L318" s="18"/>
@@ -10436,7 +10447,7 @@
       <c r="H319" s="8"/>
       <c r="I319" s="15"/>
       <c r="J319" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K319" s="20"/>
       <c r="L319" s="18"/>
@@ -10501,7 +10512,7 @@
     <row r="322" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="8"/>
       <c r="B322" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C322" s="10" t="s">
         <v>46</v>
@@ -10544,7 +10555,7 @@
       <c r="H323" s="8"/>
       <c r="I323" s="15"/>
       <c r="J323" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K323" s="20"/>
       <c r="L323" s="18"/>
@@ -10641,10 +10652,10 @@
       <c r="F327" s="13"/>
       <c r="H327" s="8"/>
       <c r="I327" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J327" s="16" t="s">
         <v>245</v>
-      </c>
-      <c r="J327" s="16" t="s">
-        <v>246</v>
       </c>
       <c r="K327" s="17">
         <v>4</v>
@@ -10670,7 +10681,7 @@
       <c r="H328" s="8"/>
       <c r="I328" s="15"/>
       <c r="J328" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K328" s="20"/>
       <c r="L328" s="18"/>
@@ -10686,7 +10697,7 @@
       <c r="A329" s="8"/>
       <c r="B329" s="9"/>
       <c r="C329" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D329" s="11"/>
       <c r="E329" s="12" t="s">
@@ -10698,7 +10709,7 @@
       <c r="H329" s="8"/>
       <c r="I329" s="15"/>
       <c r="J329" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K329" s="20"/>
       <c r="L329" s="18"/>
@@ -10716,7 +10727,7 @@
       <c r="C330" s="10"/>
       <c r="D330" s="11"/>
       <c r="E330" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F330" s="13">
         <v>1</v>
@@ -10750,7 +10761,7 @@
       <c r="H331" s="8"/>
       <c r="I331" s="15"/>
       <c r="J331" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K331" s="20"/>
       <c r="L331" s="18"/>
@@ -10863,7 +10874,7 @@
     <row r="336" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="8"/>
       <c r="B336" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C336" s="10" t="s">
         <v>62</v>
@@ -11002,7 +11013,7 @@
       <c r="A341" s="8"/>
       <c r="B341" s="9"/>
       <c r="C341" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D341" s="11"/>
       <c r="E341" s="12" t="s">
@@ -11030,17 +11041,17 @@
       <c r="C342" s="10"/>
       <c r="D342" s="11"/>
       <c r="E342" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F342" s="13">
         <v>1</v>
       </c>
       <c r="H342" s="8"/>
       <c r="I342" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J342" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K342" s="17">
         <v>4</v>
@@ -11066,7 +11077,7 @@
       <c r="H343" s="8"/>
       <c r="I343" s="15"/>
       <c r="J343" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K343" s="20"/>
       <c r="L343" s="18"/>
@@ -11090,7 +11101,7 @@
       <c r="H344" s="8"/>
       <c r="I344" s="15"/>
       <c r="J344" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K344" s="20"/>
       <c r="L344" s="18"/>
@@ -11144,7 +11155,7 @@
       <c r="H346" s="8"/>
       <c r="I346" s="15"/>
       <c r="J346" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K346" s="20"/>
       <c r="L346" s="18"/>
@@ -11181,7 +11192,7 @@
     <row r="348" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="8"/>
       <c r="B348" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C348" s="10" t="s">
         <v>62</v>
@@ -11334,7 +11345,7 @@
       <c r="A354" s="8"/>
       <c r="B354" s="9"/>
       <c r="C354" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D354" s="11"/>
       <c r="E354" s="12" t="s">
@@ -11366,7 +11377,7 @@
       <c r="C355" s="10"/>
       <c r="D355" s="11"/>
       <c r="E355" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F355" s="13">
         <v>1</v>
@@ -11395,7 +11406,7 @@
       <c r="F356" s="13"/>
       <c r="H356" s="8"/>
       <c r="I356" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J356" s="16" t="s">
         <v>24</v>
@@ -11515,7 +11526,7 @@
     <row r="361" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="8"/>
       <c r="B361" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C361" s="10" t="s">
         <v>39</v>
@@ -11578,7 +11589,7 @@
       <c r="H363" s="8"/>
       <c r="I363" s="15"/>
       <c r="J363" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K363" s="20"/>
       <c r="L363" s="18"/>
@@ -11650,7 +11661,7 @@
       <c r="A366" s="8"/>
       <c r="B366" s="9"/>
       <c r="C366" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D366" s="11"/>
       <c r="E366" s="12" t="s">
@@ -11682,7 +11693,7 @@
       <c r="C367" s="10"/>
       <c r="D367" s="11"/>
       <c r="E367" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F367" s="13">
         <v>1</v>
@@ -11763,7 +11774,7 @@
       <c r="F370" s="13"/>
       <c r="H370" s="8"/>
       <c r="I370" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J370" s="16" t="s">
         <v>24</v>
@@ -11857,7 +11868,7 @@
     <row r="374" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="8"/>
       <c r="B374" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C374" s="10" t="s">
         <v>39</v>
@@ -11944,7 +11955,7 @@
       <c r="H377" s="8"/>
       <c r="I377" s="15"/>
       <c r="J377" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K377" s="20"/>
       <c r="L377" s="18"/>
@@ -12010,7 +12021,7 @@
       <c r="A380" s="8"/>
       <c r="B380" s="9"/>
       <c r="C380" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D380" s="11"/>
       <c r="E380" s="12" t="s">
@@ -12040,7 +12051,7 @@
       <c r="C381" s="10"/>
       <c r="D381" s="11"/>
       <c r="E381" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F381" s="13">
         <v>1</v>
@@ -12097,7 +12108,7 @@
       <c r="F383" s="13"/>
       <c r="H383" s="8"/>
       <c r="I383" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J383" s="16" t="s">
         <v>24</v>
@@ -12215,10 +12226,10 @@
     <row r="388" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="8"/>
       <c r="B388" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C388" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="C388" s="10" t="s">
-        <v>259</v>
       </c>
       <c r="D388" s="11">
         <v>4</v>
@@ -12250,7 +12261,7 @@
       <c r="C389" s="10"/>
       <c r="D389" s="11"/>
       <c r="E389" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F389" s="13">
         <v>2</v>
@@ -12258,7 +12269,7 @@
       <c r="H389" s="8"/>
       <c r="I389" s="15"/>
       <c r="J389" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K389" s="20"/>
       <c r="L389" s="18"/>
@@ -12274,13 +12285,13 @@
       <c r="A390" s="8"/>
       <c r="B390" s="9"/>
       <c r="C390" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D390" s="11">
         <v>3</v>
       </c>
       <c r="E390" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F390" s="13">
         <v>1.5</v>
@@ -12306,7 +12317,7 @@
       <c r="C391" s="10"/>
       <c r="D391" s="11"/>
       <c r="E391" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F391" s="13">
         <v>1.5</v>
@@ -12314,7 +12325,7 @@
       <c r="H391" s="8"/>
       <c r="I391" s="15"/>
       <c r="J391" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K391" s="20"/>
       <c r="L391" s="18"/>
@@ -12338,7 +12349,7 @@
       <c r="H392" s="8"/>
       <c r="I392" s="15"/>
       <c r="J392" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K392" s="20"/>
       <c r="L392" s="18"/>
@@ -12406,7 +12417,7 @@
       <c r="A395" s="8"/>
       <c r="B395" s="9"/>
       <c r="C395" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D395" s="11"/>
       <c r="E395" s="12" t="s">
@@ -12434,14 +12445,14 @@
       <c r="C396" s="10"/>
       <c r="D396" s="11"/>
       <c r="E396" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F396" s="13">
         <v>1</v>
       </c>
       <c r="H396" s="8"/>
       <c r="I396" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J396" s="16" t="s">
         <v>24</v>
@@ -12472,7 +12483,7 @@
       <c r="H397" s="8"/>
       <c r="I397" s="15"/>
       <c r="J397" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K397" s="20"/>
       <c r="L397" s="18"/>
@@ -12496,7 +12507,7 @@
       <c r="H398" s="8"/>
       <c r="I398" s="15"/>
       <c r="J398" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K398" s="20"/>
       <c r="L398" s="18"/>
@@ -12596,7 +12607,7 @@
       <c r="H402" s="8"/>
       <c r="I402" s="15"/>
       <c r="J402" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K402" s="20"/>
       <c r="L402" s="18"/>
@@ -12633,10 +12644,10 @@
     <row r="404" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="8"/>
       <c r="B404" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C404" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D404" s="11">
         <v>4</v>
@@ -12650,7 +12661,7 @@
       <c r="H404" s="8"/>
       <c r="I404" s="15"/>
       <c r="J404" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K404" s="20"/>
       <c r="L404" s="18"/>
@@ -12668,7 +12679,7 @@
       <c r="C405" s="10"/>
       <c r="D405" s="11"/>
       <c r="E405" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F405" s="13">
         <v>2</v>
@@ -12676,7 +12687,7 @@
       <c r="H405" s="8"/>
       <c r="I405" s="15"/>
       <c r="J405" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K405" s="17">
         <v>2</v>
@@ -12694,13 +12705,13 @@
       <c r="A406" s="8"/>
       <c r="B406" s="9"/>
       <c r="C406" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D406" s="11">
         <v>3</v>
       </c>
       <c r="E406" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F406" s="13">
         <v>1.5</v>
@@ -12726,7 +12737,7 @@
       <c r="C407" s="10"/>
       <c r="D407" s="11"/>
       <c r="E407" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F407" s="13">
         <v>1.5</v>
@@ -12805,7 +12816,7 @@
       <c r="F410" s="13"/>
       <c r="H410" s="8"/>
       <c r="I410" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J410" s="16" t="s">
         <v>62</v>
@@ -12850,7 +12861,7 @@
       <c r="A412" s="8"/>
       <c r="B412" s="9"/>
       <c r="C412" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D412" s="11"/>
       <c r="E412" s="12" t="s">
@@ -12880,7 +12891,7 @@
       <c r="C413" s="10"/>
       <c r="D413" s="11"/>
       <c r="E413" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F413" s="13">
         <v>1</v>
@@ -13085,7 +13096,7 @@
     <row r="421" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="8"/>
       <c r="B421" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C421" s="10" t="s">
         <v>95</v>
@@ -13171,7 +13182,7 @@
       <c r="F424" s="13"/>
       <c r="H424" s="8"/>
       <c r="I424" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J424" s="16" t="s">
         <v>62</v>
@@ -13216,7 +13227,7 @@
       <c r="A426" s="8"/>
       <c r="B426" s="9"/>
       <c r="C426" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D426" s="11"/>
       <c r="E426" s="12" t="s">
@@ -13246,7 +13257,7 @@
       <c r="C427" s="10"/>
       <c r="D427" s="11"/>
       <c r="E427" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F427" s="13">
         <v>1</v>
@@ -13406,7 +13417,7 @@
       <c r="H433" s="8"/>
       <c r="I433" s="15"/>
       <c r="J433" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K433" s="20"/>
       <c r="L433" s="18"/>
@@ -13443,7 +13454,7 @@
     <row r="435" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="8"/>
       <c r="B435" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C435" s="10" t="s">
         <v>95</v>
@@ -13505,7 +13516,7 @@
       <c r="F437" s="13"/>
       <c r="H437" s="8"/>
       <c r="I437" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J437" s="16" t="s">
         <v>62</v>
@@ -13598,7 +13609,7 @@
       <c r="A441" s="8"/>
       <c r="B441" s="9"/>
       <c r="C441" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D441" s="11"/>
       <c r="E441" s="12" t="s">
@@ -13630,7 +13641,7 @@
       <c r="C442" s="10"/>
       <c r="D442" s="11"/>
       <c r="E442" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F442" s="13">
         <v>1</v>
@@ -13712,7 +13723,7 @@
       <c r="H445" s="8"/>
       <c r="I445" s="15"/>
       <c r="J445" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K445" s="17">
         <v>2</v>
@@ -13825,7 +13836,7 @@
     <row r="450" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="8"/>
       <c r="B450" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C450" s="10" t="s">
         <v>39</v>
@@ -13837,10 +13848,10 @@
       <c r="F450" s="13"/>
       <c r="H450" s="8"/>
       <c r="I450" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J450" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K450" s="17">
         <v>4</v>
@@ -13934,7 +13945,7 @@
       <c r="A454" s="8"/>
       <c r="B454" s="9"/>
       <c r="C454" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D454" s="11"/>
       <c r="E454" s="12" t="s">
@@ -13964,7 +13975,7 @@
       <c r="C455" s="10"/>
       <c r="D455" s="11"/>
       <c r="E455" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F455" s="13">
         <v>1</v>
@@ -13972,7 +13983,7 @@
       <c r="H455" s="8"/>
       <c r="I455" s="15"/>
       <c r="J455" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K455" s="20"/>
       <c r="L455" s="18"/>
@@ -13998,7 +14009,7 @@
       <c r="H456" s="8"/>
       <c r="I456" s="15"/>
       <c r="J456" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K456" s="20"/>
       <c r="L456" s="18"/>
@@ -14022,7 +14033,7 @@
       <c r="H457" s="8"/>
       <c r="I457" s="15"/>
       <c r="J457" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K457" s="20"/>
       <c r="L457" s="18"/>
@@ -14046,7 +14057,7 @@
       <c r="H458" s="8"/>
       <c r="I458" s="15"/>
       <c r="J458" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K458" s="17">
         <v>2</v>
@@ -14215,7 +14226,7 @@
     <row r="465" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="8"/>
       <c r="B465" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C465" s="16" t="s">
         <v>39</v>
@@ -14227,10 +14238,10 @@
       <c r="F465" s="19"/>
       <c r="H465" s="8"/>
       <c r="I465" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J465" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K465" s="17">
         <v>4</v>
@@ -14348,7 +14359,7 @@
       <c r="A470" s="8"/>
       <c r="B470" s="15"/>
       <c r="C470" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D470" s="20"/>
       <c r="E470" s="18" t="s">
@@ -14360,7 +14371,7 @@
       <c r="H470" s="8"/>
       <c r="I470" s="15"/>
       <c r="J470" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K470" s="20"/>
       <c r="L470" s="18"/>
@@ -14378,7 +14389,7 @@
       <c r="C471" s="16"/>
       <c r="D471" s="20"/>
       <c r="E471" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F471" s="21">
         <v>1</v>
@@ -14386,7 +14397,7 @@
       <c r="H471" s="8"/>
       <c r="I471" s="15"/>
       <c r="J471" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K471" s="20"/>
       <c r="L471" s="18"/>
@@ -14412,7 +14423,7 @@
       <c r="H472" s="8"/>
       <c r="I472" s="15"/>
       <c r="J472" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K472" s="20"/>
       <c r="L472" s="18"/>
@@ -14436,7 +14447,7 @@
       <c r="H473" s="8"/>
       <c r="I473" s="15"/>
       <c r="J473" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K473" s="17">
         <v>2</v>
@@ -14486,7 +14497,7 @@
       <c r="H475" s="8"/>
       <c r="I475" s="15"/>
       <c r="J475" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K475" s="20"/>
       <c r="L475" s="18"/>
@@ -14583,10 +14594,10 @@
       <c r="F479" s="19"/>
       <c r="H479" s="8"/>
       <c r="I479" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J479" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K479" s="17">
         <v>4</v>
@@ -14610,7 +14621,7 @@
       <c r="H480" s="8"/>
       <c r="I480" s="15"/>
       <c r="J480" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K480" s="20"/>
       <c r="L480" s="18"/>
@@ -14625,7 +14636,7 @@
     <row r="481" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="8"/>
       <c r="B481" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C481" s="10" t="s">
         <v>24</v>
@@ -14728,7 +14739,7 @@
       <c r="A485" s="8"/>
       <c r="B485" s="9"/>
       <c r="C485" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D485" s="17">
         <v>3</v>
@@ -14738,7 +14749,7 @@
       <c r="H485" s="8"/>
       <c r="I485" s="15"/>
       <c r="J485" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K485" s="20"/>
       <c r="L485" s="18"/>
@@ -14764,7 +14775,7 @@
       <c r="H486" s="8"/>
       <c r="I486" s="15"/>
       <c r="J486" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K486" s="20"/>
       <c r="L486" s="18"/>
@@ -14788,7 +14799,7 @@
       <c r="H487" s="8"/>
       <c r="I487" s="15"/>
       <c r="J487" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K487" s="17">
         <v>2</v>
@@ -14814,7 +14825,7 @@
       <c r="H488" s="8"/>
       <c r="I488" s="15"/>
       <c r="J488" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K488" s="20"/>
       <c r="L488" s="18"/>
@@ -14854,7 +14865,7 @@
       <c r="A490" s="8"/>
       <c r="B490" s="9"/>
       <c r="C490" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D490" s="11"/>
       <c r="E490" s="12"/>
@@ -14862,7 +14873,7 @@
       <c r="H490" s="8"/>
       <c r="I490" s="15"/>
       <c r="J490" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K490" s="20"/>
       <c r="L490" s="18"/>
@@ -14878,11 +14889,11 @@
       <c r="A491" s="8"/>
       <c r="B491" s="9"/>
       <c r="C491" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D491" s="11"/>
       <c r="E491" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F491" s="13">
         <v>1</v>
@@ -14910,7 +14921,7 @@
       <c r="C492" s="10"/>
       <c r="D492" s="11"/>
       <c r="E492" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F492" s="13">
         <v>1</v>
@@ -14932,14 +14943,14 @@
       <c r="A493" s="8"/>
       <c r="B493" s="9"/>
       <c r="C493" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D493" s="20"/>
       <c r="E493" s="12"/>
       <c r="F493" s="13"/>
       <c r="H493" s="8"/>
       <c r="I493" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J493" s="16" t="s">
         <v>26</v>
@@ -14970,7 +14981,7 @@
       <c r="H494" s="8"/>
       <c r="I494" s="15"/>
       <c r="J494" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K494" s="20"/>
       <c r="L494" s="18"/>
@@ -14994,7 +15005,7 @@
       <c r="H495" s="8"/>
       <c r="I495" s="15"/>
       <c r="J495" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K495" s="20"/>
       <c r="L495" s="18"/>
@@ -15016,7 +15027,7 @@
       <c r="H496" s="8"/>
       <c r="I496" s="15"/>
       <c r="J496" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K496" s="20"/>
       <c r="L496" s="18"/>
@@ -15031,7 +15042,7 @@
     <row r="497" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="8"/>
       <c r="B497" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C497" s="16" t="s">
         <v>24</v>
@@ -15118,7 +15129,7 @@
       <c r="H500" s="8"/>
       <c r="I500" s="15"/>
       <c r="J500" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K500" s="20"/>
       <c r="L500" s="18"/>
@@ -15134,7 +15145,7 @@
       <c r="A501" s="8"/>
       <c r="B501" s="15"/>
       <c r="C501" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D501" s="20"/>
       <c r="E501" s="18"/>
@@ -15160,7 +15171,7 @@
       <c r="A502" s="8"/>
       <c r="B502" s="15"/>
       <c r="C502" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D502" s="20"/>
       <c r="E502" s="18"/>
@@ -15168,7 +15179,7 @@
       <c r="H502" s="8"/>
       <c r="I502" s="15"/>
       <c r="J502" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K502" s="20"/>
       <c r="L502" s="18"/>
@@ -15184,7 +15195,7 @@
       <c r="A503" s="8"/>
       <c r="B503" s="15"/>
       <c r="C503" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D503" s="11"/>
       <c r="E503" s="12"/>
@@ -15210,13 +15221,13 @@
       <c r="A504" s="8"/>
       <c r="B504" s="15"/>
       <c r="C504" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D504" s="17">
         <v>2</v>
       </c>
       <c r="E504" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F504" s="21">
         <v>1</v>
@@ -15240,14 +15251,14 @@
       <c r="C505" s="16"/>
       <c r="D505" s="20"/>
       <c r="E505" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F505" s="21">
         <v>1</v>
       </c>
       <c r="H505" s="8"/>
       <c r="I505" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J505" s="16" t="s">
         <v>18</v>
@@ -15268,7 +15279,7 @@
       <c r="A506" s="8"/>
       <c r="B506" s="15"/>
       <c r="C506" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D506" s="20"/>
       <c r="E506" s="18"/>
@@ -15276,7 +15287,7 @@
       <c r="H506" s="8"/>
       <c r="I506" s="15"/>
       <c r="J506" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K506" s="20"/>
       <c r="L506" s="18"/>
@@ -15300,7 +15311,7 @@
       <c r="H507" s="8"/>
       <c r="I507" s="15"/>
       <c r="J507" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K507" s="20"/>
       <c r="L507" s="18"/>
@@ -15324,7 +15335,7 @@
       <c r="H508" s="8"/>
       <c r="I508" s="15"/>
       <c r="J508" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K508" s="20"/>
       <c r="L508" s="18"/>
@@ -15389,7 +15400,7 @@
     <row r="511" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="8"/>
       <c r="B511" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C511" s="10" t="s">
         <v>13</v>
@@ -15426,7 +15437,7 @@
       <c r="H512" s="8"/>
       <c r="I512" s="15"/>
       <c r="J512" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K512" s="20"/>
       <c r="L512" s="18"/>
@@ -15478,7 +15489,7 @@
       <c r="H514" s="8"/>
       <c r="I514" s="15"/>
       <c r="J514" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K514" s="20"/>
       <c r="L514" s="18"/>
@@ -15494,7 +15505,7 @@
       <c r="A515" s="8"/>
       <c r="B515" s="9"/>
       <c r="C515" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D515" s="11"/>
       <c r="E515" s="12" t="s">
@@ -15526,7 +15537,7 @@
       <c r="C516" s="10"/>
       <c r="D516" s="11"/>
       <c r="E516" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F516" s="13">
         <v>1</v>
@@ -15616,7 +15627,7 @@
       <c r="A520" s="8"/>
       <c r="B520" s="9"/>
       <c r="C520" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D520" s="11"/>
       <c r="E520" s="12"/>
@@ -15703,7 +15714,7 @@
     <row r="524" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="8"/>
       <c r="B524" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C524" s="10" t="s">
         <v>13</v>
@@ -15798,7 +15809,7 @@
       <c r="A528" s="8"/>
       <c r="B528" s="9"/>
       <c r="C528" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D528" s="11"/>
       <c r="E528" s="12"/>
@@ -15820,7 +15831,7 @@
       <c r="A529" s="8"/>
       <c r="B529" s="9"/>
       <c r="C529" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D529" s="11"/>
       <c r="E529" s="12" t="s">
@@ -15848,7 +15859,7 @@
       <c r="C530" s="10"/>
       <c r="D530" s="11"/>
       <c r="E530" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F530" s="13">
         <v>1</v>
@@ -15938,7 +15949,7 @@
       <c r="A534" s="8"/>
       <c r="B534" s="9"/>
       <c r="C534" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D534" s="11"/>
       <c r="E534" s="12"/>
@@ -16003,7 +16014,7 @@
     <row r="537" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="8"/>
       <c r="B537" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C537" s="10" t="s">
         <v>13</v>
@@ -16074,7 +16085,7 @@
       <c r="A540" s="8"/>
       <c r="B540" s="9"/>
       <c r="C540" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D540" s="11">
         <v>3</v>
@@ -16120,7 +16131,7 @@
       <c r="A542" s="8"/>
       <c r="B542" s="9"/>
       <c r="C542" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D542" s="11"/>
       <c r="E542" s="12" t="s">
@@ -16148,7 +16159,7 @@
       <c r="C543" s="10"/>
       <c r="D543" s="11"/>
       <c r="E543" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F543" s="13">
         <v>1</v>
@@ -16238,7 +16249,7 @@
       <c r="A547" s="8"/>
       <c r="B547" s="9"/>
       <c r="C547" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D547" s="11"/>
       <c r="E547" s="12"/>
@@ -25721,10 +25732,12 @@
       <c r="T1020" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="X2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="X3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/assets/All Classes.xlsx
+++ b/assets/All Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\GitHub\Datz-master\Datz-master\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CB8E5F-8BB3-40ED-B688-B285B73B89B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F8AD73-3A55-4E2B-A22F-486FCE8FA5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="297">
   <si>
     <t>ClassNames</t>
   </si>
@@ -890,6 +890,27 @@
   </si>
   <si>
     <t>1CLA-MAT</t>
+  </si>
+  <si>
+    <t>2GA3D</t>
+  </si>
+  <si>
+    <t>Francais</t>
+  </si>
+  <si>
+    <t>Développment durable</t>
+  </si>
+  <si>
+    <t>Questions philosophiques</t>
+  </si>
+  <si>
+    <t>ConMo</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>1GA3D</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1057,6 +1078,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1377,8 +1399,8 @@
   <dimension ref="A1:X1020"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S142" sqref="S142"/>
+      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R322" sqref="R322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10427,9 +10449,15 @@
       <c r="L318" s="18"/>
       <c r="M318" s="19"/>
       <c r="O318" s="8"/>
-      <c r="P318" s="9"/>
-      <c r="Q318" s="10"/>
-      <c r="R318" s="11"/>
+      <c r="P318" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q318" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="R318" s="20">
+        <v>4</v>
+      </c>
       <c r="S318" s="12"/>
       <c r="T318" s="13"/>
     </row>
@@ -10453,9 +10481,11 @@
       <c r="L319" s="18"/>
       <c r="M319" s="19"/>
       <c r="O319" s="8"/>
-      <c r="P319" s="9"/>
-      <c r="Q319" s="10"/>
-      <c r="R319" s="11"/>
+      <c r="P319" s="15"/>
+      <c r="Q319" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="R319" s="20"/>
       <c r="S319" s="12"/>
       <c r="T319" s="13"/>
     </row>
@@ -10479,9 +10509,11 @@
       <c r="L320" s="18"/>
       <c r="M320" s="19"/>
       <c r="O320" s="8"/>
-      <c r="P320" s="9"/>
-      <c r="Q320" s="10"/>
-      <c r="R320" s="11"/>
+      <c r="P320" s="15"/>
+      <c r="Q320" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="R320" s="20"/>
       <c r="S320" s="12"/>
       <c r="T320" s="13"/>
     </row>
@@ -10503,9 +10535,13 @@
       <c r="L321" s="18"/>
       <c r="M321" s="19"/>
       <c r="O321" s="8"/>
-      <c r="P321" s="9"/>
-      <c r="Q321" s="10"/>
-      <c r="R321" s="11"/>
+      <c r="P321" s="15"/>
+      <c r="Q321" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="R321" s="20">
+        <v>3</v>
+      </c>
       <c r="S321" s="12"/>
       <c r="T321" s="13"/>
     </row>
@@ -10535,9 +10571,11 @@
       <c r="L322" s="18"/>
       <c r="M322" s="19"/>
       <c r="O322" s="8"/>
-      <c r="P322" s="9"/>
-      <c r="Q322" s="10"/>
-      <c r="R322" s="11"/>
+      <c r="P322" s="15"/>
+      <c r="Q322" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="R322" s="20"/>
       <c r="S322" s="12"/>
       <c r="T322" s="13"/>
     </row>
@@ -10561,9 +10599,11 @@
       <c r="L323" s="18"/>
       <c r="M323" s="19"/>
       <c r="O323" s="8"/>
-      <c r="P323" s="9"/>
-      <c r="Q323" s="10"/>
-      <c r="R323" s="11"/>
+      <c r="P323" s="15"/>
+      <c r="Q323" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="R323" s="20"/>
       <c r="S323" s="12"/>
       <c r="T323" s="13"/>
     </row>
@@ -10589,9 +10629,11 @@
       <c r="L324" s="18"/>
       <c r="M324" s="19"/>
       <c r="O324" s="8"/>
-      <c r="P324" s="9"/>
-      <c r="Q324" s="10"/>
-      <c r="R324" s="11"/>
+      <c r="P324" s="15"/>
+      <c r="Q324" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="R324" s="20"/>
       <c r="S324" s="12"/>
       <c r="T324" s="13"/>
     </row>
@@ -10613,9 +10655,11 @@
       <c r="L325" s="18"/>
       <c r="M325" s="19"/>
       <c r="O325" s="8"/>
-      <c r="P325" s="9"/>
-      <c r="Q325" s="10"/>
-      <c r="R325" s="11"/>
+      <c r="P325" s="15"/>
+      <c r="Q325" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="R325" s="20"/>
       <c r="S325" s="12"/>
       <c r="T325" s="13"/>
     </row>
@@ -10635,9 +10679,11 @@
       <c r="L326" s="18"/>
       <c r="M326" s="19"/>
       <c r="O326" s="8"/>
-      <c r="P326" s="9"/>
-      <c r="Q326" s="10"/>
-      <c r="R326" s="11"/>
+      <c r="P326" s="15"/>
+      <c r="Q326" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="R326" s="20"/>
       <c r="S326" s="12"/>
       <c r="T326" s="13"/>
     </row>
@@ -10663,9 +10709,13 @@
       <c r="L327" s="18"/>
       <c r="M327" s="19"/>
       <c r="O327" s="8"/>
-      <c r="P327" s="9"/>
-      <c r="Q327" s="10"/>
-      <c r="R327" s="11"/>
+      <c r="P327" s="15"/>
+      <c r="Q327" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="R327" s="20">
+        <v>2</v>
+      </c>
       <c r="S327" s="12"/>
       <c r="T327" s="13"/>
     </row>
@@ -10687,9 +10737,11 @@
       <c r="L328" s="18"/>
       <c r="M328" s="19"/>
       <c r="O328" s="8"/>
-      <c r="P328" s="9"/>
-      <c r="Q328" s="10"/>
-      <c r="R328" s="11"/>
+      <c r="P328" s="15"/>
+      <c r="Q328" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="R328" s="20"/>
       <c r="S328" s="12"/>
       <c r="T328" s="13"/>
     </row>
@@ -10715,9 +10767,11 @@
       <c r="L329" s="18"/>
       <c r="M329" s="19"/>
       <c r="O329" s="8"/>
-      <c r="P329" s="9"/>
-      <c r="Q329" s="10"/>
-      <c r="R329" s="11"/>
+      <c r="P329" s="15"/>
+      <c r="Q329" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="R329" s="20"/>
       <c r="S329" s="12"/>
       <c r="T329" s="13"/>
     </row>
@@ -10743,9 +10797,11 @@
       <c r="L330" s="18"/>
       <c r="M330" s="19"/>
       <c r="O330" s="8"/>
-      <c r="P330" s="9"/>
-      <c r="Q330" s="10"/>
-      <c r="R330" s="11"/>
+      <c r="P330" s="15"/>
+      <c r="Q330" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="R330" s="20"/>
       <c r="S330" s="12"/>
       <c r="T330" s="13"/>
     </row>
@@ -10767,9 +10823,13 @@
       <c r="L331" s="18"/>
       <c r="M331" s="19"/>
       <c r="O331" s="8"/>
-      <c r="P331" s="9"/>
-      <c r="Q331" s="10"/>
-      <c r="R331" s="11"/>
+      <c r="P331" s="15"/>
+      <c r="Q331" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="R331" s="20">
+        <v>1</v>
+      </c>
       <c r="S331" s="12"/>
       <c r="T331" s="13"/>
     </row>
@@ -15567,9 +15627,15 @@
       <c r="E517" s="12"/>
       <c r="F517" s="13"/>
       <c r="H517" s="8"/>
-      <c r="I517" s="15"/>
-      <c r="J517" s="16"/>
-      <c r="K517" s="20"/>
+      <c r="I517" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="J517" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="K517" s="20">
+        <v>4</v>
+      </c>
       <c r="L517" s="18"/>
       <c r="M517" s="19"/>
       <c r="O517" s="8"/>
@@ -15590,7 +15656,9 @@
       <c r="F518" s="13"/>
       <c r="H518" s="8"/>
       <c r="I518" s="15"/>
-      <c r="J518" s="16"/>
+      <c r="J518" s="24" t="s">
+        <v>295</v>
+      </c>
       <c r="K518" s="20"/>
       <c r="L518" s="18"/>
       <c r="M518" s="19"/>
@@ -15612,7 +15680,9 @@
       <c r="F519" s="13"/>
       <c r="H519" s="8"/>
       <c r="I519" s="15"/>
-      <c r="J519" s="16"/>
+      <c r="J519" s="24" t="s">
+        <v>247</v>
+      </c>
       <c r="K519" s="20"/>
       <c r="L519" s="18"/>
       <c r="M519" s="19"/>
@@ -15634,8 +15704,12 @@
       <c r="F520" s="13"/>
       <c r="H520" s="8"/>
       <c r="I520" s="15"/>
-      <c r="J520" s="16"/>
-      <c r="K520" s="20"/>
+      <c r="J520" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K520" s="20">
+        <v>3</v>
+      </c>
       <c r="L520" s="18"/>
       <c r="M520" s="19"/>
       <c r="O520" s="8"/>
@@ -15656,7 +15730,9 @@
       <c r="F521" s="13"/>
       <c r="H521" s="8"/>
       <c r="I521" s="15"/>
-      <c r="J521" s="16"/>
+      <c r="J521" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="K521" s="20"/>
       <c r="L521" s="18"/>
       <c r="M521" s="19"/>
@@ -15680,7 +15756,9 @@
       <c r="F522" s="13"/>
       <c r="H522" s="8"/>
       <c r="I522" s="15"/>
-      <c r="J522" s="16"/>
+      <c r="J522" s="24" t="s">
+        <v>291</v>
+      </c>
       <c r="K522" s="20"/>
       <c r="L522" s="18"/>
       <c r="M522" s="19"/>
@@ -15700,7 +15778,9 @@
       <c r="F523" s="13"/>
       <c r="H523" s="8"/>
       <c r="I523" s="15"/>
-      <c r="J523" s="16"/>
+      <c r="J523" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="K523" s="20"/>
       <c r="L523" s="18"/>
       <c r="M523" s="19"/>
@@ -15726,7 +15806,9 @@
       <c r="F524" s="13"/>
       <c r="H524" s="8"/>
       <c r="I524" s="15"/>
-      <c r="J524" s="16"/>
+      <c r="J524" s="24" t="s">
+        <v>55</v>
+      </c>
       <c r="K524" s="20"/>
       <c r="L524" s="18"/>
       <c r="M524" s="19"/>
@@ -15748,7 +15830,9 @@
       <c r="F525" s="13"/>
       <c r="H525" s="8"/>
       <c r="I525" s="15"/>
-      <c r="J525" s="16"/>
+      <c r="J525" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="K525" s="20"/>
       <c r="L525" s="18"/>
       <c r="M525" s="19"/>
@@ -15770,8 +15854,12 @@
       <c r="F526" s="13"/>
       <c r="H526" s="8"/>
       <c r="I526" s="15"/>
-      <c r="J526" s="16"/>
-      <c r="K526" s="20"/>
+      <c r="J526" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="K526" s="20">
+        <v>2</v>
+      </c>
       <c r="L526" s="18"/>
       <c r="M526" s="19"/>
       <c r="O526" s="8"/>
@@ -15794,7 +15882,9 @@
       <c r="F527" s="13"/>
       <c r="H527" s="8"/>
       <c r="I527" s="15"/>
-      <c r="J527" s="16"/>
+      <c r="J527" s="24" t="s">
+        <v>293</v>
+      </c>
       <c r="K527" s="20"/>
       <c r="L527" s="18"/>
       <c r="M527" s="19"/>
@@ -15816,7 +15906,9 @@
       <c r="F528" s="13"/>
       <c r="H528" s="8"/>
       <c r="I528" s="15"/>
-      <c r="J528" s="16"/>
+      <c r="J528" s="24" t="s">
+        <v>294</v>
+      </c>
       <c r="K528" s="20"/>
       <c r="L528" s="18"/>
       <c r="M528" s="19"/>
@@ -15842,7 +15934,9 @@
       </c>
       <c r="H529" s="8"/>
       <c r="I529" s="15"/>
-      <c r="J529" s="16"/>
+      <c r="J529" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="K529" s="20"/>
       <c r="L529" s="18"/>
       <c r="M529" s="19"/>
@@ -15866,8 +15960,12 @@
       </c>
       <c r="H530" s="8"/>
       <c r="I530" s="15"/>
-      <c r="J530" s="16"/>
-      <c r="K530" s="20"/>
+      <c r="J530" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K530" s="20">
+        <v>1</v>
+      </c>
       <c r="L530" s="18"/>
       <c r="M530" s="19"/>
       <c r="O530" s="8"/>
